--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526DB77E-EAEC-4F62-B8E0-ADDBE71ECB50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7BE58F-8AD7-4378-99C3-9C91B7EA25F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
   <sheets>
     <sheet name="street grid network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
   <si>
     <t>routing type</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>slowdown threshold</t>
+  </si>
+  <si>
+    <t>average speed</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> time with no congestion of a vehicle.</a:t>
+              <a:t> time with no congestion of a vehicle, for the 10% worst cases.</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1054,67 +1057,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$G$2:$G$10</c:f>
+              <c:f>'berlin network'!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.751000510703699</c:v>
+                  <c:v>204.937922528499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.922044875778397</c:v>
+                  <c:v>535.69172233566098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117.469655090456</c:v>
+                  <c:v>975.92463750999104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178.918132206156</c:v>
+                  <c:v>1508.68373858922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169.31584712628799</c:v>
+                  <c:v>1893.7312361152699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>216.19220230223601</c:v>
+                  <c:v>2495.4802435870201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.157376395749</c:v>
+                  <c:v>3369.2701046506199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>308.76384426571002</c:v>
+                  <c:v>4225.8732134807497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>327.09715938116602</c:v>
+                  <c:v>5866.1712262041301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,7 +1125,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E7C-4480-9872-9C1A05C41F7B}"/>
+              <c16:uniqueId val="{00000000-1A2E-43E8-8782-C92F909AA00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1171,67 +1174,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$G$13:$G$21</c:f>
+              <c:f>'berlin network'!$H$13:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.202704200915399</c:v>
+                  <c:v>196.752135536156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.3801429904405</c:v>
+                  <c:v>169.20864257364701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.171907139832399</c:v>
+                  <c:v>292.00091532654898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.631079859284398</c:v>
+                  <c:v>616.78409353414395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.848489735058493</c:v>
+                  <c:v>855.53269781324002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.645987107087</c:v>
+                  <c:v>1092.33264450668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116.890919778041</c:v>
+                  <c:v>1556.35796255167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160.65063130098</c:v>
+                  <c:v>1757.56132821965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184.82527212624399</c:v>
+                  <c:v>2250.0896669799399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,7 +1242,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E7C-4480-9872-9C1A05C41F7B}"/>
+              <c16:uniqueId val="{00000001-1A2E-43E8-8782-C92F909AA00C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1313,31 +1316,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>1500</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1500</c:v>
+                        <c:v>2250</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2000</c:v>
+                        <c:v>3000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2500</c:v>
+                        <c:v>3750</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3000</c:v>
+                        <c:v>4500</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3500</c:v>
+                        <c:v>5250</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>4000</c:v>
+                        <c:v>6000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4500</c:v>
+                        <c:v>6750</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>5000</c:v>
+                        <c:v>7500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1347,20 +1350,47 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$G$24:$G$32</c15:sqref>
+                          <c15:sqref>'street grid network'!$H$24:$H$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.000</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1.2913714551931701</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9660019612698401</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>23.02243614356</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>236.525233375662</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>440.42055182938401</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>463.23922395254698</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>666.48009199754097</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>646.54395272835598</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>650.29040402958594</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-2E7C-4480-9872-9C1A05C41F7B}"/>
+                    <c16:uniqueId val="{00000002-1A2E-43E8-8782-C92F909AA00C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1372,8 +1402,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="7500"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1720,790 +1750,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>average % difference between actual time and optimal</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> time with no congestion of a vehicle, for the 10% worst cases.</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dijkstra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$H$2:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>378.81203797461399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>687.07624536317905</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1137.5743803534699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>900.37174381562897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1188.0350538463399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1365.71582511937</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1705.77301409498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1666.9964298175901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A2E-43E8-8782-C92F909AA00C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$B$13:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$H$13:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>180.61484220167199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.09613568205901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>220.85816271070399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>435.459382303258</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>582.30779082692402</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>732.23825372888496</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>676.96289479253903</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>839.71919637434996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>906.67859687307805</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A2E-43E8-8782-C92F909AA00C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="966847616"/>
-        <c:axId val="899501584"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$24</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Future Fastest</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$B$24:$B$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3500</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4500</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'street grid network'!$H$24:$H$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.000</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1.2913714551931701</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2.9660019612698401</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>23.02243614356</c:v>
-                      </c:pt>
-                      <c:pt idx="3" formatCode="General">
-                        <c:v>236.525233375662</c:v>
-                      </c:pt>
-                      <c:pt idx="4" formatCode="General">
-                        <c:v>440.42055182938401</c:v>
-                      </c:pt>
-                      <c:pt idx="5" formatCode="General">
-                        <c:v>463.23922395254698</c:v>
-                      </c:pt>
-                      <c:pt idx="6" formatCode="General">
-                        <c:v>666.48009199754097</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="General">
-                        <c:v>646.54395272835598</c:v>
-                      </c:pt>
-                      <c:pt idx="8" formatCode="General">
-                        <c:v>650.29040402958594</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-1A2E-43E8-8782-C92F909AA00C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="966847616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Vehicles</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="899501584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="899501584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> % difference between actual time taken and time taken by the fastest route if there was no congestion</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="966847616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
               <a:t>average % difference between actual time and dijkstra time</a:t>
             </a:r>
             <a:r>
@@ -2594,31 +1840,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,31 +1957,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,31 +1993,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>28.6082860734052</c:v>
+                  <c:v>31.069943358246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.458068981139501</c:v>
+                  <c:v>26.191372743167999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.057898473483199</c:v>
+                  <c:v>29.916556287419901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.233807451799802</c:v>
+                  <c:v>19.897448679529699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.081949066924299</c:v>
+                  <c:v>13.7798084077446</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.7135546253323</c:v>
+                  <c:v>23.498403001224599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.6813230659005</c:v>
+                  <c:v>9.0717478001332399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6384393346511104</c:v>
+                  <c:v>13.077630225627299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0717479057663102</c:v>
+                  <c:v>13.861347491595099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,31 +2099,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>1500</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1500</c:v>
+                        <c:v>2250</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2000</c:v>
+                        <c:v>3000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2500</c:v>
+                        <c:v>3750</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3000</c:v>
+                        <c:v>4500</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3500</c:v>
+                        <c:v>5250</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>4000</c:v>
+                        <c:v>6000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4500</c:v>
+                        <c:v>6750</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>5000</c:v>
+                        <c:v>7500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2912,8 +2158,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="7500"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3226,7 +2472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3361,31 +2607,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3478,31 +2724,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,31 +2760,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>176.896743779362</c:v>
+                  <c:v>189.33227601077101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162.29072855488499</c:v>
+                  <c:v>158.589720314049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184.07271024139899</c:v>
+                  <c:v>226.47340960723599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.869506927717</c:v>
+                  <c:v>189.35585946501101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162.828134677783</c:v>
+                  <c:v>166.72133089005101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155.39633055987599</c:v>
+                  <c:v>228.895085591791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.303375436322</c:v>
+                  <c:v>166.53738271770001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143.37724120283099</c:v>
+                  <c:v>198.75630845798699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124.998512662766</c:v>
+                  <c:v>182.51323034729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3620,31 +2866,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>1500</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1500</c:v>
+                        <c:v>2250</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2000</c:v>
+                        <c:v>3000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2500</c:v>
+                        <c:v>3750</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3000</c:v>
+                        <c:v>4500</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3500</c:v>
+                        <c:v>5250</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>4000</c:v>
+                        <c:v>6000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4500</c:v>
+                        <c:v>6750</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>5000</c:v>
+                        <c:v>7500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3679,8 +2925,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="7500"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3992,7 +3238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4152,31 +3398,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.76625000000001</c:v>
+                  <c:v>141.77125000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.5675</c:v>
+                  <c:v>217.60557432432401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>247.16013745704399</c:v>
+                  <c:v>247.364928909952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>259.27407407407401</c:v>
+                  <c:v>258.65311152187297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>268.35005393743199</c:v>
+                  <c:v>265.24741707449698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>288.85168650793599</c:v>
+                  <c:v>290.78705108750597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>299.07170356111601</c:v>
+                  <c:v>293.58727810650799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>317.719889247808</c:v>
+                  <c:v>313.095966620306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>326.47658785350001</c:v>
+                  <c:v>325.47882736156299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4269,31 +3515,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.76625000000001</c:v>
+                  <c:v>141.77125000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.705833333333</c:v>
+                  <c:v>217.65709459459401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>247.62927496579999</c:v>
+                  <c:v>249.05192178017501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243.834012813046</c:v>
+                  <c:v>263.699939503932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260.43123667377398</c:v>
+                  <c:v>270.23444206008497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>278.34397677793902</c:v>
+                  <c:v>291.10560560560498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>285.72731568998103</c:v>
+                  <c:v>296.769868356899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>304.79695431471998</c:v>
+                  <c:v>307.61087669948398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>306.82616568583001</c:v>
+                  <c:v>317.90328467153199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,31 +3632,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.76625000000001</c:v>
+                  <c:v>141.77125000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.0275</c:v>
+                  <c:v>219.53164556962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.15189003436399</c:v>
+                  <c:v>249.15729585006599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238.712790697674</c:v>
+                  <c:v>265.41413551401803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254.191145833333</c:v>
+                  <c:v>272.62473460721799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>275.28467507274399</c:v>
+                  <c:v>291.814556331007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>283.261488970588</c:v>
+                  <c:v>297.71812408402502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>285.71978270710702</c:v>
+                  <c:v>314.352887259395</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>295.10260869565201</c:v>
+                  <c:v>319.58916478555301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4503,31 +3749,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.76625000000001</c:v>
+                  <c:v>141.77125000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.70916666666599</c:v>
+                  <c:v>223.175675675675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>242.59590443686</c:v>
+                  <c:v>243.92617449664399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>253.71436848203899</c:v>
+                  <c:v>261.51244933410499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260.41338783852802</c:v>
+                  <c:v>275.61498166579298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268.46485700436199</c:v>
+                  <c:v>295.39255996084103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275.09017132551799</c:v>
+                  <c:v>302.16955684007701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>279.97684036393701</c:v>
+                  <c:v>310.35317636605902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>286.65355582042099</c:v>
+                  <c:v>312.020319930825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4620,31 +3866,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>139.74250000000001</c:v>
+                  <c:v>140.095</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.315</c:v>
+                  <c:v>220.413006756756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234.26890203813201</c:v>
+                  <c:v>236.867838541666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.74397244546401</c:v>
+                  <c:v>266.83011363636302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240.33530864197499</c:v>
+                  <c:v>257.13601630157899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260.00873161764702</c:v>
+                  <c:v>285.33961375412099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>266.661132396764</c:v>
+                  <c:v>300.79846014492699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>292.00117324990202</c:v>
+                  <c:v>306.13468158347598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>284.95087976539497</c:v>
+                  <c:v>316.31898407232001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4743,31 +3989,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>139.27000000000001</c:v>
+                  <c:v>139.43875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.92083333333301</c:v>
+                  <c:v>201.544620517097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.428289473684</c:v>
+                  <c:v>216.20973044049899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>239.466741196199</c:v>
+                  <c:v>245.139561057962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240.95884977689599</c:v>
+                  <c:v>245.90239043824701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255.23644251626899</c:v>
+                  <c:v>276.51435079726599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>268.38272103350801</c:v>
+                  <c:v>295.961670973298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>282.492499085254</c:v>
+                  <c:v>305.93073213502799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>265.68319358366699</c:v>
+                  <c:v>323.42526837324499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4866,31 +4112,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>138.67250000000001</c:v>
+                  <c:v>138.70375000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175.85166666666601</c:v>
+                  <c:v>179.99916666666601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.921383647798</c:v>
+                  <c:v>195.50950570342201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236.111111111111</c:v>
+                  <c:v>244.63699731903401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>253.004253308128</c:v>
+                  <c:v>271.771495327102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250.634500426985</c:v>
+                  <c:v>276.26510212950802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>243.87751436781599</c:v>
+                  <c:v>289.65319587628801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>249.19953364423699</c:v>
+                  <c:v>300.81802501077999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260.58676654182199</c:v>
+                  <c:v>316.96306592533699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4983,31 +4229,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>137.04875000000001</c:v>
+                  <c:v>137.01875000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164.78083333333299</c:v>
+                  <c:v>164.4425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212.86624605678199</c:v>
+                  <c:v>190.16062500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>241.597236981934</c:v>
+                  <c:v>229.859301719645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>231.67558088557601</c:v>
+                  <c:v>256.03381194997598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>227.81361175560701</c:v>
+                  <c:v>278.172015404364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233.80042090494501</c:v>
+                  <c:v>283.21196094385601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>233.495512820512</c:v>
+                  <c:v>307.67896230239103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>252.73622257891901</c:v>
+                  <c:v>315.77719580983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,31 +4352,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>150.40375</c:v>
+                  <c:v>147.90125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171.26083333333301</c:v>
+                  <c:v>165.895833333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.71</c:v>
+                  <c:v>174.39375000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195.102</c:v>
+                  <c:v>219.35707070706999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206.454393305439</c:v>
+                  <c:v>245.742034046268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.90918958031801</c:v>
+                  <c:v>277.00780944943301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>211.13505025125599</c:v>
+                  <c:v>279.36323690955601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204.07045009784699</c:v>
+                  <c:v>297.08762322015298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.97572435395401</c:v>
+                  <c:v>304.88700173310201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5229,31 +4475,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>185.07124999999999</c:v>
+                  <c:v>170.43125000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178.95333333333301</c:v>
+                  <c:v>171.43666666666601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168.489375</c:v>
+                  <c:v>180.83250000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.52128192288399</c:v>
+                  <c:v>217.440925087983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172.16972477064201</c:v>
+                  <c:v>222.40639861651499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170.64996288047499</c:v>
+                  <c:v>240.361882716049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176.51364682670101</c:v>
+                  <c:v>257.67979761474498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159.72263242375601</c:v>
+                  <c:v>290.93277310924299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.409936164307</c:v>
+                  <c:v>302.84766839378199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5352,31 +4598,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>155.470672389127</c:v>
+                  <c:v>157.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.307286166842</c:v>
+                  <c:v>158.92333333333301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136.912894961571</c:v>
+                  <c:v>170.110625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129.462976813762</c:v>
+                  <c:v>199.301356102461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.57123565158599</c:v>
+                  <c:v>227.20658293633599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.733191035218</c:v>
+                  <c:v>236.81245074861999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122.332326283987</c:v>
+                  <c:v>236.17800859598799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.969669937555</c:v>
+                  <c:v>273.56847188685703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128.17630293159601</c:v>
+                  <c:v>290.216543375924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,6 +4769,7 @@
         <c:axId val="899501584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5726,7 +4973,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5897,28 +5144,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90937500000000004</c:v>
+                  <c:v>0.92312499999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77249999999999996</c:v>
+                  <c:v>0.76624999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72</c:v>
+                  <c:v>0.70607142857142802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65448818897637795</c:v>
+                  <c:v>0.63414634146341398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61197401863880196</c:v>
+                  <c:v>0.61052929521652899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55464129596297196</c:v>
+                  <c:v>0.55272633744855904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,28 +5261,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91374999999999995</c:v>
+                  <c:v>0.926875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85850000000000004</c:v>
+                  <c:v>0.82650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78166666666666595</c:v>
+                  <c:v>0.77666666666666595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73821428571428505</c:v>
+                  <c:v>0.71357142857142797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66187050359712196</c:v>
+                  <c:v>0.64598425196850395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61825962910128296</c:v>
+                  <c:v>0.60084507042253499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57466181061394295</c:v>
+                  <c:v>0.56233966136480196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6131,28 +5378,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90937500000000004</c:v>
+                  <c:v>0.93374999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86</c:v>
+                  <c:v>0.85599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73642857142857099</c:v>
+                  <c:v>0.71642857142857097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68</c:v>
+                  <c:v>0.64452141057934498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.615491780440234</c:v>
+                  <c:v>0.61725601131541696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60130718954248297</c:v>
+                  <c:v>0.568240123140071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6248,28 +5495,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91562500000000002</c:v>
+                  <c:v>0.93125000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86299999999999999</c:v>
+                  <c:v>0.86350000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81541666666666601</c:v>
+                  <c:v>0.79541666666666599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73678571428571404</c:v>
+                  <c:v>0.73278335724533705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69312499999999999</c:v>
+                  <c:v>0.65654648956356698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67166666666666597</c:v>
+                  <c:v>0.63767705382436202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63657056145675195</c:v>
+                  <c:v>0.59322903308540598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6365,28 +5612,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95062500000000005</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.871</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84375</c:v>
+                  <c:v>0.81791666666666596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77714285714285702</c:v>
+                  <c:v>0.75821428571428495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73406249999999995</c:v>
+                  <c:v>0.69194609840175403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71027777777777701</c:v>
+                  <c:v>0.65761177136389304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68200000000000005</c:v>
+                  <c:v>0.59640564826700904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6488,28 +5735,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.99916666666666598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>0.95062500000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89449999999999996</c:v>
+                  <c:v>0.88849999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84041666666666603</c:v>
+                  <c:v>0.836666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82321428571428501</c:v>
+                  <c:v>0.78392857142857097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77406249999999999</c:v>
+                  <c:v>0.72630591179230497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75916666666666599</c:v>
+                  <c:v>0.64453235377225204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68884982420894003</c:v>
+                  <c:v>0.61817253700867703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,25 +5855,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99375000000000002</c:v>
+                  <c:v>0.98624999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88649999999999995</c:v>
+                  <c:v>0.9325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88166666666666604</c:v>
+                  <c:v>0.89166666666666605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83642857142857097</c:v>
+                  <c:v>0.82178571428571401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87</c:v>
+                  <c:v>0.75804939043451003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83388888888888801</c:v>
+                  <c:v>0.65453005927180297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80100000000000005</c:v>
+                  <c:v>0.64267483409903003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6731,25 +5978,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99062499999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94099999999999995</c:v>
+                  <c:v>0.95950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95041666666666602</c:v>
+                  <c:v>0.89958333333333296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92357142857142804</c:v>
+                  <c:v>0.83464285714285702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89093750000000005</c:v>
+                  <c:v>0.76812499999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.69414743950478297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9345</c:v>
+                  <c:v>0.640020629190304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6857,22 +6104,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99583333333333302</c:v>
+                  <c:v>0.95458333333333301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98714285714285699</c:v>
+                  <c:v>0.91464285714285698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.995</c:v>
+                  <c:v>0.85664993726474203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.993611111111111</c:v>
+                  <c:v>0.76701204144497304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95774999999999999</c:v>
+                  <c:v>0.733536740401729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6980,22 +6227,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99850000000000005</c:v>
+                  <c:v>0.99450000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99916666666666598</c:v>
+                  <c:v>0.96375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96214285714285697</c:v>
+                  <c:v>0.92571428571428505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9503125</c:v>
+                  <c:v>0.87067337948395196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86527777777777704</c:v>
+                  <c:v>0.79932829554995799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90075000000000005</c:v>
+                  <c:v>0.74459876543209802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,31 +6341,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.89730423620025601</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90622009569377904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88444108761329299</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89912575655682503</c:v>
+                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88470728793309406</c:v>
+                  <c:v>0.96208333333333296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92406311637080796</c:v>
+                  <c:v>0.90642857142857103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91268382352941102</c:v>
+                  <c:v>0.87250000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92874896437448196</c:v>
+                  <c:v>0.81708004509582799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93668954996186105</c:v>
+                  <c:v>0.75925453152923095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7460,7 +6707,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9186,7 +8433,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10913,7 +10160,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12640,7 +11887,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17512,16 +16759,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-GB" sz="1100"/>
@@ -19151,31 +18395,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19187,31 +18431,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.78749999999999</c:v>
+                  <c:v>174.755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.99165971643001</c:v>
+                  <c:v>249.831666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.82308743169301</c:v>
+                  <c:v>339.90062499999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263.84865196078403</c:v>
+                  <c:v>451.76499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>266.43773584905603</c:v>
+                  <c:v>536.50750000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>286.70004982560999</c:v>
+                  <c:v>657.14392857142798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>293.89708737863998</c:v>
+                  <c:v>798.7215625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.52641334569</c:v>
+                  <c:v>941.29750000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>324.230769230769</c:v>
+                  <c:v>1118.3344999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19268,31 +18512,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19304,31 +18548,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>158.51124999999999</c:v>
+                  <c:v>160.47749999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.868333333333</c:v>
+                  <c:v>161.73583333333301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167.98500000000001</c:v>
+                  <c:v>185.15125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>203.961228600201</c:v>
+                  <c:v>235.42949999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.16981943250201</c:v>
+                  <c:v>308.18875000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>234.11266480223699</c:v>
+                  <c:v>403.29321428571399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236.93080435546099</c:v>
+                  <c:v>487.27968750000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>271.68034993270498</c:v>
+                  <c:v>606.18972222222203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>278.88306731436501</c:v>
+                  <c:v>750.17425000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19410,31 +18654,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>1500</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1500</c:v>
+                        <c:v>2250</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2000</c:v>
+                        <c:v>3000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2500</c:v>
+                        <c:v>3750</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3000</c:v>
+                        <c:v>4500</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3500</c:v>
+                        <c:v>5250</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>4000</c:v>
+                        <c:v>6000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4500</c:v>
+                        <c:v>6750</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>5000</c:v>
+                        <c:v>7500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19469,8 +18713,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="7500"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19826,23 +19070,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Proportion of trips</a:t>
+              <a:t>average % difference between actual time and optimal</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> completed as number of vehicles increases</a:t>
+              <a:t> time with no congestion of a vehicle.</a:t>
             </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16856549037842466"/>
-          <c:y val="2.7491396182561426E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19923,67 +19160,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$F$2:$F$10</c:f>
+              <c:f>'berlin network'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>34.7632833347201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99916666666666598</c:v>
+                  <c:v>94.708207432037796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>185.09365002778901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81599999999999995</c:v>
+                  <c:v>302.39869000929701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77291666666666603</c:v>
+                  <c:v>389.03525220989502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71678571428571403</c:v>
+                  <c:v>522.73796436885004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64617314930991199</c:v>
+                  <c:v>688.47906336819506</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61237230419977295</c:v>
+                  <c:v>856.05754318139498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55795425340529403</c:v>
+                  <c:v>1115.66363643919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19991,7 +19228,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-712A-4BAA-8D50-882BE0C984C3}"/>
+              <c16:uniqueId val="{00000000-2E7C-4480-9872-9C1A05C41F7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20040,67 +19277,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$F$13:$F$21</c:f>
+              <c:f>'berlin network'!$G$13:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>33.633324904692003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>30.570626405716599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>49.7378930311326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99299999999999999</c:v>
+                  <c:v>99.398228858401197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96916666666666595</c:v>
+                  <c:v>157.219836274751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89392857142857096</c:v>
+                  <c:v>223.41400250072999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89359698681732502</c:v>
+                  <c:v>315.84585412361798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83530073074761102</c:v>
+                  <c:v>400.62616588664798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73389355742296902</c:v>
+                  <c:v>534.66655226746695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20108,7 +19345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-712A-4BAA-8D50-882BE0C984C3}"/>
+              <c16:uniqueId val="{00000001-2E7C-4480-9872-9C1A05C41F7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20182,31 +19419,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>1500</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1500</c:v>
+                        <c:v>2250</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2000</c:v>
+                        <c:v>3000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2500</c:v>
+                        <c:v>3750</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3000</c:v>
+                        <c:v>4500</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>3500</c:v>
+                        <c:v>5250</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>4000</c:v>
+                        <c:v>6000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4500</c:v>
+                        <c:v>6750</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>5000</c:v>
+                        <c:v>7500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20216,7 +19453,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$F$24:$F$32</c15:sqref>
+                          <c15:sqref>'berlin network'!$G$24:$G$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -20229,7 +19466,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-712A-4BAA-8D50-882BE0C984C3}"/>
+                    <c16:uniqueId val="{00000002-2E7C-4480-9872-9C1A05C41F7B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -20241,8 +19478,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="7500"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -20360,8 +19597,6 @@
         <c:axId val="899501584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -20400,12 +19635,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Proportion</a:t>
+                  <a:t>average</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of trips completed</a:t>
+                  <a:t> % difference between actual time taken and time taken by the fastest route if there was no congestion</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -20955,46 +20191,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26475,522 +25671,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -31395,13 +30075,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2216</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31423,44 +30103,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>928</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>27765</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156D067F-E6BC-4D14-AB8F-F6204C9B1297}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31498,7 +30140,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31536,7 +30178,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31574,7 +30216,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31612,7 +30254,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32153,8 +30795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AA1FA4-BD06-4B13-A159-BE84A754067C}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33424,8 +32066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4999D6-517F-4343-8429-347E88848D05}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="G33:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33480,26 +32122,27 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <f>1000*1.5</f>
+        <v>1500</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*0.8</f>
+        <f>(B2/1.5)*0.8</f>
         <v>800</v>
       </c>
       <c r="D2">
-        <v>12.938023450586201</v>
+        <v>10.497267603215899</v>
       </c>
       <c r="E2">
-        <v>141.78749999999999</v>
+        <v>174.755</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.751000510703699</v>
+        <v>34.7632833347201</v>
       </c>
       <c r="H2">
-        <v>128.74575003537501</v>
+        <v>204.937922528499</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -33508,7 +32151,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>47.012427000000102</v>
+        <v>55.7610659999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -33516,26 +32159,27 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1500</v>
+        <f>1500*1.5</f>
+        <v>2250</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C10" si="0">B3*0.8</f>
+        <f t="shared" ref="C3:C10" si="0">(B3/1.5)*0.8</f>
         <v>1200</v>
       </c>
       <c r="D3">
-        <v>8.8187626992911792</v>
+        <v>7.5549203130107596</v>
       </c>
       <c r="E3">
-        <v>213.99165971643001</v>
+        <v>249.831666666666</v>
       </c>
       <c r="F3">
-        <v>0.99916666666666598</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>65.922044875778397</v>
+        <v>94.708207432037796</v>
       </c>
       <c r="H3">
-        <v>378.81203797461399</v>
+        <v>535.69172233566098</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -33544,7 +32188,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>39.243791999999999</v>
+        <v>59.153242999999897</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -33552,26 +32196,27 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <f>2000*1.5</f>
+        <v>3000</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="D4">
-        <v>7.3749588916746998</v>
+        <v>5.6270674700877601</v>
       </c>
       <c r="E4">
-        <v>249.82308743169301</v>
+        <v>339.90062499999999</v>
       </c>
       <c r="F4">
-        <v>0.91500000000000004</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>117.469655090456</v>
+        <v>185.09365002778901</v>
       </c>
       <c r="H4">
-        <v>687.07624536317905</v>
+        <v>975.92463750999104</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -33580,7 +32225,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>53.446207999999899</v>
+        <v>71.2599379999983</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -33588,26 +32233,27 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>2500</v>
+        <f>2500*1.5</f>
+        <v>3750</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="D5">
-        <v>6.7004094463319799</v>
+        <v>4.32130643144112</v>
       </c>
       <c r="E5">
-        <v>263.84865196078403</v>
+        <v>451.76499999999999</v>
       </c>
       <c r="F5">
-        <v>0.81599999999999995</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>178.918132206156</v>
+        <v>302.39869000929701</v>
       </c>
       <c r="H5">
-        <v>1137.5743803534699</v>
+        <v>1508.68373858922</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -33616,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>67.579066999999398</v>
+        <v>284.33650900001999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -33624,26 +32270,27 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>3000</v>
+        <f>3000*1.5</f>
+        <v>4500</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D6">
-        <v>6.6435534279428499</v>
+        <v>3.7771839163478602</v>
       </c>
       <c r="E6">
-        <v>266.43773584905603</v>
+        <v>536.50750000000005</v>
       </c>
       <c r="F6">
-        <v>0.77291666666666603</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>169.31584712628799</v>
+        <v>389.03525220989502</v>
       </c>
       <c r="H6">
-        <v>900.37174381562897</v>
+        <v>1893.7312361152699</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -33652,7 +32299,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>113.345957999989</v>
+        <v>510.73127800005199</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -33660,26 +32307,27 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>3500</v>
+        <f>3500*1.5</f>
+        <v>5250</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="D7">
-        <v>6.2880875015423801</v>
+        <v>3.3104130808482299</v>
       </c>
       <c r="E7">
-        <v>286.70004982560999</v>
+        <v>657.14392857142798</v>
       </c>
       <c r="F7">
-        <v>0.71678571428571403</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>216.19220230223601</v>
+        <v>522.73796436885004</v>
       </c>
       <c r="H7">
-        <v>1188.0350538463399</v>
+        <v>2495.4802435870201</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -33688,7 +32336,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>237.188695999907</v>
+        <v>986.99180600032196</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -33696,26 +32344,27 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>4000</v>
+        <f>4000*1.5</f>
+        <v>6000</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
       <c r="D8">
-        <v>6.0642445206012399</v>
+        <v>2.8780523876241202</v>
       </c>
       <c r="E8">
-        <v>293.89708737863998</v>
+        <v>798.7215625</v>
       </c>
       <c r="F8">
-        <v>0.64617314930991199</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>251.157376395749</v>
+        <v>688.47906336819506</v>
       </c>
       <c r="H8">
-        <v>1365.71582511937</v>
+        <v>3369.2701046506199</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -33724,7 +32373,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>415.83262000044402</v>
+        <v>1829.42515899872</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -33732,26 +32381,27 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>4500</v>
+        <f>4500*1.5</f>
+        <v>6750</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="D9">
-        <v>5.5143022194293803</v>
+        <v>2.5210827489596901</v>
       </c>
       <c r="E9">
-        <v>318.52641334569</v>
+        <v>941.29750000000001</v>
       </c>
       <c r="F9">
-        <v>0.61237230419977295</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>308.76384426571002</v>
+        <v>856.05754318139498</v>
       </c>
       <c r="H9">
-        <v>1705.77301409498</v>
+        <v>4225.8732134807497</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -33760,7 +32410,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>608.15498800067701</v>
+        <v>2873.2296410133799</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -33768,26 +32418,27 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>5000</v>
+        <f>5000*1.5</f>
+        <v>7500</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="D10">
-        <v>5.0620454234350998</v>
+        <v>2.1992614910833899</v>
       </c>
       <c r="E10">
-        <v>324.230769230769</v>
+        <v>1118.3344999999999</v>
       </c>
       <c r="F10">
-        <v>0.55795425340529403</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>327.09715938116602</v>
+        <v>1115.66363643919</v>
       </c>
       <c r="H10">
-        <v>1666.9964298175901</v>
+        <v>5866.1712262041301</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -33796,7 +32447,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>824.49141500118003</v>
+        <v>4642.8727549994701</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -33863,35 +32514,36 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1000</v>
+        <f>B2</f>
+        <v>1500</v>
       </c>
       <c r="C13" s="1">
-        <f>B13*0.8</f>
+        <f>C2</f>
         <v>800</v>
       </c>
       <c r="D13">
-        <v>13.948379058268699</v>
+        <v>13.946425511364501</v>
       </c>
       <c r="E13">
-        <v>158.51124999999999</v>
+        <v>160.47749999999999</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.202704200915399</v>
+        <v>33.633324904692003</v>
       </c>
       <c r="H13">
-        <v>180.61484220167199</v>
+        <v>196.752135536156</v>
       </c>
       <c r="I13">
-        <v>28.6082860734052</v>
+        <v>31.069943358246</v>
       </c>
       <c r="J13">
-        <v>176.896743779362</v>
+        <v>189.33227601077101</v>
       </c>
       <c r="K13">
-        <v>39.286192</v>
+        <v>33.786714999999901</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -33899,35 +32551,36 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>1500</v>
+        <f t="shared" ref="B14:C21" si="2">B3</f>
+        <v>2250</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:C32" si="2">B14*0.8</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="D14">
-        <v>13.9283791345108</v>
+        <v>13.455583435952599</v>
       </c>
       <c r="E14">
-        <v>157.868333333333</v>
+        <v>161.73583333333301</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.3801429904405</v>
+        <v>30.570626405716599</v>
       </c>
       <c r="H14">
-        <v>167.09613568205901</v>
+        <v>169.20864257364701</v>
       </c>
       <c r="I14">
-        <v>26.458068981139501</v>
+        <v>26.191372743167999</v>
       </c>
       <c r="J14">
-        <v>162.29072855488499</v>
+        <v>158.589720314049</v>
       </c>
       <c r="K14">
-        <v>28.661697999999902</v>
+        <v>36.644534999999799</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -33935,35 +32588,36 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>3000</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="D15">
-        <v>12.894380450635399</v>
+        <v>11.6674880671883</v>
       </c>
       <c r="E15">
-        <v>167.98500000000001</v>
+        <v>185.15125</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.171907139832399</v>
+        <v>49.7378930311326</v>
       </c>
       <c r="H15">
-        <v>220.85816271070399</v>
+        <v>292.00091532654898</v>
       </c>
       <c r="I15">
-        <v>27.057898473483199</v>
+        <v>29.916556287419901</v>
       </c>
       <c r="J15">
-        <v>184.07271024139899</v>
+        <v>226.47340960723599</v>
       </c>
       <c r="K15">
-        <v>37.593725999999897</v>
+        <v>50.477767999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -33971,35 +32625,36 @@
         <v>11</v>
       </c>
       <c r="B16" s="1">
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>3750</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D16">
-        <v>10.475530151801999</v>
+        <v>9.0503314155617698</v>
       </c>
       <c r="E16">
-        <v>203.961228600201</v>
+        <v>235.42949999999999</v>
       </c>
       <c r="F16">
-        <v>0.99299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>70.631079859284398</v>
+        <v>99.398228858401197</v>
       </c>
       <c r="H16">
-        <v>435.459382303258</v>
+        <v>616.78409353414395</v>
       </c>
       <c r="I16">
-        <v>24.233807451799802</v>
+        <v>19.897448679529699</v>
       </c>
       <c r="J16">
-        <v>172.869506927717</v>
+        <v>189.35585946501101</v>
       </c>
       <c r="K16">
-        <v>47.8765309999999</v>
+        <v>123.18681999999001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -34007,35 +32662,36 @@
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>3000</v>
+        <f t="shared" si="2"/>
+        <v>4500</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="D17">
-        <v>9.8173450267865707</v>
+        <v>7.00264853924745</v>
       </c>
       <c r="E17">
-        <v>213.16981943250201</v>
+        <v>308.18875000000003</v>
       </c>
       <c r="F17">
-        <v>0.96916666666666595</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>90.848489735058493</v>
+        <v>157.219836274751</v>
       </c>
       <c r="H17">
-        <v>582.30779082692402</v>
+        <v>855.53269781324002</v>
       </c>
       <c r="I17">
-        <v>22.081949066924299</v>
+        <v>13.7798084077446</v>
       </c>
       <c r="J17">
-        <v>162.828134677783</v>
+        <v>166.72133089005101</v>
       </c>
       <c r="K17">
-        <v>66.594442999999302</v>
+        <v>318.40775299996102</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -34043,35 +32699,36 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>3500</v>
+        <f t="shared" si="2"/>
+        <v>5250</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
       <c r="D18">
-        <v>8.6331220739083996</v>
+        <v>5.47843159133597</v>
       </c>
       <c r="E18">
-        <v>234.11266480223699</v>
+        <v>403.29321428571399</v>
       </c>
       <c r="F18">
-        <v>0.89392857142857096</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>118.645987107087</v>
+        <v>223.41400250072999</v>
       </c>
       <c r="H18">
-        <v>732.23825372888496</v>
+        <v>1092.33264450668</v>
       </c>
       <c r="I18">
-        <v>12.7135546253323</v>
+        <v>23.498403001224599</v>
       </c>
       <c r="J18">
-        <v>155.39633055987599</v>
+        <v>228.895085591791</v>
       </c>
       <c r="K18">
-        <v>169.472881999957</v>
+        <v>601.49040499977298</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -34079,35 +32736,36 @@
         <v>11</v>
       </c>
       <c r="B19" s="1">
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="2"/>
         <v>3200</v>
       </c>
       <c r="D19">
-        <v>8.38535895941469</v>
+        <v>4.47488768962896</v>
       </c>
       <c r="E19">
-        <v>236.93080435546099</v>
+        <v>487.27968750000002</v>
       </c>
       <c r="F19">
-        <v>0.89359698681732502</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>116.890919778041</v>
+        <v>315.84585412361798</v>
       </c>
       <c r="H19">
-        <v>676.96289479253903</v>
+        <v>1556.35796255167</v>
       </c>
       <c r="I19">
-        <v>13.6813230659005</v>
+        <v>9.0717478001332399</v>
       </c>
       <c r="J19">
-        <v>152.303375436322</v>
+        <v>166.53738271770001</v>
       </c>
       <c r="K19">
-        <v>266.6101909999</v>
+        <v>1178.2034420007501</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -34115,35 +32773,36 @@
         <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>4500</v>
+        <f t="shared" si="2"/>
+        <v>6750</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="D20">
-        <v>7.05506421933931</v>
+        <v>3.6135139209717502</v>
       </c>
       <c r="E20">
-        <v>271.68034993270498</v>
+        <v>606.18972222222203</v>
       </c>
       <c r="F20">
-        <v>0.83530073074761102</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>160.65063130098</v>
+        <v>400.62616588664798</v>
       </c>
       <c r="H20">
-        <v>839.71919637434996</v>
+        <v>1757.56132821965</v>
       </c>
       <c r="I20">
-        <v>6.6384393346511104</v>
+        <v>13.077630225627299</v>
       </c>
       <c r="J20">
-        <v>143.37724120283099</v>
+        <v>198.75630845798699</v>
       </c>
       <c r="K20">
-        <v>358.25630500022203</v>
+        <v>1896.65666000034</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -34151,35 +32810,36 @@
         <v>11</v>
       </c>
       <c r="B21" s="1">
-        <v>5000</v>
+        <f t="shared" si="2"/>
+        <v>7500</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="2"/>
+        <f>C10</f>
         <v>4000</v>
       </c>
       <c r="D21">
-        <v>6.3394302951049202</v>
+        <v>2.9929346415182798</v>
       </c>
       <c r="E21">
-        <v>278.88306731436501</v>
+        <v>750.17425000000003</v>
       </c>
       <c r="F21">
-        <v>0.73389355742296902</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>184.82527212624399</v>
+        <v>534.66655226746695</v>
       </c>
       <c r="H21">
-        <v>906.67859687307805</v>
+        <v>2250.0896669799399</v>
       </c>
       <c r="I21">
-        <v>6.0717479057663102</v>
+        <v>13.861347491595099</v>
       </c>
       <c r="J21">
-        <v>124.998512662766</v>
+        <v>182.51323034729</v>
       </c>
       <c r="K21">
-        <v>584.923497000623</v>
+        <v>3240.9243900200599</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -34246,10 +32906,11 @@
         <v>13</v>
       </c>
       <c r="B24" s="1">
-        <v>1000</v>
+        <f>B2</f>
+        <v>1500</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="2"/>
+        <f>C2</f>
         <v>800</v>
       </c>
       <c r="D24" s="2"/>
@@ -34266,10 +32927,11 @@
         <v>13</v>
       </c>
       <c r="B25" s="1">
-        <v>1500</v>
+        <f t="shared" ref="B25:C32" si="4">B3</f>
+        <v>2250</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="D25" s="2"/>
@@ -34286,10 +32948,11 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>2000</v>
+        <f t="shared" si="4"/>
+        <v>3000</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
       <c r="D26" s="2"/>
@@ -34306,10 +32969,11 @@
         <v>13</v>
       </c>
       <c r="B27" s="1">
-        <v>2500</v>
+        <f t="shared" si="4"/>
+        <v>3750</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="D27" s="2"/>
@@ -34326,10 +32990,11 @@
         <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>3000</v>
+        <f t="shared" si="4"/>
+        <v>4500</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
       <c r="D28" s="2"/>
@@ -34346,10 +33011,11 @@
         <v>13</v>
       </c>
       <c r="B29" s="1">
-        <v>3500</v>
+        <f t="shared" si="4"/>
+        <v>5250</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2800</v>
       </c>
       <c r="D29" s="2"/>
@@ -34366,10 +33032,11 @@
         <v>13</v>
       </c>
       <c r="B30" s="1">
-        <v>4000</v>
+        <f t="shared" si="4"/>
+        <v>6000</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
       <c r="D30" s="2"/>
@@ -34386,10 +33053,11 @@
         <v>13</v>
       </c>
       <c r="B31" s="1">
-        <v>4500</v>
+        <f t="shared" si="4"/>
+        <v>6750</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
       <c r="D31" s="2"/>
@@ -34406,10 +33074,11 @@
         <v>13</v>
       </c>
       <c r="B32" s="1">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>7500</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
       <c r="D32" s="2"/>
@@ -34429,10 +33098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50B34B4-084F-4934-B405-A3E078D07E48}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34459,6 +33128,9 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -34495,8 +33167,11 @@
         <f>B2*0.8</f>
         <v>800</v>
       </c>
+      <c r="D2">
+        <v>12.939506423199299</v>
+      </c>
       <c r="E2">
-        <v>141.76625000000001</v>
+        <v>141.77125000000001</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -34532,11 +33207,14 @@
         <f t="shared" ref="C3:C10" si="0">B3*0.8</f>
         <v>1200</v>
       </c>
+      <c r="D3">
+        <v>8.3257198979459908</v>
+      </c>
       <c r="E3">
-        <v>212.5675</v>
+        <v>217.60557432432401</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.98666666666666603</v>
       </c>
       <c r="G3">
         <v>64.888405998048896</v>
@@ -34566,11 +33244,14 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
+      <c r="D4">
+        <v>6.3094097760247898</v>
+      </c>
       <c r="E4">
-        <v>247.16013745704399</v>
+        <v>247.364928909952</v>
       </c>
       <c r="F4">
-        <v>0.90937500000000004</v>
+        <v>0.92312499999999997</v>
       </c>
       <c r="G4">
         <v>116.050914918582</v>
@@ -34600,11 +33281,14 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
+      <c r="D5">
+        <v>4.7654067362108901</v>
+      </c>
       <c r="E5">
-        <v>259.27407407407401</v>
+        <v>258.65311152187297</v>
       </c>
       <c r="F5">
-        <v>0.81</v>
+        <v>0.8115</v>
       </c>
       <c r="G5">
         <v>175.74192284793699</v>
@@ -34634,11 +33318,14 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
+      <c r="D6">
+        <v>4.3974317058237897</v>
+      </c>
       <c r="E6">
-        <v>268.35005393743199</v>
+        <v>265.24741707449698</v>
       </c>
       <c r="F6">
-        <v>0.77249999999999996</v>
+        <v>0.76624999999999999</v>
       </c>
       <c r="G6">
         <v>174.12300180560101</v>
@@ -34668,11 +33355,14 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
+      <c r="D7">
+        <v>3.9663553733680201</v>
+      </c>
       <c r="E7">
-        <v>288.85168650793599</v>
+        <v>290.78705108750597</v>
       </c>
       <c r="F7">
-        <v>0.72</v>
+        <v>0.70607142857142802</v>
       </c>
       <c r="G7">
         <v>217.52648125419</v>
@@ -34702,11 +33392,14 @@
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
+      <c r="D8">
+        <v>3.6855501882475501</v>
+      </c>
       <c r="E8">
-        <v>299.07170356111601</v>
+        <v>293.58727810650799</v>
       </c>
       <c r="F8">
-        <v>0.65448818897637795</v>
+        <v>0.63414634146341398</v>
       </c>
       <c r="G8">
         <v>264.78639462477901</v>
@@ -34736,11 +33429,14 @@
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
+      <c r="D9">
+        <v>3.43870266054105</v>
+      </c>
       <c r="E9">
-        <v>317.719889247808</v>
+        <v>313.095966620306</v>
       </c>
       <c r="F9">
-        <v>0.61197401863880196</v>
+        <v>0.61052929521652899</v>
       </c>
       <c r="G9">
         <v>308.507870800717</v>
@@ -34770,11 +33466,14 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
+      <c r="D10">
+        <v>2.9940950885164899</v>
+      </c>
       <c r="E10">
-        <v>326.47658785350001</v>
+        <v>325.47882736156299</v>
       </c>
       <c r="F10">
-        <v>0.55464129596297196</v>
+        <v>0.55272633744855904</v>
       </c>
       <c r="G10">
         <v>340.34754317926701</v>
@@ -34802,6 +33501,9 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
@@ -34835,8 +33537,11 @@
         <f>B13*0.8</f>
         <v>800</v>
       </c>
+      <c r="D13">
+        <v>12.939506423199299</v>
+      </c>
       <c r="E13">
-        <v>141.76625000000001</v>
+        <v>141.77125000000001</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -34869,11 +33574,14 @@
         <f t="shared" ref="C14:C21" si="2">B14*0.8</f>
         <v>1200</v>
       </c>
+      <c r="D14">
+        <v>8.3345502735346795</v>
+      </c>
       <c r="E14">
-        <v>212.705833333333</v>
+        <v>217.65709459459401</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.98666666666666603</v>
       </c>
       <c r="G14">
         <v>65.696891272805601</v>
@@ -34903,11 +33611,14 @@
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
+      <c r="D15">
+        <v>6.3674464166932196</v>
+      </c>
       <c r="E15">
-        <v>247.62927496579999</v>
+        <v>249.05192178017501</v>
       </c>
       <c r="F15">
-        <v>0.91374999999999995</v>
+        <v>0.926875</v>
       </c>
       <c r="G15">
         <v>120.245192183645</v>
@@ -34937,11 +33648,14 @@
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
+      <c r="D16">
+        <v>5.0004745251319997</v>
+      </c>
       <c r="E16">
-        <v>243.834012813046</v>
+        <v>263.699939503932</v>
       </c>
       <c r="F16">
-        <v>0.85850000000000004</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="G16">
         <v>127.83363734152999</v>
@@ -34971,11 +33685,14 @@
         <f t="shared" si="2"/>
         <v>2400</v>
       </c>
+      <c r="D17">
+        <v>4.5922552613542704</v>
+      </c>
       <c r="E17">
-        <v>260.43123667377398</v>
+        <v>270.23444206008497</v>
       </c>
       <c r="F17">
-        <v>0.78166666666666595</v>
+        <v>0.77666666666666595</v>
       </c>
       <c r="G17">
         <v>180.720724096613</v>
@@ -35005,11 +33722,14 @@
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
+      <c r="D18">
+        <v>4.1942270381140201</v>
+      </c>
       <c r="E18">
-        <v>278.34397677793902</v>
+        <v>291.10560560560498</v>
       </c>
       <c r="F18">
-        <v>0.73821428571428505</v>
+        <v>0.71357142857142797</v>
       </c>
       <c r="G18">
         <v>206.91685707217499</v>
@@ -35039,11 +33759,14 @@
         <f t="shared" si="2"/>
         <v>3200</v>
       </c>
+      <c r="D19">
+        <v>3.7929623160777899</v>
+      </c>
       <c r="E19">
-        <v>285.72731568998103</v>
+        <v>296.769868356899</v>
       </c>
       <c r="F19">
-        <v>0.66187050359712196</v>
+        <v>0.64598425196850395</v>
       </c>
       <c r="G19">
         <v>245.232515735888</v>
@@ -35073,11 +33796,14 @@
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
+      <c r="D20">
+        <v>3.5460319716044801</v>
+      </c>
       <c r="E20">
-        <v>304.79695431471998</v>
+        <v>307.61087669948398</v>
       </c>
       <c r="F20">
-        <v>0.61825962910128296</v>
+        <v>0.60084507042253499</v>
       </c>
       <c r="G20">
         <v>298.51616923635999</v>
@@ -35107,11 +33833,14 @@
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
+      <c r="D21">
+        <v>3.1610536708312802</v>
+      </c>
       <c r="E21">
-        <v>306.82616568583001</v>
+        <v>317.90328467153199</v>
       </c>
       <c r="F21">
-        <v>0.57466181061394295</v>
+        <v>0.56233966136480196</v>
       </c>
       <c r="G21">
         <v>312.32306817063801</v>
@@ -35140,6 +33869,9 @@
         <f>C1</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
@@ -35170,11 +33902,14 @@
         <v>1000</v>
       </c>
       <c r="C24">
-        <f>B24*0.8</f>
+        <f t="shared" ref="C24:C32" si="4">B24*0.8</f>
         <v>800</v>
       </c>
+      <c r="D24">
+        <v>12.939506423199299</v>
+      </c>
       <c r="E24">
-        <v>141.76625000000001</v>
+        <v>141.77125000000001</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -35204,14 +33939,17 @@
         <v>1500</v>
       </c>
       <c r="C25">
-        <f>B25*0.8</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
+      <c r="D25">
+        <v>8.2862400739773001</v>
+      </c>
       <c r="E25">
-        <v>213.0275</v>
+        <v>219.53164556962</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="G25">
         <v>65.386200066640598</v>
@@ -35231,21 +33969,24 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" ref="A26:A32" si="4">A25</f>
+        <f t="shared" ref="A26:A32" si="5">A25</f>
         <v>0.8</v>
       </c>
       <c r="B26">
         <v>2000</v>
       </c>
       <c r="C26">
-        <f>B26*0.8</f>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
+      <c r="D26">
+        <v>6.5228400642630797</v>
+      </c>
       <c r="E26">
-        <v>243.15189003436399</v>
+        <v>249.15729585006599</v>
       </c>
       <c r="F26">
-        <v>0.90937500000000004</v>
+        <v>0.93374999999999997</v>
       </c>
       <c r="G26">
         <v>115.393120707349</v>
@@ -35265,21 +34006,24 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="B27">
         <v>2500</v>
       </c>
       <c r="C27">
-        <f>B27*0.8</f>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
+      <c r="D27">
+        <v>5.3917220302378901</v>
+      </c>
       <c r="E27">
-        <v>238.712790697674</v>
+        <v>265.41413551401803</v>
       </c>
       <c r="F27">
-        <v>0.86</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="G27">
         <v>119.493716872563</v>
@@ -35299,21 +34043,24 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="B28">
         <v>3000</v>
       </c>
       <c r="C28">
-        <f>B28*0.8</f>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
+      <c r="D28">
+        <v>4.7537215120390899</v>
+      </c>
       <c r="E28">
-        <v>254.191145833333</v>
+        <v>272.62473460721799</v>
       </c>
       <c r="F28">
-        <v>0.8</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="G28">
         <v>151.079482853581</v>
@@ -35333,21 +34080,24 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="B29">
         <v>3500</v>
       </c>
       <c r="C29">
-        <f>B29*0.8</f>
+        <f t="shared" si="4"/>
         <v>2800</v>
       </c>
+      <c r="D29">
+        <v>4.3045689078010501</v>
+      </c>
       <c r="E29">
-        <v>275.28467507274399</v>
+        <v>291.814556331007</v>
       </c>
       <c r="F29">
-        <v>0.73642857142857099</v>
+        <v>0.71642857142857097</v>
       </c>
       <c r="G29">
         <v>194.55531805220801</v>
@@ -35367,21 +34117,24 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="B30">
         <v>4000</v>
       </c>
       <c r="C30">
-        <f>B30*0.8</f>
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
+      <c r="D30">
+        <v>3.7623023098161301</v>
+      </c>
       <c r="E30">
-        <v>283.261488970588</v>
+        <v>297.71812408402502</v>
       </c>
       <c r="F30">
-        <v>0.68</v>
+        <v>0.64452141057934498</v>
       </c>
       <c r="G30">
         <v>235.07674227727401</v>
@@ -35401,21 +34154,24 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="B31">
         <v>4500</v>
       </c>
       <c r="C31">
-        <f>B31*0.8</f>
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
+      <c r="D31">
+        <v>3.6464258657661199</v>
+      </c>
       <c r="E31">
-        <v>285.71978270710702</v>
+        <v>314.352887259395</v>
       </c>
       <c r="F31">
-        <v>0.615491780440234</v>
+        <v>0.61725601131541696</v>
       </c>
       <c r="G31">
         <v>257.57194208713702</v>
@@ -35435,21 +34191,24 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="B32">
         <v>5000</v>
       </c>
       <c r="C32">
-        <f>B32*0.8</f>
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
+      <c r="D32">
+        <v>3.26358907872413</v>
+      </c>
       <c r="E32">
-        <v>295.10260869565201</v>
+        <v>319.58916478555301</v>
       </c>
       <c r="F32">
-        <v>0.60130718954248297</v>
+        <v>0.568240123140071</v>
       </c>
       <c r="G32">
         <v>289.85868206954899</v>
@@ -35478,6 +34237,9 @@
         <f>C12</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
@@ -35508,11 +34270,14 @@
         <v>1000</v>
       </c>
       <c r="C35">
-        <f>B35*0.8</f>
+        <f t="shared" ref="C35:C43" si="6">B35*0.8</f>
         <v>800</v>
       </c>
+      <c r="D35">
+        <v>12.939506423199299</v>
+      </c>
       <c r="E35">
-        <v>141.76625000000001</v>
+        <v>141.77125000000001</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -35542,14 +34307,17 @@
         <v>1500</v>
       </c>
       <c r="C36">
-        <f>B36*0.8</f>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
+      <c r="D36">
+        <v>8.1503504946569798</v>
+      </c>
       <c r="E36">
-        <v>211.70916666666599</v>
+        <v>223.175675675675</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.98666666666666603</v>
       </c>
       <c r="G36">
         <v>63.190554516708602</v>
@@ -35569,21 +34337,24 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" ref="A37:A43" si="5">A36</f>
+        <f t="shared" ref="A37:A43" si="7">A36</f>
         <v>0.7</v>
       </c>
       <c r="B37">
         <v>2000</v>
       </c>
       <c r="C37">
-        <f>B37*0.8</f>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
+      <c r="D37">
+        <v>6.6654100215800796</v>
+      </c>
       <c r="E37">
-        <v>242.59590443686</v>
+        <v>243.92617449664399</v>
       </c>
       <c r="F37">
-        <v>0.91562500000000002</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="G37">
         <v>109.125786062298</v>
@@ -35603,21 +34374,24 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="B38">
         <v>2500</v>
       </c>
       <c r="C38">
-        <f>B38*0.8</f>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
+      <c r="D38">
+        <v>5.5663532452159004</v>
+      </c>
       <c r="E38">
-        <v>253.71436848203899</v>
+        <v>261.51244933410499</v>
       </c>
       <c r="F38">
-        <v>0.86299999999999999</v>
+        <v>0.86350000000000005</v>
       </c>
       <c r="G38">
         <v>128.83241254015101</v>
@@ -35637,21 +34411,24 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="B39">
         <v>3000</v>
       </c>
       <c r="C39">
-        <f>B39*0.8</f>
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
+      <c r="D39">
+        <v>4.9727359320595204</v>
+      </c>
       <c r="E39">
-        <v>260.41338783852802</v>
+        <v>275.61498166579298</v>
       </c>
       <c r="F39">
-        <v>0.81541666666666601</v>
+        <v>0.79541666666666599</v>
       </c>
       <c r="G39">
         <v>152.31866143726799</v>
@@ -35671,21 +34448,24 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="B40">
         <v>3500</v>
       </c>
       <c r="C40">
-        <f>B40*0.8</f>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
+      <c r="D40">
+        <v>4.4456323690325403</v>
+      </c>
       <c r="E40">
-        <v>268.46485700436199</v>
+        <v>295.39255996084103</v>
       </c>
       <c r="F40">
-        <v>0.73678571428571404</v>
+        <v>0.73278335724533705</v>
       </c>
       <c r="G40">
         <v>174.115990612171</v>
@@ -35705,21 +34485,24 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="B41">
         <v>4000</v>
       </c>
       <c r="C41">
-        <f>B41*0.8</f>
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
+      <c r="D41">
+        <v>3.92314305807307</v>
+      </c>
       <c r="E41">
-        <v>275.09017132551799</v>
+        <v>302.16955684007701</v>
       </c>
       <c r="F41">
-        <v>0.69312499999999999</v>
+        <v>0.65654648956356698</v>
       </c>
       <c r="G41">
         <v>204.00902916171401</v>
@@ -35739,21 +34522,24 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="B42">
         <v>4500</v>
       </c>
       <c r="C42">
-        <f>B42*0.8</f>
+        <f t="shared" si="6"/>
         <v>3600</v>
       </c>
+      <c r="D42">
+        <v>3.8105645389746199</v>
+      </c>
       <c r="E42">
-        <v>279.97684036393701</v>
+        <v>310.35317636605902</v>
       </c>
       <c r="F42">
-        <v>0.67166666666666597</v>
+        <v>0.63767705382436202</v>
       </c>
       <c r="G42">
         <v>210.51372908553799</v>
@@ -35773,21 +34559,24 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="B43">
         <v>5000</v>
       </c>
       <c r="C43">
-        <f>B43*0.8</f>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
+      <c r="D43">
+        <v>3.6505977020943199</v>
+      </c>
       <c r="E43">
-        <v>286.65355582042099</v>
+        <v>312.020319930825</v>
       </c>
       <c r="F43">
-        <v>0.63657056145675195</v>
+        <v>0.59322903308540598</v>
       </c>
       <c r="G43">
         <v>248.764046612415</v>
@@ -35816,6 +34605,9 @@
         <f>C23</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
       <c r="E45" t="s">
         <v>2</v>
       </c>
@@ -35846,11 +34638,14 @@
         <v>1000</v>
       </c>
       <c r="C46">
-        <f>B46*0.8</f>
+        <f t="shared" ref="C46:C54" si="8">B46*0.8</f>
         <v>800</v>
       </c>
+      <c r="D46">
+        <v>13.091205967379199</v>
+      </c>
       <c r="E46">
-        <v>139.74250000000001</v>
+        <v>140.095</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -35880,14 +34675,17 @@
         <v>1500</v>
       </c>
       <c r="C47">
-        <f>B47*0.8</f>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
+      <c r="D47">
+        <v>8.2447231379642307</v>
+      </c>
       <c r="E47">
-        <v>203.315</v>
+        <v>220.413006756756</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.98666666666666603</v>
       </c>
       <c r="G47">
         <v>57.965274209068703</v>
@@ -35907,21 +34705,24 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" ref="A48:A54" si="6">A47</f>
+        <f t="shared" ref="A48:A54" si="9">A47</f>
         <v>0.6</v>
       </c>
       <c r="B48">
         <v>2000</v>
       </c>
       <c r="C48">
-        <f>B48*0.8</f>
+        <f t="shared" si="8"/>
         <v>1600</v>
       </c>
+      <c r="D48">
+        <v>7.5023051076395397</v>
+      </c>
       <c r="E48">
-        <v>234.26890203813201</v>
+        <v>236.867838541666</v>
       </c>
       <c r="F48">
-        <v>0.95062500000000005</v>
+        <v>0.96</v>
       </c>
       <c r="G48">
         <v>93.890912157750506</v>
@@ -35941,21 +34742,24 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="B49">
         <v>2500</v>
       </c>
       <c r="C49">
-        <f>B49*0.8</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
+      <c r="D49">
+        <v>5.9228365666774101</v>
+      </c>
       <c r="E49">
-        <v>237.74397244546401</v>
+        <v>266.83011363636302</v>
       </c>
       <c r="F49">
-        <v>0.871</v>
+        <v>0.88</v>
       </c>
       <c r="G49">
         <v>117.62482714714299</v>
@@ -35975,21 +34779,24 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="B50">
         <v>3000</v>
       </c>
       <c r="C50">
-        <f>B50*0.8</f>
+        <f t="shared" si="8"/>
         <v>2400</v>
       </c>
+      <c r="D50">
+        <v>5.4902149825226703</v>
+      </c>
       <c r="E50">
-        <v>240.33530864197499</v>
+        <v>257.13601630157899</v>
       </c>
       <c r="F50">
-        <v>0.84375</v>
+        <v>0.81791666666666596</v>
       </c>
       <c r="G50">
         <v>122.12457983831899</v>
@@ -36009,21 +34816,24 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="B51">
         <v>3500</v>
       </c>
       <c r="C51">
-        <f>B51*0.8</f>
+        <f t="shared" si="8"/>
         <v>2800</v>
       </c>
+      <c r="D51">
+        <v>4.8538947364809397</v>
+      </c>
       <c r="E51">
-        <v>260.00873161764702</v>
+        <v>285.33961375412099</v>
       </c>
       <c r="F51">
-        <v>0.77714285714285702</v>
+        <v>0.75821428571428495</v>
       </c>
       <c r="G51">
         <v>160.25847511194499</v>
@@ -36043,21 +34853,24 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="B52">
         <v>4000</v>
       </c>
       <c r="C52">
-        <f>B52*0.8</f>
+        <f t="shared" si="8"/>
         <v>3200</v>
       </c>
+      <c r="D52">
+        <v>4.3009959610326396</v>
+      </c>
       <c r="E52">
-        <v>266.661132396764</v>
+        <v>300.79846014492699</v>
       </c>
       <c r="F52">
-        <v>0.73406249999999995</v>
+        <v>0.69194609840175403</v>
       </c>
       <c r="G52">
         <v>183.184866083564</v>
@@ -36077,21 +34890,24 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="B53">
         <v>4500</v>
       </c>
       <c r="C53">
-        <f>B53*0.8</f>
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
+      <c r="D53">
+        <v>4.0537274352472998</v>
+      </c>
       <c r="E53">
-        <v>292.00117324990202</v>
+        <v>306.13468158347598</v>
       </c>
       <c r="F53">
-        <v>0.71027777777777701</v>
+        <v>0.65761177136389304</v>
       </c>
       <c r="G53">
         <v>229.73714012263099</v>
@@ -36111,21 +34927,24 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="B54">
         <v>5000</v>
       </c>
       <c r="C54">
-        <f>B54*0.8</f>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
+      <c r="D54">
+        <v>3.7287782084049401</v>
+      </c>
       <c r="E54">
-        <v>284.95087976539497</v>
+        <v>316.31898407232001</v>
       </c>
       <c r="F54">
-        <v>0.68200000000000005</v>
+        <v>0.59640564826700904</v>
       </c>
       <c r="G54">
         <v>221.25366373029999</v>
@@ -36154,6 +34973,9 @@
         <f>C34</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
       <c r="E56" t="s">
         <v>2</v>
       </c>
@@ -36184,11 +35006,14 @@
         <v>1000</v>
       </c>
       <c r="C57">
-        <f>B57*0.8</f>
+        <f t="shared" ref="C57:C65" si="10">B57*0.8</f>
         <v>800</v>
       </c>
+      <c r="D57">
+        <v>13.1549694758451</v>
+      </c>
       <c r="E57">
-        <v>139.27000000000001</v>
+        <v>139.43875</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -36218,14 +35043,17 @@
         <v>1500</v>
       </c>
       <c r="C58">
-        <f>B58*0.8</f>
+        <f t="shared" si="10"/>
         <v>1200</v>
       </c>
+      <c r="D58">
+        <v>9.4499841219434693</v>
+      </c>
       <c r="E58">
-        <v>184.92083333333301</v>
+        <v>201.544620517097</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.99916666666666598</v>
       </c>
       <c r="G58">
         <v>42.584260296592497</v>
@@ -36245,21 +35073,24 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" ref="A59:A65" si="7">A58</f>
+        <f t="shared" ref="A59:A65" si="11">A58</f>
         <v>0.5</v>
       </c>
       <c r="B59">
         <v>2000</v>
       </c>
       <c r="C59">
-        <f>B59*0.8</f>
+        <f t="shared" si="10"/>
         <v>1600</v>
       </c>
+      <c r="D59">
+        <v>8.0968458035594502</v>
+      </c>
       <c r="E59">
-        <v>225.428289473684</v>
+        <v>216.20973044049899</v>
       </c>
       <c r="F59">
-        <v>0.95</v>
+        <v>0.95062500000000005</v>
       </c>
       <c r="G59">
         <v>94.098029687752799</v>
@@ -36279,21 +35110,24 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="B60">
         <v>2500</v>
       </c>
       <c r="C60">
-        <f>B60*0.8</f>
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
+      <c r="D60">
+        <v>6.5462961924791401</v>
+      </c>
       <c r="E60">
-        <v>239.466741196199</v>
+        <v>245.139561057962</v>
       </c>
       <c r="F60">
-        <v>0.89449999999999996</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="G60">
         <v>108.81572486549</v>
@@ -36313,21 +35147,24 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="B61">
         <v>3000</v>
       </c>
       <c r="C61">
-        <f>B61*0.8</f>
+        <f t="shared" si="10"/>
         <v>2400</v>
       </c>
+      <c r="D61">
+        <v>6.0497230748375701</v>
+      </c>
       <c r="E61">
-        <v>240.95884977689599</v>
+        <v>245.90239043824701</v>
       </c>
       <c r="F61">
-        <v>0.84041666666666603</v>
+        <v>0.836666666666666</v>
       </c>
       <c r="G61">
         <v>124.020787274775</v>
@@ -36347,21 +35184,24 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="B62">
         <v>3500</v>
       </c>
       <c r="C62">
-        <f>B62*0.8</f>
+        <f t="shared" si="10"/>
         <v>2800</v>
       </c>
+      <c r="D62">
+        <v>5.4000077478454598</v>
+      </c>
       <c r="E62">
-        <v>255.23644251626899</v>
+        <v>276.51435079726599</v>
       </c>
       <c r="F62">
-        <v>0.82321428571428501</v>
+        <v>0.78392857142857097</v>
       </c>
       <c r="G62">
         <v>140.033841468421</v>
@@ -36381,21 +35221,24 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="B63">
         <v>4000</v>
       </c>
       <c r="C63">
-        <f>B63*0.8</f>
+        <f t="shared" si="10"/>
         <v>3200</v>
       </c>
+      <c r="D63">
+        <v>4.9435293028195497</v>
+      </c>
       <c r="E63">
-        <v>268.38272103350801</v>
+        <v>295.961670973298</v>
       </c>
       <c r="F63">
-        <v>0.77406249999999999</v>
+        <v>0.72630591179230497</v>
       </c>
       <c r="G63">
         <v>160.59271965883599</v>
@@ -36415,21 +35258,24 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="B64">
         <v>4500</v>
       </c>
       <c r="C64">
-        <f>B64*0.8</f>
+        <f t="shared" si="10"/>
         <v>3600</v>
       </c>
+      <c r="D64">
+        <v>4.1615783989058999</v>
+      </c>
       <c r="E64">
-        <v>282.492499085254</v>
+        <v>305.93073213502799</v>
       </c>
       <c r="F64">
-        <v>0.75916666666666599</v>
+        <v>0.64453235377225204</v>
       </c>
       <c r="G64">
         <v>201.75063814142399</v>
@@ -36449,21 +35295,24 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="B65">
         <v>5000</v>
       </c>
       <c r="C65">
-        <f>B65*0.8</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
+      <c r="D65">
+        <v>3.9205909844715801</v>
+      </c>
       <c r="E65">
-        <v>265.68319358366699</v>
+        <v>323.42526837324499</v>
       </c>
       <c r="F65">
-        <v>0.68884982420894003</v>
+        <v>0.61817253700867703</v>
       </c>
       <c r="G65">
         <v>210.528355542616</v>
@@ -36492,6 +35341,9 @@
         <f>C23</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
       <c r="E67" t="s">
         <v>2</v>
       </c>
@@ -36522,11 +35374,14 @@
         <v>1000</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C76" si="8">B68*0.8</f>
+        <f t="shared" ref="C68:C76" si="12">B68*0.8</f>
         <v>800</v>
       </c>
+      <c r="D68">
+        <v>13.2751457693104</v>
+      </c>
       <c r="E68">
-        <v>138.67250000000001</v>
+        <v>138.70375000000001</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -36549,18 +35404,21 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>$A68</f>
+        <f t="shared" ref="A69:A76" si="13">$A68</f>
         <v>0.4</v>
       </c>
       <c r="B69">
         <v>1500</v>
       </c>
       <c r="C69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1200</v>
       </c>
+      <c r="D69">
+        <v>11.003615757480301</v>
+      </c>
       <c r="E69">
-        <v>175.85166666666601</v>
+        <v>179.99916666666601</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -36583,21 +35441,24 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>$A69</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="B70">
         <v>2000</v>
       </c>
       <c r="C70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1600</v>
       </c>
+      <c r="D70">
+        <v>10.3604750332431</v>
+      </c>
       <c r="E70">
-        <v>199.921383647798</v>
+        <v>195.50950570342201</v>
       </c>
       <c r="F70">
-        <v>0.99375000000000002</v>
+        <v>0.98624999999999996</v>
       </c>
       <c r="G70">
         <v>73.824054647186898</v>
@@ -36617,21 +35478,24 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>$A70</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="B71">
         <v>2500</v>
       </c>
       <c r="C71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2000</v>
       </c>
+      <c r="D71">
+        <v>7.7412804306089997</v>
+      </c>
       <c r="E71">
-        <v>236.111111111111</v>
+        <v>244.63699731903401</v>
       </c>
       <c r="F71">
-        <v>0.88649999999999995</v>
+        <v>0.9325</v>
       </c>
       <c r="G71">
         <v>110.849022773128</v>
@@ -36651,21 +35515,24 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>$A71</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="B72">
         <v>3000</v>
       </c>
       <c r="C72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2400</v>
       </c>
+      <c r="D72">
+        <v>6.8218334940918099</v>
+      </c>
       <c r="E72">
-        <v>253.004253308128</v>
+        <v>271.771495327102</v>
       </c>
       <c r="F72">
-        <v>0.88166666666666604</v>
+        <v>0.89166666666666605</v>
       </c>
       <c r="G72">
         <v>140.18738563577199</v>
@@ -36685,21 +35552,24 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>$A72</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="B73">
         <v>3500</v>
       </c>
       <c r="C73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2800</v>
       </c>
+      <c r="D73">
+        <v>5.9086513846368804</v>
+      </c>
       <c r="E73">
-        <v>250.634500426985</v>
+        <v>276.26510212950802</v>
       </c>
       <c r="F73">
-        <v>0.83642857142857097</v>
+        <v>0.82178571428571401</v>
       </c>
       <c r="G73">
         <v>146.19058415911101</v>
@@ -36719,21 +35589,24 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>$A73</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="B74">
         <v>4000</v>
       </c>
       <c r="C74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3200</v>
       </c>
+      <c r="D74">
+        <v>5.1689169581238703</v>
+      </c>
       <c r="E74">
-        <v>243.87751436781599</v>
+        <v>289.65319587628801</v>
       </c>
       <c r="F74">
-        <v>0.87</v>
+        <v>0.75804939043451003</v>
       </c>
       <c r="G74">
         <v>129.08781574980199</v>
@@ -36753,21 +35626,24 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>$A74</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="B75">
         <v>4500</v>
       </c>
       <c r="C75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3600</v>
       </c>
+      <c r="D75">
+        <v>4.24852904649876</v>
+      </c>
       <c r="E75">
-        <v>249.19953364423699</v>
+        <v>300.81802501077999</v>
       </c>
       <c r="F75">
-        <v>0.83388888888888801</v>
+        <v>0.65453005927180297</v>
       </c>
       <c r="G75">
         <v>137.20698928594899</v>
@@ -36787,21 +35663,24 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>$A75</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="B76">
         <v>5000</v>
       </c>
       <c r="C76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
+      <c r="D76">
+        <v>3.9812027398871401</v>
+      </c>
       <c r="E76">
-        <v>260.58676654182199</v>
+        <v>316.96306592533699</v>
       </c>
       <c r="F76">
-        <v>0.80100000000000005</v>
+        <v>0.64267483409903003</v>
       </c>
       <c r="G76">
         <v>165.30831232420499</v>
@@ -36830,6 +35709,9 @@
         <f>C34</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
       <c r="E78" t="s">
         <v>2</v>
       </c>
@@ -36860,11 +35742,14 @@
         <v>1000</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:C87" si="9">B79*0.8</f>
+        <f t="shared" ref="C79:C87" si="14">B79*0.8</f>
         <v>800</v>
       </c>
+      <c r="D79">
+        <v>13.581352917027701</v>
+      </c>
       <c r="E79">
-        <v>137.04875000000001</v>
+        <v>137.01875000000001</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -36887,18 +35772,21 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>$A79</f>
+        <f t="shared" ref="A80:A87" si="15">$A79</f>
         <v>0.3</v>
       </c>
       <c r="B80">
         <v>1500</v>
       </c>
       <c r="C80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1200</v>
       </c>
+      <c r="D80">
+        <v>12.5501821812082</v>
+      </c>
       <c r="E80">
-        <v>164.78083333333299</v>
+        <v>164.4425</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -36921,21 +35809,24 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>$A80</f>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="B81">
         <v>2000</v>
       </c>
       <c r="C81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1600</v>
       </c>
+      <c r="D81">
+        <v>11.502512678426401</v>
+      </c>
       <c r="E81">
-        <v>212.86624605678199</v>
+        <v>190.16062500000001</v>
       </c>
       <c r="F81">
-        <v>0.99062499999999998</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>86.367590425950397</v>
@@ -36955,21 +35846,24 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>$A81</f>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="B82">
         <v>2500</v>
       </c>
       <c r="C82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2000</v>
       </c>
+      <c r="D82">
+        <v>8.7357379801986408</v>
+      </c>
       <c r="E82">
-        <v>241.597236981934</v>
+        <v>229.859301719645</v>
       </c>
       <c r="F82">
-        <v>0.94099999999999995</v>
+        <v>0.95950000000000002</v>
       </c>
       <c r="G82">
         <v>112.223565219515</v>
@@ -36989,21 +35883,24 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>$A82</f>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="B83">
         <v>3000</v>
       </c>
       <c r="C83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400</v>
       </c>
+      <c r="D83">
+        <v>7.2958155873827097</v>
+      </c>
       <c r="E83">
-        <v>231.67558088557601</v>
+        <v>256.03381194997598</v>
       </c>
       <c r="F83">
-        <v>0.95041666666666602</v>
+        <v>0.89958333333333296</v>
       </c>
       <c r="G83">
         <v>113.463334927446</v>
@@ -37023,21 +35920,24 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>$A83</f>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="B84">
         <v>3500</v>
       </c>
       <c r="C84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2800</v>
       </c>
+      <c r="D84">
+        <v>6.0145355191256797</v>
+      </c>
       <c r="E84">
-        <v>227.81361175560701</v>
+        <v>278.172015404364</v>
       </c>
       <c r="F84">
-        <v>0.92357142857142804</v>
+        <v>0.83464285714285702</v>
       </c>
       <c r="G84">
         <v>106.26121802855501</v>
@@ -37057,21 +35957,24 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>$A84</f>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="B85">
         <v>4000</v>
       </c>
       <c r="C85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3200</v>
       </c>
+      <c r="D85">
+        <v>5.2402188738166</v>
+      </c>
       <c r="E85">
-        <v>233.80042090494501</v>
+        <v>283.21196094385601</v>
       </c>
       <c r="F85">
-        <v>0.89093750000000005</v>
+        <v>0.76812499999999995</v>
       </c>
       <c r="G85">
         <v>106.41128500384499</v>
@@ -37091,21 +35994,24 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>$A85</f>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="B86">
         <v>4500</v>
       </c>
       <c r="C86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3600</v>
       </c>
+      <c r="D86">
+        <v>4.46604106965931</v>
+      </c>
       <c r="E86">
-        <v>233.495512820512</v>
+        <v>307.67896230239103</v>
       </c>
       <c r="F86">
-        <v>0.86666666666666603</v>
+        <v>0.69414743950478297</v>
       </c>
       <c r="G86">
         <v>112.667053346836</v>
@@ -37125,21 +36031,24 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f>$A86</f>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="B87">
         <v>5000</v>
       </c>
       <c r="C87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
+      <c r="D87">
+        <v>3.8439081959386598</v>
+      </c>
       <c r="E87">
-        <v>252.73622257891901</v>
+        <v>315.77719580983</v>
       </c>
       <c r="F87">
-        <v>0.9345</v>
+        <v>0.640020629190304</v>
       </c>
       <c r="G87">
         <v>141.86197711168299</v>
@@ -37168,6 +36077,9 @@
         <f>C45</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
       <c r="E89" t="s">
         <v>2</v>
       </c>
@@ -37198,11 +36110,14 @@
         <v>1000</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:C98" si="10">B90*0.8</f>
+        <f t="shared" ref="C90:C98" si="16">B90*0.8</f>
         <v>800</v>
       </c>
+      <c r="D90">
+        <v>13.9369173688525</v>
+      </c>
       <c r="E90">
-        <v>150.40375</v>
+        <v>147.90125</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -37225,18 +36140,21 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f>$A90</f>
+        <f t="shared" ref="A91:A98" si="17">$A90</f>
         <v>0.2</v>
       </c>
       <c r="B91">
         <v>1500</v>
       </c>
       <c r="C91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1200</v>
       </c>
+      <c r="D91">
+        <v>13.9232450081627</v>
+      </c>
       <c r="E91">
-        <v>171.26083333333301</v>
+        <v>165.895833333333</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -37259,18 +36177,21 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f>$A91</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="B92">
         <v>2000</v>
       </c>
       <c r="C92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1600</v>
       </c>
+      <c r="D92">
+        <v>13.7529656309357</v>
+      </c>
       <c r="E92">
-        <v>190.71</v>
+        <v>174.39375000000001</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -37293,21 +36214,24 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f>$A92</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="B93">
         <v>2500</v>
       </c>
       <c r="C93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2000</v>
       </c>
+      <c r="D93">
+        <v>10.432704184934501</v>
+      </c>
       <c r="E93">
-        <v>195.102</v>
+        <v>219.35707070706999</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G93">
         <v>74.037796783812595</v>
@@ -37327,21 +36251,24 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f>$A93</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="B94">
         <v>3000</v>
       </c>
       <c r="C94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2400</v>
       </c>
+      <c r="D94">
+        <v>8.6855111692247498</v>
+      </c>
       <c r="E94">
-        <v>206.454393305439</v>
+        <v>245.742034046268</v>
       </c>
       <c r="F94">
-        <v>0.99583333333333302</v>
+        <v>0.95458333333333301</v>
       </c>
       <c r="G94">
         <v>90.087016588159898</v>
@@ -37361,21 +36288,24 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f>$A94</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="B95">
         <v>3500</v>
       </c>
       <c r="C95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2800</v>
       </c>
+      <c r="D95">
+        <v>7.0092301020748504</v>
+      </c>
       <c r="E95">
-        <v>213.90918958031801</v>
+        <v>277.00780944943301</v>
       </c>
       <c r="F95">
-        <v>0.98714285714285699</v>
+        <v>0.91464285714285698</v>
       </c>
       <c r="G95">
         <v>87.6504530830112</v>
@@ -37395,21 +36325,24 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f>$A95</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="B96">
         <v>4000</v>
       </c>
       <c r="C96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3200</v>
       </c>
+      <c r="D96">
+        <v>6.1031409217101604</v>
+      </c>
       <c r="E96">
-        <v>211.13505025125599</v>
+        <v>279.36323690955601</v>
       </c>
       <c r="F96">
-        <v>0.995</v>
+        <v>0.85664993726474203</v>
       </c>
       <c r="G96">
         <v>80.747213730055606</v>
@@ -37429,21 +36362,24 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>$A96</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="B97">
         <v>4500</v>
       </c>
       <c r="C97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3600</v>
       </c>
+      <c r="D97">
+        <v>4.8927985112141297</v>
+      </c>
       <c r="E97">
-        <v>204.07045009784699</v>
+        <v>297.08762322015298</v>
       </c>
       <c r="F97">
-        <v>0.993611111111111</v>
+        <v>0.76701204144497304</v>
       </c>
       <c r="G97">
         <v>69.8432953134499</v>
@@ -37463,21 +36399,24 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>$A97</f>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="B98">
         <v>5000</v>
       </c>
       <c r="C98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4000</v>
       </c>
+      <c r="D98">
+        <v>4.4598790869432099</v>
+      </c>
       <c r="E98">
-        <v>202.97572435395401</v>
+        <v>304.88700173310201</v>
       </c>
       <c r="F98">
-        <v>0.95774999999999999</v>
+        <v>0.733536740401729</v>
       </c>
       <c r="G98">
         <v>71.794720219436996</v>
@@ -37506,6 +36445,9 @@
         <f>C56</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
       <c r="E100" t="s">
         <v>2</v>
       </c>
@@ -37536,11 +36478,14 @@
         <v>1000</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:C109" si="11">B101*0.8</f>
+        <f t="shared" ref="C101:C109" si="18">B101*0.8</f>
         <v>800</v>
       </c>
+      <c r="D101">
+        <v>13.951153324287599</v>
+      </c>
       <c r="E101">
-        <v>185.07124999999999</v>
+        <v>170.43125000000001</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -37563,18 +36508,21 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f>$A101</f>
+        <f t="shared" ref="A102:A109" si="19">$A101</f>
         <v>0.1</v>
       </c>
       <c r="B102">
         <v>1500</v>
       </c>
       <c r="C102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1200</v>
       </c>
+      <c r="D102">
+        <v>13.928564484454901</v>
+      </c>
       <c r="E102">
-        <v>178.95333333333301</v>
+        <v>171.43666666666601</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -37597,18 +36545,21 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f>$A102</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="B103">
         <v>2000</v>
       </c>
       <c r="C103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1600</v>
       </c>
+      <c r="D103">
+        <v>12.678134461449099</v>
+      </c>
       <c r="E103">
-        <v>168.489375</v>
+        <v>180.83250000000001</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -37631,21 +36582,24 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f>$A103</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="B104">
         <v>2500</v>
       </c>
       <c r="C104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2000</v>
       </c>
+      <c r="D104">
+        <v>10.3216491857326</v>
+      </c>
       <c r="E104">
-        <v>176.52128192288399</v>
+        <v>217.440925087983</v>
       </c>
       <c r="F104">
-        <v>0.99850000000000005</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="G104">
         <v>45.6873770535502</v>
@@ -37665,21 +36619,24 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f>$A104</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="B105">
         <v>3000</v>
       </c>
       <c r="C105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2400</v>
       </c>
+      <c r="D105">
+        <v>9.0769800957127291</v>
+      </c>
       <c r="E105">
-        <v>172.16972477064201</v>
+        <v>222.40639861651499</v>
       </c>
       <c r="F105">
-        <v>0.99916666666666598</v>
+        <v>0.96375</v>
       </c>
       <c r="G105">
         <v>45.237313781047099</v>
@@ -37699,21 +36656,24 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f>$A105</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="B106">
         <v>3500</v>
       </c>
       <c r="C106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2800</v>
       </c>
+      <c r="D106">
+        <v>7.7877028524324396</v>
+      </c>
       <c r="E106">
-        <v>170.64996288047499</v>
+        <v>240.361882716049</v>
       </c>
       <c r="F106">
-        <v>0.96214285714285697</v>
+        <v>0.92571428571428505</v>
       </c>
       <c r="G106">
         <v>39.7280993902259</v>
@@ -37733,21 +36693,24 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f>$A106</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="B107">
         <v>4000</v>
       </c>
       <c r="C107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3200</v>
       </c>
+      <c r="D107">
+        <v>6.2648528675982904</v>
+      </c>
       <c r="E107">
-        <v>176.51364682670101</v>
+        <v>257.67979761474498</v>
       </c>
       <c r="F107">
-        <v>0.9503125</v>
+        <v>0.87067337948395196</v>
       </c>
       <c r="G107">
         <v>39.673095612539498</v>
@@ -37767,21 +36730,24 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f>$A107</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="B108">
         <v>4500</v>
       </c>
       <c r="C108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3600</v>
       </c>
+      <c r="D108">
+        <v>4.9332888473113803</v>
+      </c>
       <c r="E108">
-        <v>159.72263242375601</v>
+        <v>290.93277310924299</v>
       </c>
       <c r="F108">
-        <v>0.86527777777777704</v>
+        <v>0.79932829554995799</v>
       </c>
       <c r="G108">
         <v>36.495898420957701</v>
@@ -37801,21 +36767,24 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f>$A108</f>
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
       <c r="B109">
         <v>5000</v>
       </c>
       <c r="C109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
+      <c r="D109">
+        <v>4.3532732450940603</v>
+      </c>
       <c r="E109">
-        <v>165.409936164307</v>
+        <v>302.84766839378199</v>
       </c>
       <c r="F109">
-        <v>0.90075000000000005</v>
+        <v>0.74459876543209802</v>
       </c>
       <c r="G109">
         <v>33.552842478745198</v>
@@ -37844,6 +36813,9 @@
         <f>C67</f>
         <v>vehicles tracked</v>
       </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
       <c r="E111" t="s">
         <v>2</v>
       </c>
@@ -37874,14 +36846,17 @@
         <v>1000</v>
       </c>
       <c r="C112">
-        <f t="shared" ref="C112:C120" si="12">B112*0.8</f>
+        <f t="shared" ref="C112:C120" si="20">B112*0.8</f>
         <v>800</v>
       </c>
+      <c r="D112">
+        <v>13.9483257084763</v>
+      </c>
       <c r="E112">
-        <v>155.470672389127</v>
+        <v>157.38</v>
       </c>
       <c r="F112">
-        <v>0.89730423620025601</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>25.445843639671999</v>
@@ -37901,21 +36876,24 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f>$A112</f>
+        <f t="shared" ref="A113:A120" si="21">$A112</f>
         <v>0</v>
       </c>
       <c r="B113">
         <v>1500</v>
       </c>
       <c r="C113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1200</v>
       </c>
+      <c r="D113">
+        <v>13.921282798833801</v>
+      </c>
       <c r="E113">
-        <v>150.307286166842</v>
+        <v>158.92333333333301</v>
       </c>
       <c r="F113">
-        <v>0.90622009569377904</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>22.372647044338901</v>
@@ -37935,21 +36913,24 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f>$A113</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B114">
         <v>2000</v>
       </c>
       <c r="C114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1600</v>
       </c>
+      <c r="D114">
+        <v>12.770954195247899</v>
+      </c>
       <c r="E114">
-        <v>136.912894961571</v>
+        <v>170.110625</v>
       </c>
       <c r="F114">
-        <v>0.88444108761329299</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>17.8577716458719</v>
@@ -37969,21 +36950,24 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f>$A114</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B115">
         <v>2500</v>
       </c>
       <c r="C115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2000</v>
       </c>
+      <c r="D115">
+        <v>10.6436345466958</v>
+      </c>
       <c r="E115">
-        <v>129.462976813762</v>
+        <v>199.301356102461</v>
       </c>
       <c r="F115">
-        <v>0.89912575655682503</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="G115">
         <v>19.666746324159401</v>
@@ -38003,21 +36987,24 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f>$A115</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B116">
         <v>3000</v>
       </c>
       <c r="C116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2400</v>
       </c>
+      <c r="D116">
+        <v>8.3653020837504801</v>
+      </c>
       <c r="E116">
-        <v>122.57123565158599</v>
+        <v>227.20658293633599</v>
       </c>
       <c r="F116">
-        <v>0.88470728793309406</v>
+        <v>0.96208333333333296</v>
       </c>
       <c r="G116">
         <v>21.6283376850858</v>
@@ -38037,21 +37024,24 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f>$A116</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B117">
         <v>3500</v>
       </c>
       <c r="C117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2800</v>
       </c>
+      <c r="D117">
+        <v>7.1138210581634196</v>
+      </c>
       <c r="E117">
-        <v>128.733191035218</v>
+        <v>236.81245074861999</v>
       </c>
       <c r="F117">
-        <v>0.92406311637080796</v>
+        <v>0.90642857142857103</v>
       </c>
       <c r="G117">
         <v>21.6792281361253</v>
@@ -38071,21 +37061,24 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f>$A117</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B118">
         <v>4000</v>
       </c>
       <c r="C118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3200</v>
       </c>
+      <c r="D118">
+        <v>6.4761235452926798</v>
+      </c>
       <c r="E118">
-        <v>122.332326283987</v>
+        <v>236.17800859598799</v>
       </c>
       <c r="F118">
-        <v>0.91268382352941102</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="G118">
         <v>21.692407019414699</v>
@@ -38105,21 +37098,24 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f>$A118</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B119">
         <v>4500</v>
       </c>
       <c r="C119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3600</v>
       </c>
+      <c r="D119">
+        <v>5.1669898881661203</v>
+      </c>
       <c r="E119">
-        <v>120.969669937555</v>
+        <v>273.56847188685703</v>
       </c>
       <c r="F119">
-        <v>0.92874896437448196</v>
+        <v>0.81708004509582799</v>
       </c>
       <c r="G119">
         <v>21.041513654582999</v>
@@ -38139,21 +37135,24 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f>$A119</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B120">
         <v>5000</v>
       </c>
       <c r="C120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4000</v>
       </c>
+      <c r="D120">
+        <v>4.3693121322327002</v>
+      </c>
       <c r="E120">
-        <v>128.17630293159601</v>
+        <v>290.216543375924</v>
       </c>
       <c r="F120">
-        <v>0.93668954996186105</v>
+        <v>0.75925453152923095</v>
       </c>
       <c r="G120">
         <v>24.8221664728751</v>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7BE58F-8AD7-4378-99C3-9C91B7EA25F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3132F3A-4E93-46EA-8025-76D45459874C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
   <sheets>
     <sheet name="street grid network" sheetId="1" r:id="rId1"/>
@@ -1052,36 +1052,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$2:$B$10</c:f>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,25 +1093,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>204.937922528499</c:v>
+                  <c:v>17.449459656805001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>535.69172233566098</c:v>
+                  <c:v>207.21251381557201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>975.92463750999104</c:v>
+                  <c:v>485.696883203894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1508.68373858922</c:v>
+                  <c:v>673.99295511901903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1893.7312361152699</c:v>
+                  <c:v>1480.2331367775801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2495.4802435870201</c:v>
+                  <c:v>1685.59020035199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3369.2701046506199</c:v>
+                  <c:v>3016.2664532806102</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4225.8732134807497</c:v>
@@ -1169,36 +1169,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$13:$B$21</c:f>
+              <c:f>'berlin network'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,28 +1210,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>196.752135536156</c:v>
+                  <c:v>165.19767598464401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169.20864257364701</c:v>
+                  <c:v>121.08363687623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292.00091532654898</c:v>
+                  <c:v>130.55671940170501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>616.78409353414395</c:v>
+                  <c:v>116.53411427746499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>855.53269781324002</c:v>
+                  <c:v>163.55056830519899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1092.33264450668</c:v>
+                  <c:v>521.27476302211403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1556.35796255167</c:v>
+                  <c:v>1387.6281428325799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1757.56132821965</c:v>
+                  <c:v>1666.0044600163601</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2250.0896669799399</c:v>
@@ -1308,7 +1308,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$B$24:$B$32</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1316,31 +1316,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>1500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2250</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3750</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4500</c:v>
-                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>5250</c:v>
+                        <c:v>1700</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6000</c:v>
+                        <c:v>2000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6750</c:v>
+                        <c:v>2200</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7500</c:v>
+                        <c:v>2500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1402,8 +1402,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
-          <c:min val="1500"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1516,6 +1516,7 @@
         <c:crossAx val="899501584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="899501584"/>
@@ -1835,36 +1836,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$2:$B$10</c:f>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,36 +1953,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$13:$B$21</c:f>
+              <c:f>'berlin network'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,28 +1994,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.069943358246</c:v>
+                  <c:v>28.331242595251901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.191372743167999</c:v>
+                  <c:v>22.652528764020701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.916556287419901</c:v>
+                  <c:v>22.435746911766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.897448679529699</c:v>
+                  <c:v>18.185029015472701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.7798084077446</c:v>
+                  <c:v>21.244179912538598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.498403001224599</c:v>
+                  <c:v>23.9604557546179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0717478001332399</c:v>
+                  <c:v>20.748955619337501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.077630225627299</c:v>
+                  <c:v>22.752335093360699</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13.861347491595099</c:v>
@@ -2091,7 +2092,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$B$24:$B$32</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2099,31 +2100,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>1500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2250</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3750</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4500</c:v>
-                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>5250</c:v>
+                        <c:v>1700</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6000</c:v>
+                        <c:v>2000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6750</c:v>
+                        <c:v>2200</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7500</c:v>
+                        <c:v>2500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2158,8 +2159,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
-          <c:min val="1500"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2602,36 +2603,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$2:$B$10</c:f>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,36 +2720,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$13:$B$21</c:f>
+              <c:f>'berlin network'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,28 +2761,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>189.33227601077101</c:v>
+                  <c:v>159.82752002423101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158.589720314049</c:v>
+                  <c:v>115.863629904576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226.47340960723599</c:v>
+                  <c:v>123.092837361855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189.35585946501101</c:v>
+                  <c:v>103.456044683814</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166.72133089005101</c:v>
+                  <c:v>134.12621441699801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>228.895085591791</c:v>
+                  <c:v>207.67329593048001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166.53738271770001</c:v>
+                  <c:v>221.714472386316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>198.75630845798699</c:v>
+                  <c:v>248.66274364824901</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>182.51323034729</c:v>
@@ -2858,7 +2859,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$B$24:$B$32</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2866,31 +2867,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>1500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2250</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3750</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4500</c:v>
-                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>5250</c:v>
+                        <c:v>1700</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6000</c:v>
+                        <c:v>2000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6750</c:v>
+                        <c:v>2200</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7500</c:v>
+                        <c:v>2500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2925,8 +2926,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
-          <c:min val="1500"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3039,6 +3040,7 @@
         <c:crossAx val="899501584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="899501584"/>
@@ -18390,36 +18392,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$2:$B$10</c:f>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18431,25 +18433,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>174.755</c:v>
+                  <c:v>131.04599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.831666666666</c:v>
+                  <c:v>171.194285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>339.90062499999999</c:v>
+                  <c:v>251.09899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>451.76499999999999</c:v>
+                  <c:v>278.51249999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.50750000000005</c:v>
+                  <c:v>405.07533333333299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657.14392857142798</c:v>
+                  <c:v>507.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>798.7215625</c:v>
+                  <c:v>723.97699999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>941.29750000000001</c:v>
@@ -18507,36 +18509,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$13:$B$21</c:f>
+              <c:f>'berlin network'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18548,28 +18550,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>160.47749999999999</c:v>
+                  <c:v>161.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.73583333333301</c:v>
+                  <c:v>153.34285714285701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185.15125</c:v>
+                  <c:v>154.39699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.42949999999999</c:v>
+                  <c:v>155.900833333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>308.18875000000003</c:v>
+                  <c:v>169.809333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>403.29321428571399</c:v>
+                  <c:v>234.90588235294101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>487.27968750000002</c:v>
+                  <c:v>374.78250000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>606.18972222222203</c:v>
+                  <c:v>481.165454545454</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>750.17425000000003</c:v>
@@ -18646,7 +18648,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$B$24:$B$32</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -18654,31 +18656,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>1500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2250</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3750</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4500</c:v>
-                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>5250</c:v>
+                        <c:v>1700</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6000</c:v>
+                        <c:v>2000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6750</c:v>
+                        <c:v>2200</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7500</c:v>
+                        <c:v>2500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18713,8 +18715,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
-          <c:min val="1500"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18872,20 +18874,6 @@
                   <a:rPr lang="en-GB"/>
                   <a:t>average trip time (s)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>(completed</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> trips only)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -19155,36 +19143,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$2:$B$10</c:f>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19196,25 +19184,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>34.7632833347201</c:v>
+                  <c:v>3.3610893259096999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.708207432037796</c:v>
+                  <c:v>31.009543626923801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185.09365002778901</c:v>
+                  <c:v>84.660962432794605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>302.39869000929701</c:v>
+                  <c:v>117.16405507473701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>389.03525220989502</c:v>
+                  <c:v>254.727401614418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>522.73796436885004</c:v>
+                  <c:v>327.79608604519399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>688.47906336819506</c:v>
+                  <c:v>564.62739860481304</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>856.05754318139498</c:v>
@@ -19272,36 +19260,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$B$13:$B$21</c:f>
+              <c:f>'berlin network'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5250</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6750</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19313,28 +19301,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.633324904692003</c:v>
+                  <c:v>30.575161777561998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.570626405716599</c:v>
+                  <c:v>24.948347924120501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.7378930311326</c:v>
+                  <c:v>25.163339893663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.398228858401197</c:v>
+                  <c:v>24.4128932659318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.219836274751</c:v>
+                  <c:v>31.2235482523215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223.41400250072999</c:v>
+                  <c:v>81.057565277503699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>315.84585412361798</c:v>
+                  <c:v>208.489314451929</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.62616588664798</c:v>
+                  <c:v>284.144933895029</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>534.66655226746695</c:v>
@@ -19411,7 +19399,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$B$24:$B$32</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -19419,31 +19407,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>1500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2250</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3750</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4500</c:v>
-                      </c:pt>
                       <c:pt idx="5">
-                        <c:v>5250</c:v>
+                        <c:v>1700</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6000</c:v>
+                        <c:v>2000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6750</c:v>
+                        <c:v>2200</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7500</c:v>
+                        <c:v>2500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19478,8 +19466,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
-          <c:min val="1500"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -32066,8 +32054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4999D6-517F-4343-8429-347E88848D05}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="G33:K50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32121,28 +32109,27 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <f>1000*1.5</f>
-        <v>1500</v>
+      <c r="B2">
+        <v>2500</v>
       </c>
       <c r="C2" s="1">
-        <f>(B2/1.5)*0.8</f>
-        <v>800</v>
+        <f>(B2/5)</f>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>10.497267603215899</v>
+        <v>13.7867619004013</v>
       </c>
       <c r="E2">
-        <v>174.755</v>
+        <v>131.04599999999999</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.7632833347201</v>
+        <v>3.3610893259096999</v>
       </c>
       <c r="H2">
-        <v>204.937922528499</v>
+        <v>17.449459656805001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -32151,35 +32138,34 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>55.7610659999999</v>
+        <v>105.27643</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <f>1500*1.5</f>
-        <v>2250</v>
+      <c r="B3">
+        <v>3750</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C10" si="0">(B3/1.5)*0.8</f>
-        <v>1200</v>
+        <f>(B3/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D3">
-        <v>7.5549203130107596</v>
+        <v>10.521379218264901</v>
       </c>
       <c r="E3">
-        <v>249.831666666666</v>
+        <v>171.194285714285</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>94.708207432037796</v>
+        <v>31.009543626923801</v>
       </c>
       <c r="H3">
-        <v>535.69172233566098</v>
+        <v>207.21251381557201</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -32188,35 +32174,34 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>59.153242999999897</v>
+        <v>67.994578999999803</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <f>2000*1.5</f>
-        <v>3000</v>
+      <c r="B4">
+        <v>5000</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <f>(B4/5)</f>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>5.6270674700877601</v>
+        <v>7.5366289790082801</v>
       </c>
       <c r="E4">
-        <v>339.90062499999999</v>
+        <v>251.09899999999999</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>185.09365002778901</v>
+        <v>84.660962432794605</v>
       </c>
       <c r="H4">
-        <v>975.92463750999104</v>
+        <v>485.696883203894</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -32225,35 +32210,34 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>71.2599379999983</v>
+        <v>120.03930599998</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <f>2500*1.5</f>
-        <v>3750</v>
+      <c r="B5">
+        <v>6250</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <f>(B5/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D5">
-        <v>4.32130643144112</v>
+        <v>6.8826653501488497</v>
       </c>
       <c r="E5">
-        <v>451.76499999999999</v>
+        <v>278.51249999999999</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>302.39869000929701</v>
+        <v>117.16405507473701</v>
       </c>
       <c r="H5">
-        <v>1508.68373858922</v>
+        <v>673.99295511901903</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -32262,35 +32246,34 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>284.33650900001999</v>
+        <v>430.87104300038402</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <f>3000*1.5</f>
-        <v>4500</v>
+      <c r="B6">
+        <v>7500</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+        <f t="shared" ref="C3:C10" si="0">(B6/5)</f>
+        <v>1500</v>
       </c>
       <c r="D6">
-        <v>3.7771839163478602</v>
+        <v>4.9249769178737104</v>
       </c>
       <c r="E6">
-        <v>536.50750000000005</v>
+        <v>405.07533333333299</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>389.03525220989502</v>
+        <v>254.727401614418</v>
       </c>
       <c r="H6">
-        <v>1893.7312361152699</v>
+        <v>1480.2331367775801</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -32299,35 +32282,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>510.73127800005199</v>
+        <v>2170.7395819992698</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
-        <f>3500*1.5</f>
-        <v>5250</v>
+      <c r="B7">
+        <v>8750</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <f>(B7/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D7">
-        <v>3.3104130808482299</v>
+        <v>4.0100923801718196</v>
       </c>
       <c r="E7">
-        <v>657.14392857142798</v>
+        <v>507.43</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>522.73796436885004</v>
+        <v>327.79608604519399</v>
       </c>
       <c r="H7">
-        <v>2495.4802435870201</v>
+        <v>1685.59020035199</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -32336,7 +32318,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>986.99180600032196</v>
+        <v>3844.2542000039498</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -32344,27 +32326,26 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <f>4000*1.5</f>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="D8">
-        <v>2.8780523876241202</v>
+        <v>2.90766143123331</v>
       </c>
       <c r="E8">
-        <v>798.7215625</v>
+        <v>723.97699999999998</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>688.47906336819506</v>
+        <v>564.62739860481304</v>
       </c>
       <c r="H8">
-        <v>3369.2701046506199</v>
+        <v>3016.2664532806102</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -32373,7 +32354,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1829.42515899872</v>
+        <v>9916.8560560190308</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -32381,12 +32362,11 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <f>4500*1.5</f>
-        <v>6750</v>
+        <v>11250</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>3600</v>
+        <f>(B9/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D9">
         <v>2.5210827489596901</v>
@@ -32418,12 +32398,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <f>5000*1.5</f>
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <f>(B10/5)</f>
+        <v>2500</v>
       </c>
       <c r="D10">
         <v>2.1992614910833899</v>
@@ -32515,35 +32494,35 @@
       </c>
       <c r="B13" s="1">
         <f>B2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C13" s="1">
         <f>C2</f>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D13">
-        <v>13.946425511364501</v>
+        <v>13.9508206875193</v>
       </c>
       <c r="E13">
-        <v>160.47749999999999</v>
+        <v>161.44999999999999</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.633324904692003</v>
+        <v>30.575161777561998</v>
       </c>
       <c r="H13">
-        <v>196.752135536156</v>
+        <v>165.19767598464401</v>
       </c>
       <c r="I13">
-        <v>31.069943358246</v>
+        <v>28.331242595251901</v>
       </c>
       <c r="J13">
-        <v>189.33227601077101</v>
+        <v>159.82752002423101</v>
       </c>
       <c r="K13">
-        <v>33.786714999999901</v>
+        <v>76.307151999999903</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -32552,35 +32531,35 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:C21" si="2">B3</f>
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+        <f>C3</f>
+        <v>700</v>
       </c>
       <c r="D14">
-        <v>13.455583435952599</v>
+        <v>13.9461524128936</v>
       </c>
       <c r="E14">
-        <v>161.73583333333301</v>
+        <v>153.34285714285701</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.570626405716599</v>
+        <v>24.948347924120501</v>
       </c>
       <c r="H14">
-        <v>169.20864257364701</v>
+        <v>121.08363687623</v>
       </c>
       <c r="I14">
-        <v>26.191372743167999</v>
+        <v>22.652528764020701</v>
       </c>
       <c r="J14">
-        <v>158.589720314049</v>
+        <v>115.863629904576</v>
       </c>
       <c r="K14">
-        <v>36.644534999999799</v>
+        <v>66.797707000000102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -32589,35 +32568,35 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="D15">
-        <v>11.6674880671883</v>
+        <v>13.925205800630801</v>
       </c>
       <c r="E15">
-        <v>185.15125</v>
+        <v>154.39699999999999</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.7378930311326</v>
+        <v>25.163339893663</v>
       </c>
       <c r="H15">
-        <v>292.00091532654898</v>
+        <v>130.55671940170501</v>
       </c>
       <c r="I15">
-        <v>29.916556287419901</v>
+        <v>22.435746911766</v>
       </c>
       <c r="J15">
-        <v>226.47340960723599</v>
+        <v>123.092837361855</v>
       </c>
       <c r="K15">
-        <v>50.477767999999998</v>
+        <v>115.262923</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -32626,35 +32605,35 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="2"/>
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="D16">
-        <v>9.0503314155617698</v>
+        <v>13.5673852502392</v>
       </c>
       <c r="E16">
-        <v>235.42949999999999</v>
+        <v>155.900833333333</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>99.398228858401197</v>
+        <v>24.4128932659318</v>
       </c>
       <c r="H16">
-        <v>616.78409353414395</v>
+        <v>116.53411427746499</v>
       </c>
       <c r="I16">
-        <v>19.897448679529699</v>
+        <v>18.185029015472701</v>
       </c>
       <c r="J16">
-        <v>189.35585946501101</v>
+        <v>103.456044683814</v>
       </c>
       <c r="K16">
-        <v>123.18681999999001</v>
+        <v>101.16020899999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -32663,35 +32642,35 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="D17">
-        <v>7.00264853924745</v>
+        <v>12.3616683810077</v>
       </c>
       <c r="E17">
-        <v>308.18875000000003</v>
+        <v>169.809333333333</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>157.219836274751</v>
+        <v>31.2235482523215</v>
       </c>
       <c r="H17">
-        <v>855.53269781324002</v>
+        <v>163.55056830519899</v>
       </c>
       <c r="I17">
-        <v>13.7798084077446</v>
+        <v>21.244179912538598</v>
       </c>
       <c r="J17">
-        <v>166.72133089005101</v>
+        <v>134.12621441699801</v>
       </c>
       <c r="K17">
-        <v>318.40775299996102</v>
+        <v>488.73044099956701</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -32700,35 +32679,35 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="2"/>
-        <v>5250</v>
+        <v>8750</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="D18">
-        <v>5.47843159133597</v>
+        <v>9.0230380127209902</v>
       </c>
       <c r="E18">
-        <v>403.29321428571399</v>
+        <v>234.90588235294101</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>223.41400250072999</v>
+        <v>81.057565277503699</v>
       </c>
       <c r="H18">
-        <v>1092.33264450668</v>
+        <v>521.27476302211403</v>
       </c>
       <c r="I18">
-        <v>23.498403001224599</v>
+        <v>23.9604557546179</v>
       </c>
       <c r="J18">
-        <v>228.895085591791</v>
+        <v>207.67329593048001</v>
       </c>
       <c r="K18">
-        <v>601.49040499977298</v>
+        <v>3095.25793700034</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -32737,35 +32716,35 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="2"/>
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="D19">
-        <v>4.47488768962896</v>
+        <v>5.60952018837592</v>
       </c>
       <c r="E19">
-        <v>487.27968750000002</v>
+        <v>374.78250000000003</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>315.84585412361798</v>
+        <v>208.489314451929</v>
       </c>
       <c r="H19">
-        <v>1556.35796255167</v>
+        <v>1387.6281428325799</v>
       </c>
       <c r="I19">
-        <v>9.0717478001332399</v>
+        <v>20.748955619337501</v>
       </c>
       <c r="J19">
-        <v>166.53738271770001</v>
+        <v>221.714472386316</v>
       </c>
       <c r="K19">
-        <v>1178.2034420007501</v>
+        <v>6195.6009830382</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -32774,35 +32753,35 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="2"/>
-        <v>6750</v>
+        <v>11250</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="2"/>
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="D20">
-        <v>3.6135139209717502</v>
+        <v>4.4023979655457701</v>
       </c>
       <c r="E20">
-        <v>606.18972222222203</v>
+        <v>481.165454545454</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>400.62616588664798</v>
+        <v>284.144933895029</v>
       </c>
       <c r="H20">
-        <v>1757.56132821965</v>
+        <v>1666.0044600163601</v>
       </c>
       <c r="I20">
-        <v>13.077630225627299</v>
+        <v>22.752335093360699</v>
       </c>
       <c r="J20">
-        <v>198.75630845798699</v>
+        <v>248.66274364824901</v>
       </c>
       <c r="K20">
-        <v>1896.65666000034</v>
+        <v>13083.8672721689</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -32811,11 +32790,11 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="C21" s="1">
         <f>C10</f>
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D21">
         <v>2.9929346415182798</v>
@@ -32907,11 +32886,11 @@
       </c>
       <c r="B24" s="1">
         <f>B2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C24" s="1">
         <f>C2</f>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -32928,11 +32907,11 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ref="B25:C32" si="4">B3</f>
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -32949,11 +32928,11 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -32970,11 +32949,11 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>3750</v>
+        <v>6250</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -32991,11 +32970,11 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="4"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -33012,11 +32991,11 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="4"/>
-        <v>5250</v>
+        <v>8750</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -33033,11 +33012,11 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -33054,11 +33033,11 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="4"/>
-        <v>6750</v>
+        <v>11250</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -33075,11 +33054,11 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="4"/>
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -33100,7 +33079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50B34B4-084F-4934-B405-A3E078D07E48}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
+    <sheetView topLeftCell="B127" workbookViewId="0">
       <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3132F3A-4E93-46EA-8025-76D45459874C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC30581-03FE-4C98-BF1A-9CC3BD5FF1BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
   <sheets>
     <sheet name="street grid network" sheetId="1" r:id="rId1"/>
@@ -3359,36 +3359,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$2:$B$10</c:f>
+              <c:f>'safety parameter'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3399,15 +3390,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>141.77125000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>217.60557432432401</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>247.364928909952</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>258.65311152187297</c:v>
                 </c:pt>
@@ -3476,36 +3458,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$13:$B$21</c:f>
+              <c:f>'safety parameter'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,36 +3575,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$24:$B$32</c:f>
+              <c:f>'safety parameter'!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,36 +3692,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$35:$B$43</c:f>
+              <c:f>'safety parameter'!$C$35:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3827,36 +3809,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$46:$B$54</c:f>
+              <c:f>'safety parameter'!$C$46:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3950,36 +3932,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$57:$B$65</c:f>
+              <c:f>'safety parameter'!$C$57:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,36 +4055,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$68:$B$76</c:f>
+              <c:f>'safety parameter'!$C$68:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,36 +4172,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$79:$B$87</c:f>
+              <c:f>'safety parameter'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,36 +4295,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$90:$B$98</c:f>
+              <c:f>'safety parameter'!$C$90:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4436,36 +4418,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$101:$B$109</c:f>
+              <c:f>'safety parameter'!$C$101:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4559,36 +4541,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$112:$B$120</c:f>
+              <c:f>'safety parameter'!$C$112:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,13 +4582,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>157.38</c:v>
+                  <c:v>159.13200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158.92333333333301</c:v>
+                  <c:v>156.45142857142801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170.110625</c:v>
+                  <c:v>154.49299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>199.301356102461</c:v>
@@ -4652,8 +4634,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4812,20 +4794,6 @@
                   <a:rPr lang="en-GB"/>
                   <a:t>average trip time (s)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>(completed</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> trips only)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5010,1740 +4978,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Proportion of trips</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> completed as number of vehicles increases</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16856549037842466"/>
-          <c:y val="2.7491396182561426E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92312499999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76624999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70607142857142802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63414634146341398</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61052929521652899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55272633744855904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$13:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$13:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.926875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77666666666666595</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71357142857142797</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64598425196850395</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.60084507042253499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56233966136480196</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$24:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$24:$F$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98750000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93374999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71642857142857097</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64452141057934498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61725601131541696</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.568240123140071</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$35:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$35:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93125000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86350000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79541666666666599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73278335724533705</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65654648956356698</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63767705382436202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.59322903308540598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$46:$B$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$46:$F$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81791666666666596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75821428571428495</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69194609840175403</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65761177136389304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.59640564826700904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$57:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$57:$F$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99916666666666598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95062500000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88849999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.836666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78392857142857097</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72630591179230497</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64453235377225204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61817253700867703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$68:$B$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$68:$F$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98624999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89166666666666605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82178571428571401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75804939043451003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65453005927180297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64267483409903003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$79</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$79:$B$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$79:$F$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95950000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89958333333333296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83464285714285702</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76812499999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.69414743950478297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.640020629190304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$90</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$90:$B$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$90:$F$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95458333333333301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91464285714285698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85664993726474203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76701204144497304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.733536740401729</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$101:$B$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$101:$F$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99450000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92571428571428505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87067337948395196</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79932829554995799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.74459876543209802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'safety parameter'!$A$112</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$B$112:$B$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'safety parameter'!$F$112:$F$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99550000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96208333333333296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90642857142857103</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87250000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81708004509582799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75925453152923095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-6B6B-4F26-8F26-EA5C8685F8E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="966847616"/>
-        <c:axId val="899501584"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="966847616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Vehicles</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="899501584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="899501584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Proportion</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of trips completed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="966847616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
               <a:t>average % difference between actual time and optimal</a:t>
             </a:r>
             <a:r>
@@ -6834,31 +5068,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6869,15 +5103,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>15.7426863607946</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.888405998048896</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116.050914918582</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>175.74192284793699</c:v>
                 </c:pt>
@@ -6951,31 +5176,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7068,31 +5293,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7185,31 +5410,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7302,31 +5527,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7419,31 +5644,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,31 +5767,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7665,31 +5890,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7788,31 +6013,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7911,31 +6136,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8034,31 +6259,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8070,13 +6295,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.445843639671999</c:v>
+                  <c:v>30.225495476629298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.372647044338901</c:v>
+                  <c:v>37.155461022786703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.8577716458719</c:v>
+                  <c:v>27.331951193713898</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.666746324159401</c:v>
@@ -8435,7 +6660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8560,31 +6785,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8595,15 +6820,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>373.05455950284102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>679.70138549655701</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>1133.3891688669701</c:v>
                 </c:pt>
@@ -8677,31 +6893,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8794,31 +7010,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8911,31 +7127,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9028,31 +7244,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9145,31 +7361,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9268,31 +7484,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9391,31 +7607,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9514,31 +7730,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9637,31 +7853,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9760,31 +7976,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9796,13 +8012,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>125.07033748136701</c:v>
+                  <c:v>163.70107907764501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.682100902949</c:v>
+                  <c:v>230.56954468071299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.612773868697204</c:v>
+                  <c:v>149.067836956516</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>89.942815092595595</c:v>
@@ -10162,7 +8378,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10287,31 +8503,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10322,15 +8538,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10404,31 +8611,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10521,31 +8728,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10638,31 +8845,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10755,31 +8962,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10872,31 +9079,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10995,31 +9202,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11118,31 +9325,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11241,31 +9448,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11364,31 +9571,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11487,31 +9694,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11523,13 +9730,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23.9325325614005</c:v>
+                  <c:v>27.973950719242701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.876229196072799</c:v>
+                  <c:v>34.711310746071803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.365717543381301</c:v>
+                  <c:v>23.266005906027601</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17.955823816886799</c:v>
@@ -11889,7 +10096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12024,31 +10231,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12059,15 +10266,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12141,31 +10339,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12258,31 +10456,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12375,31 +10573,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12492,31 +10690,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12609,31 +10807,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12732,31 +10930,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12855,31 +11053,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12978,31 +11176,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13101,31 +11299,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13224,31 +11422,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4500</c:v>
+                  <c:v>11250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13260,13 +11458,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>122.180893768169</c:v>
+                  <c:v>157.82407746240901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.590943257387295</c:v>
+                  <c:v>224.09261544856301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.555979937280199</c:v>
+                  <c:v>140.90235487860701</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>86.281780695798204</c:v>
@@ -20139,46 +18337,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -24628,522 +22786,6 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30293,44 +27935,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>77128</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>23118</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F1BEB3-A634-4BF5-AB0B-536ACDD4BAD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>142</xdr:row>
@@ -30361,7 +27965,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30399,7 +28003,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30437,7 +28041,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30475,7 +28079,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -32054,8 +29658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4999D6-517F-4343-8429-347E88848D05}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32257,7 +29861,7 @@
         <v>7500</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C3:C10" si="0">(B6/5)</f>
+        <f t="shared" ref="C6:C8" si="0">(B6/5)</f>
         <v>1500</v>
       </c>
       <c r="D6">
@@ -33079,8 +30683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50B34B4-084F-4934-B405-A3E078D07E48}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33140,36 +30744,9 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <f>B2*0.8</f>
-        <v>800</v>
-      </c>
-      <c r="D2">
-        <v>12.939506423199299</v>
-      </c>
-      <c r="E2">
-        <v>141.77125000000001</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>15.7426863607946</v>
-      </c>
-      <c r="H2">
-        <v>128.74575003537501</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>21.344321999999899</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="L2">
         <v>0.36799999999999999</v>
       </c>
@@ -33180,85 +30757,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1500</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">B3*0.8</f>
-        <v>1200</v>
-      </c>
-      <c r="D3">
-        <v>8.3257198979459908</v>
-      </c>
-      <c r="E3">
-        <v>217.60557432432401</v>
-      </c>
-      <c r="F3">
-        <v>0.98666666666666603</v>
-      </c>
-      <c r="G3">
-        <v>64.888405998048896</v>
-      </c>
-      <c r="H3">
-        <v>373.05455950284102</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>32.861709999999903</v>
-      </c>
+        <v>3750</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="1">A3</f>
+        <f t="shared" ref="A4:A10" si="0">A3</f>
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="D4">
-        <v>6.3094097760247898</v>
-      </c>
-      <c r="E4">
-        <v>247.364928909952</v>
-      </c>
-      <c r="F4">
-        <v>0.92312499999999997</v>
-      </c>
-      <c r="G4">
-        <v>116.050914918582</v>
-      </c>
-      <c r="H4">
-        <v>679.70138549655701</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>45.385841999999897</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2500</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>6250</v>
+      </c>
+      <c r="C5" s="1">
+        <f>(B5/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D5">
         <v>4.7654067362108901</v>
@@ -33287,15 +30810,15 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3000</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>7500</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C8" si="1">(B6/5)</f>
+        <v>1500</v>
       </c>
       <c r="D6">
         <v>4.3974317058237897</v>
@@ -33324,15 +30847,15 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3500</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>8750</v>
+      </c>
+      <c r="C7" s="1">
+        <f>(B7/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D7">
         <v>3.9663553733680201</v>
@@ -33361,15 +30884,15 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>4000</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="D8">
         <v>3.6855501882475501</v>
@@ -33398,15 +30921,15 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>4500</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>3600</v>
+      <c r="B9" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C9" s="1">
+        <f>(B9/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D9">
         <v>3.43870266054105</v>
@@ -33435,15 +30958,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>5000</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+      <c r="B10" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C10" s="1">
+        <f>(B10/5)</f>
+        <v>2500</v>
       </c>
       <c r="D10">
         <v>2.9940950885164899</v>
@@ -33510,11 +31033,12 @@
         <v>0.9</v>
       </c>
       <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13">
-        <f>B13*0.8</f>
-        <v>800</v>
+        <f>B2</f>
+        <v>2500</v>
+      </c>
+      <c r="C13" s="1">
+        <f>(B13/5)</f>
+        <v>500</v>
       </c>
       <c r="D13">
         <v>12.939506423199299</v>
@@ -33547,11 +31071,12 @@
         <v>0.9</v>
       </c>
       <c r="B14">
-        <v>1500</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C21" si="2">B14*0.8</f>
-        <v>1200</v>
+        <f t="shared" ref="B14:B21" si="2">B3</f>
+        <v>3750</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(B14/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D14">
         <v>8.3345502735346795</v>
@@ -33584,11 +31109,12 @@
         <v>0.9</v>
       </c>
       <c r="B15">
-        <v>2000</v>
-      </c>
-      <c r="C15">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>5000</v>
+      </c>
+      <c r="C15" s="1">
+        <f>(B15/5)</f>
+        <v>1000</v>
       </c>
       <c r="D15">
         <v>6.3674464166932196</v>
@@ -33621,11 +31147,12 @@
         <v>0.9</v>
       </c>
       <c r="B16">
-        <v>2500</v>
-      </c>
-      <c r="C16">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6250</v>
+      </c>
+      <c r="C16" s="1">
+        <f>(B16/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D16">
         <v>5.0004745251319997</v>
@@ -33658,11 +31185,12 @@
         <v>0.9</v>
       </c>
       <c r="B17">
-        <v>3000</v>
-      </c>
-      <c r="C17">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>7500</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C19" si="4">(B17/5)</f>
+        <v>1500</v>
       </c>
       <c r="D17">
         <v>4.5922552613542704</v>
@@ -33695,11 +31223,12 @@
         <v>0.9</v>
       </c>
       <c r="B18">
-        <v>3500</v>
-      </c>
-      <c r="C18">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>8750</v>
+      </c>
+      <c r="C18" s="1">
+        <f>(B18/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D18">
         <v>4.1942270381140201</v>
@@ -33732,11 +31261,12 @@
         <v>0.9</v>
       </c>
       <c r="B19">
-        <v>4000</v>
-      </c>
-      <c r="C19">
         <f t="shared" si="2"/>
-        <v>3200</v>
+        <v>10000</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="4"/>
+        <v>2000</v>
       </c>
       <c r="D19">
         <v>3.7929623160777899</v>
@@ -33769,11 +31299,12 @@
         <v>0.9</v>
       </c>
       <c r="B20">
-        <v>4500</v>
-      </c>
-      <c r="C20">
         <f t="shared" si="2"/>
-        <v>3600</v>
+        <v>11250</v>
+      </c>
+      <c r="C20" s="1">
+        <f>(B20/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D20">
         <v>3.5460319716044801</v>
@@ -33806,11 +31337,12 @@
         <v>0.9</v>
       </c>
       <c r="B21">
-        <v>5000</v>
-      </c>
-      <c r="C21">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>12500</v>
+      </c>
+      <c r="C21" s="1">
+        <f>(B21/5)</f>
+        <v>2500</v>
       </c>
       <c r="D21">
         <v>3.1610536708312802</v>
@@ -33878,11 +31410,12 @@
         <v>0.8</v>
       </c>
       <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:C32" si="4">B24*0.8</f>
-        <v>800</v>
+        <f>B13</f>
+        <v>2500</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(B24/5)</f>
+        <v>500</v>
       </c>
       <c r="D24">
         <v>12.939506423199299</v>
@@ -33915,11 +31448,12 @@
         <v>0.8</v>
       </c>
       <c r="B25">
-        <v>1500</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="4"/>
-        <v>1200</v>
+        <f t="shared" ref="B25:B32" si="5">B14</f>
+        <v>3750</v>
+      </c>
+      <c r="C25" s="1">
+        <f>(B25/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D25">
         <v>8.2862400739773001</v>
@@ -33948,15 +31482,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" ref="A26:A32" si="5">A25</f>
+        <f t="shared" ref="A26:A32" si="6">A25</f>
         <v>0.8</v>
       </c>
       <c r="B26">
-        <v>2000</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="4"/>
-        <v>1600</v>
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="C26" s="1">
+        <f>(B26/5)</f>
+        <v>1000</v>
       </c>
       <c r="D26">
         <v>6.5228400642630797</v>
@@ -33985,15 +31520,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="B27">
-        <v>2500</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>6250</v>
+      </c>
+      <c r="C27" s="1">
+        <f>(B27/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D27">
         <v>5.3917220302378901</v>
@@ -34022,15 +31558,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="B28">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="B28">
-        <v>3000</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>7500</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C30" si="7">(B28/5)</f>
+        <v>1500</v>
       </c>
       <c r="D28">
         <v>4.7537215120390899</v>
@@ -34059,15 +31596,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="B29">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="B29">
-        <v>3500</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="4"/>
-        <v>2800</v>
+        <v>8750</v>
+      </c>
+      <c r="C29" s="1">
+        <f>(B29/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D29">
         <v>4.3045689078010501</v>
@@ -34096,15 +31634,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="B30">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="B30">
-        <v>4000</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="4"/>
-        <v>3200</v>
+        <v>10000</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="7"/>
+        <v>2000</v>
       </c>
       <c r="D30">
         <v>3.7623023098161301</v>
@@ -34133,15 +31672,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="B31">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="B31">
-        <v>4500</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>11250</v>
+      </c>
+      <c r="C31" s="1">
+        <f>(B31/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D31">
         <v>3.6464258657661199</v>
@@ -34170,15 +31710,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="B32">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="B32">
-        <v>5000</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>12500</v>
+      </c>
+      <c r="C32" s="1">
+        <f>(B32/5)</f>
+        <v>2500</v>
       </c>
       <c r="D32">
         <v>3.26358907872413</v>
@@ -34246,11 +31787,12 @@
         <v>0.7</v>
       </c>
       <c r="B35">
-        <v>1000</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:C43" si="6">B35*0.8</f>
-        <v>800</v>
+        <f>B24</f>
+        <v>2500</v>
+      </c>
+      <c r="C35" s="1">
+        <f>(B35/5)</f>
+        <v>500</v>
       </c>
       <c r="D35">
         <v>12.939506423199299</v>
@@ -34283,11 +31825,12 @@
         <v>0.7</v>
       </c>
       <c r="B36">
-        <v>1500</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="6"/>
-        <v>1200</v>
+        <f t="shared" ref="B36:B43" si="8">B25</f>
+        <v>3750</v>
+      </c>
+      <c r="C36" s="1">
+        <f>(B36/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D36">
         <v>8.1503504946569798</v>
@@ -34316,15 +31859,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" ref="A37:A43" si="7">A36</f>
+        <f t="shared" ref="A37:A43" si="9">A36</f>
         <v>0.7</v>
       </c>
       <c r="B37">
-        <v>2000</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="6"/>
-        <v>1600</v>
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="C37" s="1">
+        <f>(B37/5)</f>
+        <v>1000</v>
       </c>
       <c r="D37">
         <v>6.6654100215800796</v>
@@ -34353,15 +31897,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="B38">
-        <v>2500</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="6"/>
-        <v>2000</v>
+        <f t="shared" si="8"/>
+        <v>6250</v>
+      </c>
+      <c r="C38" s="1">
+        <f>(B38/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D38">
         <v>5.5663532452159004</v>
@@ -34390,15 +31935,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="B39">
-        <v>3000</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="6"/>
-        <v>2400</v>
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:C41" si="10">(B39/5)</f>
+        <v>1500</v>
       </c>
       <c r="D39">
         <v>4.9727359320595204</v>
@@ -34427,15 +31973,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="B40">
-        <v>3500</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="6"/>
-        <v>2800</v>
+        <f t="shared" si="8"/>
+        <v>8750</v>
+      </c>
+      <c r="C40" s="1">
+        <f>(B40/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D40">
         <v>4.4456323690325403</v>
@@ -34464,15 +32011,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="B41">
-        <v>4000</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="6"/>
-        <v>3200</v>
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="10"/>
+        <v>2000</v>
       </c>
       <c r="D41">
         <v>3.92314305807307</v>
@@ -34501,15 +32049,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="B42">
-        <v>4500</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="6"/>
-        <v>3600</v>
+        <f t="shared" si="8"/>
+        <v>11250</v>
+      </c>
+      <c r="C42" s="1">
+        <f>(B42/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D42">
         <v>3.8105645389746199</v>
@@ -34538,15 +32087,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="B43">
-        <v>5000</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="6"/>
-        <v>4000</v>
+        <f t="shared" si="8"/>
+        <v>12500</v>
+      </c>
+      <c r="C43" s="1">
+        <f>(B43/5)</f>
+        <v>2500</v>
       </c>
       <c r="D43">
         <v>3.6505977020943199</v>
@@ -34614,11 +32164,12 @@
         <v>0.6</v>
       </c>
       <c r="B46">
-        <v>1000</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:C54" si="8">B46*0.8</f>
-        <v>800</v>
+        <f>B35</f>
+        <v>2500</v>
+      </c>
+      <c r="C46" s="1">
+        <f>(B46/5)</f>
+        <v>500</v>
       </c>
       <c r="D46">
         <v>13.091205967379199</v>
@@ -34651,11 +32202,12 @@
         <v>0.6</v>
       </c>
       <c r="B47">
-        <v>1500</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="8"/>
-        <v>1200</v>
+        <f t="shared" ref="B47:B54" si="11">B36</f>
+        <v>3750</v>
+      </c>
+      <c r="C47" s="1">
+        <f>(B47/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D47">
         <v>8.2447231379642307</v>
@@ -34684,15 +32236,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" ref="A48:A54" si="9">A47</f>
+        <f t="shared" ref="A48:A54" si="12">A47</f>
         <v>0.6</v>
       </c>
       <c r="B48">
-        <v>2000</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="8"/>
-        <v>1600</v>
+        <f t="shared" si="11"/>
+        <v>5000</v>
+      </c>
+      <c r="C48" s="1">
+        <f>(B48/5)</f>
+        <v>1000</v>
       </c>
       <c r="D48">
         <v>7.5023051076395397</v>
@@ -34721,15 +32274,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="B49">
-        <v>2500</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="8"/>
-        <v>2000</v>
+        <f t="shared" si="11"/>
+        <v>6250</v>
+      </c>
+      <c r="C49" s="1">
+        <f>(B49/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D49">
         <v>5.9228365666774101</v>
@@ -34758,15 +32312,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="B50">
-        <v>3000</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="8"/>
-        <v>2400</v>
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C52" si="13">(B50/5)</f>
+        <v>1500</v>
       </c>
       <c r="D50">
         <v>5.4902149825226703</v>
@@ -34795,15 +32350,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="B51">
-        <v>3500</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="8"/>
-        <v>2800</v>
+        <f t="shared" si="11"/>
+        <v>8750</v>
+      </c>
+      <c r="C51" s="1">
+        <f>(B51/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D51">
         <v>4.8538947364809397</v>
@@ -34832,15 +32388,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="B52">
-        <v>4000</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="8"/>
-        <v>3200</v>
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="13"/>
+        <v>2000</v>
       </c>
       <c r="D52">
         <v>4.3009959610326396</v>
@@ -34869,15 +32426,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="B53">
-        <v>4500</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="8"/>
-        <v>3600</v>
+        <f t="shared" si="11"/>
+        <v>11250</v>
+      </c>
+      <c r="C53" s="1">
+        <f>(B53/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D53">
         <v>4.0537274352472998</v>
@@ -34906,15 +32464,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="B54">
-        <v>5000</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="8"/>
-        <v>4000</v>
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="C54" s="1">
+        <f>(B54/5)</f>
+        <v>2500</v>
       </c>
       <c r="D54">
         <v>3.7287782084049401</v>
@@ -34982,11 +32541,12 @@
         <v>0.5</v>
       </c>
       <c r="B57">
-        <v>1000</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ref="C57:C65" si="10">B57*0.8</f>
-        <v>800</v>
+        <f>B46</f>
+        <v>2500</v>
+      </c>
+      <c r="C57" s="1">
+        <f>(B57/5)</f>
+        <v>500</v>
       </c>
       <c r="D57">
         <v>13.1549694758451</v>
@@ -35019,11 +32579,12 @@
         <v>0.5</v>
       </c>
       <c r="B58">
-        <v>1500</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="10"/>
-        <v>1200</v>
+        <f t="shared" ref="B58:B65" si="14">B47</f>
+        <v>3750</v>
+      </c>
+      <c r="C58" s="1">
+        <f>(B58/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D58">
         <v>9.4499841219434693</v>
@@ -35052,15 +32613,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" ref="A59:A65" si="11">A58</f>
+        <f t="shared" ref="A59:A65" si="15">A58</f>
         <v>0.5</v>
       </c>
       <c r="B59">
-        <v>2000</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="10"/>
-        <v>1600</v>
+        <f t="shared" si="14"/>
+        <v>5000</v>
+      </c>
+      <c r="C59" s="1">
+        <f>(B59/5)</f>
+        <v>1000</v>
       </c>
       <c r="D59">
         <v>8.0968458035594502</v>
@@ -35089,15 +32651,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="B60">
-        <v>2500</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="10"/>
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>6250</v>
+      </c>
+      <c r="C60" s="1">
+        <f>(B60/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D60">
         <v>6.5462961924791401</v>
@@ -35126,15 +32689,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="B61">
-        <v>3000</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="10"/>
-        <v>2400</v>
+        <f t="shared" si="14"/>
+        <v>7500</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61:C63" si="16">(B61/5)</f>
+        <v>1500</v>
       </c>
       <c r="D61">
         <v>6.0497230748375701</v>
@@ -35163,15 +32727,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="B62">
-        <v>3500</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="10"/>
-        <v>2800</v>
+        <f t="shared" si="14"/>
+        <v>8750</v>
+      </c>
+      <c r="C62" s="1">
+        <f>(B62/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D62">
         <v>5.4000077478454598</v>
@@ -35200,15 +32765,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="B63">
-        <v>4000</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="10"/>
-        <v>3200</v>
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="16"/>
+        <v>2000</v>
       </c>
       <c r="D63">
         <v>4.9435293028195497</v>
@@ -35237,15 +32803,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="B64">
-        <v>4500</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="10"/>
-        <v>3600</v>
+        <f t="shared" si="14"/>
+        <v>11250</v>
+      </c>
+      <c r="C64" s="1">
+        <f>(B64/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D64">
         <v>4.1615783989058999</v>
@@ -35274,15 +32841,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="B65">
-        <v>5000</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="10"/>
-        <v>4000</v>
+        <f t="shared" si="14"/>
+        <v>12500</v>
+      </c>
+      <c r="C65" s="1">
+        <f>(B65/5)</f>
+        <v>2500</v>
       </c>
       <c r="D65">
         <v>3.9205909844715801</v>
@@ -35350,11 +32918,12 @@
         <v>0.4</v>
       </c>
       <c r="B68">
-        <v>1000</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ref="C68:C76" si="12">B68*0.8</f>
-        <v>800</v>
+        <f>B57</f>
+        <v>2500</v>
+      </c>
+      <c r="C68" s="1">
+        <f>(B68/5)</f>
+        <v>500</v>
       </c>
       <c r="D68">
         <v>13.2751457693104</v>
@@ -35383,15 +32952,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" ref="A69:A76" si="13">$A68</f>
+        <f t="shared" ref="A69:A76" si="17">$A68</f>
         <v>0.4</v>
       </c>
       <c r="B69">
-        <v>1500</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="12"/>
-        <v>1200</v>
+        <f t="shared" ref="B69:B76" si="18">B58</f>
+        <v>3750</v>
+      </c>
+      <c r="C69" s="1">
+        <f>(B69/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D69">
         <v>11.003615757480301</v>
@@ -35420,15 +32990,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="B70">
-        <v>2000</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="12"/>
-        <v>1600</v>
+        <f t="shared" si="18"/>
+        <v>5000</v>
+      </c>
+      <c r="C70" s="1">
+        <f>(B70/5)</f>
+        <v>1000</v>
       </c>
       <c r="D70">
         <v>10.3604750332431</v>
@@ -35457,15 +33028,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="B71">
-        <v>2500</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="12"/>
-        <v>2000</v>
+        <f t="shared" si="18"/>
+        <v>6250</v>
+      </c>
+      <c r="C71" s="1">
+        <f>(B71/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D71">
         <v>7.7412804306089997</v>
@@ -35494,15 +33066,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="B72">
-        <v>3000</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="12"/>
-        <v>2400</v>
+        <f t="shared" si="18"/>
+        <v>7500</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" ref="C72:C74" si="19">(B72/5)</f>
+        <v>1500</v>
       </c>
       <c r="D72">
         <v>6.8218334940918099</v>
@@ -35531,15 +33104,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="B73">
-        <v>3500</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="12"/>
-        <v>2800</v>
+        <f t="shared" si="18"/>
+        <v>8750</v>
+      </c>
+      <c r="C73" s="1">
+        <f>(B73/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D73">
         <v>5.9086513846368804</v>
@@ -35568,15 +33142,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="B74">
-        <v>4000</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="12"/>
-        <v>3200</v>
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="19"/>
+        <v>2000</v>
       </c>
       <c r="D74">
         <v>5.1689169581238703</v>
@@ -35605,15 +33180,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="B75">
-        <v>4500</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="12"/>
-        <v>3600</v>
+        <f t="shared" si="18"/>
+        <v>11250</v>
+      </c>
+      <c r="C75" s="1">
+        <f>(B75/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D75">
         <v>4.24852904649876</v>
@@ -35642,15 +33218,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="B76">
-        <v>5000</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="12"/>
-        <v>4000</v>
+        <f t="shared" si="18"/>
+        <v>12500</v>
+      </c>
+      <c r="C76" s="1">
+        <f>(B76/5)</f>
+        <v>2500</v>
       </c>
       <c r="D76">
         <v>3.9812027398871401</v>
@@ -35718,11 +33295,12 @@
         <v>0.3</v>
       </c>
       <c r="B79">
-        <v>1000</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ref="C79:C87" si="14">B79*0.8</f>
-        <v>800</v>
+        <f>B68</f>
+        <v>2500</v>
+      </c>
+      <c r="C79" s="1">
+        <f>(B79/5)</f>
+        <v>500</v>
       </c>
       <c r="D79">
         <v>13.581352917027701</v>
@@ -35751,15 +33329,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" ref="A80:A87" si="15">$A79</f>
+        <f t="shared" ref="A80:A87" si="20">$A79</f>
         <v>0.3</v>
       </c>
       <c r="B80">
-        <v>1500</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="14"/>
-        <v>1200</v>
+        <f t="shared" ref="B80:B87" si="21">B69</f>
+        <v>3750</v>
+      </c>
+      <c r="C80" s="1">
+        <f>(B80/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D80">
         <v>12.5501821812082</v>
@@ -35788,15 +33367,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="B81">
-        <v>2000</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="14"/>
-        <v>1600</v>
+        <f t="shared" si="21"/>
+        <v>5000</v>
+      </c>
+      <c r="C81" s="1">
+        <f>(B81/5)</f>
+        <v>1000</v>
       </c>
       <c r="D81">
         <v>11.502512678426401</v>
@@ -35825,15 +33405,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="B82">
-        <v>2500</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="14"/>
-        <v>2000</v>
+        <f t="shared" si="21"/>
+        <v>6250</v>
+      </c>
+      <c r="C82" s="1">
+        <f>(B82/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D82">
         <v>8.7357379801986408</v>
@@ -35862,15 +33443,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="B83">
-        <v>3000</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="14"/>
-        <v>2400</v>
+        <f t="shared" si="21"/>
+        <v>7500</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" ref="C83:C85" si="22">(B83/5)</f>
+        <v>1500</v>
       </c>
       <c r="D83">
         <v>7.2958155873827097</v>
@@ -35899,15 +33481,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="B84">
-        <v>3500</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="14"/>
-        <v>2800</v>
+        <f t="shared" si="21"/>
+        <v>8750</v>
+      </c>
+      <c r="C84" s="1">
+        <f>(B84/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D84">
         <v>6.0145355191256797</v>
@@ -35936,15 +33519,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="B85">
-        <v>4000</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="14"/>
-        <v>3200</v>
+        <f t="shared" si="21"/>
+        <v>10000</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="22"/>
+        <v>2000</v>
       </c>
       <c r="D85">
         <v>5.2402188738166</v>
@@ -35973,15 +33557,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="B86">
-        <v>4500</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="14"/>
-        <v>3600</v>
+        <f t="shared" si="21"/>
+        <v>11250</v>
+      </c>
+      <c r="C86" s="1">
+        <f>(B86/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D86">
         <v>4.46604106965931</v>
@@ -36010,15 +33595,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="B87">
-        <v>5000</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="14"/>
-        <v>4000</v>
+        <f t="shared" si="21"/>
+        <v>12500</v>
+      </c>
+      <c r="C87" s="1">
+        <f>(B87/5)</f>
+        <v>2500</v>
       </c>
       <c r="D87">
         <v>3.8439081959386598</v>
@@ -36086,11 +33672,12 @@
         <v>0.2</v>
       </c>
       <c r="B90">
-        <v>1000</v>
-      </c>
-      <c r="C90">
-        <f t="shared" ref="C90:C98" si="16">B90*0.8</f>
-        <v>800</v>
+        <f>B79</f>
+        <v>2500</v>
+      </c>
+      <c r="C90" s="1">
+        <f>(B90/5)</f>
+        <v>500</v>
       </c>
       <c r="D90">
         <v>13.9369173688525</v>
@@ -36119,15 +33706,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" ref="A91:A98" si="17">$A90</f>
+        <f t="shared" ref="A91:A98" si="23">$A90</f>
         <v>0.2</v>
       </c>
       <c r="B91">
-        <v>1500</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="16"/>
-        <v>1200</v>
+        <f t="shared" ref="B91:B98" si="24">B80</f>
+        <v>3750</v>
+      </c>
+      <c r="C91" s="1">
+        <f>(B91/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D91">
         <v>13.9232450081627</v>
@@ -36156,15 +33744,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="B92">
-        <v>2000</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="16"/>
-        <v>1600</v>
+        <f t="shared" si="24"/>
+        <v>5000</v>
+      </c>
+      <c r="C92" s="1">
+        <f>(B92/5)</f>
+        <v>1000</v>
       </c>
       <c r="D92">
         <v>13.7529656309357</v>
@@ -36193,15 +33782,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="B93">
-        <v>2500</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="16"/>
-        <v>2000</v>
+        <f t="shared" si="24"/>
+        <v>6250</v>
+      </c>
+      <c r="C93" s="1">
+        <f>(B93/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D93">
         <v>10.432704184934501</v>
@@ -36230,15 +33820,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="B94">
-        <v>3000</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="16"/>
-        <v>2400</v>
+        <f t="shared" si="24"/>
+        <v>7500</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" ref="C94:C96" si="25">(B94/5)</f>
+        <v>1500</v>
       </c>
       <c r="D94">
         <v>8.6855111692247498</v>
@@ -36267,15 +33858,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="B95">
-        <v>3500</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="16"/>
-        <v>2800</v>
+        <f t="shared" si="24"/>
+        <v>8750</v>
+      </c>
+      <c r="C95" s="1">
+        <f>(B95/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D95">
         <v>7.0092301020748504</v>
@@ -36304,15 +33896,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="B96">
-        <v>4000</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="16"/>
-        <v>3200</v>
+        <f t="shared" si="24"/>
+        <v>10000</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="25"/>
+        <v>2000</v>
       </c>
       <c r="D96">
         <v>6.1031409217101604</v>
@@ -36341,15 +33934,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="B97">
-        <v>4500</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="16"/>
-        <v>3600</v>
+        <f t="shared" si="24"/>
+        <v>11250</v>
+      </c>
+      <c r="C97" s="1">
+        <f>(B97/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D97">
         <v>4.8927985112141297</v>
@@ -36378,15 +33972,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="B98">
-        <v>5000</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="16"/>
-        <v>4000</v>
+        <f t="shared" si="24"/>
+        <v>12500</v>
+      </c>
+      <c r="C98" s="1">
+        <f>(B98/5)</f>
+        <v>2500</v>
       </c>
       <c r="D98">
         <v>4.4598790869432099</v>
@@ -36454,11 +34049,12 @@
         <v>0.1</v>
       </c>
       <c r="B101">
-        <v>1000</v>
-      </c>
-      <c r="C101">
-        <f t="shared" ref="C101:C109" si="18">B101*0.8</f>
-        <v>800</v>
+        <f>B90</f>
+        <v>2500</v>
+      </c>
+      <c r="C101" s="1">
+        <f>(B101/5)</f>
+        <v>500</v>
       </c>
       <c r="D101">
         <v>13.951153324287599</v>
@@ -36487,15 +34083,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ref="A102:A109" si="19">$A101</f>
+        <f t="shared" ref="A102:A109" si="26">$A101</f>
         <v>0.1</v>
       </c>
       <c r="B102">
-        <v>1500</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="18"/>
-        <v>1200</v>
+        <f t="shared" ref="B102:B109" si="27">B91</f>
+        <v>3750</v>
+      </c>
+      <c r="C102" s="1">
+        <f>(B102/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D102">
         <v>13.928564484454901</v>
@@ -36524,15 +34121,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="B103">
-        <v>2000</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="18"/>
-        <v>1600</v>
+        <f t="shared" si="27"/>
+        <v>5000</v>
+      </c>
+      <c r="C103" s="1">
+        <f>(B103/5)</f>
+        <v>1000</v>
       </c>
       <c r="D103">
         <v>12.678134461449099</v>
@@ -36561,15 +34159,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="B104">
-        <v>2500</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="18"/>
-        <v>2000</v>
+        <f t="shared" si="27"/>
+        <v>6250</v>
+      </c>
+      <c r="C104" s="1">
+        <f>(B104/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D104">
         <v>10.3216491857326</v>
@@ -36598,15 +34197,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="B105">
-        <v>3000</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="18"/>
-        <v>2400</v>
+        <f t="shared" si="27"/>
+        <v>7500</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:C107" si="28">(B105/5)</f>
+        <v>1500</v>
       </c>
       <c r="D105">
         <v>9.0769800957127291</v>
@@ -36635,15 +34235,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="B106">
-        <v>3500</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="18"/>
-        <v>2800</v>
+        <f t="shared" si="27"/>
+        <v>8750</v>
+      </c>
+      <c r="C106" s="1">
+        <f>(B106/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D106">
         <v>7.7877028524324396</v>
@@ -36672,15 +34273,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="B107">
-        <v>4000</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="18"/>
-        <v>3200</v>
+        <f t="shared" si="27"/>
+        <v>10000</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="28"/>
+        <v>2000</v>
       </c>
       <c r="D107">
         <v>6.2648528675982904</v>
@@ -36709,15 +34311,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="B108">
-        <v>4500</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="18"/>
-        <v>3600</v>
+        <f t="shared" si="27"/>
+        <v>11250</v>
+      </c>
+      <c r="C108" s="1">
+        <f>(B108/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D108">
         <v>4.9332888473113803</v>
@@ -36746,15 +34349,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="B109">
-        <v>5000</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="18"/>
-        <v>4000</v>
+        <f t="shared" si="27"/>
+        <v>12500</v>
+      </c>
+      <c r="C109" s="1">
+        <f>(B109/5)</f>
+        <v>2500</v>
       </c>
       <c r="D109">
         <v>4.3532732450940603</v>
@@ -36822,122 +34426,126 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>1000</v>
-      </c>
-      <c r="C112">
-        <f t="shared" ref="C112:C120" si="20">B112*0.8</f>
-        <v>800</v>
+        <f>B101</f>
+        <v>2500</v>
+      </c>
+      <c r="C112" s="1">
+        <f>(B112/5)</f>
+        <v>500</v>
       </c>
       <c r="D112">
-        <v>13.9483257084763</v>
+        <v>13.9495513158886</v>
       </c>
       <c r="E112">
-        <v>157.38</v>
+        <v>159.13200000000001</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112">
-        <v>25.445843639671999</v>
+        <v>30.225495476629298</v>
       </c>
       <c r="H112">
-        <v>125.07033748136701</v>
+        <v>163.70107907764501</v>
       </c>
       <c r="I112">
-        <v>23.9325325614005</v>
+        <v>27.973950719242701</v>
       </c>
       <c r="J112">
-        <v>122.180893768169</v>
+        <v>157.82407746240901</v>
       </c>
       <c r="K112">
-        <v>1489.0067219996399</v>
+        <v>100.639384999999</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" ref="A113:A120" si="21">$A112</f>
+        <f t="shared" ref="A113:A120" si="29">$A112</f>
         <v>0</v>
       </c>
       <c r="B113">
-        <v>1500</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="20"/>
-        <v>1200</v>
+        <f t="shared" ref="B113:B120" si="30">B102</f>
+        <v>3750</v>
+      </c>
+      <c r="C113" s="1">
+        <f>(B113/5)-50</f>
+        <v>700</v>
       </c>
       <c r="D113">
-        <v>13.921282798833801</v>
+        <v>13.9415245260966</v>
       </c>
       <c r="E113">
-        <v>158.92333333333301</v>
+        <v>156.45142857142801</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113">
-        <v>22.372647044338901</v>
+        <v>37.155461022786703</v>
       </c>
       <c r="H113">
-        <v>100.682100902949</v>
+        <v>230.56954468071299</v>
       </c>
       <c r="I113">
-        <v>20.876229196072799</v>
+        <v>34.711310746071803</v>
       </c>
       <c r="J113">
-        <v>97.590943257387295</v>
+        <v>224.09261544856301</v>
       </c>
       <c r="K113">
-        <v>2762.3028569992598</v>
+        <v>39.192164000000197</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="B114">
-        <v>2000</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="20"/>
-        <v>1600</v>
+        <f t="shared" si="30"/>
+        <v>5000</v>
+      </c>
+      <c r="C114" s="1">
+        <f>(B114/5)</f>
+        <v>1000</v>
       </c>
       <c r="D114">
-        <v>12.770954195247899</v>
+        <v>13.876356857592199</v>
       </c>
       <c r="E114">
-        <v>170.110625</v>
+        <v>154.49299999999999</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>17.8577716458719</v>
+        <v>27.331951193713898</v>
       </c>
       <c r="H114">
-        <v>79.612773868697204</v>
+        <v>149.067836956516</v>
       </c>
       <c r="I114">
-        <v>16.365717543381301</v>
+        <v>23.266005906027601</v>
       </c>
       <c r="J114">
-        <v>76.555979937280199</v>
+        <v>140.90235487860701</v>
       </c>
       <c r="K114">
-        <v>3906.5839189969702</v>
+        <v>76.2846320000003</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="B115">
-        <v>2500</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="20"/>
-        <v>2000</v>
+        <f t="shared" si="30"/>
+        <v>6250</v>
+      </c>
+      <c r="C115" s="1">
+        <f>(B115/5)-50</f>
+        <v>1200</v>
       </c>
       <c r="D115">
         <v>10.6436345466958</v>
@@ -36966,15 +34574,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="B116">
-        <v>3000</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="20"/>
-        <v>2400</v>
+        <f t="shared" si="30"/>
+        <v>7500</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" ref="C116:C118" si="31">(B116/5)</f>
+        <v>1500</v>
       </c>
       <c r="D116">
         <v>8.3653020837504801</v>
@@ -37003,15 +34612,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="B117">
-        <v>3500</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="20"/>
-        <v>2800</v>
+        <f t="shared" si="30"/>
+        <v>8750</v>
+      </c>
+      <c r="C117" s="1">
+        <f>(B117/5)-50</f>
+        <v>1700</v>
       </c>
       <c r="D117">
         <v>7.1138210581634196</v>
@@ -37040,15 +34650,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="B118">
-        <v>4000</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="20"/>
-        <v>3200</v>
+        <f t="shared" si="30"/>
+        <v>10000</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="31"/>
+        <v>2000</v>
       </c>
       <c r="D118">
         <v>6.4761235452926798</v>
@@ -37077,15 +34688,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="B119">
-        <v>4500</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="20"/>
-        <v>3600</v>
+        <f t="shared" si="30"/>
+        <v>11250</v>
+      </c>
+      <c r="C119" s="1">
+        <f>(B119/5)-50</f>
+        <v>2200</v>
       </c>
       <c r="D119">
         <v>5.1669898881661203</v>
@@ -37114,15 +34726,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="B120">
-        <v>5000</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="20"/>
-        <v>4000</v>
+        <f t="shared" si="30"/>
+        <v>12500</v>
+      </c>
+      <c r="C120" s="1">
+        <f>(B120/5)</f>
+        <v>2500</v>
       </c>
       <c r="D120">
         <v>4.3693121322327002</v>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC30581-03FE-4C98-BF1A-9CC3BD5FF1BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF07C1-E84E-447E-9176-84CA11C25D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="21">
   <si>
     <t>routing type</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>average speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infinity</t>
   </si>
 </sst>
 </file>
@@ -3363,6 +3366,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>1200</c:v>
                 </c:pt>
@@ -3390,23 +3402,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>131.04599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.194285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.09899999999999</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>258.65311152187297</c:v>
+                  <c:v>278.51249999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>265.24741707449698</c:v>
+                  <c:v>405.07533333333299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>290.78705108750597</c:v>
+                  <c:v>507.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>293.58727810650799</c:v>
+                  <c:v>723.97699999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>313.095966620306</c:v>
+                  <c:v>847.62136363636296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325.47882736156299</c:v>
+                  <c:v>1017.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,31 +3520,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.77125000000001</c:v>
+                  <c:v>131.04599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.65709459459401</c:v>
+                  <c:v>169.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.05192178017501</c:v>
+                  <c:v>247.63800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263.699939503932</c:v>
+                  <c:v>266.03666666666601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>270.23444206008497</c:v>
+                  <c:v>392.67466666666598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>291.10560560560498</c:v>
+                  <c:v>514.21411764705795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>296.769868356899</c:v>
+                  <c:v>746.90800000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>307.61087669948398</c:v>
+                  <c:v>877.72727272727195</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>317.90328467153199</c:v>
+                  <c:v>1034.0039999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,31 +3637,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.77125000000001</c:v>
+                  <c:v>131.04599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>219.53164556962</c:v>
+                  <c:v>171.728571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.15729585006599</c:v>
+                  <c:v>225.30699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>265.41413551401803</c:v>
+                  <c:v>285.26916666666602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>272.62473460721799</c:v>
+                  <c:v>425.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>291.814556331007</c:v>
+                  <c:v>501.16117647058798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>297.71812408402502</c:v>
+                  <c:v>712.35199999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>314.352887259395</c:v>
+                  <c:v>857.19454545454505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>319.58916478555301</c:v>
+                  <c:v>1049.7092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,31 +3754,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.77125000000001</c:v>
+                  <c:v>130.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223.175675675675</c:v>
+                  <c:v>166.991428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.92617449664399</c:v>
+                  <c:v>222.83799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>261.51244933410499</c:v>
+                  <c:v>269.95083333333298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275.61498166579298</c:v>
+                  <c:v>383.47266666666599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>295.39255996084103</c:v>
+                  <c:v>485.16529411764702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>302.16955684007701</c:v>
+                  <c:v>722.83550000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>310.35317636605902</c:v>
+                  <c:v>881.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>312.020319930825</c:v>
+                  <c:v>1003.8108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3850,31 +3871,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>140.095</c:v>
+                  <c:v>130.90600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.413006756756</c:v>
+                  <c:v>159.134285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>236.867838541666</c:v>
+                  <c:v>201.64400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>266.83011363636302</c:v>
+                  <c:v>235.00833333333301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>257.13601630157899</c:v>
+                  <c:v>361.85199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.33961375412099</c:v>
+                  <c:v>467.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.79846014492699</c:v>
+                  <c:v>648.89949999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>306.13468158347598</c:v>
+                  <c:v>854.44181818181801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>316.31898407232001</c:v>
+                  <c:v>1055.8524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,31 +3994,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>139.43875</c:v>
+                  <c:v>130.73599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201.544620517097</c:v>
+                  <c:v>135.15714285714199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216.20973044049899</c:v>
+                  <c:v>192.70699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.139561057962</c:v>
+                  <c:v>219.9425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245.90239043824701</c:v>
+                  <c:v>319.142666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276.51435079726599</c:v>
+                  <c:v>402.62470588235198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>295.961670973298</c:v>
+                  <c:v>628.05949999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>305.93073213502799</c:v>
+                  <c:v>827.13545454545397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>323.42526837324499</c:v>
+                  <c:v>1012.4704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,31 +4117,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>138.70375000000001</c:v>
+                  <c:v>130.602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.99916666666601</c:v>
+                  <c:v>133.335714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195.50950570342201</c:v>
+                  <c:v>180.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244.63699731903401</c:v>
+                  <c:v>199.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>271.771495327102</c:v>
+                  <c:v>270.57533333333299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276.26510212950802</c:v>
+                  <c:v>424.12176470588201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>289.65319587628801</c:v>
+                  <c:v>551.38199999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300.81802501077999</c:v>
+                  <c:v>752.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>316.96306592533699</c:v>
+                  <c:v>899.62760000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,31 +4234,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>137.01875000000001</c:v>
+                  <c:v>131.24799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164.4425</c:v>
+                  <c:v>145.84857142857101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.16062500000001</c:v>
+                  <c:v>150.816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229.859301719645</c:v>
+                  <c:v>189.12583333333299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.03381194997598</c:v>
+                  <c:v>262.27800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>278.172015404364</c:v>
+                  <c:v>318.344117647058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>283.21196094385601</c:v>
+                  <c:v>490.39100000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>307.67896230239103</c:v>
+                  <c:v>653.64181818181805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>315.77719580983</c:v>
+                  <c:v>822.72080000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4336,31 +4357,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>147.90125</c:v>
+                  <c:v>138.21799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.895833333333</c:v>
+                  <c:v>143.587142857142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.39375000000001</c:v>
+                  <c:v>169.08099999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219.35707070706999</c:v>
+                  <c:v>174.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245.742034046268</c:v>
+                  <c:v>211.19200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>277.00780944943301</c:v>
+                  <c:v>276.00235294117601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>279.36323690955601</c:v>
+                  <c:v>396.28899999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>297.08762322015298</c:v>
+                  <c:v>548.50636363636295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304.88700173310201</c:v>
+                  <c:v>733.66319999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4459,31 +4480,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>170.43125000000001</c:v>
+                  <c:v>170.506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171.43666666666601</c:v>
+                  <c:v>182.65428571428501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.83250000000001</c:v>
+                  <c:v>173.13399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.440925087983</c:v>
+                  <c:v>170.09833333333299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>222.40639861651499</c:v>
+                  <c:v>186.88866666666601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240.361882716049</c:v>
+                  <c:v>240.041176470588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257.67979761474498</c:v>
+                  <c:v>370.41699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>290.93277310924299</c:v>
+                  <c:v>485.85136363636298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>302.84766839378199</c:v>
+                  <c:v>681.83640000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4582,31 +4603,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>159.13200000000001</c:v>
+                  <c:v>162.608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.45142857142801</c:v>
+                  <c:v>151.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.49299999999999</c:v>
+                  <c:v>156.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199.301356102461</c:v>
+                  <c:v>153.44416666666601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>227.20658293633599</c:v>
+                  <c:v>169.72266666666599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>236.81245074861999</c:v>
+                  <c:v>237.440588235294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236.17800859598799</c:v>
+                  <c:v>383.72500000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.56847188685703</c:v>
+                  <c:v>481.90681818181798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>290.216543375924</c:v>
+                  <c:v>668.91160000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,7 +4774,6 @@
         <c:axId val="899501584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5103,23 +5123,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.74192284793699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174.12300180560101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217.52648125419</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264.78639462477901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>308.507870800717</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>340.34754317926701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5212,31 +5241,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.7426863607946</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.696891272805601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.245192183645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.83363734152999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.720724096613</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206.91685707217499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245.232515735888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>298.51616923635999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>312.32306817063801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5329,31 +5358,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.7426863607946</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.386200066640598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.393120707349</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.493716872563</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.079482853581</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194.55531805220801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>235.07674227727401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>257.57194208713702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>289.85868206954899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5446,31 +5475,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.7426863607946</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.190554516708602</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.125786062298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.83241254015101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152.31866143726799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.115990612171</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>204.00902916171401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210.51372908553799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>248.764046612415</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,31 +5592,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.513013317750699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.965274209068703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.890912157750506</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.62482714714299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.12457983831899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.25847511194499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>183.184866083564</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>229.73714012263099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>221.25366373029999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5680,31 +5709,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.296982940924501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.584260296592497</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.098029687752799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.81572486549</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124.020787274775</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140.033841468421</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160.59271965883599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>201.75063814142399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210.528355542616</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5803,31 +5832,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.6330809560604</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.486688455112599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.824054647186898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.849022773128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140.18738563577199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146.19058415911101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.08781574980199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137.20698928594899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.30831232420499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5926,31 +5955,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.0771471383758</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.063461905337803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.367590425950397</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.223565219515</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.463334927446</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.26121802855501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.41128500384499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.667053346836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141.86197711168299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6049,31 +6078,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.757724027681398</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.123696923640701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.560834807565698</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.037796783812595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.087016588159898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.6504530830112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.747213730055606</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.8432953134499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.794720219436996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,31 +6201,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>67.8331881957115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.690618674592699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.171701258512897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.6873770535502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.237313781047099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.7280993902259</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.673095612539498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.495898420957701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.552842478745198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,31 +6324,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.225495476629298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.155461022786703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.331951193713898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.666746324159401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.6283376850858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.6792281361253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.692407019414699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.041513654582999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.8221664728751</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6820,23 +6849,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1133.3891688669701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>927.50173109666798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1182.50806501232</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1462.22706333275</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1667.87828905071</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1820.8271120423401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6929,31 +6967,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>380.86779687324599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>723.90690125987703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>731.54197222461596</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1036.4683229283301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1110.1103601929799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1381.92304621214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1667.8981629104901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1705.68046535608</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7046,31 +7084,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>378.361531408497</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700.15401945552298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>685.76548293876397</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>796.82224575284204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1025.3297565076</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1304.9438907123299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1406.5436057521499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1592.73719117419</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7163,31 +7201,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>365.223917139989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>654.19168173727803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>703.92390560138301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>797.88941760463797</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>899.84142409789001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1078.97814603291</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1052.2021372112799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1331.4640881913499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7280,31 +7318,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>109.535713537565</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>364.26848999774501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>542.598269075085</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>660.79660604200706</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>674.68663134984195</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>820.19224843454299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1004.4821387014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1247.84228374239</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1138.3214030035499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7397,31 +7435,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>99.264440210959293</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>268.41365641183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>607.37359351278997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>596.79405334493697</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>708.64392068637301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>766.54987970196999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>827.308878533403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1060.1453422034999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1177.3220658236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7520,31 +7558,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>102.66971201835899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239.70654845904201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>482.297422582754</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>673.35203177429003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>825.42062902446901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>812.53557012874705</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>709.42403294081703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>745.16761124427501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>872.76455512303198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7643,31 +7681,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>83.627103069486495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292.11700331123899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>550.44330784609099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>652.83090658475305</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>689.48542502828002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>593.85052111356003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>593.10659669156701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>584.56839799024601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>757.25068077785897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7766,31 +7804,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>302.53954029775298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>453.84114504419102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>575.30857476775202</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440.933151762362</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>559.20934361989703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>514.00198380463303</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>457.43831819897099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>369.99853126236098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>384.33251237472399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7889,31 +7927,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>408.40232587102003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390.80396915163902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>276.21988465638498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.66474103602201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>255.09004527070101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>201.676368701119</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191.13833235035099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>194.48628253840101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156.98335983359499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8012,31 +8050,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>163.70107907764501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230.56954468071299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.067836956516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.942815092595595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.32051402888899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.35786580866601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.20289706688899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.839600387036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>143.29086442899299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8538,6 +8576,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8650,28 +8697,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10767326732673201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02719269683001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87463652753811705</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83917888203730995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.53625315364354</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5964352589925901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8901541888381399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.63876257467876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8767,28 +8814,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33359016695571397</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9005620799109399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59269470753804698</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8679507601454799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5490064030555901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1024446267512098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7494115929860401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4984713711090598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8884,28 +8931,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25285007620107403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6388915575795502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.89538888853873</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2192886965819696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.70120576535796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1863502137770201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.51018369846068E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8593585962383701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8998,31 +9045,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-8.9919184538144598E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1824546922788404</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5008692856634598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0727642076079098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4338810488026601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1979530445261402</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5524898477668501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9378874261266201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2451419873692204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9115,31 +9162,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.429764210269164</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.96335514739877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.444520884455599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2810927910365599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.70622423735</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.210861594447501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.9381961078568</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.304761816116901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.064923462760699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9238,31 +9285,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.5425985132746201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.75108954904037</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.168909221936101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.440826770269702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.116825777826499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.7874475490813</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.926535318727399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.794059555992799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.2062915812106</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9361,31 +9408,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.9859701611190799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.4907668143378</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.248147286345599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.479244723861299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.429483362313999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.152252660068299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.502516192390402</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.868413667942999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.089595398479702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9484,31 +9531,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.8116850265097</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.482956896786298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.292928572128105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.6626696103867</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.366512293961406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.5735509447588</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.893395990860903</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.756630535778598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.294734093839502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9607,31 +9654,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>65.7071080250237</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.642366429356301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.077662638690903</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.198955287402804</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.571778747950297</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.339792390159801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.776931484501699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.760854693467198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.1825617344082</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9730,31 +9777,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27.973950719242701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.711310746071803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.266005906027601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.955823816886799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.9319545030684</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.9678723712635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.629255300336901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.966206565948699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.666328696763401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10266,6 +10313,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10378,28 +10434,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0767326732673199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.205952175390699</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.10570828628064</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.854985451937001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.142692034932001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.869837384048299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.387604340166799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.1685406733821</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10495,28 +10551,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7056199794162898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0794491992893</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.342573993644701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.471940818998402</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.6599976772536</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.139631549848403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.949539120730101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.091544000269103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10612,28 +10668,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.9984109825687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.666574888814402</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.471829248047001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.850861918061995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.367392746031797</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.416278274653301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.130636600498804</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.423391736398301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10726,31 +10782,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.0552761226719598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.397034338104298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.554555288757903</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.079770285506001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.46889410778</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.928422447684</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.644150720631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109.78468559965501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119.065383301178</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10843,31 +10899,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.3327226424860603</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.228363924445098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.98409403174901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.22107515128201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258.03940539680798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272.98875767796801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>228.705846094528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>272.69796101644801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>196.72375328639001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10966,31 +11022,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.935438055171101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.796453219545498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>252.574815013029</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282.03606857291601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>337.08521282936601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>344.78713699725301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>294.04045419191999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>276.92023752208502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260.720990543141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11089,31 +11145,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36.437511684252698</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190.807147381676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>363.315164353564</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>359.17172212758402</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>327.93603065459502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>355.22258373372603</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>288.34251299069899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>268.18069511492098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>351.55239316310701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11212,31 +11268,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>295.86471450055899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>437.43578678506702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>549.79238531207398</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>402.59038850271702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>491.445671424387</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>416.12772472481203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>336.72271949126099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>236.60637972011199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>255.54910529363801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11335,31 +11391,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>400.76475559025903</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>384.26104763163301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>269.80810502489999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242.556111526103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>246.691834293727</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.747184892554</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158.47274518952401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172.70697201889601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.97843762688899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11458,31 +11514,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>157.82407746240901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.09261544856301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.90235487860701</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.281780695798204</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.239042173909496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.555702453024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.97715179838499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.002422192728403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.951605951744</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30683,8 +30739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50B34B4-084F-4934-B405-A3E078D07E48}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30746,7 +30802,34 @@
       <c r="B2">
         <v>2500</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <f>(B2/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>13.7867619004013</v>
+      </c>
+      <c r="E2">
+        <v>131.04599999999999</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>45.052896999999902</v>
+      </c>
       <c r="L2">
         <v>0.36799999999999999</v>
       </c>
@@ -30759,7 +30842,34 @@
       <c r="B3">
         <v>3750</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <f>(B3/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D3">
+        <v>10.521379218264901</v>
+      </c>
+      <c r="E3">
+        <v>171.194285714285</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>76.484058999999505</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -30769,7 +30879,34 @@
       <c r="B4">
         <v>5000</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <f>(B4/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>7.5366289790082801</v>
+      </c>
+      <c r="E4">
+        <v>251.09899999999999</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>135.947179000001</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -30784,28 +30921,28 @@
         <v>1200</v>
       </c>
       <c r="D5">
-        <v>4.7654067362108901</v>
+        <v>6.8826653501488497</v>
       </c>
       <c r="E5">
-        <v>258.65311152187297</v>
+        <v>278.51249999999999</v>
       </c>
       <c r="F5">
-        <v>0.8115</v>
-      </c>
-      <c r="G5">
-        <v>175.74192284793699</v>
-      </c>
-      <c r="H5">
-        <v>1133.3891688669701</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>64.7251880000006</v>
+        <v>419.28473999977598</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -30821,28 +30958,28 @@
         <v>1500</v>
       </c>
       <c r="D6">
-        <v>4.3974317058237897</v>
+        <v>4.9249769178737104</v>
       </c>
       <c r="E6">
-        <v>265.24741707449698</v>
+        <v>405.07533333333299</v>
       </c>
       <c r="F6">
-        <v>0.76624999999999999</v>
-      </c>
-      <c r="G6">
-        <v>174.12300180560101</v>
-      </c>
-      <c r="H6">
-        <v>927.50173109666798</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>112.663675999988</v>
+        <v>1778.41319200302</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -30858,28 +30995,28 @@
         <v>1700</v>
       </c>
       <c r="D7">
-        <v>3.9663553733680201</v>
+        <v>4.0100923801718196</v>
       </c>
       <c r="E7">
-        <v>290.78705108750597</v>
+        <v>507.43</v>
       </c>
       <c r="F7">
-        <v>0.70607142857142802</v>
-      </c>
-      <c r="G7">
-        <v>217.52648125419</v>
-      </c>
-      <c r="H7">
-        <v>1182.50806501232</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>244.86426100005301</v>
+        <v>3731.7797880191802</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -30895,28 +31032,28 @@
         <v>2000</v>
       </c>
       <c r="D8">
-        <v>3.6855501882475501</v>
+        <v>2.90766143123331</v>
       </c>
       <c r="E8">
-        <v>293.58727810650799</v>
+        <v>723.97699999999998</v>
       </c>
       <c r="F8">
-        <v>0.63414634146341398</v>
-      </c>
-      <c r="G8">
-        <v>264.78639462477901</v>
-      </c>
-      <c r="H8">
-        <v>1462.22706333275</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>424.38860000021799</v>
+        <v>10217.9472539294</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -30932,28 +31069,28 @@
         <v>2200</v>
       </c>
       <c r="D9">
-        <v>3.43870266054105</v>
+        <v>2.5264067843328402</v>
       </c>
       <c r="E9">
-        <v>313.095966620306</v>
+        <v>847.62136363636296</v>
       </c>
       <c r="F9">
-        <v>0.61052929521652899</v>
-      </c>
-      <c r="G9">
-        <v>308.507870800717</v>
-      </c>
-      <c r="H9">
-        <v>1667.87828905071</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>660.36201799990897</v>
+        <v>18997.5024801371</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -30969,28 +31106,28 @@
         <v>2500</v>
       </c>
       <c r="D10">
-        <v>2.9940950885164899</v>
+        <v>2.2165074873245998</v>
       </c>
       <c r="E10">
-        <v>325.47882736156299</v>
+        <v>1017.72</v>
       </c>
       <c r="F10">
-        <v>0.55272633744855904</v>
-      </c>
-      <c r="G10">
-        <v>340.34754317926701</v>
-      </c>
-      <c r="H10">
-        <v>1820.8271120423401</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>906.65042100084895</v>
+        <v>38459.369353539703</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -31041,28 +31178,28 @@
         <v>500</v>
       </c>
       <c r="D13">
-        <v>12.939506423199299</v>
+        <v>13.7867619004013</v>
       </c>
       <c r="E13">
-        <v>141.77125000000001</v>
+        <v>131.04599999999999</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>15.7426863607946</v>
-      </c>
-      <c r="H13">
-        <v>128.74575003537501</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>20.626539999999999</v>
+        <v>48.309782999999797</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -31079,28 +31216,28 @@
         <v>700</v>
       </c>
       <c r="D14">
-        <v>8.3345502735346795</v>
+        <v>10.64</v>
       </c>
       <c r="E14">
-        <v>217.65709459459401</v>
+        <v>169.28571428571399</v>
       </c>
       <c r="F14">
-        <v>0.98666666666666603</v>
-      </c>
-      <c r="G14">
-        <v>65.696891272805601</v>
-      </c>
-      <c r="H14">
-        <v>380.86779687324599</v>
-      </c>
-      <c r="I14">
-        <v>0.10767326732673201</v>
-      </c>
-      <c r="J14">
-        <v>1.0767326732673199</v>
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>32.140286999999901</v>
+        <v>74.630003999999701</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -31117,28 +31254,28 @@
         <v>1000</v>
       </c>
       <c r="D15">
-        <v>6.3674464166932196</v>
+        <v>7.65880034566585</v>
       </c>
       <c r="E15">
-        <v>249.05192178017501</v>
+        <v>247.63800000000001</v>
       </c>
       <c r="F15">
-        <v>0.926875</v>
-      </c>
-      <c r="G15">
-        <v>120.245192183645</v>
-      </c>
-      <c r="H15">
-        <v>723.90690125987703</v>
-      </c>
-      <c r="I15">
-        <v>1.02719269683001</v>
-      </c>
-      <c r="J15">
-        <v>11.205952175390699</v>
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>48.191389000000001</v>
+        <v>105.684865999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -31155,28 +31292,28 @@
         <v>1200</v>
       </c>
       <c r="D16">
-        <v>5.0004745251319997</v>
+        <v>7.2234090538898101</v>
       </c>
       <c r="E16">
-        <v>263.699939503932</v>
+        <v>266.03666666666601</v>
       </c>
       <c r="F16">
-        <v>0.82650000000000001</v>
-      </c>
-      <c r="G16">
-        <v>127.83363734152999</v>
-      </c>
-      <c r="H16">
-        <v>731.54197222461596</v>
-      </c>
-      <c r="I16">
-        <v>0.87463652753811705</v>
-      </c>
-      <c r="J16">
-        <v>9.10570828628064</v>
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>234.931077000008</v>
+        <v>423.681507999536</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -31193,28 +31330,28 @@
         <v>1500</v>
       </c>
       <c r="D17">
-        <v>4.5922552613542704</v>
+        <v>5.0998621420276598</v>
       </c>
       <c r="E17">
-        <v>270.23444206008497</v>
+        <v>392.67466666666598</v>
       </c>
       <c r="F17">
-        <v>0.77666666666666595</v>
-      </c>
-      <c r="G17">
-        <v>180.720724096613</v>
-      </c>
-      <c r="H17">
-        <v>1036.4683229283301</v>
-      </c>
-      <c r="I17">
-        <v>0.83917888203730995</v>
-      </c>
-      <c r="J17">
-        <v>10.854985451937001</v>
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
       </c>
       <c r="K17">
-        <v>367.393388000154</v>
+        <v>1525.85704800078</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -31231,28 +31368,28 @@
         <v>1700</v>
       </c>
       <c r="D18">
-        <v>4.1942270381140201</v>
+        <v>3.99163086102836</v>
       </c>
       <c r="E18">
-        <v>291.10560560560498</v>
+        <v>514.21411764705795</v>
       </c>
       <c r="F18">
-        <v>0.71357142857142797</v>
-      </c>
-      <c r="G18">
-        <v>206.91685707217499</v>
-      </c>
-      <c r="H18">
-        <v>1110.1103601929799</v>
-      </c>
-      <c r="I18">
-        <v>1.53625315364354</v>
-      </c>
-      <c r="J18">
-        <v>18.142692034932001</v>
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
       </c>
       <c r="K18">
-        <v>654.19992499997602</v>
+        <v>3423.9327160115799</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -31269,28 +31406,28 @@
         <v>2000</v>
       </c>
       <c r="D19">
-        <v>3.7929623160777899</v>
+        <v>2.87964515040674</v>
       </c>
       <c r="E19">
-        <v>296.769868356899</v>
+        <v>746.90800000000002</v>
       </c>
       <c r="F19">
-        <v>0.64598425196850395</v>
-      </c>
-      <c r="G19">
-        <v>245.232515735888</v>
-      </c>
-      <c r="H19">
-        <v>1381.92304621214</v>
-      </c>
-      <c r="I19">
-        <v>1.5964352589925901</v>
-      </c>
-      <c r="J19">
-        <v>19.869837384048299</v>
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>1022.00185200056</v>
+        <v>8851.3151679648709</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -31307,28 +31444,28 @@
         <v>2200</v>
       </c>
       <c r="D20">
-        <v>3.5460319716044801</v>
+        <v>2.5208803728637998</v>
       </c>
       <c r="E20">
-        <v>307.61087669948398</v>
+        <v>877.72727272727195</v>
       </c>
       <c r="F20">
-        <v>0.60084507042253499</v>
-      </c>
-      <c r="G20">
-        <v>298.51616923635999</v>
-      </c>
-      <c r="H20">
-        <v>1667.8981629104901</v>
-      </c>
-      <c r="I20">
-        <v>1.8901541888381399</v>
-      </c>
-      <c r="J20">
-        <v>22.387604340166799</v>
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
       </c>
       <c r="K20">
-        <v>1440.0299780007001</v>
+        <v>16329.5358680229</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -31345,28 +31482,28 @@
         <v>2500</v>
       </c>
       <c r="D21">
-        <v>3.1610536708312802</v>
+        <v>2.2783973756387699</v>
       </c>
       <c r="E21">
-        <v>317.90328467153199</v>
+        <v>1034.0039999999999</v>
       </c>
       <c r="F21">
-        <v>0.56233966136480196</v>
-      </c>
-      <c r="G21">
-        <v>312.32306817063801</v>
-      </c>
-      <c r="H21">
-        <v>1705.68046535608</v>
-      </c>
-      <c r="I21">
-        <v>1.63876257467876</v>
-      </c>
-      <c r="J21">
-        <v>21.1685406733821</v>
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>1803.7968320032201</v>
+        <v>27964.0194293034</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -31418,28 +31555,28 @@
         <v>500</v>
       </c>
       <c r="D24">
-        <v>12.939506423199299</v>
+        <v>13.7867619004013</v>
       </c>
       <c r="E24">
-        <v>141.77125000000001</v>
+        <v>131.04599999999999</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>15.7426863607946</v>
-      </c>
-      <c r="H24">
-        <v>128.74575003537501</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
       </c>
       <c r="K24">
-        <v>21.099658000000002</v>
+        <v>85.687243999999794</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -31456,28 +31593,28 @@
         <v>700</v>
       </c>
       <c r="D25">
-        <v>8.2862400739773001</v>
+        <v>10.508609932617899</v>
       </c>
       <c r="E25">
-        <v>219.53164556962</v>
+        <v>171.728571428571</v>
       </c>
       <c r="F25">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="G25">
-        <v>65.386200066640598</v>
-      </c>
-      <c r="H25">
-        <v>378.361531408497</v>
-      </c>
-      <c r="I25">
-        <v>0.33359016695571397</v>
-      </c>
-      <c r="J25">
-        <v>3.7056199794162898</v>
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
       </c>
       <c r="K25">
-        <v>32.951083999999902</v>
+        <v>74.478989999999698</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -31494,28 +31631,28 @@
         <v>1000</v>
       </c>
       <c r="D26">
-        <v>6.5228400642630797</v>
+        <v>8.4756354662749001</v>
       </c>
       <c r="E26">
-        <v>249.15729585006599</v>
+        <v>225.30699999999999</v>
       </c>
       <c r="F26">
-        <v>0.93374999999999997</v>
-      </c>
-      <c r="G26">
-        <v>115.393120707349</v>
-      </c>
-      <c r="H26">
-        <v>700.15401945552298</v>
-      </c>
-      <c r="I26">
-        <v>1.9005620799109399</v>
-      </c>
-      <c r="J26">
-        <v>21.0794491992893</v>
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
       </c>
       <c r="K26">
-        <v>45.421955000000096</v>
+        <v>147.05407300001599</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -31532,28 +31669,28 @@
         <v>1200</v>
       </c>
       <c r="D27">
-        <v>5.3917220302378901</v>
+        <v>6.7391907642781801</v>
       </c>
       <c r="E27">
-        <v>265.41413551401803</v>
+        <v>285.26916666666602</v>
       </c>
       <c r="F27">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="G27">
-        <v>119.493716872563</v>
-      </c>
-      <c r="H27">
-        <v>685.76548293876397</v>
-      </c>
-      <c r="I27">
-        <v>0.59269470753804698</v>
-      </c>
-      <c r="J27">
-        <v>15.342573993644701</v>
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
       </c>
       <c r="K27">
-        <v>269.57035200002599</v>
+        <v>533.23070599960204</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -31570,28 +31707,28 @@
         <v>1500</v>
       </c>
       <c r="D28">
-        <v>4.7537215120390899</v>
+        <v>4.7449809582020697</v>
       </c>
       <c r="E28">
-        <v>272.62473460721799</v>
+        <v>425.38</v>
       </c>
       <c r="F28">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="G28">
-        <v>151.079482853581</v>
-      </c>
-      <c r="H28">
-        <v>796.82224575284204</v>
-      </c>
-      <c r="I28">
-        <v>1.8679507601454799</v>
-      </c>
-      <c r="J28">
-        <v>29.471940818998402</v>
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
       </c>
       <c r="K28">
-        <v>473.16405300023001</v>
+        <v>1854.99169800144</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -31608,28 +31745,28 @@
         <v>1700</v>
       </c>
       <c r="D29">
-        <v>4.3045689078010501</v>
+        <v>4.1524037118503596</v>
       </c>
       <c r="E29">
-        <v>291.814556331007</v>
+        <v>501.16117647058798</v>
       </c>
       <c r="F29">
-        <v>0.71642857142857097</v>
-      </c>
-      <c r="G29">
-        <v>194.55531805220801</v>
-      </c>
-      <c r="H29">
-        <v>1025.3297565076</v>
-      </c>
-      <c r="I29">
-        <v>2.5490064030555901</v>
-      </c>
-      <c r="J29">
-        <v>39.6599976772536</v>
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
       </c>
       <c r="K29">
-        <v>748.76284199986003</v>
+        <v>3938.2067510172201</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -31646,28 +31783,28 @@
         <v>2000</v>
       </c>
       <c r="D30">
-        <v>3.7623023098161301</v>
+        <v>3.0514338416962401</v>
       </c>
       <c r="E30">
-        <v>297.71812408402502</v>
+        <v>712.35199999999998</v>
       </c>
       <c r="F30">
-        <v>0.64452141057934498</v>
-      </c>
-      <c r="G30">
-        <v>235.07674227727401</v>
-      </c>
-      <c r="H30">
-        <v>1304.9438907123299</v>
-      </c>
-      <c r="I30">
-        <v>2.1024446267512098</v>
-      </c>
-      <c r="J30">
-        <v>35.139631549848403</v>
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
       </c>
       <c r="K30">
-        <v>1071.2775090002999</v>
+        <v>8995.37812496269</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -31684,28 +31821,28 @@
         <v>2200</v>
       </c>
       <c r="D31">
-        <v>3.6464258657661199</v>
+        <v>2.6063935841444699</v>
       </c>
       <c r="E31">
-        <v>314.352887259395</v>
+        <v>857.19454545454505</v>
       </c>
       <c r="F31">
-        <v>0.61725601131541696</v>
-      </c>
-      <c r="G31">
-        <v>257.57194208713702</v>
-      </c>
-      <c r="H31">
-        <v>1406.5436057521499</v>
-      </c>
-      <c r="I31">
-        <v>1.7494115929860401</v>
-      </c>
-      <c r="J31">
-        <v>34.949539120730101</v>
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
       </c>
       <c r="K31">
-        <v>1718.1315890005401</v>
+        <v>16395.393046033099</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -31722,28 +31859,28 @@
         <v>2500</v>
       </c>
       <c r="D32">
-        <v>3.26358907872413</v>
+        <v>2.2777965554650699</v>
       </c>
       <c r="E32">
-        <v>319.58916478555301</v>
+        <v>1049.7092</v>
       </c>
       <c r="F32">
-        <v>0.568240123140071</v>
-      </c>
-      <c r="G32">
-        <v>289.85868206954899</v>
-      </c>
-      <c r="H32">
-        <v>1592.73719117419</v>
-      </c>
-      <c r="I32">
-        <v>2.4984713711090598</v>
-      </c>
-      <c r="J32">
-        <v>42.091544000269103</v>
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>2392.4411679980599</v>
+        <v>27269.912573216599</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -31795,28 +31932,28 @@
         <v>500</v>
       </c>
       <c r="D35">
-        <v>12.939506423199299</v>
+        <v>13.8260470804035</v>
       </c>
       <c r="E35">
-        <v>141.77125000000001</v>
+        <v>130.84</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>15.7426863607946</v>
-      </c>
-      <c r="H35">
-        <v>128.74575003537501</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
       </c>
       <c r="K35">
-        <v>20.934085</v>
+        <v>44.5807369999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -31833,28 +31970,28 @@
         <v>700</v>
       </c>
       <c r="D36">
-        <v>8.1503504946569798</v>
+        <v>10.8107345116088</v>
       </c>
       <c r="E36">
-        <v>223.175675675675</v>
+        <v>166.991428571428</v>
       </c>
       <c r="F36">
-        <v>0.98666666666666603</v>
-      </c>
-      <c r="G36">
-        <v>63.190554516708602</v>
-      </c>
-      <c r="H36">
-        <v>365.223917139989</v>
-      </c>
-      <c r="I36">
-        <v>0.25285007620107403</v>
-      </c>
-      <c r="J36">
-        <v>12.9984109825687</v>
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
       </c>
       <c r="K36">
-        <v>33.115970999999902</v>
+        <v>109.96518599999899</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -31871,28 +32008,28 @@
         <v>1000</v>
       </c>
       <c r="D37">
-        <v>6.6654100215800796</v>
+        <v>8.5983988368231596</v>
       </c>
       <c r="E37">
-        <v>243.92617449664399</v>
+        <v>222.83799999999999</v>
       </c>
       <c r="F37">
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="G37">
-        <v>109.125786062298</v>
-      </c>
-      <c r="H37">
-        <v>654.19168173727803</v>
-      </c>
-      <c r="I37">
-        <v>2.6388915575795502</v>
-      </c>
-      <c r="J37">
-        <v>36.666574888814402</v>
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
       </c>
       <c r="K37">
-        <v>51.114775999999701</v>
+        <v>115.69532099998899</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -31909,28 +32046,28 @@
         <v>1200</v>
       </c>
       <c r="D38">
-        <v>5.5663532452159004</v>
+        <v>7.18319076621977</v>
       </c>
       <c r="E38">
-        <v>261.51244933410499</v>
+        <v>269.95083333333298</v>
       </c>
       <c r="F38">
-        <v>0.86350000000000005</v>
-      </c>
-      <c r="G38">
-        <v>128.83241254015101</v>
-      </c>
-      <c r="H38">
-        <v>703.92390560138301</v>
-      </c>
-      <c r="I38">
-        <v>1.89538888853873</v>
-      </c>
-      <c r="J38">
-        <v>33.471829248047001</v>
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
       </c>
       <c r="K38">
-        <v>196.490808999975</v>
+        <v>331.17020199987098</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -31947,28 +32084,28 @@
         <v>1500</v>
       </c>
       <c r="D39">
-        <v>4.9727359320595204</v>
+        <v>5.33058418766048</v>
       </c>
       <c r="E39">
-        <v>275.61498166579298</v>
+        <v>383.47266666666599</v>
       </c>
       <c r="F39">
-        <v>0.79541666666666599</v>
-      </c>
-      <c r="G39">
-        <v>152.31866143726799</v>
-      </c>
-      <c r="H39">
-        <v>797.88941760463797</v>
-      </c>
-      <c r="I39">
-        <v>5.2192886965819696</v>
-      </c>
-      <c r="J39">
-        <v>76.850861918061995</v>
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
       </c>
       <c r="K39">
-        <v>506.64374800027002</v>
+        <v>1258.84262699992</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -31985,28 +32122,28 @@
         <v>1700</v>
       </c>
       <c r="D40">
-        <v>4.4456323690325403</v>
+        <v>4.3377817869228297</v>
       </c>
       <c r="E40">
-        <v>295.39255996084103</v>
+        <v>485.16529411764702</v>
       </c>
       <c r="F40">
-        <v>0.73278335724533705</v>
-      </c>
-      <c r="G40">
-        <v>174.115990612171</v>
-      </c>
-      <c r="H40">
-        <v>899.84142409789001</v>
-      </c>
-      <c r="I40">
-        <v>2.70120576535796</v>
-      </c>
-      <c r="J40">
-        <v>52.367392746031797</v>
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
       </c>
       <c r="K40">
-        <v>758.97518300000695</v>
+        <v>3074.4326290164599</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -32023,28 +32160,28 @@
         <v>2000</v>
       </c>
       <c r="D41">
-        <v>3.92314305807307</v>
+        <v>3.0574937174502299</v>
       </c>
       <c r="E41">
-        <v>302.16955684007701</v>
+        <v>722.83550000000002</v>
       </c>
       <c r="F41">
-        <v>0.65654648956356698</v>
-      </c>
-      <c r="G41">
-        <v>204.00902916171401</v>
-      </c>
-      <c r="H41">
-        <v>1078.97814603291</v>
-      </c>
-      <c r="I41">
-        <v>2.1863502137770201</v>
-      </c>
-      <c r="J41">
-        <v>48.416278274653301</v>
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
       </c>
       <c r="K41">
-        <v>876.50067900023703</v>
+        <v>7444.36292506263</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -32061,28 +32198,28 @@
         <v>2200</v>
       </c>
       <c r="D42">
-        <v>3.8105645389746199</v>
+        <v>2.6405946760877601</v>
       </c>
       <c r="E42">
-        <v>310.35317636605902</v>
+        <v>881.58</v>
       </c>
       <c r="F42">
-        <v>0.63767705382436202</v>
-      </c>
-      <c r="G42">
-        <v>210.51372908553799</v>
-      </c>
-      <c r="H42">
-        <v>1052.2021372112799</v>
-      </c>
-      <c r="I42">
-        <v>5.51018369846068E-2</v>
-      </c>
-      <c r="J42">
-        <v>47.130636600498804</v>
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
       </c>
       <c r="K42">
-        <v>1290.81138300046</v>
+        <v>15051.140029002199</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -32099,28 +32236,28 @@
         <v>2500</v>
       </c>
       <c r="D43">
-        <v>3.6505977020943199</v>
+        <v>2.4259113370766601</v>
       </c>
       <c r="E43">
-        <v>312.020319930825</v>
+        <v>1003.8108</v>
       </c>
       <c r="F43">
-        <v>0.59322903308540598</v>
-      </c>
-      <c r="G43">
-        <v>248.764046612415</v>
-      </c>
-      <c r="H43">
-        <v>1331.4640881913499</v>
-      </c>
-      <c r="I43">
-        <v>4.8593585962383701</v>
-      </c>
-      <c r="J43">
-        <v>84.423391736398301</v>
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>2109.43262000185</v>
+        <v>25268.7176011304</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -32172,28 +32309,28 @@
         <v>500</v>
       </c>
       <c r="D46">
-        <v>13.091205967379199</v>
+        <v>13.8419934915129</v>
       </c>
       <c r="E46">
-        <v>140.095</v>
+        <v>130.90600000000001</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46">
-        <v>13.513013317750699</v>
-      </c>
-      <c r="H46">
-        <v>109.535713537565</v>
-      </c>
-      <c r="I46">
-        <v>-8.9919184538144598E-2</v>
-      </c>
-      <c r="J46">
-        <v>4.0552761226719598</v>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
       </c>
       <c r="K46">
-        <v>20.892070999999898</v>
+        <v>70.507304999999704</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -32210,28 +32347,28 @@
         <v>700</v>
       </c>
       <c r="D47">
-        <v>8.2447231379642307</v>
+        <v>11.3626407167351</v>
       </c>
       <c r="E47">
-        <v>220.413006756756</v>
+        <v>159.134285714285</v>
       </c>
       <c r="F47">
-        <v>0.98666666666666603</v>
-      </c>
-      <c r="G47">
-        <v>57.965274209068703</v>
-      </c>
-      <c r="H47">
-        <v>364.26848999774501</v>
-      </c>
-      <c r="I47">
-        <v>4.1824546922788404</v>
-      </c>
-      <c r="J47">
-        <v>51.397034338104298</v>
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
       </c>
       <c r="K47">
-        <v>35.012988999999997</v>
+        <v>75.333484999999598</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -32248,28 +32385,28 @@
         <v>1000</v>
       </c>
       <c r="D48">
-        <v>7.5023051076395397</v>
+        <v>9.5005554343298009</v>
       </c>
       <c r="E48">
-        <v>236.867838541666</v>
+        <v>201.64400000000001</v>
       </c>
       <c r="F48">
-        <v>0.96</v>
-      </c>
-      <c r="G48">
-        <v>93.890912157750506</v>
-      </c>
-      <c r="H48">
-        <v>542.598269075085</v>
-      </c>
-      <c r="I48">
-        <v>2.5008692856634598</v>
-      </c>
-      <c r="J48">
-        <v>58.554555288757903</v>
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
       </c>
       <c r="K48">
-        <v>53.595501000001001</v>
+        <v>114.758341999999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -32286,28 +32423,28 @@
         <v>1200</v>
       </c>
       <c r="D49">
-        <v>5.9228365666774101</v>
+        <v>8.2615864685649392</v>
       </c>
       <c r="E49">
-        <v>266.83011363636302</v>
+        <v>235.00833333333301</v>
       </c>
       <c r="F49">
-        <v>0.88</v>
-      </c>
-      <c r="G49">
-        <v>117.62482714714299</v>
-      </c>
-      <c r="H49">
-        <v>660.79660604200706</v>
-      </c>
-      <c r="I49">
-        <v>3.0727642076079098</v>
-      </c>
-      <c r="J49">
-        <v>66.079770285506001</v>
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
       </c>
       <c r="K49">
-        <v>128.89817799998801</v>
+        <v>321.46649199995102</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -32324,28 +32461,28 @@
         <v>1500</v>
       </c>
       <c r="D50">
-        <v>5.4902149825226703</v>
+        <v>5.7078216139931897</v>
       </c>
       <c r="E50">
-        <v>257.13601630157899</v>
+        <v>361.85199999999998</v>
       </c>
       <c r="F50">
-        <v>0.81791666666666596</v>
-      </c>
-      <c r="G50">
-        <v>122.12457983831899</v>
-      </c>
-      <c r="H50">
-        <v>674.68663134984195</v>
-      </c>
-      <c r="I50">
-        <v>7.4338810488026601</v>
-      </c>
-      <c r="J50">
-        <v>109.46889410778</v>
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
       </c>
       <c r="K50">
-        <v>260.23541500002199</v>
+        <v>1208.8810920006299</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -32362,28 +32499,28 @@
         <v>1700</v>
       </c>
       <c r="D51">
-        <v>4.8538947364809397</v>
+        <v>4.6438231394187302</v>
       </c>
       <c r="E51">
-        <v>285.33961375412099</v>
+        <v>467.58</v>
       </c>
       <c r="F51">
-        <v>0.75821428571428495</v>
-      </c>
-      <c r="G51">
-        <v>160.25847511194499</v>
-      </c>
-      <c r="H51">
-        <v>820.19224843454299</v>
-      </c>
-      <c r="I51">
-        <v>7.1979530445261402</v>
-      </c>
-      <c r="J51">
-        <v>115.928422447684</v>
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
       </c>
       <c r="K51">
-        <v>516.38038499998197</v>
+        <v>3440.9238810155698</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -32400,28 +32537,28 @@
         <v>2000</v>
       </c>
       <c r="D52">
-        <v>4.3009959610326396</v>
+        <v>3.5023990617961598</v>
       </c>
       <c r="E52">
-        <v>300.79846014492699</v>
+        <v>648.89949999999999</v>
       </c>
       <c r="F52">
-        <v>0.69194609840175403</v>
-      </c>
-      <c r="G52">
-        <v>183.184866083564</v>
-      </c>
-      <c r="H52">
-        <v>1004.4821387014</v>
-      </c>
-      <c r="I52">
-        <v>8.5524898477668501</v>
-      </c>
-      <c r="J52">
-        <v>124.644150720631</v>
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
       </c>
       <c r="K52">
-        <v>708.58973900008698</v>
+        <v>7379.1644020575204</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -32438,28 +32575,28 @@
         <v>2200</v>
       </c>
       <c r="D53">
-        <v>4.0537274352472998</v>
+        <v>2.7788370078924398</v>
       </c>
       <c r="E53">
-        <v>306.13468158347598</v>
+        <v>854.44181818181801</v>
       </c>
       <c r="F53">
-        <v>0.65761177136389304</v>
-      </c>
-      <c r="G53">
-        <v>229.73714012263099</v>
-      </c>
-      <c r="H53">
-        <v>1247.84228374239</v>
-      </c>
-      <c r="I53">
-        <v>5.9378874261266201</v>
-      </c>
-      <c r="J53">
-        <v>109.78468559965501</v>
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>20</v>
       </c>
       <c r="K53">
-        <v>1199.0375309999599</v>
+        <v>14651.6151850684</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -32476,28 +32613,28 @@
         <v>2500</v>
       </c>
       <c r="D54">
-        <v>3.7287782084049401</v>
+        <v>2.4349804953798402</v>
       </c>
       <c r="E54">
-        <v>316.31898407232001</v>
+        <v>1055.8524</v>
       </c>
       <c r="F54">
-        <v>0.59640564826700904</v>
-      </c>
-      <c r="G54">
-        <v>221.25366373029999</v>
-      </c>
-      <c r="H54">
-        <v>1138.3214030035499</v>
-      </c>
-      <c r="I54">
-        <v>7.2451419873692204</v>
-      </c>
-      <c r="J54">
-        <v>119.065383301178</v>
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
       </c>
       <c r="K54">
-        <v>2211.9838109995098</v>
+        <v>23011.5364794991</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -32549,28 +32686,28 @@
         <v>500</v>
       </c>
       <c r="D57">
-        <v>13.1549694758451</v>
+        <v>13.876208542405999</v>
       </c>
       <c r="E57">
-        <v>139.43875</v>
+        <v>130.73599999999999</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57">
-        <v>12.296982940924501</v>
-      </c>
-      <c r="H57">
-        <v>99.264440210959293</v>
-      </c>
-      <c r="I57">
-        <v>0.429764210269164</v>
-      </c>
-      <c r="J57">
-        <v>7.3327226424860603</v>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
       </c>
       <c r="K57">
-        <v>21.714780999999999</v>
+        <v>45.538477999999799</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -32587,28 +32724,28 @@
         <v>700</v>
       </c>
       <c r="D58">
-        <v>9.4499841219434693</v>
+        <v>13.307472783003901</v>
       </c>
       <c r="E58">
-        <v>201.544620517097</v>
+        <v>135.15714285714199</v>
       </c>
       <c r="F58">
-        <v>0.99916666666666598</v>
-      </c>
-      <c r="G58">
-        <v>42.584260296592497</v>
-      </c>
-      <c r="H58">
-        <v>268.41365641183</v>
-      </c>
-      <c r="I58">
-        <v>2.96335514739877</v>
-      </c>
-      <c r="J58">
-        <v>46.228363924445098</v>
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
       </c>
       <c r="K58">
-        <v>31.603948999999901</v>
+        <v>74.762587999999695</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -32625,28 +32762,28 @@
         <v>1000</v>
       </c>
       <c r="D59">
-        <v>8.0968458035594502</v>
+        <v>9.9385595748986795</v>
       </c>
       <c r="E59">
-        <v>216.20973044049899</v>
+        <v>192.70699999999999</v>
       </c>
       <c r="F59">
-        <v>0.95062500000000005</v>
-      </c>
-      <c r="G59">
-        <v>94.098029687752799</v>
-      </c>
-      <c r="H59">
-        <v>607.37359351278997</v>
-      </c>
-      <c r="I59">
-        <v>10.444520884455599</v>
-      </c>
-      <c r="J59">
-        <v>157.98409403174901</v>
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
       </c>
       <c r="K59">
-        <v>44.633009999999999</v>
+        <v>101.74633999999899</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -32663,28 +32800,28 @@
         <v>1200</v>
       </c>
       <c r="D60">
-        <v>6.5462961924791401</v>
+        <v>8.9506727137016799</v>
       </c>
       <c r="E60">
-        <v>245.139561057962</v>
+        <v>219.9425</v>
       </c>
       <c r="F60">
-        <v>0.88849999999999996</v>
-      </c>
-      <c r="G60">
-        <v>108.81572486549</v>
-      </c>
-      <c r="H60">
-        <v>596.79405334493697</v>
-      </c>
-      <c r="I60">
-        <v>8.2810927910365599</v>
-      </c>
-      <c r="J60">
-        <v>146.22107515128201</v>
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
       </c>
       <c r="K60">
-        <v>96.653937000004404</v>
+        <v>340.06462799970097</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -32701,28 +32838,28 @@
         <v>1500</v>
       </c>
       <c r="D61">
-        <v>6.0497230748375701</v>
+        <v>6.8139014108632701</v>
       </c>
       <c r="E61">
-        <v>245.90239043824701</v>
+        <v>319.142666666666</v>
       </c>
       <c r="F61">
-        <v>0.836666666666666</v>
-      </c>
-      <c r="G61">
-        <v>124.020787274775</v>
-      </c>
-      <c r="H61">
-        <v>708.64392068637301</v>
-      </c>
-      <c r="I61">
-        <v>20.70622423735</v>
-      </c>
-      <c r="J61">
-        <v>258.03940539680798</v>
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
       </c>
       <c r="K61">
-        <v>133.52229900000299</v>
+        <v>939.20666599802303</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -32739,28 +32876,28 @@
         <v>1700</v>
       </c>
       <c r="D62">
-        <v>5.4000077478454598</v>
+        <v>5.4971641961131503</v>
       </c>
       <c r="E62">
-        <v>276.51435079726599</v>
+        <v>402.62470588235198</v>
       </c>
       <c r="F62">
-        <v>0.78392857142857097</v>
-      </c>
-      <c r="G62">
-        <v>140.033841468421</v>
-      </c>
-      <c r="H62">
-        <v>766.54987970196999</v>
-      </c>
-      <c r="I62">
-        <v>22.210861594447501</v>
-      </c>
-      <c r="J62">
-        <v>272.98875767796801</v>
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
       </c>
       <c r="K62">
-        <v>315.14459500006001</v>
+        <v>2507.46735500764</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -32777,28 +32914,28 @@
         <v>2000</v>
       </c>
       <c r="D63">
-        <v>4.9435293028195497</v>
+        <v>3.7952534751882498</v>
       </c>
       <c r="E63">
-        <v>295.961670973298</v>
+        <v>628.05949999999996</v>
       </c>
       <c r="F63">
-        <v>0.72630591179230497</v>
-      </c>
-      <c r="G63">
-        <v>160.59271965883599</v>
-      </c>
-      <c r="H63">
-        <v>827.308878533403</v>
-      </c>
-      <c r="I63">
-        <v>18.9381961078568</v>
-      </c>
-      <c r="J63">
-        <v>228.705846094528</v>
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
       </c>
       <c r="K63">
-        <v>832.07916299978694</v>
+        <v>5343.3815710445097</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -32815,28 +32952,28 @@
         <v>2200</v>
       </c>
       <c r="D64">
-        <v>4.1615783989058999</v>
+        <v>3.0154289338120899</v>
       </c>
       <c r="E64">
-        <v>305.93073213502799</v>
+        <v>827.13545454545397</v>
       </c>
       <c r="F64">
-        <v>0.64453235377225204</v>
-      </c>
-      <c r="G64">
-        <v>201.75063814142399</v>
-      </c>
-      <c r="H64">
-        <v>1060.1453422034999</v>
-      </c>
-      <c r="I64">
-        <v>23.304761816116901</v>
-      </c>
-      <c r="J64">
-        <v>272.69796101644801</v>
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
       </c>
       <c r="K64">
-        <v>1427.8001269991501</v>
+        <v>11919.368835019201</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -32853,28 +32990,28 @@
         <v>2500</v>
       </c>
       <c r="D65">
-        <v>3.9205909844715801</v>
+        <v>2.5452516932840701</v>
       </c>
       <c r="E65">
-        <v>323.42526837324499</v>
+        <v>1012.4704</v>
       </c>
       <c r="F65">
-        <v>0.61817253700867703</v>
-      </c>
-      <c r="G65">
-        <v>210.528355542616</v>
-      </c>
-      <c r="H65">
-        <v>1177.3220658236</v>
-      </c>
-      <c r="I65">
-        <v>14.064923462760699</v>
-      </c>
-      <c r="J65">
-        <v>196.72375328639001</v>
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
       </c>
       <c r="K65">
-        <v>2905.4165529992902</v>
+        <v>19744.195145415699</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -32926,28 +33063,28 @@
         <v>500</v>
       </c>
       <c r="D68">
-        <v>13.2751457693104</v>
+        <v>13.902084194728999</v>
       </c>
       <c r="E68">
-        <v>138.70375000000001</v>
+        <v>130.602</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="G68">
-        <v>12.6330809560604</v>
-      </c>
-      <c r="H68">
-        <v>102.66971201835899</v>
-      </c>
-      <c r="I68">
-        <v>1.5425985132746201</v>
-      </c>
-      <c r="J68">
-        <v>17.935438055171101</v>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>20</v>
       </c>
       <c r="K68">
-        <v>21.057279999999899</v>
+        <v>44.838154999999901</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -32964,28 +33101,28 @@
         <v>700</v>
       </c>
       <c r="D69">
-        <v>11.003615757480301</v>
+        <v>13.577971821931699</v>
       </c>
       <c r="E69">
-        <v>179.99916666666601</v>
+        <v>133.335714285714</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69">
-        <v>37.486688455112599</v>
-      </c>
-      <c r="H69">
-        <v>239.70654845904201</v>
-      </c>
-      <c r="I69">
-        <v>6.75108954904037</v>
-      </c>
-      <c r="J69">
-        <v>89.796453219545498</v>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>20</v>
       </c>
       <c r="K69">
-        <v>32.213118000000001</v>
+        <v>69.883226999999806</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -33002,28 +33139,28 @@
         <v>1000</v>
       </c>
       <c r="D70">
-        <v>10.3604750332431</v>
+        <v>11.096411562742199</v>
       </c>
       <c r="E70">
-        <v>195.50950570342201</v>
+        <v>180.58</v>
       </c>
       <c r="F70">
-        <v>0.98624999999999996</v>
-      </c>
-      <c r="G70">
-        <v>73.824054647186898</v>
-      </c>
-      <c r="H70">
-        <v>482.297422582754</v>
-      </c>
-      <c r="I70">
-        <v>23.168909221936101</v>
-      </c>
-      <c r="J70">
-        <v>252.574815013029</v>
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
+        <v>20</v>
       </c>
       <c r="K70">
-        <v>45.824237999999902</v>
+        <v>108.508523999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -33040,28 +33177,28 @@
         <v>1200</v>
       </c>
       <c r="D71">
-        <v>7.7412804306089997</v>
+        <v>10.323804747576</v>
       </c>
       <c r="E71">
-        <v>244.63699731903401</v>
+        <v>199.4</v>
       </c>
       <c r="F71">
-        <v>0.9325</v>
-      </c>
-      <c r="G71">
-        <v>110.849022773128</v>
-      </c>
-      <c r="H71">
-        <v>673.35203177429003</v>
-      </c>
-      <c r="I71">
-        <v>20.440826770269702</v>
-      </c>
-      <c r="J71">
-        <v>282.03606857291601</v>
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>20</v>
       </c>
       <c r="K71">
-        <v>96.339414999998198</v>
+        <v>117.67350699999901</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -33078,28 +33215,28 @@
         <v>1500</v>
       </c>
       <c r="D72">
-        <v>6.8218334940918099</v>
+        <v>8.3590768313445594</v>
       </c>
       <c r="E72">
-        <v>271.771495327102</v>
+        <v>270.57533333333299</v>
       </c>
       <c r="F72">
-        <v>0.89166666666666605</v>
-      </c>
-      <c r="G72">
-        <v>140.18738563577199</v>
-      </c>
-      <c r="H72">
-        <v>825.42062902446901</v>
-      </c>
-      <c r="I72">
-        <v>30.116825777826499</v>
-      </c>
-      <c r="J72">
-        <v>337.08521282936601</v>
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
       </c>
       <c r="K72">
-        <v>215.07926300002001</v>
+        <v>716.21109699869498</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -33116,28 +33253,28 @@
         <v>1700</v>
       </c>
       <c r="D73">
-        <v>5.9086513846368804</v>
+        <v>5.5345925906405897</v>
       </c>
       <c r="E73">
-        <v>276.26510212950802</v>
+        <v>424.12176470588201</v>
       </c>
       <c r="F73">
-        <v>0.82178571428571401</v>
-      </c>
-      <c r="G73">
-        <v>146.19058415911101</v>
-      </c>
-      <c r="H73">
-        <v>812.53557012874705</v>
-      </c>
-      <c r="I73">
-        <v>32.7874475490813</v>
-      </c>
-      <c r="J73">
-        <v>344.78713699725301</v>
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>20</v>
       </c>
       <c r="K73">
-        <v>673.329718999806</v>
+        <v>2599.9345690090099</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -33154,28 +33291,28 @@
         <v>2000</v>
       </c>
       <c r="D74">
-        <v>5.1689169581238703</v>
+        <v>4.3690671802851702</v>
       </c>
       <c r="E74">
-        <v>289.65319587628801</v>
+        <v>551.38199999999995</v>
       </c>
       <c r="F74">
-        <v>0.75804939043451003</v>
-      </c>
-      <c r="G74">
-        <v>129.08781574980199</v>
-      </c>
-      <c r="H74">
-        <v>709.42403294081703</v>
-      </c>
-      <c r="I74">
-        <v>25.926535318727399</v>
-      </c>
-      <c r="J74">
-        <v>294.04045419191999</v>
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
+        <v>20</v>
       </c>
       <c r="K74">
-        <v>1017.36049399999</v>
+        <v>5125.5801690268199</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -33192,28 +33329,28 @@
         <v>2200</v>
       </c>
       <c r="D75">
-        <v>4.24852904649876</v>
+        <v>3.3196650959476401</v>
       </c>
       <c r="E75">
-        <v>300.81802501077999</v>
+        <v>752.02</v>
       </c>
       <c r="F75">
-        <v>0.65453005927180297</v>
-      </c>
-      <c r="G75">
-        <v>137.20698928594899</v>
-      </c>
-      <c r="H75">
-        <v>745.16761124427501</v>
-      </c>
-      <c r="I75">
-        <v>24.794059555992799</v>
-      </c>
-      <c r="J75">
-        <v>276.92023752208502</v>
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>20</v>
       </c>
       <c r="K75">
-        <v>1917.7384679991501</v>
+        <v>12062.795326032299</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -33230,28 +33367,28 @@
         <v>2500</v>
       </c>
       <c r="D76">
-        <v>3.9812027398871401</v>
+        <v>2.8966430109525301</v>
       </c>
       <c r="E76">
-        <v>316.96306592533699</v>
+        <v>899.62760000000003</v>
       </c>
       <c r="F76">
-        <v>0.64267483409903003</v>
-      </c>
-      <c r="G76">
-        <v>165.30831232420499</v>
-      </c>
-      <c r="H76">
-        <v>872.76455512303198</v>
-      </c>
-      <c r="I76">
-        <v>24.2062915812106</v>
-      </c>
-      <c r="J76">
-        <v>260.720990543141</v>
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>20</v>
       </c>
       <c r="K76">
-        <v>2727.6802989985799</v>
+        <v>19717.4130385192</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -33303,28 +33440,28 @@
         <v>500</v>
       </c>
       <c r="D79">
-        <v>13.581352917027701</v>
+        <v>13.9215835669876</v>
       </c>
       <c r="E79">
-        <v>137.01875000000001</v>
+        <v>131.24799999999999</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
-      <c r="G79">
-        <v>11.0771471383758</v>
-      </c>
-      <c r="H79">
-        <v>83.627103069486495</v>
-      </c>
-      <c r="I79">
-        <v>2.9859701611190799</v>
-      </c>
-      <c r="J79">
-        <v>36.437511684252698</v>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>20</v>
       </c>
       <c r="K79">
-        <v>21.100966999999901</v>
+        <v>44.113940999999897</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -33341,28 +33478,28 @@
         <v>700</v>
       </c>
       <c r="D80">
-        <v>12.5501821812082</v>
+        <v>12.545203439967</v>
       </c>
       <c r="E80">
-        <v>164.4425</v>
+        <v>145.84857142857101</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80">
-        <v>38.063461905337803</v>
-      </c>
-      <c r="H80">
-        <v>292.11700331123899</v>
-      </c>
-      <c r="I80">
-        <v>19.4907668143378</v>
-      </c>
-      <c r="J80">
-        <v>190.807147381676</v>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>20</v>
       </c>
       <c r="K80">
-        <v>35.690728999999898</v>
+        <v>76.967034999999498</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -33379,28 +33516,28 @@
         <v>1000</v>
       </c>
       <c r="D81">
-        <v>11.502512678426401</v>
+        <v>13.478145554848201</v>
       </c>
       <c r="E81">
-        <v>190.16062500000001</v>
+        <v>150.816</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="G81">
-        <v>86.367590425950397</v>
-      </c>
-      <c r="H81">
-        <v>550.44330784609099</v>
-      </c>
-      <c r="I81">
-        <v>37.248147286345599</v>
-      </c>
-      <c r="J81">
-        <v>363.315164353564</v>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>20</v>
       </c>
       <c r="K81">
-        <v>63.616412000000302</v>
+        <v>97.937990999999201</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -33417,28 +33554,28 @@
         <v>1200</v>
       </c>
       <c r="D82">
-        <v>8.7357379801986408</v>
+        <v>11.443791831716901</v>
       </c>
       <c r="E82">
-        <v>229.859301719645</v>
+        <v>189.12583333333299</v>
       </c>
       <c r="F82">
-        <v>0.95950000000000002</v>
-      </c>
-      <c r="G82">
-        <v>112.223565219515</v>
-      </c>
-      <c r="H82">
-        <v>652.83090658475305</v>
-      </c>
-      <c r="I82">
-        <v>35.479244723861299</v>
-      </c>
-      <c r="J82">
-        <v>359.17172212758402</v>
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>20</v>
       </c>
       <c r="K82">
-        <v>171.795681000005</v>
+        <v>129.22688500000001</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -33455,28 +33592,28 @@
         <v>1500</v>
       </c>
       <c r="D83">
-        <v>7.2958155873827097</v>
+        <v>9.2437540828179703</v>
       </c>
       <c r="E83">
-        <v>256.03381194997598</v>
+        <v>262.27800000000002</v>
       </c>
       <c r="F83">
-        <v>0.89958333333333296</v>
-      </c>
-      <c r="G83">
-        <v>113.463334927446</v>
-      </c>
-      <c r="H83">
-        <v>689.48542502828002</v>
-      </c>
-      <c r="I83">
-        <v>31.429483362313999</v>
-      </c>
-      <c r="J83">
-        <v>327.93603065459502</v>
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
+        <v>20</v>
       </c>
       <c r="K83">
-        <v>446.77747400003801</v>
+        <v>274.19714199998901</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -33493,28 +33630,28 @@
         <v>1700</v>
       </c>
       <c r="D84">
-        <v>6.0145355191256797</v>
+        <v>7.7572179568908899</v>
       </c>
       <c r="E84">
-        <v>278.172015404364</v>
+        <v>318.344117647058</v>
       </c>
       <c r="F84">
-        <v>0.83464285714285702</v>
-      </c>
-      <c r="G84">
-        <v>106.26121802855501</v>
-      </c>
-      <c r="H84">
-        <v>593.85052111356003</v>
-      </c>
-      <c r="I84">
-        <v>38.152252660068299</v>
-      </c>
-      <c r="J84">
-        <v>355.22258373372603</v>
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>20</v>
       </c>
       <c r="K84">
-        <v>834.50221299998202</v>
+        <v>2094.33548500595</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -33531,28 +33668,28 @@
         <v>2000</v>
       </c>
       <c r="D85">
-        <v>5.2402188738166</v>
+        <v>4.9314118733826602</v>
       </c>
       <c r="E85">
-        <v>283.21196094385601</v>
+        <v>490.39100000000002</v>
       </c>
       <c r="F85">
-        <v>0.76812499999999995</v>
-      </c>
-      <c r="G85">
-        <v>106.41128500384499</v>
-      </c>
-      <c r="H85">
-        <v>593.10659669156701</v>
-      </c>
-      <c r="I85">
-        <v>32.502516192390402</v>
-      </c>
-      <c r="J85">
-        <v>288.34251299069899</v>
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>20</v>
       </c>
       <c r="K85">
-        <v>1322.2537919999199</v>
+        <v>5533.6723340440603</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -33569,28 +33706,28 @@
         <v>2200</v>
       </c>
       <c r="D86">
-        <v>4.46604106965931</v>
+        <v>3.9417682189022001</v>
       </c>
       <c r="E86">
-        <v>307.67896230239103</v>
+        <v>653.64181818181805</v>
       </c>
       <c r="F86">
-        <v>0.69414743950478297</v>
-      </c>
-      <c r="G86">
-        <v>112.667053346836</v>
-      </c>
-      <c r="H86">
-        <v>584.56839799024601</v>
-      </c>
-      <c r="I86">
-        <v>28.868413667942999</v>
-      </c>
-      <c r="J86">
-        <v>268.18069511492098</v>
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>20</v>
       </c>
       <c r="K86">
-        <v>1881.51066000008</v>
+        <v>9640.2010628855296</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -33607,28 +33744,28 @@
         <v>2500</v>
       </c>
       <c r="D87">
-        <v>3.8439081959386598</v>
+        <v>3.0427041591752602</v>
       </c>
       <c r="E87">
-        <v>315.77719580983</v>
+        <v>822.72080000000005</v>
       </c>
       <c r="F87">
-        <v>0.640020629190304</v>
-      </c>
-      <c r="G87">
-        <v>141.86197711168299</v>
-      </c>
-      <c r="H87">
-        <v>757.25068077785897</v>
-      </c>
-      <c r="I87">
-        <v>40.089595398479702</v>
-      </c>
-      <c r="J87">
-        <v>351.55239316310701</v>
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>20</v>
       </c>
       <c r="K87">
-        <v>2832.5761669981798</v>
+        <v>22639.843128182099</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -33680,28 +33817,28 @@
         <v>500</v>
       </c>
       <c r="D90">
-        <v>13.9369173688525</v>
+        <v>13.942033599097</v>
       </c>
       <c r="E90">
-        <v>147.90125</v>
+        <v>138.21799999999999</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90">
-        <v>37.757724027681398</v>
-      </c>
-      <c r="H90">
-        <v>302.53954029775298</v>
-      </c>
-      <c r="I90">
-        <v>35.8116850265097</v>
-      </c>
-      <c r="J90">
-        <v>295.86471450055899</v>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>20</v>
       </c>
       <c r="K90">
-        <v>21.5009049999999</v>
+        <v>56.215621999999797</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -33718,28 +33855,28 @@
         <v>700</v>
       </c>
       <c r="D91">
-        <v>13.9232450081627</v>
+        <v>13.9355891394971</v>
       </c>
       <c r="E91">
-        <v>165.895833333333</v>
+        <v>143.587142857142</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="G91">
-        <v>61.123696923640701</v>
-      </c>
-      <c r="H91">
-        <v>453.84114504419102</v>
-      </c>
-      <c r="I91">
-        <v>57.482956896786298</v>
-      </c>
-      <c r="J91">
-        <v>437.43578678506702</v>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>20</v>
       </c>
       <c r="K91">
-        <v>64.349431999999794</v>
+        <v>108.597267999999</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -33756,28 +33893,28 @@
         <v>1000</v>
       </c>
       <c r="D92">
-        <v>13.7529656309357</v>
+        <v>13.9191275187631</v>
       </c>
       <c r="E92">
-        <v>174.39375000000001</v>
+        <v>169.08099999999999</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="G92">
-        <v>84.560834807565698</v>
-      </c>
-      <c r="H92">
-        <v>575.30857476775202</v>
-      </c>
-      <c r="I92">
-        <v>78.292928572128105</v>
-      </c>
-      <c r="J92">
-        <v>549.79238531207398</v>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>20</v>
       </c>
       <c r="K92">
-        <v>218.908434999999</v>
+        <v>82.611493999999396</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -33794,28 +33931,28 @@
         <v>1200</v>
       </c>
       <c r="D93">
-        <v>10.432704184934501</v>
+        <v>13.747925133077599</v>
       </c>
       <c r="E93">
-        <v>219.35707070706999</v>
+        <v>174.71</v>
       </c>
       <c r="F93">
-        <v>0.99</v>
-      </c>
-      <c r="G93">
-        <v>74.037796783812595</v>
-      </c>
-      <c r="H93">
-        <v>440.933151762362</v>
-      </c>
-      <c r="I93">
-        <v>61.6626696103867</v>
-      </c>
-      <c r="J93">
-        <v>402.59038850271702</v>
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>20</v>
       </c>
       <c r="K93">
-        <v>484.664534</v>
+        <v>104.413601999999</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -33832,28 +33969,28 @@
         <v>1500</v>
       </c>
       <c r="D94">
-        <v>8.6855111692247498</v>
+        <v>11.583298609795801</v>
       </c>
       <c r="E94">
-        <v>245.742034046268</v>
+        <v>211.19200000000001</v>
       </c>
       <c r="F94">
-        <v>0.95458333333333301</v>
-      </c>
-      <c r="G94">
-        <v>90.087016588159898</v>
-      </c>
-      <c r="H94">
-        <v>559.20934361989703</v>
-      </c>
-      <c r="I94">
-        <v>71.366512293961406</v>
-      </c>
-      <c r="J94">
-        <v>491.445671424387</v>
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>20</v>
       </c>
       <c r="K94">
-        <v>807.84119800004203</v>
+        <v>992.64066699816703</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -33870,28 +34007,28 @@
         <v>1700</v>
       </c>
       <c r="D95">
-        <v>7.0092301020748504</v>
+        <v>8.6827691153528104</v>
       </c>
       <c r="E95">
-        <v>277.00780944943301</v>
+        <v>276.00235294117601</v>
       </c>
       <c r="F95">
-        <v>0.91464285714285698</v>
-      </c>
-      <c r="G95">
-        <v>87.6504530830112</v>
-      </c>
-      <c r="H95">
-        <v>514.00198380463303</v>
-      </c>
-      <c r="I95">
-        <v>55.5735509447588</v>
-      </c>
-      <c r="J95">
-        <v>416.12772472481203</v>
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>20</v>
       </c>
       <c r="K95">
-        <v>1435.8259000001599</v>
+        <v>2289.81128400838</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -33908,28 +34045,28 @@
         <v>2000</v>
       </c>
       <c r="D96">
-        <v>6.1031409217101604</v>
+        <v>6.0876405855322702</v>
       </c>
       <c r="E96">
-        <v>279.36323690955601</v>
+        <v>396.28899999999999</v>
       </c>
       <c r="F96">
-        <v>0.85664993726474203</v>
-      </c>
-      <c r="G96">
-        <v>80.747213730055606</v>
-      </c>
-      <c r="H96">
-        <v>457.43831819897099</v>
-      </c>
-      <c r="I96">
-        <v>43.893395990860903</v>
-      </c>
-      <c r="J96">
-        <v>336.72271949126099</v>
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>20</v>
       </c>
       <c r="K96">
-        <v>1992.4747469998699</v>
+        <v>5136.1601690412399</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -33946,28 +34083,28 @@
         <v>2200</v>
       </c>
       <c r="D97">
-        <v>4.8927985112141297</v>
+        <v>4.4276439984950802</v>
       </c>
       <c r="E97">
-        <v>297.08762322015298</v>
+        <v>548.50636363636295</v>
       </c>
       <c r="F97">
-        <v>0.76701204144497304</v>
-      </c>
-      <c r="G97">
-        <v>69.8432953134499</v>
-      </c>
-      <c r="H97">
-        <v>369.99853126236098</v>
-      </c>
-      <c r="I97">
-        <v>33.756630535778598</v>
-      </c>
-      <c r="J97">
-        <v>236.60637972011199</v>
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>20</v>
       </c>
       <c r="K97">
-        <v>3167.3249889987801</v>
+        <v>9001.3543669378396</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -33984,28 +34121,28 @@
         <v>2500</v>
       </c>
       <c r="D98">
-        <v>4.4598790869432099</v>
+        <v>3.2731640349413702</v>
       </c>
       <c r="E98">
-        <v>304.88700173310201</v>
+        <v>733.66319999999996</v>
       </c>
       <c r="F98">
-        <v>0.733536740401729</v>
-      </c>
-      <c r="G98">
-        <v>71.794720219436996</v>
-      </c>
-      <c r="H98">
-        <v>384.33251237472399</v>
-      </c>
-      <c r="I98">
-        <v>37.294734093839502</v>
-      </c>
-      <c r="J98">
-        <v>255.54910529363801</v>
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>20</v>
       </c>
       <c r="K98">
-        <v>4181.5238709962396</v>
+        <v>16032.874284994001</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -34057,28 +34194,28 @@
         <v>500</v>
       </c>
       <c r="D101">
-        <v>13.951153324287599</v>
+        <v>13.953643860040099</v>
       </c>
       <c r="E101">
-        <v>170.43125000000001</v>
+        <v>170.506</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="G101">
-        <v>67.8331881957115</v>
-      </c>
-      <c r="H101">
-        <v>408.40232587102003</v>
-      </c>
-      <c r="I101">
-        <v>65.7071080250237</v>
-      </c>
-      <c r="J101">
-        <v>400.76475559025903</v>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s">
+        <v>20</v>
       </c>
       <c r="K101">
-        <v>117.937696</v>
+        <v>81.799412999999902</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -34095,28 +34232,28 @@
         <v>700</v>
       </c>
       <c r="D102">
-        <v>13.928564484454901</v>
+        <v>13.9529790861737</v>
       </c>
       <c r="E102">
-        <v>171.43666666666601</v>
+        <v>182.65428571428501</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="G102">
-        <v>61.690618674592699</v>
-      </c>
-      <c r="H102">
-        <v>390.80396915163902</v>
-      </c>
-      <c r="I102">
-        <v>59.642366429356301</v>
-      </c>
-      <c r="J102">
-        <v>384.26104763163301</v>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s">
+        <v>20</v>
       </c>
       <c r="K102">
-        <v>407.94218600001199</v>
+        <v>96.046143999999202</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -34133,28 +34270,28 @@
         <v>1000</v>
       </c>
       <c r="D103">
-        <v>12.678134461449099</v>
+        <v>13.937412639920501</v>
       </c>
       <c r="E103">
-        <v>180.83250000000001</v>
+        <v>173.13399999999999</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103">
-        <v>45.171701258512897</v>
-      </c>
-      <c r="H103">
-        <v>276.21988465638498</v>
-      </c>
-      <c r="I103">
-        <v>43.077662638690903</v>
-      </c>
-      <c r="J103">
-        <v>269.80810502489999</v>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s">
+        <v>20</v>
       </c>
       <c r="K103">
-        <v>878.98398000002101</v>
+        <v>71.459057999999601</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -34171,28 +34308,28 @@
         <v>1200</v>
       </c>
       <c r="D104">
-        <v>10.3216491857326</v>
+        <v>13.8625206988114</v>
       </c>
       <c r="E104">
-        <v>217.440925087983</v>
+        <v>170.09833333333299</v>
       </c>
       <c r="F104">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="G104">
-        <v>45.6873770535502</v>
-      </c>
-      <c r="H104">
-        <v>248.66474103602201</v>
-      </c>
-      <c r="I104">
-        <v>43.198955287402804</v>
-      </c>
-      <c r="J104">
-        <v>242.556111526103</v>
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s">
+        <v>20</v>
       </c>
       <c r="K104">
-        <v>1527.18126199977</v>
+        <v>54.983405999999597</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -34209,28 +34346,28 @@
         <v>1500</v>
       </c>
       <c r="D105">
-        <v>9.0769800957127291</v>
+        <v>11.8934980897718</v>
       </c>
       <c r="E105">
-        <v>222.40639861651499</v>
+        <v>186.88866666666601</v>
       </c>
       <c r="F105">
-        <v>0.96375</v>
-      </c>
-      <c r="G105">
-        <v>45.237313781047099</v>
-      </c>
-      <c r="H105">
-        <v>255.09004527070101</v>
-      </c>
-      <c r="I105">
-        <v>41.571778747950297</v>
-      </c>
-      <c r="J105">
-        <v>246.691834293727</v>
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s">
+        <v>20</v>
       </c>
       <c r="K105">
-        <v>2242.3509609994499</v>
+        <v>291.94633399993302</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -34247,28 +34384,28 @@
         <v>1700</v>
       </c>
       <c r="D106">
-        <v>7.7877028524324396</v>
+        <v>9.0920185262332396</v>
       </c>
       <c r="E106">
-        <v>240.361882716049</v>
+        <v>240.041176470588</v>
       </c>
       <c r="F106">
-        <v>0.92571428571428505</v>
-      </c>
-      <c r="G106">
-        <v>39.7280993902259</v>
-      </c>
-      <c r="H106">
-        <v>201.676368701119</v>
-      </c>
-      <c r="I106">
-        <v>35.339792390159801</v>
-      </c>
-      <c r="J106">
-        <v>192.747184892554</v>
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s">
+        <v>20</v>
       </c>
       <c r="K106">
-        <v>3140.7921449989099</v>
+        <v>1807.12601700501</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -34285,28 +34422,28 @@
         <v>2000</v>
       </c>
       <c r="D107">
-        <v>6.2648528675982904</v>
+        <v>5.9034142601446398</v>
       </c>
       <c r="E107">
-        <v>257.67979761474498</v>
+        <v>370.41699999999997</v>
       </c>
       <c r="F107">
-        <v>0.87067337948395196</v>
-      </c>
-      <c r="G107">
-        <v>39.673095612539498</v>
-      </c>
-      <c r="H107">
-        <v>191.13833235035099</v>
-      </c>
-      <c r="I107">
-        <v>28.776931484501699</v>
-      </c>
-      <c r="J107">
-        <v>158.47274518952401</v>
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>20</v>
       </c>
       <c r="K107">
-        <v>3823.7825749970698</v>
+        <v>3819.0916430217599</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -34323,28 +34460,28 @@
         <v>2200</v>
       </c>
       <c r="D108">
-        <v>4.9332888473113803</v>
+        <v>4.5102271270768304</v>
       </c>
       <c r="E108">
-        <v>290.93277310924299</v>
+        <v>485.85136363636298</v>
       </c>
       <c r="F108">
-        <v>0.79932829554995799</v>
-      </c>
-      <c r="G108">
-        <v>36.495898420957701</v>
-      </c>
-      <c r="H108">
-        <v>194.48628253840101</v>
-      </c>
-      <c r="I108">
-        <v>27.760854693467198</v>
-      </c>
-      <c r="J108">
-        <v>172.70697201889601</v>
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" t="s">
+        <v>20</v>
       </c>
       <c r="K108">
-        <v>4999.6430249971199</v>
+        <v>7582.4281910591899</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -34361,28 +34498,28 @@
         <v>2500</v>
       </c>
       <c r="D109">
-        <v>4.3532732450940603</v>
+        <v>3.2888945207383999</v>
       </c>
       <c r="E109">
-        <v>302.84766839378199</v>
+        <v>681.83640000000003</v>
       </c>
       <c r="F109">
-        <v>0.74459876543209802</v>
-      </c>
-      <c r="G109">
-        <v>33.552842478745198</v>
-      </c>
-      <c r="H109">
-        <v>156.98335983359499</v>
-      </c>
-      <c r="I109">
-        <v>25.1825617344082</v>
-      </c>
-      <c r="J109">
-        <v>136.97843762688899</v>
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s">
+        <v>20</v>
       </c>
       <c r="K109">
-        <v>6679.9875649945598</v>
+        <v>17806.513765296499</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -34434,28 +34571,28 @@
         <v>500</v>
       </c>
       <c r="D112">
-        <v>13.9495513158886</v>
+        <v>13.9502361507428</v>
       </c>
       <c r="E112">
-        <v>159.13200000000001</v>
+        <v>162.608</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
-      <c r="G112">
-        <v>30.225495476629298</v>
-      </c>
-      <c r="H112">
-        <v>163.70107907764501</v>
-      </c>
-      <c r="I112">
-        <v>27.973950719242701</v>
-      </c>
-      <c r="J112">
-        <v>157.82407746240901</v>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s">
+        <v>20</v>
       </c>
       <c r="K112">
-        <v>100.639384999999</v>
+        <v>94.021758999999605</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -34472,28 +34609,28 @@
         <v>700</v>
       </c>
       <c r="D113">
-        <v>13.9415245260966</v>
+        <v>13.942789236906799</v>
       </c>
       <c r="E113">
-        <v>156.45142857142801</v>
+        <v>151.47</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
-      <c r="G113">
-        <v>37.155461022786703</v>
-      </c>
-      <c r="H113">
-        <v>230.56954468071299</v>
-      </c>
-      <c r="I113">
-        <v>34.711310746071803</v>
-      </c>
-      <c r="J113">
-        <v>224.09261544856301</v>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" t="s">
+        <v>20</v>
       </c>
       <c r="K113">
-        <v>39.192164000000197</v>
+        <v>116.930905999999</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -34510,28 +34647,28 @@
         <v>1000</v>
       </c>
       <c r="D114">
-        <v>13.876356857592199</v>
+        <v>13.8936482408196</v>
       </c>
       <c r="E114">
-        <v>154.49299999999999</v>
+        <v>156.06700000000001</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
-      <c r="G114">
-        <v>27.331951193713898</v>
-      </c>
-      <c r="H114">
-        <v>149.067836956516</v>
-      </c>
-      <c r="I114">
-        <v>23.266005906027601</v>
-      </c>
-      <c r="J114">
-        <v>140.90235487860701</v>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" t="s">
+        <v>20</v>
       </c>
       <c r="K114">
-        <v>76.2846320000003</v>
+        <v>90.3066359999996</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -34548,28 +34685,28 @@
         <v>1200</v>
       </c>
       <c r="D115">
-        <v>10.6436345466958</v>
+        <v>13.7709698967594</v>
       </c>
       <c r="E115">
-        <v>199.301356102461</v>
+        <v>153.44416666666601</v>
       </c>
       <c r="F115">
-        <v>0.99550000000000005</v>
-      </c>
-      <c r="G115">
-        <v>19.666746324159401</v>
-      </c>
-      <c r="H115">
-        <v>89.942815092595595</v>
-      </c>
-      <c r="I115">
-        <v>17.955823816886799</v>
-      </c>
-      <c r="J115">
-        <v>86.281780695798204</v>
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" t="s">
+        <v>20</v>
       </c>
       <c r="K115">
-        <v>5689.5148139972798</v>
+        <v>139.15087999999901</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -34586,28 +34723,28 @@
         <v>1500</v>
       </c>
       <c r="D116">
-        <v>8.3653020837504801</v>
+        <v>12.473329038745501</v>
       </c>
       <c r="E116">
-        <v>227.20658293633599</v>
+        <v>169.72266666666599</v>
       </c>
       <c r="F116">
-        <v>0.96208333333333296</v>
-      </c>
-      <c r="G116">
-        <v>21.6283376850858</v>
-      </c>
-      <c r="H116">
-        <v>100.32051402888899</v>
-      </c>
-      <c r="I116">
-        <v>19.9319545030684</v>
-      </c>
-      <c r="J116">
-        <v>96.239042173909496</v>
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" t="s">
+        <v>20</v>
       </c>
       <c r="K116">
-        <v>6892.8189369967204</v>
+        <v>383.95488299922403</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -34624,28 +34761,28 @@
         <v>1700</v>
       </c>
       <c r="D117">
-        <v>7.1138210581634196</v>
+        <v>9.0488518490074199</v>
       </c>
       <c r="E117">
-        <v>236.81245074861999</v>
+        <v>237.440588235294</v>
       </c>
       <c r="F117">
-        <v>0.90642857142857103</v>
-      </c>
-      <c r="G117">
-        <v>21.6792281361253</v>
-      </c>
-      <c r="H117">
-        <v>112.35786580866601</v>
-      </c>
-      <c r="I117">
-        <v>19.9678723712635</v>
-      </c>
-      <c r="J117">
-        <v>108.555702453024</v>
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
+        <v>20</v>
       </c>
       <c r="K117">
-        <v>7824.3121509961902</v>
+        <v>1651.28810800579</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -34662,28 +34799,28 @@
         <v>2000</v>
       </c>
       <c r="D118">
-        <v>6.4761235452926798</v>
+        <v>5.5903837383542898</v>
       </c>
       <c r="E118">
-        <v>236.17800859598799</v>
+        <v>383.72500000000002</v>
       </c>
       <c r="F118">
-        <v>0.87250000000000005</v>
-      </c>
-      <c r="G118">
-        <v>21.692407019414699</v>
-      </c>
-      <c r="H118">
-        <v>112.20289706688899</v>
-      </c>
-      <c r="I118">
-        <v>19.629255300336901</v>
-      </c>
-      <c r="J118">
-        <v>106.97715179838499</v>
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" t="s">
+        <v>20</v>
       </c>
       <c r="K118">
-        <v>9223.9102940149496</v>
+        <v>4289.3417420364303</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -34700,28 +34837,28 @@
         <v>2200</v>
       </c>
       <c r="D119">
-        <v>5.1669898881661203</v>
+        <v>4.4152066365149798</v>
       </c>
       <c r="E119">
-        <v>273.56847188685703</v>
+        <v>481.90681818181798</v>
       </c>
       <c r="F119">
-        <v>0.81708004509582799</v>
-      </c>
-      <c r="G119">
-        <v>21.041513654582999</v>
-      </c>
-      <c r="H119">
-        <v>100.839600387036</v>
-      </c>
-      <c r="I119">
-        <v>18.966206565948699</v>
-      </c>
-      <c r="J119">
-        <v>96.002422192728403</v>
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" t="s">
+        <v>20</v>
       </c>
       <c r="K119">
-        <v>10475.6502050257</v>
+        <v>8522.6407599546001</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -34738,28 +34875,28 @@
         <v>2500</v>
       </c>
       <c r="D120">
-        <v>4.3693121322327002</v>
+        <v>3.2263456038137099</v>
       </c>
       <c r="E120">
-        <v>290.216543375924</v>
+        <v>668.91160000000002</v>
       </c>
       <c r="F120">
-        <v>0.75925453152923095</v>
-      </c>
-      <c r="G120">
-        <v>24.8221664728751</v>
-      </c>
-      <c r="H120">
-        <v>143.29086442899299</v>
-      </c>
-      <c r="I120">
-        <v>22.666328696763401</v>
-      </c>
-      <c r="J120">
-        <v>136.951605951744</v>
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" t="s">
+        <v>20</v>
       </c>
       <c r="K120">
-        <v>11735.241482036699</v>
+        <v>15838.7492540859</v>
       </c>
     </row>
   </sheetData>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC30581-03FE-4C98-BF1A-9CC3BD5FF1BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8358C0AE-F533-4469-AFE6-29F9DEEA2C00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
@@ -3363,6 +3363,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>1200</c:v>
                 </c:pt>
@@ -3390,8 +3399,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>131.04599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.194285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.09899999999999</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>258.65311152187297</c:v>
+                  <c:v>278.51249999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>265.24741707449698</c:v>
@@ -3499,16 +3517,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.77125000000001</c:v>
+                  <c:v>131.04599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.65709459459401</c:v>
+                  <c:v>169.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.05192178017501</c:v>
+                  <c:v>247.63800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263.699939503932</c:v>
+                  <c:v>266.03666666666601</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>270.23444206008497</c:v>
@@ -3616,16 +3634,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.77125000000001</c:v>
+                  <c:v>131.04599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>219.53164556962</c:v>
+                  <c:v>171.728571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.15729585006599</c:v>
+                  <c:v>225.30699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>265.41413551401803</c:v>
+                  <c:v>285.26916666666602</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>272.62473460721799</c:v>
@@ -3733,16 +3751,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>141.77125000000001</c:v>
+                  <c:v>130.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223.175675675675</c:v>
+                  <c:v>166.991428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.92617449664399</c:v>
+                  <c:v>222.83799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>261.51244933410499</c:v>
+                  <c:v>269.95083333333298</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>275.61498166579298</c:v>
@@ -3850,16 +3868,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>140.095</c:v>
+                  <c:v>130.90600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.413006756756</c:v>
+                  <c:v>159.134285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>236.867838541666</c:v>
+                  <c:v>201.58799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>266.83011363636302</c:v>
+                  <c:v>235.00833333333301</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>257.13601630157899</c:v>
@@ -3973,16 +3991,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>139.43875</c:v>
+                  <c:v>130.73599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201.544620517097</c:v>
+                  <c:v>135.15714285714199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216.20973044049899</c:v>
+                  <c:v>192.70699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.139561057962</c:v>
+                  <c:v>219.47416666666601</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>245.90239043824701</c:v>
@@ -4096,16 +4114,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>138.70375000000001</c:v>
+                  <c:v>130.602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.99916666666601</c:v>
+                  <c:v>133.328571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195.50950570342201</c:v>
+                  <c:v>180.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244.63699731903401</c:v>
+                  <c:v>197.018333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>271.771495327102</c:v>
@@ -4213,16 +4231,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>137.01875000000001</c:v>
+                  <c:v>131.24799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164.4425</c:v>
+                  <c:v>145.46714285714199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.16062500000001</c:v>
+                  <c:v>154.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229.859301719645</c:v>
+                  <c:v>189.12666666666601</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>256.03381194997598</c:v>
@@ -4336,16 +4354,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>147.90125</c:v>
+                  <c:v>138.03200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.895833333333</c:v>
+                  <c:v>144.33857142857099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.39375000000001</c:v>
+                  <c:v>168.99600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219.35707070706999</c:v>
+                  <c:v>174.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>245.742034046268</c:v>
@@ -4459,16 +4477,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>170.43125000000001</c:v>
+                  <c:v>170.404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171.43666666666601</c:v>
+                  <c:v>181.74857142857101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.83250000000001</c:v>
+                  <c:v>173.15100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.440925087983</c:v>
+                  <c:v>170.75833333333301</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>222.40639861651499</c:v>
@@ -4582,16 +4600,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>159.13200000000001</c:v>
+                  <c:v>161.40600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.45142857142801</c:v>
+                  <c:v>153.987142857142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.49299999999999</c:v>
+                  <c:v>153.99700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199.301356102461</c:v>
+                  <c:v>151.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>227.20658293633599</c:v>
@@ -5063,36 +5081,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$2:$B$10</c:f>
+              <c:f>'safety parameter'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5103,8 +5121,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3610893259096999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.009543626923801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.660962432794605</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.74192284793699</c:v>
+                  <c:v>117.16405507473701</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>174.12300180560101</c:v>
@@ -5171,36 +5198,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$13:$B$21</c:f>
+              <c:f>'safety parameter'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5212,16 +5239,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.7426863607946</c:v>
+                  <c:v>3.3610893259096999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.696891272805601</c:v>
+                  <c:v>30.097584100476599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.245192183645</c:v>
+                  <c:v>84.448286071606404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.83363734152999</c:v>
+                  <c:v>110.951142853539</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>180.720724096613</c:v>
@@ -5288,36 +5315,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$24:$B$32</c:f>
+              <c:f>'safety parameter'!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5329,16 +5356,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.7426863607946</c:v>
+                  <c:v>3.3610893259096999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.386200066640598</c:v>
+                  <c:v>30.6877814907015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.393120707349</c:v>
+                  <c:v>71.691854968986306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.493716872563</c:v>
+                  <c:v>122.036362448473</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>151.079482853581</c:v>
@@ -5405,36 +5432,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$35:$B$43</c:f>
+              <c:f>'safety parameter'!$C$35:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5446,16 +5473,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.7426863607946</c:v>
+                  <c:v>3.4316002514567399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.190554516708602</c:v>
+                  <c:v>27.983478420653501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.125786062298</c:v>
+                  <c:v>67.975439174420998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.83241254015101</c:v>
+                  <c:v>114.995218450644</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>152.31866143726799</c:v>
@@ -5522,36 +5549,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$46:$B$54</c:f>
+              <c:f>'safety parameter'!$C$46:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,16 +5590,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.513013317750699</c:v>
+                  <c:v>3.47765278077331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.965274209068703</c:v>
+                  <c:v>23.141943087274601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.890912157750506</c:v>
+                  <c:v>49.6899834810241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.62482714714299</c:v>
+                  <c:v>87.3776449652906</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>122.12457983831899</c:v>
@@ -5639,36 +5666,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$57:$B$65</c:f>
+              <c:f>'safety parameter'!$C$57:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5680,16 +5707,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.296982940924501</c:v>
+                  <c:v>3.4896545216993902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.584260296592497</c:v>
+                  <c:v>8.2690557626209102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.098029687752799</c:v>
+                  <c:v>42.591090355385703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.81572486549</c:v>
+                  <c:v>69.675422849552803</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>124.020787274775</c:v>
@@ -5762,36 +5789,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$68:$B$76</c:f>
+              <c:f>'safety parameter'!$C$68:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5803,16 +5830,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.6330809560604</c:v>
+                  <c:v>3.1603823234959401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.486688455112599</c:v>
+                  <c:v>9.9006861403152104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.824054647186898</c:v>
+                  <c:v>43.4823353059979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.849022773128</c:v>
+                  <c:v>62.930323014803001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>140.18738563577199</c:v>
@@ -5885,36 +5912,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$79:$B$87</c:f>
+              <c:f>'safety parameter'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5926,16 +5953,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.0771471383758</c:v>
+                  <c:v>3.6111050958137501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.063461905337803</c:v>
+                  <c:v>16.598060722822499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.367590425950397</c:v>
+                  <c:v>26.415256339724301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.223565219515</c:v>
+                  <c:v>68.948071694936004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>113.463334927446</c:v>
@@ -6008,36 +6035,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$90:$B$98</c:f>
+              <c:f>'safety parameter'!$C$90:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6049,16 +6076,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.757724027681398</c:v>
+                  <c:v>13.084664345797499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.123696923640701</c:v>
+                  <c:v>33.4550031061979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.560834807565698</c:v>
+                  <c:v>55.693617906742197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.037796783812595</c:v>
+                  <c:v>63.900168983021899</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90.087016588159898</c:v>
@@ -6131,36 +6158,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$101:$B$109</c:f>
+              <c:f>'safety parameter'!$C$101:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,16 +6199,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>67.8331881957115</c:v>
+                  <c:v>50.239935268758103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.690618674592699</c:v>
+                  <c:v>72.924683928595201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.171701258512897</c:v>
+                  <c:v>52.4091290666912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.6873770535502</c:v>
+                  <c:v>42.752539454379701</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>45.237313781047099</c:v>
@@ -6254,36 +6281,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$112:$B$120</c:f>
+              <c:f>'safety parameter'!$C$112:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,16 +6322,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.225495476629298</c:v>
+                  <c:v>35.482023381161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.155461022786703</c:v>
+                  <c:v>35.979607816276797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.331951193713898</c:v>
+                  <c:v>28.649355844575901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.666746324159401</c:v>
+                  <c:v>22.8917202839014</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21.6283376850858</c:v>
@@ -6347,8 +6374,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6780,36 +6807,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$2:$B$10</c:f>
+              <c:f>'safety parameter'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6820,8 +6847,17 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>17.449459656805001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.21251381557201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>485.696883203894</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1133.3891688669701</c:v>
+                  <c:v>673.99295511901903</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>927.50173109666798</c:v>
@@ -6888,36 +6924,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$13:$B$21</c:f>
+              <c:f>'safety parameter'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6929,16 +6965,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
+                  <c:v>17.449459656805001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>380.86779687324599</c:v>
+                  <c:v>198.362101366058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>723.90690125987703</c:v>
+                  <c:v>502.01311988613998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>731.54197222461596</c:v>
+                  <c:v>641.61854310413503</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1036.4683229283301</c:v>
@@ -7005,36 +7041,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$24:$B$32</c:f>
+              <c:f>'safety parameter'!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7046,16 +7082,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
+                  <c:v>17.449459656805001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>378.361531408497</c:v>
+                  <c:v>202.98574393895399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700.15401945552298</c:v>
+                  <c:v>414.809338337719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>685.76548293876397</c:v>
+                  <c:v>721.08499870748904</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>796.82224575284204</c:v>
@@ -7122,36 +7158,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$35:$B$43</c:f>
+              <c:f>'safety parameter'!$C$35:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7163,16 +7199,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>128.74575003537501</c:v>
+                  <c:v>18.736254210759999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>365.223917139989</c:v>
+                  <c:v>184.256993942511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>654.19168173727803</c:v>
+                  <c:v>385.67015336178201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>703.92390560138301</c:v>
+                  <c:v>687.14835523721297</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>797.88941760463797</c:v>
@@ -7239,36 +7275,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$46:$B$54</c:f>
+              <c:f>'safety parameter'!$C$46:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7280,16 +7316,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>109.535713537565</c:v>
+                  <c:v>19.346493345173201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>364.26848999774501</c:v>
+                  <c:v>150.60604657645101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>542.598269075085</c:v>
+                  <c:v>292.12376601340497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>660.79660604200706</c:v>
+                  <c:v>521.50093542996603</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>674.68663134984195</c:v>
@@ -7356,36 +7392,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$57:$B$65</c:f>
+              <c:f>'safety parameter'!$C$57:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7397,16 +7433,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>99.264440210959293</c:v>
+                  <c:v>20.404852894430501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>268.41365641183</c:v>
+                  <c:v>53.031668647067598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>607.37359351278997</c:v>
+                  <c:v>238.40173202410301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>596.79405334493697</c:v>
+                  <c:v>441.31774976511201</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>708.64392068637301</c:v>
@@ -7479,36 +7515,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$68:$B$76</c:f>
+              <c:f>'safety parameter'!$C$68:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7520,16 +7556,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>102.66971201835899</c:v>
+                  <c:v>17.659798744872699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239.70654845904201</c:v>
+                  <c:v>69.745521811441094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>482.297422582754</c:v>
+                  <c:v>277.85874568214098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>673.35203177429003</c:v>
+                  <c:v>431.77260166431699</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>825.42062902446901</c:v>
@@ -7602,36 +7638,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$79:$B$87</c:f>
+              <c:f>'safety parameter'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7643,16 +7679,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>83.627103069486495</c:v>
+                  <c:v>22.102771481307101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292.11700331123899</c:v>
+                  <c:v>116.610452849514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>550.44330784609099</c:v>
+                  <c:v>167.97398934043201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>652.83090658475305</c:v>
+                  <c:v>521.59071698913601</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>689.48542502828002</c:v>
@@ -7725,36 +7761,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$90:$B$98</c:f>
+              <c:f>'safety parameter'!$C$90:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7766,16 +7802,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>302.53954029775298</c:v>
+                  <c:v>93.391918417778498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>453.84114504419102</c:v>
+                  <c:v>264.09191286631602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>575.30857476775202</c:v>
+                  <c:v>392.87565735465603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440.933151762362</c:v>
+                  <c:v>456.691740611895</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>559.20934361989703</c:v>
@@ -7848,36 +7884,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$101:$B$109</c:f>
+              <c:f>'safety parameter'!$C$101:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7889,16 +7925,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>408.40232587102003</c:v>
+                  <c:v>332.92993123173397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390.80396915163902</c:v>
+                  <c:v>480.14113706846001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>276.21988465638498</c:v>
+                  <c:v>333.26782759810101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.66474103602201</c:v>
+                  <c:v>240.194261024105</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255.09004527070101</c:v>
@@ -7971,36 +8007,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$112:$B$120</c:f>
+              <c:f>'safety parameter'!$C$112:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8012,16 +8048,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>163.70107907764501</c:v>
+                  <c:v>199.05319626965701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230.56954468071299</c:v>
+                  <c:v>226.61806751772701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.067836956516</c:v>
+                  <c:v>163.77320834832699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.942815092595595</c:v>
+                  <c:v>114.49968681724501</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100.32051402888899</c:v>
@@ -8064,8 +8100,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8498,36 +8534,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$2:$B$10</c:f>
+              <c:f>'safety parameter'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8538,6 +8574,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8606,36 +8651,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$13:$B$21</c:f>
+              <c:f>'safety parameter'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8650,13 +8695,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10767326732673201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02719269683001</c:v>
+                  <c:v>0.112849233174105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87463652753811705</c:v>
+                  <c:v>-0.369056782669824</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.83917888203730995</c:v>
@@ -8767,13 +8812,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33359016695571397</c:v>
+                  <c:v>-0.17391006777909199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9005620799109399</c:v>
+                  <c:v>-1.8093007296950899E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59269470753804698</c:v>
+                  <c:v>0.12500839979966299</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.8679507601454799</c:v>
@@ -8840,36 +8885,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$35:$B$43</c:f>
+              <c:f>'safety parameter'!$C$35:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8881,16 +8926,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.25910256410256399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25285007620107403</c:v>
+                  <c:v>-0.22563420571012599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6388915575795502</c:v>
+                  <c:v>0.69103404095551901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.89538888853873</c:v>
+                  <c:v>-4.9113961033518401E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.2192886965819696</c:v>
@@ -8957,36 +9002,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$46:$B$54</c:f>
+              <c:f>'safety parameter'!$C$46:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8998,16 +9043,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-8.9919184538144598E-2</c:v>
+                  <c:v>0.50681986907351295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1824546922788404</c:v>
+                  <c:v>2.7386875408223599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5008692856634598</c:v>
+                  <c:v>-1.1669056628891601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0727642076079098</c:v>
+                  <c:v>2.4032448727959599</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.4338810488026601</c:v>
@@ -9074,36 +9119,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$57:$B$65</c:f>
+              <c:f>'safety parameter'!$C$57:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9115,16 +9160,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.429764210269164</c:v>
+                  <c:v>1.17698532825868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.96335514739877</c:v>
+                  <c:v>1.9388787548105799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.444520884455599</c:v>
+                  <c:v>-0.50909703287206198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2810927910365599</c:v>
+                  <c:v>7.1946798802369702</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.70622423735</c:v>
@@ -9197,36 +9242,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$68:$B$76</c:f>
+              <c:f>'safety parameter'!$C$68:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9238,16 +9283,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.5425985132746201</c:v>
+                  <c:v>1.1491796225370301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.75108954904037</c:v>
+                  <c:v>4.7692635641199201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.168909221936101</c:v>
+                  <c:v>10.5217813781033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.440826770269702</c:v>
+                  <c:v>15.518907325615601</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.116825777826499</c:v>
@@ -9320,36 +9365,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$79:$B$87</c:f>
+              <c:f>'safety parameter'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9361,16 +9406,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.9859701611190799</c:v>
+                  <c:v>1.7584887233042901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.4907668143378</c:v>
+                  <c:v>6.1650452135665299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.248147286345599</c:v>
+                  <c:v>11.065616156307099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.479244723861299</c:v>
+                  <c:v>21.203665703394499</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31.429483362313999</c:v>
@@ -9443,36 +9488,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$90:$B$98</c:f>
+              <c:f>'safety parameter'!$C$90:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9484,16 +9529,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35.8116850265097</c:v>
+                  <c:v>11.1938584310205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.482956896786298</c:v>
+                  <c:v>30.380669375786301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.292928572128105</c:v>
+                  <c:v>51.251252035501203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.6626696103867</c:v>
+                  <c:v>58.349494379162103</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>71.366512293961406</c:v>
@@ -9566,36 +9611,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$101:$B$109</c:f>
+              <c:f>'safety parameter'!$C$101:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9607,16 +9652,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>65.7071080250237</c:v>
+                  <c:v>47.758234900234299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.642366429356301</c:v>
+                  <c:v>69.485430976762302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.077662638690903</c:v>
+                  <c:v>48.993409812857301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.198955287402804</c:v>
+                  <c:v>37.8969690882547</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>41.571778747950297</c:v>
@@ -9689,36 +9734,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$112:$B$120</c:f>
+              <c:f>'safety parameter'!$C$112:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9730,16 +9775,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27.973950719242701</c:v>
+                  <c:v>33.036824621434199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.711310746071803</c:v>
+                  <c:v>33.595821275498899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.266005906027601</c:v>
+                  <c:v>24.9401610586015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.955823816886799</c:v>
+                  <c:v>18.534520696164101</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19.9319545030684</c:v>
@@ -9782,8 +9827,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10226,36 +10271,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$2:$B$10</c:f>
+              <c:f>'safety parameter'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10266,6 +10311,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10334,36 +10388,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$13:$B$21</c:f>
+              <c:f>'safety parameter'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10378,13 +10432,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0767326732673199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.205952175390699</c:v>
+                  <c:v>3.4044828002246201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.10570828628064</c:v>
+                  <c:v>9.9701669959909491</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10.854985451937001</c:v>
@@ -10451,36 +10505,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$24:$B$32</c:f>
+              <c:f>'safety parameter'!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10495,13 +10549,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7056199794162898</c:v>
+                  <c:v>0.230414746543778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0794491992893</c:v>
+                  <c:v>7.11435747531233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.342573993644701</c:v>
+                  <c:v>9.5947027524801207</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>29.471940818998402</c:v>
@@ -10568,36 +10622,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$35:$B$43</c:f>
+              <c:f>'safety parameter'!$C$35:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10609,16 +10663,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5910256410256398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.9984109825687</c:v>
+                  <c:v>0.230414746543778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.666574888814402</c:v>
+                  <c:v>20.041800900136199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.471829248047001</c:v>
+                  <c:v>16.2654033117078</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>76.850861918061995</c:v>
@@ -10685,36 +10739,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$46:$B$54</c:f>
+              <c:f>'safety parameter'!$C$46:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10726,16 +10780,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.0552761226719598</c:v>
+                  <c:v>5.1071597296961597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.397034338104298</c:v>
+                  <c:v>29.318438505173599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.554555288757903</c:v>
+                  <c:v>16.861951628403698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.079770285506001</c:v>
+                  <c:v>57.266611938144798</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>109.46889410778</c:v>
@@ -10802,36 +10856,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$57:$B$65</c:f>
+              <c:f>'safety parameter'!$C$57:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10843,16 +10897,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.3327226424860603</c:v>
+                  <c:v>11.7698532825868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.228363924445098</c:v>
+                  <c:v>19.730592065406999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.98409403174901</c:v>
+                  <c:v>24.3005795099136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.22107515128201</c:v>
+                  <c:v>104.056337514905</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>258.03940539680798</c:v>
@@ -10925,36 +10979,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$68:$B$76</c:f>
+              <c:f>'safety parameter'!$C$68:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10966,16 +11020,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.935438055171101</c:v>
+                  <c:v>11.491796225370299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.796453219545498</c:v>
+                  <c:v>47.520886005631297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>252.574815013029</c:v>
+                  <c:v>117.716995659663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282.03606857291601</c:v>
+                  <c:v>169.62977828753199</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>337.08521282936601</c:v>
@@ -11048,36 +11102,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$79:$B$87</c:f>
+              <c:f>'safety parameter'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11089,16 +11143,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36.437511684252698</c:v>
+                  <c:v>17.605089253244898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190.807147381676</c:v>
+                  <c:v>58.841948236680402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>363.315164353564</c:v>
+                  <c:v>114.42793767363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>359.17172212758402</c:v>
+                  <c:v>247.059787532988</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>327.93603065459502</c:v>
@@ -11171,36 +11225,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$90:$B$98</c:f>
+              <c:f>'safety parameter'!$C$90:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11212,16 +11266,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>295.86471450055899</c:v>
+                  <c:v>89.549924862485298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>437.43578678506702</c:v>
+                  <c:v>251.281324799061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>549.79238531207398</c:v>
+                  <c:v>370.78615075532701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>402.59038850271702</c:v>
+                  <c:v>440.83041716907599</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>491.445671424387</c:v>
@@ -11294,36 +11348,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$101:$B$109</c:f>
+              <c:f>'safety parameter'!$C$101:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11335,16 +11389,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>400.76475559025903</c:v>
+                  <c:v>325.64260689902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>384.26104763163301</c:v>
+                  <c:v>466.64307876811398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>269.80810502489999</c:v>
+                  <c:v>322.60006695124702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242.556111526103</c:v>
+                  <c:v>228.37242304423401</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>246.691834293727</c:v>
@@ -11417,36 +11471,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'safety parameter'!$B$112:$B$120</c:f>
+              <c:f>'safety parameter'!$C$112:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11458,16 +11512,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>157.82407746240901</c:v>
+                  <c:v>191.80096414152399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.09261544856301</c:v>
+                  <c:v>220.92284114217401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.90235487860701</c:v>
+                  <c:v>156.26722784804099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.281780695798204</c:v>
+                  <c:v>107.570877255387</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>96.239042173909496</c:v>
@@ -11510,8 +11564,8 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
-          <c:min val="1000"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -30683,8 +30737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50B34B4-084F-4934-B405-A3E078D07E48}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="M172" sqref="M172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30746,7 +30800,34 @@
       <c r="B2">
         <v>2500</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <f>(B2/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>13.7867619004013</v>
+      </c>
+      <c r="E2">
+        <v>131.04599999999999</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.3610893259096999</v>
+      </c>
+      <c r="H2">
+        <v>17.449459656805001</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>74.617179999999706</v>
+      </c>
       <c r="L2">
         <v>0.36799999999999999</v>
       </c>
@@ -30759,7 +30840,34 @@
       <c r="B3">
         <v>3750</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <f>(B3/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D3">
+        <v>10.521379218264901</v>
+      </c>
+      <c r="E3">
+        <v>171.194285714285</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>31.009543626923801</v>
+      </c>
+      <c r="H3">
+        <v>207.21251381557201</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>115.206273999999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -30769,7 +30877,34 @@
       <c r="B4">
         <v>5000</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <f>(B4/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>7.5366289790082801</v>
+      </c>
+      <c r="E4">
+        <v>251.09899999999999</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>84.660962432794605</v>
+      </c>
+      <c r="H4">
+        <v>485.696883203894</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>198.99903799999501</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -30784,19 +30919,19 @@
         <v>1200</v>
       </c>
       <c r="D5">
-        <v>4.7654067362108901</v>
+        <v>6.8826653501488497</v>
       </c>
       <c r="E5">
-        <v>258.65311152187297</v>
+        <v>278.51249999999999</v>
       </c>
       <c r="F5">
-        <v>0.8115</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>175.74192284793699</v>
+        <v>117.16405507473701</v>
       </c>
       <c r="H5">
-        <v>1133.3891688669701</v>
+        <v>673.99295511901903</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -30805,7 +30940,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>64.7251880000006</v>
+        <v>612.82956400011096</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -31041,19 +31176,19 @@
         <v>500</v>
       </c>
       <c r="D13">
-        <v>12.939506423199299</v>
+        <v>13.7867619004013</v>
       </c>
       <c r="E13">
-        <v>141.77125000000001</v>
+        <v>131.04599999999999</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.7426863607946</v>
+        <v>3.3610893259096999</v>
       </c>
       <c r="H13">
-        <v>128.74575003537501</v>
+        <v>17.449459656805001</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -31062,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.626539999999999</v>
+        <v>51.209680999999797</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -31079,28 +31214,28 @@
         <v>700</v>
       </c>
       <c r="D14">
-        <v>8.3345502735346795</v>
+        <v>10.64</v>
       </c>
       <c r="E14">
-        <v>217.65709459459401</v>
+        <v>169.28571428571399</v>
       </c>
       <c r="F14">
-        <v>0.98666666666666603</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>65.696891272805601</v>
+        <v>30.097584100476599</v>
       </c>
       <c r="H14">
-        <v>380.86779687324599</v>
+        <v>198.362101366058</v>
       </c>
       <c r="I14">
-        <v>0.10767326732673201</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.0767326732673199</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>32.140286999999901</v>
+        <v>83.977433999999406</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -31117,28 +31252,28 @@
         <v>1000</v>
       </c>
       <c r="D15">
-        <v>6.3674464166932196</v>
+        <v>7.65880034566585</v>
       </c>
       <c r="E15">
-        <v>249.05192178017501</v>
+        <v>247.63800000000001</v>
       </c>
       <c r="F15">
-        <v>0.926875</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>120.245192183645</v>
+        <v>84.448286071606404</v>
       </c>
       <c r="H15">
-        <v>723.90690125987703</v>
+        <v>502.01311988613998</v>
       </c>
       <c r="I15">
-        <v>1.02719269683001</v>
+        <v>0.112849233174105</v>
       </c>
       <c r="J15">
-        <v>11.205952175390699</v>
+        <v>3.4044828002246201</v>
       </c>
       <c r="K15">
-        <v>48.191389000000001</v>
+        <v>144.90712600000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -31155,28 +31290,28 @@
         <v>1200</v>
       </c>
       <c r="D16">
-        <v>5.0004745251319997</v>
+        <v>7.2234090538898101</v>
       </c>
       <c r="E16">
-        <v>263.699939503932</v>
+        <v>266.03666666666601</v>
       </c>
       <c r="F16">
-        <v>0.82650000000000001</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>127.83363734152999</v>
+        <v>110.951142853539</v>
       </c>
       <c r="H16">
-        <v>731.54197222461596</v>
+        <v>641.61854310413503</v>
       </c>
       <c r="I16">
-        <v>0.87463652753811705</v>
+        <v>-0.369056782669824</v>
       </c>
       <c r="J16">
-        <v>9.10570828628064</v>
+        <v>9.9701669959909491</v>
       </c>
       <c r="K16">
-        <v>234.931077000008</v>
+        <v>608.82662400011304</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -31418,19 +31553,19 @@
         <v>500</v>
       </c>
       <c r="D24">
-        <v>12.939506423199299</v>
+        <v>13.7867619004013</v>
       </c>
       <c r="E24">
-        <v>141.77125000000001</v>
+        <v>131.04599999999999</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.7426863607946</v>
+        <v>3.3610893259096999</v>
       </c>
       <c r="H24">
-        <v>128.74575003537501</v>
+        <v>17.449459656805001</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -31439,7 +31574,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.099658000000002</v>
+        <v>60.515273999999998</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -31456,28 +31591,28 @@
         <v>700</v>
       </c>
       <c r="D25">
-        <v>8.2862400739773001</v>
+        <v>10.508609932617899</v>
       </c>
       <c r="E25">
-        <v>219.53164556962</v>
+        <v>171.728571428571</v>
       </c>
       <c r="F25">
-        <v>0.98750000000000004</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>65.386200066640598</v>
+        <v>30.6877814907015</v>
       </c>
       <c r="H25">
-        <v>378.361531408497</v>
+        <v>202.98574393895399</v>
       </c>
       <c r="I25">
-        <v>0.33359016695571397</v>
+        <v>-0.17391006777909199</v>
       </c>
       <c r="J25">
-        <v>3.7056199794162898</v>
+        <v>0.230414746543778</v>
       </c>
       <c r="K25">
-        <v>32.951083999999902</v>
+        <v>88.415320999999693</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -31494,28 +31629,28 @@
         <v>1000</v>
       </c>
       <c r="D26">
-        <v>6.5228400642630797</v>
+        <v>8.4756354662749001</v>
       </c>
       <c r="E26">
-        <v>249.15729585006599</v>
+        <v>225.30699999999999</v>
       </c>
       <c r="F26">
-        <v>0.93374999999999997</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>115.393120707349</v>
+        <v>71.691854968986306</v>
       </c>
       <c r="H26">
-        <v>700.15401945552298</v>
+        <v>414.809338337719</v>
       </c>
       <c r="I26">
-        <v>1.9005620799109399</v>
+        <v>-1.8093007296950899E-2</v>
       </c>
       <c r="J26">
-        <v>21.0794491992893</v>
+        <v>7.11435747531233</v>
       </c>
       <c r="K26">
-        <v>45.421955000000096</v>
+        <v>188.854072000017</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -31532,28 +31667,28 @@
         <v>1200</v>
       </c>
       <c r="D27">
-        <v>5.3917220302378901</v>
+        <v>6.7391907642781801</v>
       </c>
       <c r="E27">
-        <v>265.41413551401803</v>
+        <v>285.26916666666602</v>
       </c>
       <c r="F27">
-        <v>0.85599999999999998</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>119.493716872563</v>
+        <v>122.036362448473</v>
       </c>
       <c r="H27">
-        <v>685.76548293876397</v>
+        <v>721.08499870748904</v>
       </c>
       <c r="I27">
-        <v>0.59269470753804698</v>
+        <v>0.12500839979966299</v>
       </c>
       <c r="J27">
-        <v>15.342573993644701</v>
+        <v>9.5947027524801207</v>
       </c>
       <c r="K27">
-        <v>269.57035200002599</v>
+        <v>428.48933299951699</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -31795,28 +31930,28 @@
         <v>500</v>
       </c>
       <c r="D35">
-        <v>12.939506423199299</v>
+        <v>13.8260470804035</v>
       </c>
       <c r="E35">
-        <v>141.77125000000001</v>
+        <v>130.84</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.7426863607946</v>
+        <v>3.4316002514567399</v>
       </c>
       <c r="H35">
-        <v>128.74575003537501</v>
+        <v>18.736254210759999</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.25910256410256399</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2.5910256410256398</v>
       </c>
       <c r="K35">
-        <v>20.934085</v>
+        <v>49.364435999999898</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -31833,28 +31968,28 @@
         <v>700</v>
       </c>
       <c r="D36">
-        <v>8.1503504946569798</v>
+        <v>10.8107345116088</v>
       </c>
       <c r="E36">
-        <v>223.175675675675</v>
+        <v>166.991428571428</v>
       </c>
       <c r="F36">
-        <v>0.98666666666666603</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>63.190554516708602</v>
+        <v>27.983478420653501</v>
       </c>
       <c r="H36">
-        <v>365.223917139989</v>
+        <v>184.256993942511</v>
       </c>
       <c r="I36">
-        <v>0.25285007620107403</v>
+        <v>-0.22563420571012599</v>
       </c>
       <c r="J36">
-        <v>12.9984109825687</v>
+        <v>0.230414746543778</v>
       </c>
       <c r="K36">
-        <v>33.115970999999902</v>
+        <v>86.609658999999695</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -31871,28 +32006,28 @@
         <v>1000</v>
       </c>
       <c r="D37">
-        <v>6.6654100215800796</v>
+        <v>8.5983988368231596</v>
       </c>
       <c r="E37">
-        <v>243.92617449664399</v>
+        <v>222.83799999999999</v>
       </c>
       <c r="F37">
-        <v>0.93125000000000002</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>109.125786062298</v>
+        <v>67.975439174420998</v>
       </c>
       <c r="H37">
-        <v>654.19168173727803</v>
+        <v>385.67015336178201</v>
       </c>
       <c r="I37">
-        <v>2.6388915575795502</v>
+        <v>0.69103404095551901</v>
       </c>
       <c r="J37">
-        <v>36.666574888814402</v>
+        <v>20.041800900136199</v>
       </c>
       <c r="K37">
-        <v>51.114775999999701</v>
+        <v>133.61675600000501</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -31909,28 +32044,28 @@
         <v>1200</v>
       </c>
       <c r="D38">
-        <v>5.5663532452159004</v>
+        <v>7.18319076621977</v>
       </c>
       <c r="E38">
-        <v>261.51244933410499</v>
+        <v>269.95083333333298</v>
       </c>
       <c r="F38">
-        <v>0.86350000000000005</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>128.83241254015101</v>
+        <v>114.995218450644</v>
       </c>
       <c r="H38">
-        <v>703.92390560138301</v>
+        <v>687.14835523721297</v>
       </c>
       <c r="I38">
-        <v>1.89538888853873</v>
+        <v>-4.9113961033518401E-2</v>
       </c>
       <c r="J38">
-        <v>33.471829248047001</v>
+        <v>16.2654033117078</v>
       </c>
       <c r="K38">
-        <v>196.490808999975</v>
+        <v>327.87207499966502</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -32172,28 +32307,28 @@
         <v>500</v>
       </c>
       <c r="D46">
-        <v>13.091205967379199</v>
+        <v>13.8419934915129</v>
       </c>
       <c r="E46">
-        <v>140.095</v>
+        <v>130.90600000000001</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>13.513013317750699</v>
+        <v>3.47765278077331</v>
       </c>
       <c r="H46">
-        <v>109.535713537565</v>
+        <v>19.346493345173201</v>
       </c>
       <c r="I46">
-        <v>-8.9919184538144598E-2</v>
+        <v>0.50681986907351295</v>
       </c>
       <c r="J46">
-        <v>4.0552761226719598</v>
+        <v>5.1071597296961597</v>
       </c>
       <c r="K46">
-        <v>20.892070999999898</v>
+        <v>48.3771759999998</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -32210,28 +32345,28 @@
         <v>700</v>
       </c>
       <c r="D47">
-        <v>8.2447231379642307</v>
+        <v>11.3626407167351</v>
       </c>
       <c r="E47">
-        <v>220.413006756756</v>
+        <v>159.134285714285</v>
       </c>
       <c r="F47">
-        <v>0.98666666666666603</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>57.965274209068703</v>
+        <v>23.141943087274601</v>
       </c>
       <c r="H47">
-        <v>364.26848999774501</v>
+        <v>150.60604657645101</v>
       </c>
       <c r="I47">
-        <v>4.1824546922788404</v>
+        <v>2.7386875408223599</v>
       </c>
       <c r="J47">
-        <v>51.397034338104298</v>
+        <v>29.318438505173599</v>
       </c>
       <c r="K47">
-        <v>35.012988999999997</v>
+        <v>74.116842999999704</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -32248,28 +32383,28 @@
         <v>1000</v>
       </c>
       <c r="D48">
-        <v>7.5023051076395397</v>
+        <v>9.5031946346012592</v>
       </c>
       <c r="E48">
-        <v>236.867838541666</v>
+        <v>201.58799999999999</v>
       </c>
       <c r="F48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>93.890912157750506</v>
+        <v>49.6899834810241</v>
       </c>
       <c r="H48">
-        <v>542.598269075085</v>
+        <v>292.12376601340497</v>
       </c>
       <c r="I48">
-        <v>2.5008692856634598</v>
+        <v>-1.1669056628891601</v>
       </c>
       <c r="J48">
-        <v>58.554555288757903</v>
+        <v>16.861951628403698</v>
       </c>
       <c r="K48">
-        <v>53.595501000001001</v>
+        <v>125.390841999999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -32286,28 +32421,28 @@
         <v>1200</v>
       </c>
       <c r="D49">
-        <v>5.9228365666774101</v>
+        <v>8.2615864685649392</v>
       </c>
       <c r="E49">
-        <v>266.83011363636302</v>
+        <v>235.00833333333301</v>
       </c>
       <c r="F49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>117.62482714714299</v>
+        <v>87.3776449652906</v>
       </c>
       <c r="H49">
-        <v>660.79660604200706</v>
+        <v>521.50093542996603</v>
       </c>
       <c r="I49">
-        <v>3.0727642076079098</v>
+        <v>2.4032448727959599</v>
       </c>
       <c r="J49">
-        <v>66.079770285506001</v>
+        <v>57.266611938144798</v>
       </c>
       <c r="K49">
-        <v>128.89817799998801</v>
+        <v>301.367889999829</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -32549,28 +32684,28 @@
         <v>500</v>
       </c>
       <c r="D57">
-        <v>13.1549694758451</v>
+        <v>13.876208542405999</v>
       </c>
       <c r="E57">
-        <v>139.43875</v>
+        <v>130.73599999999999</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>12.296982940924501</v>
+        <v>3.4896545216993902</v>
       </c>
       <c r="H57">
-        <v>99.264440210959293</v>
+        <v>20.404852894430501</v>
       </c>
       <c r="I57">
-        <v>0.429764210269164</v>
+        <v>1.17698532825868</v>
       </c>
       <c r="J57">
-        <v>7.3327226424860603</v>
+        <v>11.7698532825868</v>
       </c>
       <c r="K57">
-        <v>21.714780999999999</v>
+        <v>41.434138999999902</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -32587,28 +32722,28 @@
         <v>700</v>
       </c>
       <c r="D58">
-        <v>9.4499841219434693</v>
+        <v>13.307472783003901</v>
       </c>
       <c r="E58">
-        <v>201.544620517097</v>
+        <v>135.15714285714199</v>
       </c>
       <c r="F58">
-        <v>0.99916666666666598</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>42.584260296592497</v>
+        <v>8.2690557626209102</v>
       </c>
       <c r="H58">
-        <v>268.41365641183</v>
+        <v>53.031668647067598</v>
       </c>
       <c r="I58">
-        <v>2.96335514739877</v>
+        <v>1.9388787548105799</v>
       </c>
       <c r="J58">
-        <v>46.228363924445098</v>
+        <v>19.730592065406999</v>
       </c>
       <c r="K58">
-        <v>31.603948999999901</v>
+        <v>96.539322999999598</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -32625,28 +32760,28 @@
         <v>1000</v>
       </c>
       <c r="D59">
-        <v>8.0968458035594502</v>
+        <v>9.9385595748986795</v>
       </c>
       <c r="E59">
-        <v>216.20973044049899</v>
+        <v>192.70699999999999</v>
       </c>
       <c r="F59">
-        <v>0.95062500000000005</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>94.098029687752799</v>
+        <v>42.591090355385703</v>
       </c>
       <c r="H59">
-        <v>607.37359351278997</v>
+        <v>238.40173202410301</v>
       </c>
       <c r="I59">
-        <v>10.444520884455599</v>
+        <v>-0.50909703287206198</v>
       </c>
       <c r="J59">
-        <v>157.98409403174901</v>
+        <v>24.3005795099136</v>
       </c>
       <c r="K59">
-        <v>44.633009999999999</v>
+        <v>102.94473799999901</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -32663,28 +32798,28 @@
         <v>1200</v>
       </c>
       <c r="D60">
-        <v>6.5462961924791401</v>
+        <v>8.9697724485417805</v>
       </c>
       <c r="E60">
-        <v>245.139561057962</v>
+        <v>219.47416666666601</v>
       </c>
       <c r="F60">
-        <v>0.88849999999999996</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>108.81572486549</v>
+        <v>69.675422849552803</v>
       </c>
       <c r="H60">
-        <v>596.79405334493697</v>
+        <v>441.31774976511201</v>
       </c>
       <c r="I60">
-        <v>8.2810927910365599</v>
+        <v>7.1946798802369702</v>
       </c>
       <c r="J60">
-        <v>146.22107515128201</v>
+        <v>104.056337514905</v>
       </c>
       <c r="K60">
-        <v>96.653937000004404</v>
+        <v>376.089413999984</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -32926,28 +33061,28 @@
         <v>500</v>
       </c>
       <c r="D68">
-        <v>13.2751457693104</v>
+        <v>13.902084194728999</v>
       </c>
       <c r="E68">
-        <v>138.70375000000001</v>
+        <v>130.602</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>12.6330809560604</v>
+        <v>3.1603823234959401</v>
       </c>
       <c r="H68">
-        <v>102.66971201835899</v>
+        <v>17.659798744872699</v>
       </c>
       <c r="I68">
-        <v>1.5425985132746201</v>
+        <v>1.1491796225370301</v>
       </c>
       <c r="J68">
-        <v>17.935438055171101</v>
+        <v>11.491796225370299</v>
       </c>
       <c r="K68">
-        <v>21.057279999999899</v>
+        <v>42.558553999999901</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -32964,28 +33099,28 @@
         <v>700</v>
       </c>
       <c r="D69">
-        <v>11.003615757480301</v>
+        <v>13.5786992392585</v>
       </c>
       <c r="E69">
-        <v>179.99916666666601</v>
+        <v>133.328571428571</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>37.486688455112599</v>
+        <v>9.9006861403152104</v>
       </c>
       <c r="H69">
-        <v>239.70654845904201</v>
+        <v>69.745521811441094</v>
       </c>
       <c r="I69">
-        <v>6.75108954904037</v>
+        <v>4.7692635641199201</v>
       </c>
       <c r="J69">
-        <v>89.796453219545498</v>
+        <v>47.520886005631297</v>
       </c>
       <c r="K69">
-        <v>32.213118000000001</v>
+        <v>80.6653519999998</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -33002,28 +33137,28 @@
         <v>1000</v>
       </c>
       <c r="D70">
-        <v>10.3604750332431</v>
+        <v>11.096411562742199</v>
       </c>
       <c r="E70">
-        <v>195.50950570342201</v>
+        <v>180.58</v>
       </c>
       <c r="F70">
-        <v>0.98624999999999996</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>73.824054647186898</v>
+        <v>43.4823353059979</v>
       </c>
       <c r="H70">
-        <v>482.297422582754</v>
+        <v>277.85874568214098</v>
       </c>
       <c r="I70">
-        <v>23.168909221936101</v>
+        <v>10.5217813781033</v>
       </c>
       <c r="J70">
-        <v>252.574815013029</v>
+        <v>117.716995659663</v>
       </c>
       <c r="K70">
-        <v>45.824237999999902</v>
+        <v>117.733589999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -33040,28 +33175,28 @@
         <v>1200</v>
       </c>
       <c r="D71">
-        <v>7.7412804306089997</v>
+        <v>10.4517346101462</v>
       </c>
       <c r="E71">
-        <v>244.63699731903401</v>
+        <v>197.018333333333</v>
       </c>
       <c r="F71">
-        <v>0.9325</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>110.849022773128</v>
+        <v>62.930323014803001</v>
       </c>
       <c r="H71">
-        <v>673.35203177429003</v>
+        <v>431.77260166431699</v>
       </c>
       <c r="I71">
-        <v>20.440826770269702</v>
+        <v>15.518907325615601</v>
       </c>
       <c r="J71">
-        <v>282.03606857291601</v>
+        <v>169.62977828753199</v>
       </c>
       <c r="K71">
-        <v>96.339414999998198</v>
+        <v>109.922458999997</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -33303,28 +33438,28 @@
         <v>500</v>
       </c>
       <c r="D79">
-        <v>13.581352917027701</v>
+        <v>13.9215835669876</v>
       </c>
       <c r="E79">
-        <v>137.01875000000001</v>
+        <v>131.24799999999999</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>11.0771471383758</v>
+        <v>3.6111050958137501</v>
       </c>
       <c r="H79">
-        <v>83.627103069486495</v>
+        <v>22.102771481307101</v>
       </c>
       <c r="I79">
-        <v>2.9859701611190799</v>
+        <v>1.7584887233042901</v>
       </c>
       <c r="J79">
-        <v>36.437511684252698</v>
+        <v>17.605089253244898</v>
       </c>
       <c r="K79">
-        <v>21.100966999999901</v>
+        <v>44.608854999999899</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -33341,31 +33476,31 @@
         <v>700</v>
       </c>
       <c r="D80">
-        <v>12.5501821812082</v>
+        <v>12.5663134532098</v>
       </c>
       <c r="E80">
-        <v>164.4425</v>
+        <v>145.46714285714199</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>38.063461905337803</v>
+        <v>16.598060722822499</v>
       </c>
       <c r="H80">
-        <v>292.11700331123899</v>
+        <v>116.610452849514</v>
       </c>
       <c r="I80">
-        <v>19.4907668143378</v>
+        <v>6.1650452135665299</v>
       </c>
       <c r="J80">
-        <v>190.807147381676</v>
+        <v>58.841948236680402</v>
       </c>
       <c r="K80">
-        <v>35.690728999999898</v>
+        <v>70.646636999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="20"/>
         <v>0.3</v>
@@ -33379,31 +33514,31 @@
         <v>1000</v>
       </c>
       <c r="D81">
-        <v>11.502512678426401</v>
+        <v>13.1463699474469</v>
       </c>
       <c r="E81">
-        <v>190.16062500000001</v>
+        <v>154.13</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>86.367590425950397</v>
+        <v>26.415256339724301</v>
       </c>
       <c r="H81">
-        <v>550.44330784609099</v>
+        <v>167.97398934043201</v>
       </c>
       <c r="I81">
-        <v>37.248147286345599</v>
+        <v>11.065616156307099</v>
       </c>
       <c r="J81">
-        <v>363.315164353564</v>
+        <v>114.42793767363</v>
       </c>
       <c r="K81">
-        <v>63.616412000000302</v>
+        <v>110.55935899999901</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="20"/>
         <v>0.3</v>
@@ -33417,31 +33552,31 @@
         <v>1200</v>
       </c>
       <c r="D82">
-        <v>8.7357379801986408</v>
+        <v>11.4437414078747</v>
       </c>
       <c r="E82">
-        <v>229.859301719645</v>
+        <v>189.12666666666601</v>
       </c>
       <c r="F82">
-        <v>0.95950000000000002</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>112.223565219515</v>
+        <v>68.948071694936004</v>
       </c>
       <c r="H82">
-        <v>652.83090658475305</v>
+        <v>521.59071698913601</v>
       </c>
       <c r="I82">
-        <v>35.479244723861299</v>
+        <v>21.203665703394499</v>
       </c>
       <c r="J82">
-        <v>359.17172212758402</v>
+        <v>247.059787532988</v>
       </c>
       <c r="K82">
-        <v>171.795681000005</v>
+        <v>130.58734099999899</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="20"/>
         <v>0.3</v>
@@ -33479,7 +33614,7 @@
         <v>446.77747400003801</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="20"/>
         <v>0.3</v>
@@ -33517,7 +33652,7 @@
         <v>834.50221299998202</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="20"/>
         <v>0.3</v>
@@ -33555,7 +33690,7 @@
         <v>1322.2537919999199</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="20"/>
         <v>0.3</v>
@@ -33593,7 +33728,7 @@
         <v>1881.51066000008</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="20"/>
         <v>0.3</v>
@@ -33631,7 +33766,7 @@
         <v>2832.5761669981798</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -33667,7 +33802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.2</v>
       </c>
@@ -33680,31 +33815,34 @@
         <v>500</v>
       </c>
       <c r="D90">
-        <v>13.9369173688525</v>
+        <v>13.941984467369799</v>
       </c>
       <c r="E90">
-        <v>147.90125</v>
+        <v>138.03200000000001</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>37.757724027681398</v>
+        <v>13.084664345797499</v>
       </c>
       <c r="H90">
-        <v>302.53954029775298</v>
+        <v>93.391918417778498</v>
       </c>
       <c r="I90">
-        <v>35.8116850265097</v>
+        <v>11.1938584310205</v>
       </c>
       <c r="J90">
-        <v>295.86471450055899</v>
+        <v>89.549924862485298</v>
       </c>
       <c r="K90">
-        <v>21.5009049999999</v>
+        <v>48.0179189999999</v>
+      </c>
+      <c r="L90">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ref="A91:A98" si="23">$A90</f>
         <v>0.2</v>
@@ -33718,31 +33856,34 @@
         <v>700</v>
       </c>
       <c r="D91">
-        <v>13.9232450081627</v>
+        <v>13.930837218048801</v>
       </c>
       <c r="E91">
-        <v>165.895833333333</v>
+        <v>144.33857142857099</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>61.123696923640701</v>
+        <v>33.4550031061979</v>
       </c>
       <c r="H91">
-        <v>453.84114504419102</v>
+        <v>264.09191286631602</v>
       </c>
       <c r="I91">
-        <v>57.482956896786298</v>
+        <v>30.380669375786301</v>
       </c>
       <c r="J91">
-        <v>437.43578678506702</v>
+        <v>251.281324799061</v>
       </c>
       <c r="K91">
-        <v>64.349431999999794</v>
+        <v>91.7159989999993</v>
+      </c>
+      <c r="L91">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="23"/>
         <v>0.2</v>
@@ -33756,31 +33897,34 @@
         <v>1000</v>
       </c>
       <c r="D92">
-        <v>13.7529656309357</v>
+        <v>13.928199484011399</v>
       </c>
       <c r="E92">
-        <v>174.39375000000001</v>
+        <v>168.99600000000001</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>84.560834807565698</v>
+        <v>55.693617906742197</v>
       </c>
       <c r="H92">
-        <v>575.30857476775202</v>
+        <v>392.87565735465603</v>
       </c>
       <c r="I92">
-        <v>78.292928572128105</v>
+        <v>51.251252035501203</v>
       </c>
       <c r="J92">
-        <v>549.79238531207398</v>
+        <v>370.78615075532701</v>
       </c>
       <c r="K92">
-        <v>218.908434999999</v>
+        <v>101.535601999999</v>
+      </c>
+      <c r="L92">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="23"/>
         <v>0.2</v>
@@ -33794,31 +33938,34 @@
         <v>1200</v>
       </c>
       <c r="D93">
-        <v>10.432704184934501</v>
+        <v>13.747925133077599</v>
       </c>
       <c r="E93">
-        <v>219.35707070706999</v>
+        <v>174.71</v>
       </c>
       <c r="F93">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>74.037796783812595</v>
+        <v>63.900168983021899</v>
       </c>
       <c r="H93">
-        <v>440.933151762362</v>
+        <v>456.691740611895</v>
       </c>
       <c r="I93">
-        <v>61.6626696103867</v>
+        <v>58.349494379162103</v>
       </c>
       <c r="J93">
-        <v>402.59038850271702</v>
+        <v>440.83041716907599</v>
       </c>
       <c r="K93">
-        <v>484.664534</v>
+        <v>100.90613099999899</v>
+      </c>
+      <c r="L93">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="23"/>
         <v>0.2</v>
@@ -33856,7 +34003,7 @@
         <v>807.84119800004203</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="23"/>
         <v>0.2</v>
@@ -33894,7 +34041,7 @@
         <v>1435.8259000001599</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="23"/>
         <v>0.2</v>
@@ -33932,7 +34079,7 @@
         <v>1992.4747469998699</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="23"/>
         <v>0.2</v>
@@ -33970,7 +34117,7 @@
         <v>3167.3249889987801</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="23"/>
         <v>0.2</v>
@@ -34008,7 +34155,7 @@
         <v>4181.5238709962396</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -34044,7 +34191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.1</v>
       </c>
@@ -34057,31 +34204,34 @@
         <v>500</v>
       </c>
       <c r="D101">
-        <v>13.951153324287599</v>
+        <v>13.9537804276894</v>
       </c>
       <c r="E101">
-        <v>170.43125000000001</v>
+        <v>170.404</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>67.8331881957115</v>
+        <v>50.239935268758103</v>
       </c>
       <c r="H101">
-        <v>408.40232587102003</v>
+        <v>332.92993123173397</v>
       </c>
       <c r="I101">
-        <v>65.7071080250237</v>
+        <v>47.758234900234299</v>
       </c>
       <c r="J101">
-        <v>400.76475559025903</v>
+        <v>325.64260689902</v>
       </c>
       <c r="K101">
-        <v>117.937696</v>
+        <v>39.8998759999999</v>
+      </c>
+      <c r="L101">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ref="A102:A109" si="26">$A101</f>
         <v>0.1</v>
@@ -34095,31 +34245,34 @@
         <v>700</v>
       </c>
       <c r="D102">
-        <v>13.928564484454901</v>
+        <v>13.952713324529901</v>
       </c>
       <c r="E102">
-        <v>171.43666666666601</v>
+        <v>181.74857142857101</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102">
-        <v>61.690618674592699</v>
+        <v>72.924683928595201</v>
       </c>
       <c r="H102">
-        <v>390.80396915163902</v>
+        <v>480.14113706846001</v>
       </c>
       <c r="I102">
-        <v>59.642366429356301</v>
+        <v>69.485430976762302</v>
       </c>
       <c r="J102">
-        <v>384.26104763163301</v>
+        <v>466.64307876811398</v>
       </c>
       <c r="K102">
-        <v>407.94218600001199</v>
+        <v>41.626420999999901</v>
+      </c>
+      <c r="L102">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="26"/>
         <v>0.1</v>
@@ -34133,31 +34286,34 @@
         <v>1000</v>
       </c>
       <c r="D103">
-        <v>12.678134461449099</v>
+        <v>13.9360442619447</v>
       </c>
       <c r="E103">
-        <v>180.83250000000001</v>
+        <v>173.15100000000001</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103">
-        <v>45.171701258512897</v>
+        <v>52.4091290666912</v>
       </c>
       <c r="H103">
-        <v>276.21988465638498</v>
+        <v>333.26782759810101</v>
       </c>
       <c r="I103">
-        <v>43.077662638690903</v>
+        <v>48.993409812857301</v>
       </c>
       <c r="J103">
-        <v>269.80810502489999</v>
+        <v>322.60006695124702</v>
       </c>
       <c r="K103">
-        <v>878.98398000002101</v>
+        <v>44.170296</v>
+      </c>
+      <c r="L103">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="26"/>
         <v>0.1</v>
@@ -34171,31 +34327,34 @@
         <v>1200</v>
       </c>
       <c r="D104">
-        <v>10.3216491857326</v>
+        <v>13.8562783661119</v>
       </c>
       <c r="E104">
-        <v>217.440925087983</v>
+        <v>170.75833333333301</v>
       </c>
       <c r="F104">
-        <v>0.99450000000000005</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>45.6873770535502</v>
+        <v>42.752539454379701</v>
       </c>
       <c r="H104">
-        <v>248.66474103602201</v>
+        <v>240.194261024105</v>
       </c>
       <c r="I104">
-        <v>43.198955287402804</v>
+        <v>37.8969690882547</v>
       </c>
       <c r="J104">
-        <v>242.556111526103</v>
+        <v>228.37242304423401</v>
       </c>
       <c r="K104">
-        <v>1527.18126199977</v>
+        <v>68.754782999999406</v>
+      </c>
+      <c r="L104">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="26"/>
         <v>0.1</v>
@@ -34233,7 +34392,7 @@
         <v>2242.3509609994499</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="26"/>
         <v>0.1</v>
@@ -34271,7 +34430,7 @@
         <v>3140.7921449989099</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="26"/>
         <v>0.1</v>
@@ -34309,7 +34468,7 @@
         <v>3823.7825749970698</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="26"/>
         <v>0.1</v>
@@ -34347,7 +34506,7 @@
         <v>4999.6430249971199</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="26"/>
         <v>0.1</v>
@@ -34385,7 +34544,7 @@
         <v>6679.9875649945598</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -34421,7 +34580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -34434,31 +34593,34 @@
         <v>500</v>
       </c>
       <c r="D112">
-        <v>13.9495513158886</v>
+        <v>13.9512781433156</v>
       </c>
       <c r="E112">
-        <v>159.13200000000001</v>
+        <v>161.40600000000001</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112">
-        <v>30.225495476629298</v>
+        <v>35.482023381161</v>
       </c>
       <c r="H112">
-        <v>163.70107907764501</v>
+        <v>199.05319626965701</v>
       </c>
       <c r="I112">
-        <v>27.973950719242701</v>
+        <v>33.036824621434199</v>
       </c>
       <c r="J112">
-        <v>157.82407746240901</v>
+        <v>191.80096414152399</v>
       </c>
       <c r="K112">
-        <v>100.639384999999</v>
+        <v>35.352780999999801</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ref="A113:A120" si="29">$A112</f>
         <v>0</v>
@@ -34472,31 +34634,34 @@
         <v>700</v>
       </c>
       <c r="D113">
-        <v>13.9415245260966</v>
+        <v>13.9464333756992</v>
       </c>
       <c r="E113">
-        <v>156.45142857142801</v>
+        <v>153.987142857142</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113">
-        <v>37.155461022786703</v>
+        <v>35.979607816276797</v>
       </c>
       <c r="H113">
-        <v>230.56954468071299</v>
+        <v>226.61806751772701</v>
       </c>
       <c r="I113">
-        <v>34.711310746071803</v>
+        <v>33.595821275498899</v>
       </c>
       <c r="J113">
-        <v>224.09261544856301</v>
+        <v>220.92284114217401</v>
       </c>
       <c r="K113">
-        <v>39.192164000000197</v>
+        <v>40.997538999999897</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -34510,31 +34675,34 @@
         <v>1000</v>
       </c>
       <c r="D114">
-        <v>13.876356857592199</v>
+        <v>13.925466080508</v>
       </c>
       <c r="E114">
-        <v>154.49299999999999</v>
+        <v>153.99700000000001</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>27.331951193713898</v>
+        <v>28.649355844575901</v>
       </c>
       <c r="H114">
-        <v>149.067836956516</v>
+        <v>163.77320834832699</v>
       </c>
       <c r="I114">
-        <v>23.266005906027601</v>
+        <v>24.9401610586015</v>
       </c>
       <c r="J114">
-        <v>140.90235487860701</v>
+        <v>156.26722784804099</v>
       </c>
       <c r="K114">
-        <v>76.2846320000003</v>
+        <v>30.155966999999801</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -34548,31 +34716,34 @@
         <v>1200</v>
       </c>
       <c r="D115">
-        <v>10.6436345466958</v>
+        <v>13.8681920084399</v>
       </c>
       <c r="E115">
-        <v>199.301356102461</v>
+        <v>151.66</v>
       </c>
       <c r="F115">
-        <v>0.99550000000000005</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>19.666746324159401</v>
+        <v>22.8917202839014</v>
       </c>
       <c r="H115">
-        <v>89.942815092595595</v>
+        <v>114.49968681724501</v>
       </c>
       <c r="I115">
-        <v>17.955823816886799</v>
+        <v>18.534520696164101</v>
       </c>
       <c r="J115">
-        <v>86.281780695798204</v>
+        <v>107.570877255387</v>
       </c>
       <c r="K115">
-        <v>5689.5148139972798</v>
+        <v>61.168646999999801</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -34610,7 +34781,7 @@
         <v>6892.8189369967204</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -34648,7 +34819,7 @@
         <v>7824.3121509961902</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -34686,7 +34857,7 @@
         <v>9223.9102940149496</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -34724,7 +34895,7 @@
         <v>10475.6502050257</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="29"/>
         <v>0</v>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Fair-Vehicle-Routing-Simple-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2131BE5-5EC6-42C7-A878-96F7432A1D34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7940AE-5C83-4DA3-91D5-3A6930368922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
   <sheets>
     <sheet name="street grid network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="24">
   <si>
     <t>routing type</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>average speed</t>
+  </si>
+  <si>
+    <t>Least Density With Road Length</t>
+  </si>
+  <si>
+    <t>Greatest Speed with Road Length</t>
+  </si>
+  <si>
+    <t>Least Density 1.5 dijDiff threshold</t>
+  </si>
+  <si>
+    <t>Least Density 1.2 dijDiff threshold</t>
   </si>
 </sst>
 </file>
@@ -1185,6 +1197,477 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density With Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$I$35:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.351925885319799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.868164046988801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6031803182073796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.834336596393401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0011084160006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.2606817148947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.510383953213401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.2433878466486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.783850650198598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7187-430E-91DD-7CC3DE8CC4CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greatest Speed with Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$I$46:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2.4633988394534699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5106616333472107E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44399437233192901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.37437121775474602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.145645239111245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80474057065916105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.19453765682138499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20339082993910901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.149740143625336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7187-430E-91DD-7CC3DE8CC4CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$I$57:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18.156722013752201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.455728346996999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.9077478767903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.7566480205035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.613704425555898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.061998656141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.159787937881301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.449331429302699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.1948105731325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7187-430E-91DD-7CC3DE8CC4CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$I$68:$I$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.565087661313299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.440734092015299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.3849490140281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.781763279711001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.7826453063507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.596731651113402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.98633468001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.439820846287599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7187-430E-91DD-7CC3DE8CC4CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1433,7 +1916,6 @@
         <c:axId val="899501584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1949,6 +2431,477 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2304-4E43-9A96-BD09638D46B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density With Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$J$35:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>55.270493773401597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.081568004321298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.638744717965899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.681328235477693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.72062948553099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153.09332387072499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152.14798619170301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189.153889982338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215.773171915017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB4C-45CB-80E6-A3D6C86D2789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greatest Speed with Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$J$46:$J$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.69162349490218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5071907880707099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0303023110009699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4182690852832396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.140349006665099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5801757013291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16425272166288099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64646141258619005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB4C-45CB-80E6-A3D6C86D2789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$J$57:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>74.015548550383301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.576570980837204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.528858681793395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.514830401787499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.482681939005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.26242366165599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248.34118193932801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.58761781838299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328.54263035863301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB4C-45CB-80E6-A3D6C86D2789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$J$68:$J$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>57.419024222866199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.6292351281893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.940827796936297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.920892300908001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.758613713744097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138.577784752909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202.76270067433899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174.96360990116699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB4C-45CB-80E6-A3D6C86D2789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3238,7 +4191,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$24</c15:sqref>
@@ -3279,7 +4232,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$24:$C$32</c15:sqref>
@@ -3321,7 +4274,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$E$24:$E$32</c15:sqref>
@@ -3362,7 +4315,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-08BD-4F00-96C7-0A5D1B8ABCD9}"/>
                   </c:ext>
@@ -3375,7 +4328,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$35</c15:sqref>
@@ -3416,7 +4369,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$35:$C$43</c15:sqref>
@@ -3458,7 +4411,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$E$35:$E$43</c15:sqref>
@@ -3499,7 +4452,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-08BD-4F00-96C7-0A5D1B8ABCD9}"/>
                   </c:ext>
@@ -3512,7 +4465,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$46</c15:sqref>
@@ -3553,7 +4506,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$46:$C$54</c15:sqref>
@@ -3595,7 +4548,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$E$46:$E$54</c15:sqref>
@@ -3636,7 +4589,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-08BD-4F00-96C7-0A5D1B8ABCD9}"/>
                   </c:ext>
@@ -3649,7 +4602,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$79</c15:sqref>
@@ -3690,7 +4643,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$79:$C$87</c15:sqref>
@@ -3732,7 +4685,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$E$79:$E$87</c15:sqref>
@@ -3773,7 +4726,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-08BD-4F00-96C7-0A5D1B8ABCD9}"/>
                   </c:ext>
@@ -3786,7 +4739,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$101</c15:sqref>
@@ -3833,7 +4786,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$101:$C$109</c15:sqref>
@@ -3875,7 +4828,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$E$101:$E$109</c15:sqref>
@@ -3916,7 +4869,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-08BD-4F00-96C7-0A5D1B8ABCD9}"/>
                   </c:ext>
@@ -3929,7 +4882,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$13</c15:sqref>
@@ -3976,7 +4929,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$13:$C$21</c15:sqref>
@@ -4018,7 +4971,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$13:$E$21</c15:sqref>
@@ -4059,7 +5012,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0E2B-42A0-8785-1D1260285E06}"/>
                   </c:ext>
@@ -5220,7 +6173,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$24</c15:sqref>
@@ -5261,7 +6214,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$24:$C$32</c15:sqref>
@@ -5303,7 +6256,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$G$24:$G$32</c15:sqref>
@@ -5344,7 +6297,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-295A-4834-A8C1-3C4E0C53919B}"/>
                   </c:ext>
@@ -5357,7 +6310,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$35</c15:sqref>
@@ -5398,7 +6351,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$35:$C$43</c15:sqref>
@@ -5440,7 +6393,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$G$35:$G$43</c15:sqref>
@@ -5481,7 +6434,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-295A-4834-A8C1-3C4E0C53919B}"/>
                   </c:ext>
@@ -5494,7 +6447,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$46</c15:sqref>
@@ -5535,7 +6488,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$46:$C$54</c15:sqref>
@@ -5577,7 +6530,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$G$46:$G$54</c15:sqref>
@@ -5618,7 +6571,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-295A-4834-A8C1-3C4E0C53919B}"/>
                   </c:ext>
@@ -5631,7 +6584,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$79</c15:sqref>
@@ -5678,7 +6631,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$79:$C$87</c15:sqref>
@@ -5720,7 +6673,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$G$79:$G$87</c15:sqref>
@@ -5761,7 +6714,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-295A-4834-A8C1-3C4E0C53919B}"/>
                   </c:ext>
@@ -5774,7 +6727,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$101</c15:sqref>
@@ -5821,7 +6774,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$101:$C$109</c15:sqref>
@@ -5863,7 +6816,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$G$101:$G$109</c15:sqref>
@@ -5904,7 +6857,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-295A-4834-A8C1-3C4E0C53919B}"/>
                   </c:ext>
@@ -7069,7 +8022,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$24</c15:sqref>
@@ -7110,7 +8063,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$24:$C$32</c15:sqref>
@@ -7152,7 +8105,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$H$24:$H$32</c15:sqref>
@@ -7193,7 +8146,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-9F39-45A3-A221-307E127BB63D}"/>
                   </c:ext>
@@ -7206,7 +8159,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$35</c15:sqref>
@@ -7247,7 +8200,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$35:$C$43</c15:sqref>
@@ -7289,7 +8242,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$H$35:$H$43</c15:sqref>
@@ -7330,7 +8283,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-9F39-45A3-A221-307E127BB63D}"/>
                   </c:ext>
@@ -7343,7 +8296,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$46</c15:sqref>
@@ -7384,7 +8337,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$46:$C$54</c15:sqref>
@@ -7426,7 +8379,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$H$46:$H$54</c15:sqref>
@@ -7467,7 +8420,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-9F39-45A3-A221-307E127BB63D}"/>
                   </c:ext>
@@ -7480,7 +8433,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$79</c15:sqref>
@@ -7527,7 +8480,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$79:$C$87</c15:sqref>
@@ -7569,7 +8522,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$H$79:$H$87</c15:sqref>
@@ -7610,7 +8563,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-9F39-45A3-A221-307E127BB63D}"/>
                   </c:ext>
@@ -7623,7 +8576,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$101</c15:sqref>
@@ -7670,7 +8623,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$101:$C$109</c15:sqref>
@@ -7712,7 +8665,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$H$101:$H$109</c15:sqref>
@@ -7753,7 +8706,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-9F39-45A3-A221-307E127BB63D}"/>
                   </c:ext>
@@ -8919,7 +9872,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$24</c15:sqref>
@@ -8960,7 +9913,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$B$24:$B$32</c15:sqref>
@@ -9002,7 +9955,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$I$24:$I$32</c15:sqref>
@@ -9043,7 +9996,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-4C4C-4B6B-8586-E4450143D642}"/>
                   </c:ext>
@@ -9056,7 +10009,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$35</c15:sqref>
@@ -9097,7 +10050,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$35:$C$43</c15:sqref>
@@ -9139,7 +10092,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$I$35:$I$43</c15:sqref>
@@ -9180,7 +10133,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-4C4C-4B6B-8586-E4450143D642}"/>
                   </c:ext>
@@ -9193,7 +10146,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$46</c15:sqref>
@@ -9234,7 +10187,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$46:$C$54</c15:sqref>
@@ -9276,7 +10229,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$I$46:$I$54</c15:sqref>
@@ -9317,7 +10270,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-4C4C-4B6B-8586-E4450143D642}"/>
                   </c:ext>
@@ -9330,7 +10283,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$79</c15:sqref>
@@ -9377,7 +10330,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$79:$C$87</c15:sqref>
@@ -9419,7 +10372,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$I$79:$I$87</c15:sqref>
@@ -9460,7 +10413,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-4C4C-4B6B-8586-E4450143D642}"/>
                   </c:ext>
@@ -9473,7 +10426,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$101</c15:sqref>
@@ -9520,7 +10473,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$101:$C$109</c15:sqref>
@@ -9562,7 +10515,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$I$101:$I$109</c15:sqref>
@@ -9603,7 +10556,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-4C4C-4B6B-8586-E4450143D642}"/>
                   </c:ext>
@@ -10779,7 +11732,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$24</c15:sqref>
@@ -10820,7 +11773,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$24:$C$32</c15:sqref>
@@ -10862,7 +11815,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$J$24:$J$32</c15:sqref>
@@ -10903,7 +11856,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0320-4ECC-A9EC-87A9E9105757}"/>
                   </c:ext>
@@ -10916,7 +11869,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$35</c15:sqref>
@@ -10957,7 +11910,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$35:$C$43</c15:sqref>
@@ -10999,7 +11952,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$J$35:$J$43</c15:sqref>
@@ -11040,7 +11993,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-0320-4ECC-A9EC-87A9E9105757}"/>
                   </c:ext>
@@ -11053,7 +12006,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$46</c15:sqref>
@@ -11094,7 +12047,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$46:$C$54</c15:sqref>
@@ -11136,7 +12089,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$J$46:$J$54</c15:sqref>
@@ -11177,7 +12130,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-0320-4ECC-A9EC-87A9E9105757}"/>
                   </c:ext>
@@ -11190,7 +12143,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$79</c15:sqref>
@@ -11237,7 +12190,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$79:$C$87</c15:sqref>
@@ -11279,7 +12232,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$J$79:$J$87</c15:sqref>
@@ -11320,7 +12273,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-0320-4ECC-A9EC-87A9E9105757}"/>
                   </c:ext>
@@ -11333,7 +12286,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$A$101</c15:sqref>
@@ -11380,7 +12333,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$C$101:$C$109</c15:sqref>
@@ -11422,7 +12375,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'safety parameter'!$J$101:$J$109</c15:sqref>
@@ -11463,7 +12416,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-0320-4ECC-A9EC-87A9E9105757}"/>
                   </c:ext>
@@ -15680,6 +16633,477 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density With Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$35:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>145.958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145.31714285714199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>273.50200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375.820588235294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>504.12049999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>644.93818181818096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>834.07119999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-802F-47AB-9825-D672D49078BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greatest Speed with Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$46:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>129.99199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.892857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.76666666666603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400.09866666666602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>488.691176470588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>713.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>842.64909090908998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>997.90719999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-802F-47AB-9825-D672D49078BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$57:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>153.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.888571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.80199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.115833333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.75866666666599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248.24058823529401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377.5915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>469.18818181818102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>657.24599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-802F-47AB-9825-D672D49078BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$68:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>148.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.49428571428501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.71899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.9075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.16294117647001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367.11649999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>460.43090909090898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-802F-47AB-9825-D672D49078BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -16428,6 +17852,477 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2E7C-4480-9872-9C1A05C41F7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density With Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$G$35:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14.3543282552578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.634496641767601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.028778944174199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.9663483729856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.38867999887501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226.71965917905601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>323.27808773491802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>442.99201866401398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>668.88285999171399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1437-4D4D-8D67-9420380C9DCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greatest Speed with Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$G$46:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.16997403771088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.246622490300499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.421878638583493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.181141505415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.748955252603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>334.299342915453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>564.78795561800598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680.85533201365297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800.01591757148901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1437-4D4D-8D67-9420380C9DCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$G$57:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20.226490078696798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.584640220117201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.6869984042997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0083437800929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.051234959334501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.573088465736305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190.027209733213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>274.42270607838901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>395.23546073006798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1437-4D4D-8D67-9420380C9DCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$G$68:$G$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.5188140872947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5534783168763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.4349494349071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.066304063451302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.577516900512901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.307027238936499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.47105948085701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.80741032124001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1437-4D4D-8D67-9420380C9DCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17187,6 +19082,477 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density With Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$H$35:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>59.109337568375899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.548562695067602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.27796827425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.66028296971999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>935.89304653687805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1366.1742830814301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1901.7794773417399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2241.6532360717902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3441.1814309447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E7E-4E8C-8312-C6541C47E1EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greatest Speed with Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$H$46:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.92803588205736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.89523573443901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457.27445321486698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>649.53428891519104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1334.6609408193599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1882.39166373228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3153.6637843271101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3514.0982868984001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3780.1306108447202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E7E-4E8C-8312-C6541C47E1EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$H$57:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>78.6847959067956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.627851123163296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.291522169268006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.077175734467005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.49943923468601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>648.93167058194695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212.2854214389199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1692.4424968788201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2092.98008133451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E7E-4E8C-8312-C6541C47E1EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$H$68:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>61.6327073165494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.6423797466556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.190179521425499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.2552702319703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.47682990348601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510.96203747509099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1304.59138100991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1473.0944723666601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E7E-4E8C-8312-C6541C47E1EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -17448,6 +19814,7 @@
         <c:axId val="899501584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -26775,14 +29142,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2216</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26813,13 +29180,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2216</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>185739</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26849,15 +29216,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1733549</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1072402</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1562099</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>185739</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26889,13 +29256,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>1073170</xdr:colOff>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>185739</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26925,15 +29292,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>185739</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27593,7 +29960,7 @@
         <v>5.5822300000000196</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L32" si="0">LOG10(K3)</f>
+        <f t="shared" ref="L3:L27" si="0">LOG10(K3)</f>
         <v>0.74680772639715221</v>
       </c>
     </row>
@@ -27685,7 +30052,7 @@
         <v>7500</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C8" si="1">(B6/5)</f>
+        <f t="shared" ref="C6" si="1">(B6/5)</f>
         <v>1500</v>
       </c>
       <c r="D6">
@@ -27821,7 +30188,7 @@
         <v>routing type</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" ref="B12:C12" si="2">B1</f>
+        <f t="shared" ref="B12" si="2">B1</f>
         <v>total vehicles</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -27829,7 +30196,7 @@
         <v>vehicles tracked</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" ref="B12:K12" si="3">D1</f>
+        <f t="shared" ref="D12:K12" si="3">D1</f>
         <v>avg speed</v>
       </c>
       <c r="E12" s="2" t="str">
@@ -27907,7 +30274,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ref="B14:C21" si="4">B3</f>
+        <f t="shared" ref="B14:C18" si="4">B3</f>
         <v>3750</v>
       </c>
       <c r="C14" s="1">
@@ -28171,7 +30538,7 @@
         <v>routing type</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" ref="B23:C23" si="5">B1</f>
+        <f t="shared" ref="B23" si="5">B1</f>
         <v>total vehicles</v>
       </c>
       <c r="C23" s="1" t="str">
@@ -28179,7 +30546,7 @@
         <v>vehicles tracked</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" ref="B23:K23" si="6">D1</f>
+        <f t="shared" ref="D23:K23" si="6">D1</f>
         <v>avg speed</v>
       </c>
       <c r="E23" s="2" t="str">
@@ -28257,7 +30624,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ref="B25:C32" si="7">B3</f>
+        <f t="shared" ref="B25:C29" si="7">B3</f>
         <v>3750</v>
       </c>
       <c r="C25" s="1">
@@ -28434,15 +30801,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4999D6-517F-4343-8429-347E88848D05}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C32"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
@@ -29451,6 +31819,1462 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
+        <f>A12</f>
+        <v>routing type</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" ref="B34" si="5">B12</f>
+        <v>total vehicles</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>C12</f>
+        <v>vehicles tracked</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" ref="D34:K34" si="6">D12</f>
+        <v>avg speed</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>avg time to finish trip</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>proportion of finished trips</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>optimaldiffavg</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>optimaldiff10%avg</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>dijdiffavg</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>dijdiff10%avg</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>algo processing time (ms)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>2500</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C13</f>
+        <v>500</v>
+      </c>
+      <c r="D35">
+        <v>13.9400375450472</v>
+      </c>
+      <c r="E35">
+        <v>145.958</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.3543282552578</v>
+      </c>
+      <c r="H35">
+        <v>59.109337568375899</v>
+      </c>
+      <c r="I35">
+        <v>12.351925885319799</v>
+      </c>
+      <c r="J35">
+        <v>55.270493773401597</v>
+      </c>
+      <c r="K35">
+        <v>77.4348099999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>3750</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="B36:C36" si="7">C14</f>
+        <v>700</v>
+      </c>
+      <c r="D36">
+        <v>13.798293387860999</v>
+      </c>
+      <c r="E36">
+        <v>145.31714285714199</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>16.634496641767601</v>
+      </c>
+      <c r="H36">
+        <v>67.548562695067602</v>
+      </c>
+      <c r="I36">
+        <v>13.868164046988801</v>
+      </c>
+      <c r="J36">
+        <v>62.081568004321298</v>
+      </c>
+      <c r="K36">
+        <v>61.589604999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="B37:C37" si="8">C15</f>
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>12.233070751893701</v>
+      </c>
+      <c r="E37">
+        <v>165.40899999999999</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>26.028778944174199</v>
+      </c>
+      <c r="H37">
+        <v>123.27796827425</v>
+      </c>
+      <c r="I37">
+        <v>7.6031803182073796</v>
+      </c>
+      <c r="J37">
+        <v>59.638744717965899</v>
+      </c>
+      <c r="K37">
+        <v>104.261707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>6250</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" ref="B38:C38" si="9">C16</f>
+        <v>1200</v>
+      </c>
+      <c r="D38">
+        <v>11.0720001463231</v>
+      </c>
+      <c r="E38">
+        <v>182.245</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>42.9663483729856</v>
+      </c>
+      <c r="H38">
+        <v>248.66028296971999</v>
+      </c>
+      <c r="I38">
+        <v>10.834336596393401</v>
+      </c>
+      <c r="J38">
+        <v>97.681328235477693</v>
+      </c>
+      <c r="K38">
+        <v>479.86782699980301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>7500</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="B39:C39" si="10">C17</f>
+        <v>1500</v>
+      </c>
+      <c r="D39">
+        <v>7.5001767202189802</v>
+      </c>
+      <c r="E39">
+        <v>273.50200000000001</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>136.38867999887501</v>
+      </c>
+      <c r="H39">
+        <v>935.89304653687805</v>
+      </c>
+      <c r="I39">
+        <v>11.0011084160006</v>
+      </c>
+      <c r="J39">
+        <v>129.72062948553099</v>
+      </c>
+      <c r="K39">
+        <v>1677.1543230006801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>8750</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ref="B40:C40" si="11">C18</f>
+        <v>1700</v>
+      </c>
+      <c r="D40">
+        <v>5.4636677388303196</v>
+      </c>
+      <c r="E40">
+        <v>375.820588235294</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>226.71965917905601</v>
+      </c>
+      <c r="H40">
+        <v>1366.1742830814301</v>
+      </c>
+      <c r="I40">
+        <v>12.2606817148947</v>
+      </c>
+      <c r="J40">
+        <v>153.09332387072499</v>
+      </c>
+      <c r="K40">
+        <v>3852.1945349995799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="B41:C41" si="12">C19</f>
+        <v>2000</v>
+      </c>
+      <c r="D41">
+        <v>4.0781916228361998</v>
+      </c>
+      <c r="E41">
+        <v>504.12049999999999</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>323.27808773491802</v>
+      </c>
+      <c r="H41">
+        <v>1901.7794773417399</v>
+      </c>
+      <c r="I41">
+        <v>11.510383953213401</v>
+      </c>
+      <c r="J41">
+        <v>152.14798619170301</v>
+      </c>
+      <c r="K41">
+        <v>7237.7432570919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>11250</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ref="B42:C42" si="13">C20</f>
+        <v>2200</v>
+      </c>
+      <c r="D42">
+        <v>3.20966632460898</v>
+      </c>
+      <c r="E42">
+        <v>644.93818181818096</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>442.99201866401398</v>
+      </c>
+      <c r="H42">
+        <v>2241.6532360717902</v>
+      </c>
+      <c r="I42">
+        <v>15.2433878466486</v>
+      </c>
+      <c r="J42">
+        <v>189.153889982338</v>
+      </c>
+      <c r="K42">
+        <v>13912.9853491104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>12500</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ref="B43:C43" si="14">C21</f>
+        <v>2500</v>
+      </c>
+      <c r="D43">
+        <v>2.5613113125114402</v>
+      </c>
+      <c r="E43">
+        <v>834.07119999999998</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>668.88285999171399</v>
+      </c>
+      <c r="H43">
+        <v>3441.1814309447</v>
+      </c>
+      <c r="I43">
+        <v>17.783850650198598</v>
+      </c>
+      <c r="J43">
+        <v>215.773171915017</v>
+      </c>
+      <c r="K43">
+        <v>28088.904385197598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="str">
+        <f>A23</f>
+        <v>routing type</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f t="shared" ref="B45" si="15">B23</f>
+        <v>total vehicles</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>C23</f>
+        <v>vehicles tracked</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" ref="D45:K45" si="16">D23</f>
+        <v>avg speed</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>avg time to finish trip</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>proportion of finished trips</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>optimaldiffavg</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>optimaldiff10%avg</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>dijdiffavg</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>dijdiff10%avg</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>algo processing time (ms)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>2500</v>
+      </c>
+      <c r="C46" s="1">
+        <f>C24</f>
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>13.883162040740901</v>
+      </c>
+      <c r="E46">
+        <v>129.99199999999999</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2.16997403771088</v>
+      </c>
+      <c r="H46">
+        <v>7.92803588205736</v>
+      </c>
+      <c r="I46">
+        <v>-2.4633988394534699E-2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>89.125008000000093</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>3750</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ref="C47:D47" si="17">C25</f>
+        <v>700</v>
+      </c>
+      <c r="D47">
+        <v>11.1512541620421</v>
+      </c>
+      <c r="E47">
+        <v>160.892857142857</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>25.246622490300499</v>
+      </c>
+      <c r="H47">
+        <v>162.89523573443901</v>
+      </c>
+      <c r="I47">
+        <v>8.5106616333472107E-3</v>
+      </c>
+      <c r="J47">
+        <v>1.69162349490218</v>
+      </c>
+      <c r="K47">
+        <v>73.149703000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>5000</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ref="C48:D48" si="18">C26</f>
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>7.7290915215801599</v>
+      </c>
+      <c r="E48">
+        <v>243.41800000000001</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>80.421878638583493</v>
+      </c>
+      <c r="H48">
+        <v>457.27445321486698</v>
+      </c>
+      <c r="I48">
+        <v>-0.44399437233192901</v>
+      </c>
+      <c r="J48">
+        <v>4.5071907880707099E-2</v>
+      </c>
+      <c r="K48">
+        <v>142.414584999986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>6250</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ref="C49:D49" si="19">C27</f>
+        <v>1200</v>
+      </c>
+      <c r="D49">
+        <v>6.8426999880425603</v>
+      </c>
+      <c r="E49">
+        <v>278.76666666666603</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>114.181141505415</v>
+      </c>
+      <c r="H49">
+        <v>649.53428891519104</v>
+      </c>
+      <c r="I49">
+        <v>-0.37437121775474602</v>
+      </c>
+      <c r="J49">
+        <v>1.0303023110009699</v>
+      </c>
+      <c r="K49">
+        <v>398.16328700042402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>7500</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:D50" si="20">C28</f>
+        <v>1500</v>
+      </c>
+      <c r="D50">
+        <v>4.9541446443210599</v>
+      </c>
+      <c r="E50">
+        <v>400.09866666666602</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>233.748955252603</v>
+      </c>
+      <c r="H50">
+        <v>1334.6609408193599</v>
+      </c>
+      <c r="I50">
+        <v>0.145645239111245</v>
+      </c>
+      <c r="J50">
+        <v>5.4182690852832396</v>
+      </c>
+      <c r="K50">
+        <v>1916.9779919969801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>8750</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:D51" si="21">C29</f>
+        <v>1700</v>
+      </c>
+      <c r="D51">
+        <v>4.1137612470283704</v>
+      </c>
+      <c r="E51">
+        <v>488.691176470588</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>334.299342915453</v>
+      </c>
+      <c r="H51">
+        <v>1882.39166373228</v>
+      </c>
+      <c r="I51">
+        <v>0.80474057065916105</v>
+      </c>
+      <c r="J51">
+        <v>11.140349006665099</v>
+      </c>
+      <c r="K51">
+        <v>4050.1060720083001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" ref="C52:D52" si="22">C30</f>
+        <v>2000</v>
+      </c>
+      <c r="D52">
+        <v>2.9445020819605401</v>
+      </c>
+      <c r="E52">
+        <v>713.27</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>564.78795561800598</v>
+      </c>
+      <c r="H52">
+        <v>3153.6637843271101</v>
+      </c>
+      <c r="I52">
+        <v>-0.19453765682138499</v>
+      </c>
+      <c r="J52">
+        <v>1.5801757013291</v>
+      </c>
+      <c r="K52">
+        <v>8905.8343200283998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>11250</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" ref="C53:D53" si="23">C31</f>
+        <v>2200</v>
+      </c>
+      <c r="D53">
+        <v>2.5192466615025699</v>
+      </c>
+      <c r="E53">
+        <v>842.64909090908998</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>680.85533201365297</v>
+      </c>
+      <c r="H53">
+        <v>3514.0982868984001</v>
+      </c>
+      <c r="I53">
+        <v>-0.20339082993910901</v>
+      </c>
+      <c r="J53">
+        <v>0.16425272166288099</v>
+      </c>
+      <c r="K53">
+        <v>17185.865718977399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>12500</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:D54" si="24">C32</f>
+        <v>2500</v>
+      </c>
+      <c r="D54">
+        <v>2.25131154480095</v>
+      </c>
+      <c r="E54">
+        <v>997.90719999999999</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>800.01591757148901</v>
+      </c>
+      <c r="H54">
+        <v>3780.1306108447202</v>
+      </c>
+      <c r="I54">
+        <v>-0.149740143625336</v>
+      </c>
+      <c r="J54">
+        <v>0.64646141258619005</v>
+      </c>
+      <c r="K54">
+        <v>28143.472190369099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="str">
+        <f>A34</f>
+        <v>routing type</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" ref="B56" si="25">B34</f>
+        <v>total vehicles</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>C34</f>
+        <v>vehicles tracked</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" ref="D56:K56" si="26">D34</f>
+        <v>avg speed</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>avg time to finish trip</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>proportion of finished trips</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>optimaldiffavg</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>optimaldiff10%avg</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>dijdiffavg</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>dijdiff10%avg</v>
+      </c>
+      <c r="K56" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>algo processing time (ms)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>2500</v>
+      </c>
+      <c r="C57" s="1">
+        <f>C35</f>
+        <v>500</v>
+      </c>
+      <c r="D57">
+        <v>13.9480022392626</v>
+      </c>
+      <c r="E57">
+        <v>153.62200000000001</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>20.226490078696798</v>
+      </c>
+      <c r="H57">
+        <v>78.6847959067956</v>
+      </c>
+      <c r="I57">
+        <v>18.156722013752201</v>
+      </c>
+      <c r="J57">
+        <v>74.015548550383301</v>
+      </c>
+      <c r="K57">
+        <v>146.543103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>3750</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:D58" si="27">C36</f>
+        <v>700</v>
+      </c>
+      <c r="D58">
+        <v>13.944272802287401</v>
+      </c>
+      <c r="E58">
+        <v>148.888571428571</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>18.584640220117201</v>
+      </c>
+      <c r="H58">
+        <v>71.627851123163296</v>
+      </c>
+      <c r="I58">
+        <v>16.455728346996999</v>
+      </c>
+      <c r="J58">
+        <v>67.576570980837204</v>
+      </c>
+      <c r="K58">
+        <v>91.178930000000193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>5000</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59:D59" si="28">C37</f>
+        <v>1000</v>
+      </c>
+      <c r="D59">
+        <v>13.782018559966399</v>
+      </c>
+      <c r="E59">
+        <v>152.80199999999999</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>18.6869984042997</v>
+      </c>
+      <c r="H59">
+        <v>71.291522169268006</v>
+      </c>
+      <c r="I59">
+        <v>15.9077478767903</v>
+      </c>
+      <c r="J59">
+        <v>66.528858681793395</v>
+      </c>
+      <c r="K59">
+        <v>132.520445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>6250</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ref="C60:D60" si="29">C38</f>
+        <v>1200</v>
+      </c>
+      <c r="D60">
+        <v>13.872009947873501</v>
+      </c>
+      <c r="E60">
+        <v>150.115833333333</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>18.0083437800929</v>
+      </c>
+      <c r="H60">
+        <v>67.077175734467005</v>
+      </c>
+      <c r="I60">
+        <v>14.7566480205035</v>
+      </c>
+      <c r="J60">
+        <v>60.514830401787499</v>
+      </c>
+      <c r="K60">
+        <v>154.77025399999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>7500</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61:D61" si="30">C39</f>
+        <v>1500</v>
+      </c>
+      <c r="D61">
+        <v>12.0238031292443</v>
+      </c>
+      <c r="E61">
+        <v>173.75866666666599</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>31.051234959334501</v>
+      </c>
+      <c r="H61">
+        <v>158.49943923468601</v>
+      </c>
+      <c r="I61">
+        <v>20.613704425555898</v>
+      </c>
+      <c r="J61">
+        <v>120.482681939005</v>
+      </c>
+      <c r="K61">
+        <v>509.24672699992601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>8750</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ref="C62:D62" si="31">C40</f>
+        <v>1700</v>
+      </c>
+      <c r="D62">
+        <v>8.3941100782210807</v>
+      </c>
+      <c r="E62">
+        <v>248.24058823529401</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>92.573088465736305</v>
+      </c>
+      <c r="H62">
+        <v>648.93167058194695</v>
+      </c>
+      <c r="I62">
+        <v>21.061998656141</v>
+      </c>
+      <c r="J62">
+        <v>174.26242366165599</v>
+      </c>
+      <c r="K62">
+        <v>2418.1528840032202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>10000</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" ref="C63:D63" si="32">C41</f>
+        <v>2000</v>
+      </c>
+      <c r="D63">
+        <v>5.5735762060321798</v>
+      </c>
+      <c r="E63">
+        <v>377.5915</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>190.027209733213</v>
+      </c>
+      <c r="H63">
+        <v>1212.2854214389199</v>
+      </c>
+      <c r="I63">
+        <v>21.159787937881301</v>
+      </c>
+      <c r="J63">
+        <v>248.34118193932801</v>
+      </c>
+      <c r="K63">
+        <v>6272.4121920111302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>11250</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" ref="C64:D64" si="33">C42</f>
+        <v>2200</v>
+      </c>
+      <c r="D64">
+        <v>4.4882747182270304</v>
+      </c>
+      <c r="E64">
+        <v>469.18818181818102</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>274.42270607838901</v>
+      </c>
+      <c r="H64">
+        <v>1692.4424968788201</v>
+      </c>
+      <c r="I64">
+        <v>17.449331429302699</v>
+      </c>
+      <c r="J64">
+        <v>234.58761781838299</v>
+      </c>
+      <c r="K64">
+        <v>11836.7910569492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>12500</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65:D65" si="34">C43</f>
+        <v>2500</v>
+      </c>
+      <c r="D65">
+        <v>3.2463035149700401</v>
+      </c>
+      <c r="E65">
+        <v>657.24599999999998</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>395.23546073006798</v>
+      </c>
+      <c r="H65">
+        <v>2092.98008133451</v>
+      </c>
+      <c r="I65">
+        <v>18.1948105731325</v>
+      </c>
+      <c r="J65">
+        <v>328.54263035863301</v>
+      </c>
+      <c r="K65">
+        <v>20264.3668450121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="str">
+        <f>A45</f>
+        <v>routing type</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" ref="B67" si="35">B45</f>
+        <v>total vehicles</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>C45</f>
+        <v>vehicles tracked</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f t="shared" ref="D67:K67" si="36">D45</f>
+        <v>avg speed</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>avg time to finish trip</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>proportion of finished trips</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>optimaldiffavg</v>
+      </c>
+      <c r="H67" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>optimaldiff10%avg</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>dijdiffavg</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>dijdiff10%avg</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f t="shared" si="36"/>
+        <v>algo processing time (ms)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>2500</v>
+      </c>
+      <c r="C68" s="1">
+        <f>C46</f>
+        <v>500</v>
+      </c>
+      <c r="D68">
+        <v>13.778133749730699</v>
+      </c>
+      <c r="E68">
+        <v>148.57599999999999</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>15.5188140872947</v>
+      </c>
+      <c r="H68">
+        <v>61.6327073165494</v>
+      </c>
+      <c r="I68">
+        <v>13.565087661313299</v>
+      </c>
+      <c r="J68">
+        <v>57.419024222866199</v>
+      </c>
+      <c r="K68">
+        <v>102.730783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>3750</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" ref="C69:D69" si="37">C47</f>
+        <v>700</v>
+      </c>
+      <c r="D69">
+        <v>13.768512842821201</v>
+      </c>
+      <c r="E69">
+        <v>144.49428571428501</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>15.5534783168763</v>
+      </c>
+      <c r="H69">
+        <v>60.6423797466556</v>
+      </c>
+      <c r="I69">
+        <v>13.440734092015299</v>
+      </c>
+      <c r="J69">
+        <v>56.6292351281893</v>
+      </c>
+      <c r="K69">
+        <v>98.483125000000101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <v>5000</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" ref="C70:D70" si="38">C48</f>
+        <v>1000</v>
+      </c>
+      <c r="D70">
+        <v>13.5902791228902</v>
+      </c>
+      <c r="E70">
+        <v>149.71899999999999</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>16.4349494349071</v>
+      </c>
+      <c r="H70">
+        <v>63.190179521425499</v>
+      </c>
+      <c r="I70">
+        <v>13.3849490140281</v>
+      </c>
+      <c r="J70">
+        <v>56.940827796936297</v>
+      </c>
+      <c r="K70">
+        <v>138.19077300000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>6250</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" ref="C71:D71" si="39">C49</f>
+        <v>1200</v>
+      </c>
+      <c r="D71">
+        <v>13.630213703384401</v>
+      </c>
+      <c r="E71">
+        <v>147.9075</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>16.066304063451302</v>
+      </c>
+      <c r="H71">
+        <v>58.2552702319703</v>
+      </c>
+      <c r="I71">
+        <v>12.781763279711001</v>
+      </c>
+      <c r="J71">
+        <v>50.920892300908001</v>
+      </c>
+      <c r="K71">
+        <v>165.50964200000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>7500</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" ref="C72:D72" si="40">C50</f>
+        <v>1500</v>
+      </c>
+      <c r="D72">
+        <v>12.082760370819701</v>
+      </c>
+      <c r="E72">
+        <v>168.13200000000001</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>26.577516900512901</v>
+      </c>
+      <c r="H72">
+        <v>125.47682990348601</v>
+      </c>
+      <c r="I72">
+        <v>15.7826453063507</v>
+      </c>
+      <c r="J72">
+        <v>87.758613713744097</v>
+      </c>
+      <c r="K72">
+        <v>993.13248399967097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>8750</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" ref="C73:D73" si="41">C51</f>
+        <v>1700</v>
+      </c>
+      <c r="D73">
+        <v>8.6773812696617707</v>
+      </c>
+      <c r="E73">
+        <v>236.16294117647001</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>79.307027238936499</v>
+      </c>
+      <c r="H73">
+        <v>510.96203747509099</v>
+      </c>
+      <c r="I73">
+        <v>16.596731651113402</v>
+      </c>
+      <c r="J73">
+        <v>138.577784752909</v>
+      </c>
+      <c r="K73">
+        <v>3028.9112820065102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74">
+        <v>10000</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74:D74" si="42">C52</f>
+        <v>2000</v>
+      </c>
+      <c r="D74">
+        <v>5.6077021871803598</v>
+      </c>
+      <c r="E74">
+        <v>367.11649999999997</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>196.47105948085701</v>
+      </c>
+      <c r="H74">
+        <v>1304.59138100991</v>
+      </c>
+      <c r="I74">
+        <v>12.98633468001</v>
+      </c>
+      <c r="J74">
+        <v>202.76270067433899</v>
+      </c>
+      <c r="K74">
+        <v>5836.2967890454702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>11250</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ref="C75:D75" si="43">C53</f>
+        <v>2200</v>
+      </c>
+      <c r="D75">
+        <v>4.4942504452350898</v>
+      </c>
+      <c r="E75">
+        <v>460.43090909090898</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>252.80741032124001</v>
+      </c>
+      <c r="H75">
+        <v>1473.0944723666601</v>
+      </c>
+      <c r="I75">
+        <v>10.439820846287599</v>
+      </c>
+      <c r="J75">
+        <v>174.96360990116699</v>
+      </c>
+      <c r="K75">
+        <v>13266.5000531531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <v>12500</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" ref="C76:D76" si="44">C54</f>
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29461,7 +33285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50B34B4-084F-4934-B405-A3E078D07E48}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951FE357-D1F5-40BD-9D3A-D364D2712993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB937048-6A27-4D44-BCA7-008E8A95A1B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="3" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
   <sheets>
     <sheet name="street grid network" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="30">
   <si>
     <t>routing type</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Least Density Exponential</t>
+  </si>
+  <si>
+    <t>Least Density Exponential Dynamic</t>
+  </si>
+  <si>
+    <t>Least Density Dynamic</t>
+  </si>
+  <si>
+    <t>Least Density w/ Road Length Dynamic</t>
   </si>
 </sst>
 </file>
@@ -974,6 +983,126 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-935A-4F31-A877-FAC871790277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1087,6 +1216,132 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-935A-4F31-A877-FAC871790277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$I$68:$I$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14.0346628173623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5197922261946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5711381410669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.876769485533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8387280736462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.565785751345199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.973304455914599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.9235825787464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.3492944391585</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7187-430E-91DD-7CC3DE8CC4CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1200,6 +1455,9 @@
                 <c:pt idx="7">
                   <c:v>11.395635589274701</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.585617584030301</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1224,149 +1482,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Dijkstra</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$2:$C$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$I$2:$I$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-935A-4F31-A877-FAC871790277}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
@@ -1406,8 +1527,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
@@ -1448,8 +1569,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$24:$I$32</c15:sqref>
                         </c15:formulaRef>
@@ -1462,7 +1583,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-935A-4F31-A877-FAC871790277}"/>
                   </c:ext>
@@ -1475,7 +1596,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -1516,7 +1637,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -1558,7 +1679,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$35:$I$43</c15:sqref>
@@ -1599,7 +1720,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7187-430E-91DD-7CC3DE8CC4CB}"/>
                   </c:ext>
@@ -1612,7 +1733,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$46</c15:sqref>
@@ -1653,7 +1774,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$46:$C$54</c15:sqref>
@@ -1695,7 +1816,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$46:$I$54</c15:sqref>
@@ -1736,7 +1857,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7187-430E-91DD-7CC3DE8CC4CB}"/>
                   </c:ext>
@@ -1749,7 +1870,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$57</c15:sqref>
@@ -1790,7 +1911,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
@@ -1832,7 +1953,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$57:$I$65</c15:sqref>
@@ -1873,152 +1994,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7187-430E-91DD-7CC3DE8CC4CB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$I$68:$I$76</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>14.0346628173623</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>12.5197922261946</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>12.5711381410669</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>12.876769485533</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>12.8387280736462</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>17.565785751345199</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>15.973304455914599</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10.9235825787464</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13.3492944391585</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-7187-430E-91DD-7CC3DE8CC4CB}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2029,7 +2007,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -2076,7 +2054,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -2118,7 +2096,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$79:$I$87</c15:sqref>
@@ -2159,7 +2137,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-5CE9-4BF4-85C5-54AD584FAFFA}"/>
                   </c:ext>
@@ -2577,6 +2555,126 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2304-4E43-9A96-BD09638D46B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -2690,6 +2788,132 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2304-4E43-9A96-BD09638D46B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$J$68:$J$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>55.472574979435201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.803505831912901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.834348550734902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.799419477528801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.244211847853705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.11095183206101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217.94222931623199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.65203861082401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248.98640711184899</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB4C-45CB-80E6-A3D6C86D2789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2803,6 +3027,9 @@
                 <c:pt idx="7">
                   <c:v>242.44571207833599</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>219.787110439342</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2827,149 +3054,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Dijkstra</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$2:$C$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$J$2:$J$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2304-4E43-9A96-BD09638D46B4}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
@@ -3009,8 +3099,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
@@ -3051,8 +3141,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$24:$J$32</c15:sqref>
                         </c15:formulaRef>
@@ -3065,7 +3155,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2304-4E43-9A96-BD09638D46B4}"/>
                   </c:ext>
@@ -3078,7 +3168,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -3119,7 +3209,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -3161,7 +3251,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$35:$J$43</c15:sqref>
@@ -3202,7 +3292,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-BB4C-45CB-80E6-A3D6C86D2789}"/>
                   </c:ext>
@@ -3215,7 +3305,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$46</c15:sqref>
@@ -3256,7 +3346,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$46:$C$54</c15:sqref>
@@ -3298,7 +3388,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$46:$J$54</c15:sqref>
@@ -3339,7 +3429,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-BB4C-45CB-80E6-A3D6C86D2789}"/>
                   </c:ext>
@@ -3352,7 +3442,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$57</c15:sqref>
@@ -3393,7 +3483,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
@@ -3435,7 +3525,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$57:$J$65</c15:sqref>
@@ -3476,152 +3566,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BB4C-45CB-80E6-A3D6C86D2789}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$J$68:$J$76</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>55.472574979435201</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>50.803505831912901</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>51.834348550734902</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>49.799419477528801</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>70.244211847853705</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>160.11095183206101</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>217.94222931623199</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>191.65203861082401</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>248.98640711184899</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-BB4C-45CB-80E6-A3D6C86D2789}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3632,7 +3579,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -3679,7 +3626,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -3721,7 +3668,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$79:$J$87</c15:sqref>
@@ -3762,7 +3709,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-B99C-4621-A6F6-3BE284BFF219}"/>
                   </c:ext>
@@ -13438,7 +13385,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3772332663203284E-2"/>
+          <c:y val="0.14529068284397051"/>
+          <c:w val="0.8757773891691335"/>
+          <c:h val="0.68077060572047576"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -13646,31 +13603,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>129.738</c:v>
+                  <c:v>130.29400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.53142857142799</c:v>
+                  <c:v>132.41999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.68100000000001</c:v>
+                  <c:v>154.40600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.65</c:v>
+                  <c:v>181.326666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.916666666666</c:v>
+                  <c:v>293.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195.03823529411699</c:v>
+                  <c:v>417.36176470588202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210.81299999999999</c:v>
+                  <c:v>605.86350000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221.59363636363599</c:v>
+                  <c:v>770.87545454545398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250.49</c:v>
+                  <c:v>1020.232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13796,6 +13753,378 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0F92-46DE-BAB8-8C9E9E7C08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$79:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$79:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>142.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.88714285714201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.52250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.06933333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241.022352941176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402.47800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504.80636363636302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>644.50480000000005</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0F92-46DE-BAB8-8C9E9E7C08D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$E$13:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>154.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.19285714285701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.57499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.986666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184.564705882352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.28399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>389.46409090908998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>535.29960000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C17-4298-926F-85BB2F82C78C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$E$35:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>141.69399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.58285714285699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.84083333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.701333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>344.20352941176401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>499.10199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>641.03136363636304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>812.03399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C17-4298-926F-85BB2F82C78C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13927,7 +14256,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -13968,7 +14297,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -14010,7 +14339,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$35:$E$43</c15:sqref>
@@ -14051,7 +14380,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0F92-46DE-BAB8-8C9E9E7C08D0}"/>
                   </c:ext>
@@ -14338,7 +14667,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$68</c15:sqref>
@@ -14385,7 +14714,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
@@ -14427,7 +14756,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$68:$E$76</c15:sqref>
@@ -14468,7 +14797,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0F92-46DE-BAB8-8C9E9E7C08D0}"/>
                   </c:ext>
@@ -14477,21 +14806,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="8"/>
+                <c:idx val="9"/>
+                <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
+                          <c15:sqref>'Dynamic Routing'!$A$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                        <c:v>Least Density Exponential Dynamic</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -14499,7 +14828,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent4">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -14512,13 +14841,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent4">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
+                        <a:schemeClr val="accent4">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -14531,7 +14860,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                          <c15:sqref>'Dynamic Routing'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -14573,7 +14902,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$E$79:$E$87</c15:sqref>
+                          <c15:sqref>'Dynamic Routing'!$E$24:$E$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -14581,31 +14910,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>142.81</c:v>
+                        <c:v>145.726</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>142.88714285714201</c:v>
+                        <c:v>142.49428571428501</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>144.136</c:v>
+                        <c:v>146.81800000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>147.52250000000001</c:v>
+                        <c:v>146.178333333333</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>170.06933333333299</c:v>
+                        <c:v>164.149333333333</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>241.022352941176</c:v>
+                        <c:v>191.44352941176399</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>402.47800000000001</c:v>
+                        <c:v>283.52699999999999</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>504.80636363636302</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>644.50480000000005</c:v>
+                        <c:v>451.035909090909</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14613,7 +14939,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-0F92-46DE-BAB8-8C9E9E7C08D0}"/>
+                    <c16:uniqueId val="{00000001-3C17-4298-926F-85BB2F82C78C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -14867,11 +15193,28 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.410918827046201E-2"/>
+          <c:y val="0.14688842601631732"/>
+          <c:w val="0.29649400653200991"/>
+          <c:h val="0.32066732751042698"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -15009,7 +15352,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13593123304247523"/>
+          <c:y val="0.21278340645302543"/>
+          <c:w val="0.83795477376888927"/>
+          <c:h val="0.61282960684211063"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -15334,31 +15687,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.8664515212683801</c:v>
+                  <c:v>2.5214328894678602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9942809588661801</c:v>
+                  <c:v>7.0440321939191897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.231565443805399</c:v>
+                  <c:v>24.731353179085101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.477747075532299</c:v>
+                  <c:v>47.9009298811091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.570783383377297</c:v>
+                  <c:v>142.375620462021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.665762278998301</c:v>
+                  <c:v>246.402280173881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.178395745032006</c:v>
+                  <c:v>455.18326684042103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.978992090832605</c:v>
+                  <c:v>577.01787474470405</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.853225957117</c:v>
+                  <c:v>772.022722196068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15367,6 +15720,372 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-05EB-4995-82EF-333C47033146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Exponential Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$24:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$G$24:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.3762210897989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2731343410865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.042962165926699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.5235251630327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.317048011871101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.719037667659201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.527778871031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.925591903602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD77-44F5-97E7-CA884A0CF3A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$G$13:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23.813147172430199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.319613825504899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.965720837947298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.9074076713128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.7805996836025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.6953687863396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.261529008618893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179.605022869598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>286.28011627669298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD77-44F5-97E7-CA884A0CF3A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$G$35:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11.6485390996405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0313073260906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.7992768584554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.559501556732702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.641514269022295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.20283256316699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288.01880153091599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>419.02656405616398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>553.10109675309002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD77-44F5-97E7-CA884A0CF3A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15498,7 +16217,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -15539,7 +16258,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -15581,7 +16300,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$35:$G$43</c15:sqref>
@@ -15622,7 +16341,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-05EB-4995-82EF-333C47033146}"/>
                   </c:ext>
@@ -15909,7 +16628,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$68</c15:sqref>
@@ -15956,7 +16675,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
@@ -15998,7 +16717,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$68:$G$76</c15:sqref>
@@ -16039,7 +16758,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-05EB-4995-82EF-333C47033146}"/>
                   </c:ext>
@@ -16052,7 +16771,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -16099,7 +16818,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -16141,7 +16860,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$79:$G$87</c15:sqref>
@@ -16182,7 +16901,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-05EB-4995-82EF-333C47033146}"/>
                   </c:ext>
@@ -16443,11 +17162,28 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13728708706119525"/>
+          <c:y val="0.21488345300430006"/>
+          <c:w val="0.29649400653200991"/>
+          <c:h val="0.32149374568250705"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -16585,7 +17321,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12023240726622923"/>
+          <c:y val="0.17203367138225029"/>
+          <c:w val="0.8524301840730808"/>
+          <c:h val="0.68697585354163804"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -16793,31 +17539,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.72038265920588</c:v>
+                  <c:v>10.3909853462609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.725401218732099</c:v>
+                  <c:v>37.807543211835302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.775482011267201</c:v>
+                  <c:v>155.292899818085</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.377145328727</c:v>
+                  <c:v>312.58580974340998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>232.531556346889</c:v>
+                  <c:v>895.71569114906595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>326.64930754356698</c:v>
+                  <c:v>1531.50387671098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>416.491534508538</c:v>
+                  <c:v>2593.1975773385502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>470.52718706991999</c:v>
+                  <c:v>3089.9356654256298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>593.47378464126098</c:v>
+                  <c:v>3686.4463556617202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16830,15 +17576,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$24</c:f>
+              <c:f>'berlin network'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Future Fastest</c:v>
+                  <c:v>Least Density</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -16847,7 +17593,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -16858,11 +17604,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -16870,7 +17616,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$24:$C$32</c:f>
+              <c:f>'berlin network'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -16907,21 +17653,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'street grid network'!$H$24:$H$32</c:f>
+              <c:f>'berlin network'!$H$13:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.2141827842095401</c:v>
+                  <c:v>154.441405704733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1418208400494601</c:v>
+                  <c:v>140.57598181859899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.34999337476496</c:v>
+                  <c:v>119.19418004165701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.3646552132123</c:v>
+                  <c:v>143.50813366851199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224.19026507915399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>593.33257892583595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1485.7195266184699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1755.1326417543701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2053.34658854692</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -16930,140 +17691,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0E97-4CEE-AC75-7038D3F53BA1}"/>
+              <c16:uniqueId val="{00000001-0E97-4CEE-AC75-7038D3F53BA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$57</c:f>
+              <c:f>'Dynamic Routing'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$57:$C$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$H$57:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>73.698146061323598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.441780227839701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64.969115820269494</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.346455151209199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>109.239457877646</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>605.94973743031198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1212.2854214389199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1692.4424968788201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2092.98008133451</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0E97-4CEE-AC75-7038D3F53BA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                  <c:v>Least Density Exponential Dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17071,7 +17712,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -17084,13 +17725,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent4">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -17100,7 +17741,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:f>'Dynamic Routing'!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -17136,36 +17777,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$H$68:$H$76</c:f>
+              <c:f>'Dynamic Routing'!$H$24:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>59.4940548219707</c:v>
+                  <c:v>54.196644574924399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.733397177379402</c:v>
+                  <c:v>54.313545030942997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.840510628653</c:v>
+                  <c:v>55.5245603473561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.794465335154698</c:v>
+                  <c:v>57.8748046748522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>119.263210138454</c:v>
+                  <c:v>133.93764701006299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>543.74639715964804</c:v>
+                  <c:v>265.65825140226099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1565.0969675999299</c:v>
+                  <c:v>602.06670893919102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1835.5957277591201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2316.60118520165</c:v>
+                  <c:v>1330.2188709632301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17173,20 +17811,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0E97-4CEE-AC75-7038D3F53BA1}"/>
+              <c16:uniqueId val="{00000000-B96C-4050-9A16-10D71B0A63A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="8"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$79</c:f>
+              <c:f>'Dynamic Routing'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                  <c:v>Least Density Dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17194,7 +17832,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -17207,13 +17845,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -17223,7 +17861,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$79:$C$87</c:f>
+              <c:f>'Dynamic Routing'!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -17259,30 +17897,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$H$79:$H$85</c:f>
+              <c:f>'Dynamic Routing'!$H$13:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>58.164694391207398</c:v>
+                  <c:v>126.139144939186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.530343107448601</c:v>
+                  <c:v>117.534749461377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.3367024167407</c:v>
+                  <c:v>81.603664546228302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.145738515387393</c:v>
+                  <c:v>98.138283222447896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.69689183117501</c:v>
+                  <c:v>154.328453091406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>593.57185563809401</c:v>
+                  <c:v>268.60896368373301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1575.01764311331</c:v>
+                  <c:v>487.22068341958601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1076.5604859433399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1503.15963063965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17290,7 +17934,130 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0E97-4CEE-AC75-7038D3F53BA1}"/>
+              <c16:uniqueId val="{00000001-B96C-4050-9A16-10D71B0A63A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$H$35:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>55.260983337025699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.629330453391702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.653148721874402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.56698246751699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>589.36744713522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>970.32745449884806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1528.0755132862701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2136.7627295223401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2630.1174519900201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B96C-4050-9A16-10D71B0A63A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17308,21 +18075,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="2"/>
+                <c:idx val="2"/>
+                <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$13</c15:sqref>
+                          <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density</c:v>
+                        <c:v>Future Fastest</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -17330,7 +18097,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent3"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -17341,11 +18108,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent3"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2"/>
+                        <a:schemeClr val="accent3"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -17356,7 +18123,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$13:$C$21</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -17398,7 +18165,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$H$13:$H$21</c15:sqref>
+                          <c15:sqref>'street grid network'!$H$24:$H$32</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -17406,31 +18173,16 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>154.441405704733</c:v>
+                        <c:v>1.2141827842095401</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>140.57598181859899</c:v>
+                        <c:v>1.1418208400494601</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>119.19418004165701</c:v>
+                        <c:v>2.34999337476496</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>143.50813366851199</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>224.19026507915399</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>593.33257892583595</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1485.7195266184699</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1755.1326417543701</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2053.34658854692</c:v>
+                        <c:v>14.3646552132123</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17438,7 +18190,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-0E97-4CEE-AC75-7038D3F53BA1}"/>
+                    <c16:uniqueId val="{00000005-0E97-4CEE-AC75-7038D3F53BA1}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -17449,7 +18201,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$36</c15:sqref>
@@ -17490,7 +18242,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -17532,7 +18284,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$35:$H$43</c15:sqref>
@@ -17573,7 +18325,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0E97-4CEE-AC75-7038D3F53BA1}"/>
                   </c:ext>
@@ -17713,6 +18465,423 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-0E97-4CEE-AC75-7038D3F53BA1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$H$57:$H$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>73.698146061323598</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>66.441780227839701</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>64.969115820269494</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>68.346455151209199</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>109.239457877646</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>605.94973743031198</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1212.2854214389199</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1692.4424968788201</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2092.98008133451</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-0E97-4CEE-AC75-7038D3F53BA1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$H$68:$H$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>59.4940548219707</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>54.733397177379402</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>56.840510628653</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>57.794465335154698</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>119.263210138454</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>543.74639715964804</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1565.0969675999299</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1835.5957277591201</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2316.60118520165</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-0E97-4CEE-AC75-7038D3F53BA1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$H$79:$H$85</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>58.164694391207398</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50.530343107448601</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50.3367024167407</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>68.145738515387393</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>150.69689183117501</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>593.57185563809401</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1575.01764311331</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-0E97-4CEE-AC75-7038D3F53BA1}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -17973,11 +19142,28 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12218223202259725"/>
+          <c:y val="0.17422882668948828"/>
+          <c:w val="0.31043318337323378"/>
+          <c:h val="0.32149374568250705"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -18819,10 +20005,140 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12023150563696362"/>
+          <c:y val="0.117769082162563"/>
+          <c:w val="0.85364329547240225"/>
+          <c:h val="0.7990240309501897"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0600-4938-9C9B-901D5B556195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -18937,369 +20253,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0600-4938-9C9B-901D5B556195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density With Road Length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$35:$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$I$35:$I$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>12.351925885319799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.868164046988801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6031803182073796</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.834336596393401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0011084160006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.2606817148947</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.510383953213401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.2433878466486</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.783850650198598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0600-4938-9C9B-901D5B556195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$68:$C$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$I$68:$I$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>14.0346628173623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5197922261946</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.5711381410669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.876769485533</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.8387280736462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.565785751345199</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.973304455914599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.9235825787464</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.3492944391585</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0600-4938-9C9B-901D5B556195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$79</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$79:$C$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$I$79:$I$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>11.8002729608952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.8622959029629</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9709616207268397</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.213047321682501</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.153373703720099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.1548264987678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4703016144363303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.479478546958401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.444159514271499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0600-4938-9C9B-901D5B556195}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19390,31 +20343,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-3.3619452017567497E-2</c:v>
+                  <c:v>-4.4013944103936303E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.42200313668533401</c:v>
+                  <c:v>-0.53845237511858701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.24558679074589</c:v>
+                  <c:v>-1.5921116258971399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.16584698412455</c:v>
+                  <c:v>1.3924932345387699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16763342395768299</c:v>
+                  <c:v>14.7582437460352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0757330412902999</c:v>
+                  <c:v>21.314793886511701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0937339773544998</c:v>
+                  <c:v>39.189432380731603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.365976786504986</c:v>
+                  <c:v>48.186784915574997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4898773972766399</c:v>
+                  <c:v>47.545687134056102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19423,6 +20376,372 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0600-4938-9C9B-901D5B556195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Exponential Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$24:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$I$24:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11.4780592170564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.2528251119864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.767169017600001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.615874362422501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.592151904631301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.954916352127899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.382411202286999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.989866146071599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDDC-4FE3-A6B1-AB5B7149FF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$I$13:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>21.6822733786797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.052645854510398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.733260155944301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.035139278070101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.331953882715901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.195838562080301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.902033613158999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.7490972370836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.616834248066901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDDC-4FE3-A6B1-AB5B7149FF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$I$35:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.7085231102703293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7182155442927698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.12909249151841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5488907705560901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.313131136740999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.831045951455799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.065684204758199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.599688867020902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.331012055711099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDDC-4FE3-A6B1-AB5B7149FF30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19440,149 +20759,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Dijkstra</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$2:$C$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$I$2:$I$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-0600-4938-9C9B-901D5B556195}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
@@ -19622,8 +20804,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
@@ -19664,8 +20846,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$24:$I$32</c15:sqref>
                         </c15:formulaRef>
@@ -19678,9 +20860,146 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-0600-4938-9C9B-901D5B556195}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density With Road Length</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$35:$I$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>12.351925885319799</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13.868164046988801</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.6031803182073796</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.834336596393401</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11.0011084160006</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12.2606817148947</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11.510383953213401</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15.2433878466486</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17.783850650198598</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-0600-4938-9C9B-901D5B556195}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -19955,6 +21274,292 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-0600-4938-9C9B-901D5B556195}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$68:$I$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>14.0346628173623</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12.5197922261946</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12.5711381410669</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.876769485533</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.8387280736462</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17.565785751345199</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15.973304455914599</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.9235825787464</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13.3492944391585</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-0600-4938-9C9B-901D5B556195}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$79:$I$87</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>11.8002729608952</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10.8622959029629</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.9709616207268397</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11.213047321682501</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14.153373703720099</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>19.1548264987678</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.4703016144363303</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12.479478546958401</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13.444159514271499</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-0600-4938-9C9B-901D5B556195}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -20127,7 +21732,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> % difference between actual time taken by the vehicle and the time taken if it had taken the shortest route (i,e, dijkstra) at that point</a:t>
+                  <a:t> % difference between actual time taken by the vehicle and the time taken if it had taken the most direct route (i.e. dijkstra) instead, while every other vehicle takes its intended route.</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -20213,11 +21818,28 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12136617712983894"/>
+          <c:y val="0.12169485991133872"/>
+          <c:w val="0.29662101156154147"/>
+          <c:h val="0.32149374568250705"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -20365,7 +21987,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13413690317204244"/>
+          <c:y val="0.17203367138225029"/>
+          <c:w val="0.83850895842904305"/>
+          <c:h val="0.68697585354163804"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -20604,15 +22236,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$35</c:f>
+              <c:f>'Dynamic Routing'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density With Road Length</c:v>
+                  <c:v>Dijkstra Dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20620,124 +22252,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$35:$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$J$35:$J$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>55.270493773401597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.081568004321298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.638744717965899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.681328235477693</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>129.72062948553099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>153.09332387072499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>152.14798619170301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>189.153889982338</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>215.773171915017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-96F3-4560-8552-187704AFA9D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -20750,13 +22265,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -20766,7 +22281,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:f>'Dynamic Routing'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -20802,36 +22317,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$J$68:$J$76</c:f>
+              <c:f>'Dynamic Routing'!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>55.472574979435201</c:v>
+                  <c:v>2.8169014084507001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.803505831912901</c:v>
+                  <c:v>2.5149048661616198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.834348550734902</c:v>
+                  <c:v>18.070355547669699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.799419477528801</c:v>
+                  <c:v>54.386615360870401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.244211847853705</c:v>
+                  <c:v>162.817424595907</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.11095183206101</c:v>
+                  <c:v>230.81035845628901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>217.94222931623199</c:v>
+                  <c:v>427.71006951747597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.65203861082401</c:v>
+                  <c:v>615.92848187815696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>248.98640711184899</c:v>
+                  <c:v>637.88472961288505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20839,20 +22354,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-96F3-4560-8552-187704AFA9D4}"/>
+              <c16:uniqueId val="{00000001-D763-4EDE-AC83-DEA4BC8B0BFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$79</c:f>
+              <c:f>'Dynamic Routing'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                  <c:v>Least Density Exponential Dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20860,7 +22375,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -20873,13 +22388,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent4">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -20889,7 +22404,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$79:$C$87</c:f>
+              <c:f>'Dynamic Routing'!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -20925,30 +22440,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$J$79:$J$85</c:f>
+              <c:f>'Dynamic Routing'!$J$24:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>54.165796042769401</c:v>
+                  <c:v>50.7457407384587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.018360182322702</c:v>
+                  <c:v>50.797766709476797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.378186238380202</c:v>
+                  <c:v>51.194722234543299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.020673116199703</c:v>
+                  <c:v>51.944278249561201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.089147645278103</c:v>
+                  <c:v>118.642120530748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172.81294661224001</c:v>
+                  <c:v>146.43377658308199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176.22230013319901</c:v>
+                  <c:v>188.77549996077099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>435.247843228477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20956,7 +22474,253 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-96F3-4560-8552-187704AFA9D4}"/>
+              <c16:uniqueId val="{00000003-D763-4EDE-AC83-DEA4BC8B0BFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$J$13:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>120.812450660625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.841833751791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.901166280933694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.461845661934603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.91715864900399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138.18483574153501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166.469004260503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>326.53432535056402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>543.16529078783697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D763-4EDE-AC83-DEA4BC8B0BFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dynamic Routing'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dynamic Routing'!$J$35:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50.913666926727899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.400039371624899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.693508630579302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.865285098860703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.865699578901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.103332261231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.90030532939602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>508.40528602049199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>514.52287546172204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D763-4EDE-AC83-DEA4BC8B0BFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21084,6 +22848,143 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density With Road Length</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$J$35:$J$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>55.270493773401597</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>62.081568004321298</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>59.638744717965899</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>97.681328235477693</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>129.72062948553099</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>153.09332387072499</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>152.14798619170301</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>189.153889982338</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>215.773171915017</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-96F3-4560-8552-187704AFA9D4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -21352,6 +23253,286 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-96F3-4560-8552-187704AFA9D4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$J$68:$J$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>55.472574979435201</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50.803505831912901</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>51.834348550734902</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>49.799419477528801</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>70.244211847853705</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>160.11095183206101</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>217.94222931623199</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>191.65203861082401</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>248.98640711184899</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-96F3-4560-8552-187704AFA9D4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$J$79:$J$85</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>54.165796042769401</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>47.018360182322702</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45.378186238380202</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>53.020673116199703</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>91.089147645278103</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>172.81294661224001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>176.22230013319901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-96F3-4560-8552-187704AFA9D4}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -21611,11 +23792,28 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13467123936509295"/>
+          <c:y val="0.17244295033873644"/>
+          <c:w val="0.3106228571192885"/>
+          <c:h val="0.32149374568250705"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -24630,6 +26828,126 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>131.04599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.194285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.09899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.51249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>405.07533333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>723.97699999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941.29750000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1118.3344999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-649E-4C86-91A6-F0F3EF160DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -24743,6 +27061,132 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-649E-4C86-91A6-F0F3EF160DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$68:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>149.178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148.29583333333301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165.64599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>237.45588235294099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402.03300000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>501.29590909090899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>656.39400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-802F-47AB-9825-D672D49078BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24856,6 +27300,9 @@
                 <c:pt idx="7">
                   <c:v>493.29</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>657.21479999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -24880,149 +27327,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Dijkstra</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$2:$C$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$E$2:$E$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>131.04599999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>171.194285714285</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>251.09899999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>278.51249999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>405.07533333333299</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>507.43</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>723.97699999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>941.29750000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1118.3344999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-649E-4C86-91A6-F0F3EF160DEA}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
@@ -25062,8 +27372,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
@@ -25104,8 +27414,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$24:$E$32</c15:sqref>
                         </c15:formulaRef>
@@ -25118,7 +27428,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-649E-4C86-91A6-F0F3EF160DEA}"/>
                   </c:ext>
@@ -25131,7 +27441,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -25172,7 +27482,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -25214,7 +27524,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$35:$E$43</c15:sqref>
@@ -25255,7 +27565,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-802F-47AB-9825-D672D49078BB}"/>
                   </c:ext>
@@ -25268,7 +27578,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$46</c15:sqref>
@@ -25309,7 +27619,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$46:$C$54</c15:sqref>
@@ -25351,7 +27661,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$46:$E$54</c15:sqref>
@@ -25392,7 +27702,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-802F-47AB-9825-D672D49078BB}"/>
                   </c:ext>
@@ -25405,7 +27715,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$57</c15:sqref>
@@ -25446,7 +27756,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
@@ -25488,7 +27798,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$57:$E$65</c15:sqref>
@@ -25529,152 +27839,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-802F-47AB-9825-D672D49078BB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$E$68:$E$76</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>149.178</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>144.31</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>147.589</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>148.29583333333301</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>165.64599999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>237.45588235294099</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>402.03300000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>501.29590909090899</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>656.39400000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-802F-47AB-9825-D672D49078BB}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -25685,7 +27852,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -25732,7 +27899,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -25774,7 +27941,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$E$79:$E$87</c15:sqref>
@@ -25815,7 +27982,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2433-4B4D-BEC7-71C94FFCA5EF}"/>
                   </c:ext>
@@ -26218,6 +28385,126 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3610893259096999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.009543626923801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.660962432794605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.16405507473701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.727401614418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327.79608604519399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>564.62739860481304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>856.05754318139498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1115.66363643919</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E7C-4480-9872-9C1A05C41F7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -26444,6 +28731,9 @@
                 <c:pt idx="7">
                   <c:v>281.10889136879501</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>427.46537427185302</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -26468,149 +28758,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Dijkstra</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$2:$C$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$G$2:$G$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>3.3610893259096999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>31.009543626923801</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>84.660962432794605</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>117.16405507473701</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>254.727401614418</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>327.79608604519399</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>564.62739860481304</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>856.05754318139498</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1115.66363643919</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2E7C-4480-9872-9C1A05C41F7B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
@@ -26650,8 +28803,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
@@ -26692,8 +28845,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$24:$G$32</c15:sqref>
                         </c15:formulaRef>
@@ -26706,7 +28859,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2E7C-4480-9872-9C1A05C41F7B}"/>
                   </c:ext>
@@ -26719,7 +28872,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -26760,7 +28913,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -26802,7 +28955,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$35:$G$43</c15:sqref>
@@ -26843,7 +28996,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1437-4D4D-8D67-9420380C9DCC}"/>
                   </c:ext>
@@ -26856,7 +29009,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$46</c15:sqref>
@@ -26897,7 +29050,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$46:$C$54</c15:sqref>
@@ -26939,7 +29092,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$46:$G$54</c15:sqref>
@@ -26980,7 +29133,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-1437-4D4D-8D67-9420380C9DCC}"/>
                   </c:ext>
@@ -26993,7 +29146,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$57</c15:sqref>
@@ -27034,7 +29187,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
@@ -27076,7 +29229,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$57:$G$65</c15:sqref>
@@ -27117,7 +29270,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1437-4D4D-8D67-9420380C9DCC}"/>
                   </c:ext>
@@ -27130,7 +29283,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$68</c15:sqref>
@@ -27177,7 +29330,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
@@ -27219,7 +29372,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$68:$G$76</c15:sqref>
@@ -27260,7 +29413,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1437-4D4D-8D67-9420380C9DCC}"/>
                   </c:ext>
@@ -27273,7 +29426,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -27320,7 +29473,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -27362,7 +29515,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$G$79:$G$87</c15:sqref>
@@ -27403,7 +29556,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-5913-48AC-AD4B-756873CC51FB}"/>
                   </c:ext>
@@ -28037,6 +30190,9 @@
                 <c:pt idx="7">
                   <c:v>1585.9071328939499</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2183.0763514474202</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -28324,7 +30480,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$36</c15:sqref>
@@ -28365,7 +30521,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -28407,7 +30563,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$35:$H$43</c15:sqref>
@@ -28448,7 +30604,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2E7E-4E8C-8312-C6541C47E1EA}"/>
                   </c:ext>
@@ -28461,7 +30617,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$46</c15:sqref>
@@ -28502,7 +30658,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$46:$C$54</c15:sqref>
@@ -28544,7 +30700,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$46:$H$54</c15:sqref>
@@ -28585,7 +30741,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2E7E-4E8C-8312-C6541C47E1EA}"/>
                   </c:ext>
@@ -28598,7 +30754,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$57</c15:sqref>
@@ -28639,7 +30795,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
@@ -28681,7 +30837,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$57:$H$65</c15:sqref>
@@ -28722,7 +30878,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2E7E-4E8C-8312-C6541C47E1EA}"/>
                   </c:ext>
@@ -28735,7 +30891,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$68</c15:sqref>
@@ -28782,7 +30938,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
@@ -28824,7 +30980,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$68:$H$76</c15:sqref>
@@ -28865,7 +31021,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-2E7E-4E8C-8312-C6541C47E1EA}"/>
                   </c:ext>
@@ -28878,7 +31034,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -28925,7 +31081,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -28967,7 +31123,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$79:$H$85</c15:sqref>
@@ -29002,7 +31158,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F5D9-479E-B940-E5F4C21721E7}"/>
                   </c:ext>
@@ -41634,14 +43790,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3573</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41671,15 +43827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>184547</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>179786</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>2789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41708,16 +43864,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>34177</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>184547</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100851</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>179786</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1029072</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>2789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41748,14 +43904,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>184547</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>34945</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>179786</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101620</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>2789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41784,16 +43940,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>184547</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>179786</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>2789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43100,8 +45256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4999D6-517F-4343-8429-347E88848D05}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P140" sqref="P140"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46310,6 +48466,30 @@
       <c r="C98" s="1">
         <f t="shared" si="50"/>
         <v>2500</v>
+      </c>
+      <c r="D98">
+        <v>3.2950688268127801</v>
+      </c>
+      <c r="E98">
+        <v>657.21479999999997</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>427.46537427185302</v>
+      </c>
+      <c r="H98">
+        <v>2183.0763514474202</v>
+      </c>
+      <c r="I98">
+        <v>10.585617584030301</v>
+      </c>
+      <c r="J98">
+        <v>219.787110439342</v>
+      </c>
+      <c r="K98">
+        <v>17496.028122084699</v>
       </c>
     </row>
   </sheetData>
@@ -50526,15 +52706,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E2C11F-CA57-4EBD-8C9F-D11423BEE4D9}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -50584,28 +52766,28 @@
         <v>500</v>
       </c>
       <c r="D2">
-        <v>13.910342382339699</v>
+        <v>13.8525181512579</v>
       </c>
       <c r="E2">
-        <v>129.738</v>
+        <v>130.29400000000001</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.8664515212683801</v>
+        <v>2.5214328894678602</v>
       </c>
       <c r="H2">
-        <v>5.72038265920588</v>
+        <v>10.3909853462609</v>
       </c>
       <c r="I2">
-        <v>-3.3619452017567497E-2</v>
+        <v>-4.4013944103936303E-2</v>
       </c>
       <c r="J2">
-        <v>6.3623432044484604E-2</v>
+        <v>2.8169014084507001E-2</v>
       </c>
       <c r="K2">
-        <v>236.019952999997</v>
+        <v>183.26506900000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -50620,28 +52802,28 @@
         <v>700</v>
       </c>
       <c r="D3">
-        <v>13.6402836755242</v>
+        <v>13.533885688393999</v>
       </c>
       <c r="E3">
-        <v>130.53142857142799</v>
+        <v>132.41999999999999</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.9942809588661801</v>
+        <v>7.0440321939191897</v>
       </c>
       <c r="H3">
-        <v>27.725401218732099</v>
+        <v>37.807543211835302</v>
       </c>
       <c r="I3">
-        <v>-0.42200313668533401</v>
+        <v>-0.53845237511858701</v>
       </c>
       <c r="J3">
-        <v>1.2800296873293699</v>
+        <v>2.5149048661616198</v>
       </c>
       <c r="K3">
-        <v>205.365557999999</v>
+        <v>179.11317899999801</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -50656,28 +52838,28 @@
         <v>1000</v>
       </c>
       <c r="D4">
-        <v>13.2094672731477</v>
+        <v>12.7926375918034</v>
       </c>
       <c r="E4">
-        <v>142.68100000000001</v>
+        <v>154.40600000000001</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.231565443805399</v>
+        <v>24.731353179085101</v>
       </c>
       <c r="H4">
-        <v>63.775482011267201</v>
+        <v>155.292899818085</v>
       </c>
       <c r="I4">
-        <v>-1.24558679074589</v>
+        <v>-1.5921116258971399</v>
       </c>
       <c r="J4">
-        <v>9.2752757928863794</v>
+        <v>18.070355547669699</v>
       </c>
       <c r="K4">
-        <v>398.06420500002503</v>
+        <v>339.13668900001602</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -50692,28 +52874,28 @@
         <v>1200</v>
       </c>
       <c r="D5">
-        <v>12.811281879941999</v>
+        <v>11.843174381411</v>
       </c>
       <c r="E5">
-        <v>149.65</v>
+        <v>181.326666666666</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.477747075532299</v>
+        <v>47.9009298811091</v>
       </c>
       <c r="H5">
-        <v>119.377145328727</v>
+        <v>312.58580974340998</v>
       </c>
       <c r="I5">
-        <v>-1.16584698412455</v>
+        <v>1.3924932345387699</v>
       </c>
       <c r="J5">
-        <v>11.6755704026864</v>
+        <v>54.386615360870401</v>
       </c>
       <c r="K5">
-        <v>512.47301800002595</v>
+        <v>1620.3114660015201</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -50728,28 +52910,28 @@
         <v>1500</v>
       </c>
       <c r="D6">
-        <v>11.667896955503499</v>
+        <v>8.4349504860543298</v>
       </c>
       <c r="E6">
-        <v>177.916666666666</v>
+        <v>293.52</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.570783383377297</v>
+        <v>142.375620462021</v>
       </c>
       <c r="H6">
-        <v>232.531556346889</v>
+        <v>895.71569114906595</v>
       </c>
       <c r="I6">
-        <v>0.16763342395768299</v>
+        <v>14.7582437460352</v>
       </c>
       <c r="J6">
-        <v>46.560936666795499</v>
+        <v>162.817424595907</v>
       </c>
       <c r="K6">
-        <v>753.32599200001005</v>
+        <v>10018.074360004201</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -50764,28 +52946,28 @@
         <v>1700</v>
       </c>
       <c r="D7">
-        <v>11.029541718818299</v>
+        <v>6.37680669189516</v>
       </c>
       <c r="E7">
-        <v>195.03823529411699</v>
+        <v>417.36176470588202</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.665762278998301</v>
+        <v>246.402280173881</v>
       </c>
       <c r="H7">
-        <v>326.64930754356698</v>
+        <v>1531.50387671098</v>
       </c>
       <c r="I7">
-        <v>1.0757330412902999</v>
+        <v>21.314793886511701</v>
       </c>
       <c r="J7">
-        <v>66.534990251050402</v>
+        <v>230.81035845628901</v>
       </c>
       <c r="K7">
-        <v>1147.9507690000501</v>
+        <v>13819.062058010801</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -50800,28 +52982,28 @@
         <v>2000</v>
       </c>
       <c r="D8">
-        <v>10.154236218829</v>
+        <v>4.6572866660559598</v>
       </c>
       <c r="E8">
-        <v>210.81299999999999</v>
+        <v>605.86350000000004</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.178395745032006</v>
+        <v>455.18326684042103</v>
       </c>
       <c r="H8">
-        <v>416.491534508538</v>
+        <v>2593.1975773385502</v>
       </c>
       <c r="I8">
-        <v>2.0937339773544998</v>
+        <v>39.189432380731603</v>
       </c>
       <c r="J8">
-        <v>108.907939148404</v>
+        <v>427.71006951747597</v>
       </c>
       <c r="K8">
-        <v>1461.5957799999601</v>
+        <v>20445.3042579598</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -50836,28 +53018,28 @@
         <v>2200</v>
       </c>
       <c r="D9">
-        <v>9.6903832978465907</v>
+        <v>3.99708477846321</v>
       </c>
       <c r="E9">
-        <v>221.59363636363599</v>
+        <v>770.87545454545398</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.978992090832605</v>
+        <v>577.01787474470405</v>
       </c>
       <c r="H9">
-        <v>470.52718706991999</v>
+        <v>3089.9356654256298</v>
       </c>
       <c r="I9">
-        <v>0.365976786504986</v>
+        <v>48.186784915574997</v>
       </c>
       <c r="J9">
-        <v>99.371319561241705</v>
+        <v>615.92848187815696</v>
       </c>
       <c r="K9">
-        <v>2461.7511669988698</v>
+        <v>32276.492596921398</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -50872,28 +53054,1081 @@
         <v>2500</v>
       </c>
       <c r="D10">
-        <v>8.6924667651403205</v>
+        <v>2.9601855264292798</v>
       </c>
       <c r="E10">
-        <v>250.49</v>
+        <v>1020.232</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>100.853225957117</v>
+        <v>772.022722196068</v>
       </c>
       <c r="H10">
-        <v>593.47378464126098</v>
+        <v>3686.4463556617202</v>
       </c>
       <c r="I10">
-        <v>8.4898773972766399</v>
+        <v>47.545687134056102</v>
       </c>
       <c r="J10">
-        <v>183.01176970250299</v>
+        <v>637.88472961288505</v>
       </c>
       <c r="K10">
-        <v>3221.3105450048702</v>
+        <v>41820.123435077898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13" s="1">
+        <f>(B13/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>13.9483447488584</v>
+      </c>
+      <c r="E13">
+        <v>154.17599999999999</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.813147172430199</v>
+      </c>
+      <c r="H13">
+        <v>126.139144939186</v>
+      </c>
+      <c r="I13">
+        <v>21.6822733786797</v>
+      </c>
+      <c r="J13">
+        <v>120.812450660625</v>
+      </c>
+      <c r="K13">
+        <v>176.357246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>3750</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(B14/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D14">
+        <v>13.9470204974556</v>
+      </c>
+      <c r="E14">
+        <v>150.19285714285701</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>23.319613825504899</v>
+      </c>
+      <c r="H14">
+        <v>117.534749461377</v>
+      </c>
+      <c r="I14">
+        <v>21.052645854510398</v>
+      </c>
+      <c r="J14">
+        <v>111.841833751791</v>
+      </c>
+      <c r="K14">
+        <v>267.73424899999901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="1">
+        <f>(B15/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>13.9397482313083</v>
+      </c>
+      <c r="E15">
+        <v>150.535</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.965720837947298</v>
+      </c>
+      <c r="H15">
+        <v>81.603664546228302</v>
+      </c>
+      <c r="I15">
+        <v>15.733260155944301</v>
+      </c>
+      <c r="J15">
+        <v>76.901166280933694</v>
+      </c>
+      <c r="K15">
+        <v>303.300079000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>6250</v>
+      </c>
+      <c r="C16" s="1">
+        <f>(B16/5)-50</f>
+        <v>1200</v>
+      </c>
+      <c r="D16">
+        <v>13.9011086968633</v>
+      </c>
+      <c r="E16">
+        <v>149.57499999999999</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.9074076713128</v>
+      </c>
+      <c r="H16">
+        <v>98.138283222447896</v>
+      </c>
+      <c r="I16">
+        <v>17.035139278070101</v>
+      </c>
+      <c r="J16">
+        <v>90.461845661934603</v>
+      </c>
+      <c r="K16">
+        <v>307.99071200000799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>7500</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C19" si="1">(B17/5)</f>
+        <v>1500</v>
+      </c>
+      <c r="D17">
+        <v>12.978689463350699</v>
+      </c>
+      <c r="E17">
+        <v>162.986666666666</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>27.7805996836025</v>
+      </c>
+      <c r="H17">
+        <v>154.328453091406</v>
+      </c>
+      <c r="I17">
+        <v>21.331953882715901</v>
+      </c>
+      <c r="J17">
+        <v>132.91715864900399</v>
+      </c>
+      <c r="K17">
+        <v>2692.6343049968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>8750</v>
+      </c>
+      <c r="C18" s="1">
+        <f>(B18/5)-50</f>
+        <v>1700</v>
+      </c>
+      <c r="D18">
+        <v>11.627836562978001</v>
+      </c>
+      <c r="E18">
+        <v>184.564705882352</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>42.6953687863396</v>
+      </c>
+      <c r="H18">
+        <v>268.60896368373301</v>
+      </c>
+      <c r="I18">
+        <v>20.195838562080301</v>
+      </c>
+      <c r="J18">
+        <v>138.18483574153501</v>
+      </c>
+      <c r="K18">
+        <v>6913.1807560167899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:C21" si="2">(B19/5)</f>
+        <v>2000</v>
+      </c>
+      <c r="D19">
+        <v>9.1999074239495808</v>
+      </c>
+      <c r="E19">
+        <v>246.28399999999999</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.261529008618893</v>
+      </c>
+      <c r="H19">
+        <v>487.22068341958601</v>
+      </c>
+      <c r="I19">
+        <v>20.902033613158999</v>
+      </c>
+      <c r="J19">
+        <v>166.469004260503</v>
+      </c>
+      <c r="K19">
+        <v>11956.979658042001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C20" s="1">
+        <f>(B20/5)-50</f>
+        <v>2200</v>
+      </c>
+      <c r="D20">
+        <v>6.1625473698707198</v>
+      </c>
+      <c r="E20">
+        <v>389.46409090908998</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>179.605022869598</v>
+      </c>
+      <c r="H20">
+        <v>1076.5604859433399</v>
+      </c>
+      <c r="I20">
+        <v>31.7490972370836</v>
+      </c>
+      <c r="J20">
+        <v>326.53432535056402</v>
+      </c>
+      <c r="K20">
+        <v>21165.252673233601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C21" s="1">
+        <f>(B21/5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D21">
+        <v>4.8329421505265397</v>
+      </c>
+      <c r="E21">
+        <v>535.29960000000005</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>286.28011627669298</v>
+      </c>
+      <c r="H21">
+        <v>1503.15963063965</v>
+      </c>
+      <c r="I21">
+        <v>55.616834248066901</v>
+      </c>
+      <c r="J21">
+        <v>543.16529078783697</v>
+      </c>
+      <c r="K21">
+        <v>35356.2678138345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>2500</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(B24/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D24">
+        <v>13.946172954723201</v>
+      </c>
+      <c r="E24">
+        <v>145.726</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.3762210897989</v>
+      </c>
+      <c r="H24">
+        <v>54.196644574924399</v>
+      </c>
+      <c r="I24">
+        <v>11.4780592170564</v>
+      </c>
+      <c r="J24">
+        <v>50.7457407384587</v>
+      </c>
+      <c r="K24">
+        <v>181.95143799999599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>3750</v>
+      </c>
+      <c r="C25" s="1">
+        <f>(B25/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D25">
+        <v>13.9448198423996</v>
+      </c>
+      <c r="E25">
+        <v>142.49428571428501</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.2731343410865</v>
+      </c>
+      <c r="H25">
+        <v>54.313545030942997</v>
+      </c>
+      <c r="I25">
+        <v>11.2528251119864</v>
+      </c>
+      <c r="J25">
+        <v>50.797766709476797</v>
+      </c>
+      <c r="K25">
+        <v>177.22796499999799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="1">
+        <f>(B26/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>13.9032679916631</v>
+      </c>
+      <c r="E26">
+        <v>146.81800000000001</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.042962165926699</v>
+      </c>
+      <c r="H26">
+        <v>55.5245603473561</v>
+      </c>
+      <c r="I26">
+        <v>11.767169017600001</v>
+      </c>
+      <c r="J26">
+        <v>51.194722234543299</v>
+      </c>
+      <c r="K26">
+        <v>251.00209199999401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>6250</v>
+      </c>
+      <c r="C27" s="1">
+        <f>(B27/5)-50</f>
+        <v>1200</v>
+      </c>
+      <c r="D27">
+        <v>13.813321627692201</v>
+      </c>
+      <c r="E27">
+        <v>146.178333333333</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.5235251630327</v>
+      </c>
+      <c r="H27">
+        <v>57.8748046748522</v>
+      </c>
+      <c r="I27">
+        <v>11.615874362422501</v>
+      </c>
+      <c r="J27">
+        <v>51.944278249561201</v>
+      </c>
+      <c r="K27">
+        <v>296.87930300001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7500</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C30" si="3">(B28/5)</f>
+        <v>1500</v>
+      </c>
+      <c r="D28">
+        <v>12.5594986678796</v>
+      </c>
+      <c r="E28">
+        <v>164.149333333333</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24.317048011871101</v>
+      </c>
+      <c r="H28">
+        <v>133.93764701006299</v>
+      </c>
+      <c r="I28">
+        <v>18.592151904631301</v>
+      </c>
+      <c r="J28">
+        <v>118.642120530748</v>
+      </c>
+      <c r="K28">
+        <v>1326.8430340038401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>8750</v>
+      </c>
+      <c r="C29" s="1">
+        <f>(B29/5)-50</f>
+        <v>1700</v>
+      </c>
+      <c r="D29">
+        <v>11.001923466910799</v>
+      </c>
+      <c r="E29">
+        <v>191.44352941176399</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>42.719037667659201</v>
+      </c>
+      <c r="H29">
+        <v>265.65825140226099</v>
+      </c>
+      <c r="I29">
+        <v>20.954916352127899</v>
+      </c>
+      <c r="J29">
+        <v>146.43377658308199</v>
+      </c>
+      <c r="K29">
+        <v>5248.1178090008998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:C32" si="4">(B30/5)</f>
+        <v>2000</v>
+      </c>
+      <c r="D30">
+        <v>8.2270824295393297</v>
+      </c>
+      <c r="E30">
+        <v>283.52699999999999</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>103.527778871031</v>
+      </c>
+      <c r="H30">
+        <v>602.06670893919102</v>
+      </c>
+      <c r="I30">
+        <v>22.382411202286999</v>
+      </c>
+      <c r="J30">
+        <v>188.77549996077099</v>
+      </c>
+      <c r="K30">
+        <v>10108.775291018599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C31" s="1">
+        <f>(B31/5)-50</f>
+        <v>2200</v>
+      </c>
+      <c r="D31">
+        <v>5.4670813349874301</v>
+      </c>
+      <c r="E31">
+        <v>451.035909090909</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>227.925591903602</v>
+      </c>
+      <c r="H31">
+        <v>1330.2188709632301</v>
+      </c>
+      <c r="I31">
+        <v>42.989866146071599</v>
+      </c>
+      <c r="J31">
+        <v>435.247843228477</v>
+      </c>
+      <c r="K31">
+        <v>22175.854385254901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C32" s="1">
+        <f>(B32/5)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>2500</v>
+      </c>
+      <c r="C35" s="1">
+        <f>(B35/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D35">
+        <v>13.9427216395895</v>
+      </c>
+      <c r="E35">
+        <v>141.69399999999999</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11.6485390996405</v>
+      </c>
+      <c r="H35">
+        <v>55.260983337025699</v>
+      </c>
+      <c r="I35">
+        <v>9.7085231102703293</v>
+      </c>
+      <c r="J35">
+        <v>50.913666926727899</v>
+      </c>
+      <c r="K35">
+        <v>180.42445299999801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>3750</v>
+      </c>
+      <c r="C36" s="1">
+        <f>(B36/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D36">
+        <v>13.915965693551</v>
+      </c>
+      <c r="E36">
+        <v>138.58285714285699</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.0313073260906</v>
+      </c>
+      <c r="H36">
+        <v>56.629330453391702</v>
+      </c>
+      <c r="I36">
+        <v>9.7182155442927698</v>
+      </c>
+      <c r="J36">
+        <v>52.400039371624899</v>
+      </c>
+      <c r="K36">
+        <v>169.289436999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37" s="1">
+        <f>(B37/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>13.392210994666099</v>
+      </c>
+      <c r="E37">
+        <v>149.23599999999999</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16.7992768584554</v>
+      </c>
+      <c r="H37">
+        <v>81.653148721874402</v>
+      </c>
+      <c r="I37">
+        <v>5.12909249151841</v>
+      </c>
+      <c r="J37">
+        <v>44.693508630579302</v>
+      </c>
+      <c r="K37">
+        <v>347.39580599999499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>6250</v>
+      </c>
+      <c r="C38" s="1">
+        <f>(B38/5)-50</f>
+        <v>1200</v>
+      </c>
+      <c r="D38">
+        <v>12.8184584648497</v>
+      </c>
+      <c r="E38">
+        <v>161.84083333333299</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>25.559501556732702</v>
+      </c>
+      <c r="H38">
+        <v>139.56698246751699</v>
+      </c>
+      <c r="I38">
+        <v>5.5488907705560901</v>
+      </c>
+      <c r="J38">
+        <v>61.865285098860703</v>
+      </c>
+      <c r="K38">
+        <v>1476.30746200058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>7500</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:C41" si="5">(B39/5)</f>
+        <v>1500</v>
+      </c>
+      <c r="D39">
+        <v>9.5934870709369893</v>
+      </c>
+      <c r="E39">
+        <v>250.701333333333</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>88.641514269022295</v>
+      </c>
+      <c r="H39">
+        <v>589.36744713522</v>
+      </c>
+      <c r="I39">
+        <v>17.313131136740999</v>
+      </c>
+      <c r="J39">
+        <v>186.865699578901</v>
+      </c>
+      <c r="K39">
+        <v>5802.2907790035697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>8750</v>
+      </c>
+      <c r="C40" s="1">
+        <f>(B40/5)-50</f>
+        <v>1700</v>
+      </c>
+      <c r="D40">
+        <v>7.4481240579274202</v>
+      </c>
+      <c r="E40">
+        <v>344.20352941176401</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>162.20283256316699</v>
+      </c>
+      <c r="H40">
+        <v>970.32745449884806</v>
+      </c>
+      <c r="I40">
+        <v>20.831045951455799</v>
+      </c>
+      <c r="J40">
+        <v>217.103332261231</v>
+      </c>
+      <c r="K40">
+        <v>13575.689655021401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C43" si="6">(B41/5)</f>
+        <v>2000</v>
+      </c>
+      <c r="D41">
+        <v>6.0127488970190397</v>
+      </c>
+      <c r="E41">
+        <v>499.10199999999998</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>288.01880153091599</v>
+      </c>
+      <c r="H41">
+        <v>1528.0755132862701</v>
+      </c>
+      <c r="I41">
+        <v>43.065684204758199</v>
+      </c>
+      <c r="J41">
+        <v>436.90030532939602</v>
+      </c>
+      <c r="K41">
+        <v>19460.414437163799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C42" s="1">
+        <f>(B42/5)-50</f>
+        <v>2200</v>
+      </c>
+      <c r="D42">
+        <v>4.9314492483348902</v>
+      </c>
+      <c r="E42">
+        <v>641.03136363636304</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>419.02656405616398</v>
+      </c>
+      <c r="H42">
+        <v>2136.7627295223401</v>
+      </c>
+      <c r="I42">
+        <v>53.599688867020902</v>
+      </c>
+      <c r="J42">
+        <v>508.40528602049199</v>
+      </c>
+      <c r="K42">
+        <v>31228.868135813598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C43" s="1">
+        <f>(B43/5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D43">
+        <v>3.7952745820987701</v>
+      </c>
+      <c r="E43">
+        <v>812.03399999999999</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>553.10109675309002</v>
+      </c>
+      <c r="H43">
+        <v>2630.1174519900201</v>
+      </c>
+      <c r="I43">
+        <v>58.331012055711099</v>
+      </c>
+      <c r="J43">
+        <v>514.52287546172204</v>
+      </c>
+      <c r="K43">
+        <v>40290.836990350697</v>
       </c>
     </row>
   </sheetData>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB937048-6A27-4D44-BCA7-008E8A95A1B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4DA630-DA37-469E-9CB5-72D4139233F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="3" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
   <sheets>
     <sheet name="street grid network" sheetId="1" r:id="rId1"/>
     <sheet name="berlin network" sheetId="2" r:id="rId2"/>
     <sheet name="safety parameter" sheetId="3" r:id="rId3"/>
     <sheet name="Dynamic Routing" sheetId="4" r:id="rId4"/>
+    <sheet name="Long Term" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="41">
   <si>
     <t>routing type</t>
   </si>
@@ -124,6 +125,39 @@
   <si>
     <t>Least Density w/ Road Length Dynamic</t>
   </si>
+  <si>
+    <t>number of trips</t>
+  </si>
+  <si>
+    <t>avg unfairness</t>
+  </si>
+  <si>
+    <t>avg unfairness 10%</t>
+  </si>
+  <si>
+    <t>avg worst trip</t>
+  </si>
+  <si>
+    <t>avg dijDiff Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infinity</t>
+  </si>
+  <si>
+    <t>Least Density w/ Road Length</t>
+  </si>
+  <si>
+    <t>avg unfairness normalised</t>
+  </si>
+  <si>
+    <t>avg unfairness 10% normalised</t>
+  </si>
+  <si>
+    <t>unfairness equation:</t>
+  </si>
+  <si>
+    <t>1 + e^-0.7(unfairness/avgUnfairness)</t>
+  </si>
 </sst>
 </file>
 
@@ -132,10 +166,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,10 +202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,126 +1027,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dijkstra</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$I$2:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-935A-4F31-A877-FAC871790277}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1346,23 +1270,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$90</c:f>
+              <c:f>'berlin network'!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential</c:v>
+                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1375,13 +1300,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1391,7 +1316,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$90:$C$98</c:f>
+              <c:f>'berlin network'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1423,48 +1348,50 @@
                   <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$I$90:$I$98</c:f>
+              <c:f>'berlin network'!$I$79:$I$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.4223972841222</c:v>
+                  <c:v>11.8002729608952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.339816353859201</c:v>
+                  <c:v>10.8622959029629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.8583194180082</c:v>
+                  <c:v>9.9709616207268397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.5258647039013</c:v>
+                  <c:v>11.213047321682501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.1477325520019</c:v>
+                  <c:v>14.153373703720099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.6961488382402</c:v>
+                  <c:v>19.1548264987678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.059664954352002</c:v>
+                  <c:v>9.4703016144363303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.395635589274701</c:v>
+                  <c:v>12.479478546958401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.585617584030301</c:v>
+                  <c:v>13.444159514271499</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CE9-4BF4-85C5-54AD584FAFFA}"/>
+              <c16:uniqueId val="{00000000-5CE9-4BF4-85C5-54AD584FAFFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1482,12 +1409,149 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Dijkstra</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$2:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$2:$I$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-935A-4F31-A877-FAC871790277}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
@@ -1527,8 +1591,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
@@ -1569,8 +1633,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$24:$I$32</c15:sqref>
                         </c15:formulaRef>
@@ -1583,7 +1647,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-935A-4F31-A877-FAC871790277}"/>
                   </c:ext>
@@ -2003,21 +2067,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
+                          <c15:sqref>'berlin network'!$A$90</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                        <c:v>Least Density Exponential</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2025,7 +2089,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -2038,13 +2102,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
+                        <a:schemeClr val="accent3">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -2054,10 +2118,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$90:$C$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2096,10 +2160,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$I$79:$I$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$I$90:$I$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2107,39 +2171,39 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>11.8002729608952</c:v>
+                        <c:v>11.4223972841222</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10.8622959029629</c:v>
+                        <c:v>11.339816353859201</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>9.9709616207268397</c:v>
+                        <c:v>11.8583194180082</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>11.213047321682501</c:v>
+                        <c:v>11.5258647039013</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>14.153373703720099</c:v>
+                        <c:v>14.1477325520019</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>19.1548264987678</c:v>
+                        <c:v>14.6961488382402</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.4703016144363303</c:v>
+                        <c:v>18.059664954352002</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>12.479478546958401</c:v>
+                        <c:v>11.395635589274701</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13.444159514271499</c:v>
+                        <c:v>10.585617584030301</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5CE9-4BF4-85C5-54AD584FAFFA}"/>
+                    <c16:uniqueId val="{00000001-5CE9-4BF4-85C5-54AD584FAFFA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -14810,7 +14874,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Dynamic Routing'!$A$24</c15:sqref>
@@ -14857,7 +14921,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Dynamic Routing'!$C$24:$C$32</c15:sqref>
@@ -14899,7 +14963,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Dynamic Routing'!$E$24:$E$32</c15:sqref>
@@ -14937,7 +15001,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-3C17-4298-926F-85BB2F82C78C}"/>
                   </c:ext>
@@ -18612,7 +18676,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$68</c15:sqref>
@@ -18659,7 +18723,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
@@ -18701,7 +18765,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$68:$H$76</c15:sqref>
@@ -18742,7 +18806,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0E97-4CEE-AC75-7038D3F53BA1}"/>
                   </c:ext>
@@ -18755,7 +18819,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -18802,7 +18866,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -18844,7 +18908,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$H$79:$H$85</c15:sqref>
@@ -18879,7 +18943,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0E97-4CEE-AC75-7038D3F53BA1}"/>
                   </c:ext>
@@ -20873,7 +20937,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -20914,7 +20978,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -20956,7 +21020,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$35:$I$43</c15:sqref>
@@ -20997,7 +21061,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0600-4938-9C9B-901D5B556195}"/>
                   </c:ext>
@@ -21284,7 +21348,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$68</c15:sqref>
@@ -21331,7 +21395,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
@@ -21373,7 +21437,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$68:$I$76</c15:sqref>
@@ -21414,7 +21478,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0600-4938-9C9B-901D5B556195}"/>
                   </c:ext>
@@ -21427,7 +21491,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -21474,7 +21538,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -21516,7 +21580,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$79:$I$87</c15:sqref>
@@ -21557,7 +21621,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0600-4938-9C9B-901D5B556195}"/>
                   </c:ext>
@@ -22852,7 +22916,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$35</c15:sqref>
@@ -22893,7 +22957,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
@@ -22935,7 +22999,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$35:$J$43</c15:sqref>
@@ -22976,7 +23040,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-96F3-4560-8552-187704AFA9D4}"/>
                   </c:ext>
@@ -23263,7 +23327,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$68</c15:sqref>
@@ -23310,7 +23374,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
@@ -23352,7 +23416,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$68:$J$76</c15:sqref>
@@ -23393,7 +23457,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-96F3-4560-8552-187704AFA9D4}"/>
                   </c:ext>
@@ -23406,7 +23470,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$79</c15:sqref>
@@ -23453,7 +23517,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
@@ -23495,7 +23559,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$J$79:$J$85</c15:sqref>
@@ -23530,7 +23594,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-96F3-4560-8552-187704AFA9D4}"/>
                   </c:ext>
@@ -23814,6 +23878,2671 @@
               <a:lumOff val="35000"/>
             </a:schemeClr>
           </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Avg trip time as number of vehicles increases</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5403744786556282E-2"/>
+          <c:y val="0.13741525374283814"/>
+          <c:w val="0.89081277082844612"/>
+          <c:h val="0.69807431998786418"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>131.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.335714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294.39499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399.01866666666598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>496.006470588235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>733.78250000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>849.38272727272704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1018.0656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3226-4DAF-9499-51BF129EA5C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$E$13:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>152.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.13142857142799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.06800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.956666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.40733333333301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.68150000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.12045454545398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>664.88599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3226-4DAF-9499-51BF129EA5C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$24:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$E$24:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>146.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145.15714285714199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.553333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296.09266666666599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.83705882352899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>498.40800000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>621.77090909090896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>861.53679999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3226-4DAF-9499-51BF129EA5C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Exponential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$E$35:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>145.91800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.16571428571399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.97900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.22166666666601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.24799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209.89294117647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355.79050000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>491.56727272727198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>660.24199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3226-4DAF-9499-51BF129EA5C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1614363984"/>
+        <c:axId val="1559257808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1614363984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Tracked Vehicles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559257808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1559257808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Trip Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614363984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7315598851500337E-2"/>
+          <c:y val="0.14542020140728382"/>
+          <c:w val="0.26583952703725916"/>
+          <c:h val="0.2224498819836708"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Avg unfairness</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5403744786556282E-2"/>
+          <c:y val="0.13741525374283814"/>
+          <c:w val="0.89081277082844612"/>
+          <c:h val="0.69807431998786418"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9839-41FC-8537-5375F6B2E264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$J$13:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1744981574951614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1585781311992371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1504376513820858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1604702908239857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1445468086892543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1456341337318856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1340065172939442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9839-41FC-8537-5375F6B2E264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$24:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$J$24:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1231611739188285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1140437134741128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1115930878669471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1064849290279029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0961831525615957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0918040242811928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0712503388654686</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0717511499935757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0601076283759359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9839-41FC-8537-5375F6B2E264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Exponential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$J$35:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1167092599008028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11120065850751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1195248227839785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.118269672150157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1235790410483586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1274602137785115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1165730212337515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08752694338545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9839-41FC-8537-5375F6B2E264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1614363984"/>
+        <c:axId val="1559257808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1614363984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Tracked Vehicles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559257808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1559257808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>unfairness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614363984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2351012694234324E-2"/>
+          <c:y val="0.47167763792963863"/>
+          <c:w val="0.22869455026811389"/>
+          <c:h val="0.2224498819836708"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> unfairness worst 10% of vehicles</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5403744786556282E-2"/>
+          <c:y val="0.13741525374283814"/>
+          <c:w val="0.89081277082844612"/>
+          <c:h val="0.69807431998786418"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00E7-49A4-89B6-54B10AD7F11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$13:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$K$13:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6747787379626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5777503514586857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5574592996454428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5549772351767144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5412696382461859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5305298531252143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5146494264369144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00E7-49A4-89B6-54B10AD7F11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density w/ Road Length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$24:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$K$24:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4728394338344857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4864950246016999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4562859385165285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4366199179860715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4294958200466286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4303752678581285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3859930908871259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3812497953379756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3592009671349456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-00E7-49A4-89B6-54B10AD7F11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long Term'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density Exponential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Long Term'!$C$35:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Long Term'!$K$35:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4964665844485427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4859905589090572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4834331722688572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.482203409289357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5092243013602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5223875376840714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5206195654221715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4729982254286429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-00E7-49A4-89B6-54B10AD7F11F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1614363984"/>
+        <c:axId val="1559257808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1614363984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Tracked Vehicles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559257808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1559257808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>unfairness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614363984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6095161252418576E-2"/>
+          <c:y val="0.55406590646297693"/>
+          <c:w val="0.22869455026811389"/>
+          <c:h val="0.2224498819836708"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -27191,23 +29920,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$90</c:f>
+              <c:f>'berlin network'!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential</c:v>
+                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -27220,13 +29950,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -27236,7 +29966,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$90:$C$98</c:f>
+              <c:f>'berlin network'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -27268,48 +29998,50 @@
                   <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$E$90:$E$98</c:f>
+              <c:f>'berlin network'!$E$79:$E$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>146.07</c:v>
+                  <c:v>142.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.80857142857101</c:v>
+                  <c:v>142.88714285714201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147.51400000000001</c:v>
+                  <c:v>144.136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.180833333333</c:v>
+                  <c:v>147.52250000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165.444666666666</c:v>
+                  <c:v>170.06933333333299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218.35294117647001</c:v>
+                  <c:v>241.022352941176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>377.47500000000002</c:v>
+                  <c:v>402.47800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>493.29</c:v>
+                  <c:v>504.80636363636302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>657.21479999999997</c:v>
+                  <c:v>644.50480000000005</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2433-4B4D-BEC7-71C94FFCA5EF}"/>
+              <c16:uniqueId val="{00000000-2433-4B4D-BEC7-71C94FFCA5EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -27848,21 +30580,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
+                          <c15:sqref>'berlin network'!$A$90</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                        <c:v>Least Density Exponential</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -27870,7 +30602,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -27883,13 +30615,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
+                        <a:schemeClr val="accent3">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -27899,10 +30631,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$90:$C$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -27941,10 +30673,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$E$79:$E$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$E$90:$E$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -27952,39 +30684,39 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>142.81</c:v>
+                        <c:v>146.07</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>142.88714285714201</c:v>
+                        <c:v>142.80857142857101</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>144.136</c:v>
+                        <c:v>147.51400000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>147.52250000000001</c:v>
+                        <c:v>147.180833333333</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>170.06933333333299</c:v>
+                        <c:v>165.444666666666</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>241.022352941176</c:v>
+                        <c:v>218.35294117647001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>402.47800000000001</c:v>
+                        <c:v>377.47500000000002</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>504.80636363636302</c:v>
+                        <c:v>493.29</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>644.50480000000005</c:v>
+                        <c:v>657.21479999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2433-4B4D-BEC7-71C94FFCA5EF}"/>
+                    <c16:uniqueId val="{00000002-2433-4B4D-BEC7-71C94FFCA5EF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -32047,6 +34779,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -39036,6 +41888,1554 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -43979,6 +48379,123 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3216</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3261ACD6-5AF4-4CBF-A1D5-9A1517D78357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3216</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>43704</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A8CB79-1A1B-4914-8F4D-631D57CBA1BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>694767</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>43704</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4030526-80AE-492E-9CFB-6FDB39DD8F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -45256,8 +49773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4999D6-517F-4343-8429-347E88848D05}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52708,8 +57225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E2C11F-CA57-4EBD-8C9F-D11423BEE4D9}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53265,7 +57782,7 @@
         <v>7500</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:C19" si="1">(B17/5)</f>
+        <f t="shared" ref="C17" si="1">(B17/5)</f>
         <v>1500</v>
       </c>
       <c r="D17">
@@ -53337,7 +57854,7 @@
         <v>10000</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:C21" si="2">(B19/5)</f>
+        <f t="shared" ref="C19" si="2">(B19/5)</f>
         <v>2000</v>
       </c>
       <c r="D19">
@@ -53624,7 +58141,7 @@
         <v>7500</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:C30" si="3">(B28/5)</f>
+        <f t="shared" ref="C28" si="3">(B28/5)</f>
         <v>1500</v>
       </c>
       <c r="D28">
@@ -53696,7 +58213,7 @@
         <v>10000</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:C32" si="4">(B30/5)</f>
+        <f t="shared" ref="C30" si="4">(B30/5)</f>
         <v>2000</v>
       </c>
       <c r="D30">
@@ -53959,7 +58476,7 @@
         <v>7500</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ref="C39:C41" si="5">(B39/5)</f>
+        <f t="shared" ref="C39" si="5">(B39/5)</f>
         <v>1500</v>
       </c>
       <c r="D39">
@@ -54031,7 +58548,7 @@
         <v>10000</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ref="C41:C43" si="6">(B41/5)</f>
+        <f t="shared" ref="C41" si="6">(B41/5)</f>
         <v>2000</v>
       </c>
       <c r="D41">
@@ -54130,6 +58647,1793 @@
       <c r="K43">
         <v>40290.836990350697</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BC6F3D-7063-4E7B-9977-75B79FA43F7C}">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2500</v>
+      </c>
+      <c r="C2" s="1">
+        <f>(B2/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>131.10599999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <f>H2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>I2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1.65219635731725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>3750</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(B3/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>171.335714285714</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J43" si="0">H3/D3</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K43" si="1">I3/D3</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.65219635731729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="1">
+        <f>(B4/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>247.99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.65219635731729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>6250</v>
+      </c>
+      <c r="C5" s="1">
+        <f>(B5/5)-50</f>
+        <v>1200</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>294.39499999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.6521963573171701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>7500</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C8" si="2">(B6/5)</f>
+        <v>1500</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>399.01866666666598</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.6521963573170599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>8750</v>
+      </c>
+      <c r="C7" s="1">
+        <f>(B7/5)-50</f>
+        <v>1700</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>496.006470588235</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.65219635731703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>733.78250000000003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.6521963573168901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C9" s="1">
+        <f>(B9/5)-50</f>
+        <v>2200</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>849.38272727272704</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.6521963573169201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C10" s="1">
+        <f>(B10/5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1018.0656</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.65219635731695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13" s="1">
+        <f>(B13/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>152.41800000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>8.2214871024661296</v>
+      </c>
+      <c r="I13">
+        <v>11.723451165738201</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.1744981574951614</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1.6747787379626</v>
+      </c>
+      <c r="L13">
+        <v>1.2663618657267299</v>
+      </c>
+      <c r="M13">
+        <v>1.6505454036035601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>3750</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(B14/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>147.13142857142799</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>8.1100469183946604</v>
+      </c>
+      <c r="I14">
+        <v>11.044252460210799</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.1585781311992371</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1.5777503514586857</v>
+      </c>
+      <c r="L14">
+        <v>1.2219496370696099</v>
+      </c>
+      <c r="M14">
+        <v>1.6564721464689101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="1">
+        <f>(B15/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>151.06800000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>8.0530635596745999</v>
+      </c>
+      <c r="I15">
+        <v>10.9022150975181</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.1504376513820858</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.5574592996454428</v>
+      </c>
+      <c r="L15">
+        <v>1.1992983228049801</v>
+      </c>
+      <c r="M15">
+        <v>1.6553721947928099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>6250</v>
+      </c>
+      <c r="C16" s="1">
+        <f>(B16/5)-50</f>
+        <v>1200</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>151.956666666666</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>8.1232920357678999</v>
+      </c>
+      <c r="I16">
+        <v>10.884840646237</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.1604702908239857</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1.5549772351767144</v>
+      </c>
+      <c r="L16">
+        <v>1.2224343853058</v>
+      </c>
+      <c r="M16">
+        <v>1.65170771103171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>7500</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C19" si="3">(B17/5)</f>
+        <v>1500</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>172.40733333333301</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>8.01182766082478</v>
+      </c>
+      <c r="I17">
+        <v>10.788887467723301</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.1445468086892543</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1.5412696382461859</v>
+      </c>
+      <c r="L17">
+        <v>1.19789084836989</v>
+      </c>
+      <c r="M17">
+        <v>1.6553203484361301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>8750</v>
+      </c>
+      <c r="C18" s="1">
+        <f>(B18/5)-50</f>
+        <v>1700</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>222.95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <v>8.0194389361231995</v>
+      </c>
+      <c r="I18">
+        <v>10.7137089718765</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.1456341337318856</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>1.5305298531252143</v>
+      </c>
+      <c r="L18">
+        <v>1.20094177012007</v>
+      </c>
+      <c r="M18">
+        <v>1.6570938714155199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:C21" si="4">(B19/5)</f>
+        <v>2000</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>365.68150000000003</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>7.9380456210576096</v>
+      </c>
+      <c r="I19">
+        <v>10.6025459850584</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.1340065172939442</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.5146494264369144</v>
+      </c>
+      <c r="L19">
+        <v>1.1897833966176901</v>
+      </c>
+      <c r="M19">
+        <v>1.6575162245647399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C20" s="1">
+        <f>(B20/5)-50</f>
+        <v>2200</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>489.12045454545398</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>1.6577995840405699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C21" s="1">
+        <f>(B21/5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>664.88599999999997</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>1.6583742657312399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>2500</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(B24/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>146.44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>7.8621282174317999</v>
+      </c>
+      <c r="I24">
+        <v>10.3098760368414</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.1231611739188285</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1.4728394338344857</v>
+      </c>
+      <c r="L24">
+        <v>1.1573769982098301</v>
+      </c>
+      <c r="M24">
+        <v>1.6498313720790301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>3750</v>
+      </c>
+      <c r="C25" s="1">
+        <f>(B25/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>145.15714285714199</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>7.79830599431879</v>
+      </c>
+      <c r="I25">
+        <v>10.405465172211899</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1.1140437134741128</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1.4864950246016999</v>
+      </c>
+      <c r="L25">
+        <v>1.12864892319341</v>
+      </c>
+      <c r="M25">
+        <v>1.64941363499935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="1">
+        <f>(B26/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>166.864</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>7.7811516150686302</v>
+      </c>
+      <c r="I26">
+        <v>10.1940015696157</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.1115930878669471</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1.4562859385165285</v>
+      </c>
+      <c r="L26">
+        <v>1.1346375511915401</v>
+      </c>
+      <c r="M26">
+        <v>1.6553157560320599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>6250</v>
+      </c>
+      <c r="C27" s="1">
+        <f>(B27/5)-50</f>
+        <v>1200</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>186.553333333333</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27">
+        <v>7.7453945031953202</v>
+      </c>
+      <c r="I27">
+        <v>10.0563394259025</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.1064849290279029</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1.4366199179860715</v>
+      </c>
+      <c r="L27">
+        <v>1.13346900006587</v>
+      </c>
+      <c r="M27">
+        <v>1.6546164202146201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>7500</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C30" si="5">(B28/5)</f>
+        <v>1500</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>296.09266666666599</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>7.6732820679311704</v>
+      </c>
+      <c r="I28">
+        <v>10.006470740326399</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1.0961831525615957</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1.4294958200466286</v>
+      </c>
+      <c r="L28">
+        <v>1.1192791689413599</v>
+      </c>
+      <c r="M28">
+        <v>1.65413251623728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>8750</v>
+      </c>
+      <c r="C29" s="1">
+        <f>(B29/5)-50</f>
+        <v>1700</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>377.83705882352899</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>7.6426281699683498</v>
+      </c>
+      <c r="I29">
+        <v>10.0126268750069</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1.0918040242811928</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>1.4303752678581285</v>
+      </c>
+      <c r="L29">
+        <v>1.11437788776073</v>
+      </c>
+      <c r="M29">
+        <v>1.6567138503616201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:C32" si="6">(B30/5)</f>
+        <v>2000</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>498.40800000000002</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>7.4987523720582798</v>
+      </c>
+      <c r="I30">
+        <v>9.7019516362098805</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1.0712503388654686</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1.3859930908871259</v>
+      </c>
+      <c r="L30">
+        <v>1.0868606944517401</v>
+      </c>
+      <c r="M30">
+        <v>1.6573171816708101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C31" s="1">
+        <f>(B31/5)-50</f>
+        <v>2200</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>621.77090909090896</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>7.5022580499550298</v>
+      </c>
+      <c r="I31">
+        <v>9.6687485673658298</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1.0717511499935757</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1.3812497953379756</v>
+      </c>
+      <c r="L31">
+        <v>1.0860042443222</v>
+      </c>
+      <c r="M31">
+        <v>1.6570665442796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C32" s="1">
+        <f>(B32/5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>861.53679999999997</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>7.4207533986315504</v>
+      </c>
+      <c r="I32">
+        <v>9.5144067699446193</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1.0601076283759359</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>1.3592009671349456</v>
+      </c>
+      <c r="L32">
+        <v>1.0808947128321</v>
+      </c>
+      <c r="M32">
+        <v>1.65814702593967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>2500</v>
+      </c>
+      <c r="C35" s="1">
+        <f>(B35/5)</f>
+        <v>500</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>145.91800000000001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>7.8169648193056203</v>
+      </c>
+      <c r="I35">
+        <v>10.475266091139799</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1.1167092599008028</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>1.4964665844485427</v>
+      </c>
+      <c r="L35">
+        <v>1.1214684740901799</v>
+      </c>
+      <c r="M35">
+        <v>1.65423825787818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>3750</v>
+      </c>
+      <c r="C36" s="1">
+        <f>(B36/5)-50</f>
+        <v>700</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>142.16571428571399</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>7.7784046095525703</v>
+      </c>
+      <c r="I36">
+        <v>10.4019339123634</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1.11120065850751</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>1.4859905589090572</v>
+      </c>
+      <c r="L36">
+        <v>1.1237404700026301</v>
+      </c>
+      <c r="M36">
+        <v>1.65358814624356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37" s="1">
+        <f>(B37/5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>146.97900000000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>7.8366737594878497</v>
+      </c>
+      <c r="I37">
+        <v>10.384032205882001</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1.1195248227839785</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1.4834331722688572</v>
+      </c>
+      <c r="L37">
+        <v>1.12974413179896</v>
+      </c>
+      <c r="M37">
+        <v>1.65259686939822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>6250</v>
+      </c>
+      <c r="C38" s="1">
+        <f>(B38/5)-50</f>
+        <v>1200</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>147.22166666666601</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38">
+        <v>7.8278877050510998</v>
+      </c>
+      <c r="I38">
+        <v>10.3754238650255</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1.118269672150157</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1.482203409289357</v>
+      </c>
+      <c r="L38">
+        <v>1.1279877953995101</v>
+      </c>
+      <c r="M38">
+        <v>1.6525134778085999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>7500</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:C41" si="7">(B39/5)</f>
+        <v>1500</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>163.24799999999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>7.8650532873385099</v>
+      </c>
+      <c r="I39">
+        <v>10.5645701095214</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1.1235790410483586</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>1.5092243013602</v>
+      </c>
+      <c r="L39">
+        <v>1.13754612566372</v>
+      </c>
+      <c r="M39">
+        <v>1.6527025073639201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>8750</v>
+      </c>
+      <c r="C40" s="1">
+        <f>(B40/5)-50</f>
+        <v>1700</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>209.89294117647</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40">
+        <v>7.8922214964495803</v>
+      </c>
+      <c r="I40">
+        <v>10.6567127637885</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1.1274602137785115</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>1.5223875376840714</v>
+      </c>
+      <c r="L40">
+        <v>1.14182653659275</v>
+      </c>
+      <c r="M40">
+        <v>1.6535726069891601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C43" si="8">(B41/5)</f>
+        <v>2000</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>355.79050000000001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>7.8160111486362602</v>
+      </c>
+      <c r="I41">
+        <v>10.644336957955201</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1.1165730212337515</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>1.5206195654221715</v>
+      </c>
+      <c r="L41">
+        <v>1.1467043970059401</v>
+      </c>
+      <c r="M41">
+        <v>1.65845516645812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11250</v>
+      </c>
+      <c r="C42" s="1">
+        <f>(B42/5)-50</f>
+        <v>2200</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>491.56727272727198</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42">
+        <v>1.66341542448631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C43" s="1">
+        <f>(B43/5)</f>
+        <v>2500</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>660.24199999999996</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43">
+        <v>7.6126886036981496</v>
+      </c>
+      <c r="I43">
+        <v>10.3109875780005</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1.08752694338545</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>1.4729982254286429</v>
+      </c>
+      <c r="L43">
+        <v>1.1233054863494401</v>
+      </c>
+      <c r="M43">
+        <v>1.65893903091785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/graphs updated.xlsx
+++ b/graphs updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmd1g17\Documents\Fair-Vehicle-Routing-Simple-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D77BC55-4E04-4B51-B0D6-26C413A94166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3307E320-3123-43FD-B27E-5B3671DB8CB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="3" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{5077FDAE-F444-492A-81FE-853CB68AE338}"/>
   </bookViews>
   <sheets>
     <sheet name="street grid network" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="safety parameter" sheetId="3" r:id="rId3"/>
     <sheet name="Dynamic Routing" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="32">
   <si>
     <t>routing type</t>
   </si>
@@ -98,12 +95,6 @@
     <t>average speed</t>
   </si>
   <si>
-    <t>Least Density With Road Length</t>
-  </si>
-  <si>
-    <t>Greatest Speed with Road Length</t>
-  </si>
-  <si>
     <t>Least Density 1.5 dijDiff threshold</t>
   </si>
   <si>
@@ -116,19 +107,28 @@
     <t>Dijkstra Dynamic</t>
   </si>
   <si>
-    <t>Least Density Exponential</t>
+    <t>Least Density (LD)</t>
   </si>
   <si>
-    <t>Least Density Exponential Dynamic</t>
+    <t>Least Density With Road Length (LDRL)</t>
   </si>
   <si>
-    <t>Least Density Dynamic</t>
+    <t>Greatest Speed with Road Length (GSRL)</t>
   </si>
   <si>
-    <t>Least Density w/ Road Length Dynamic</t>
+    <t>Least Density Exponential (LDE)</t>
   </si>
   <si>
-    <t>Least Density Exponential w/ Dijkstra</t>
+    <t>Least Density Exponential w/ Dijkstra (LDED)</t>
+  </si>
+  <si>
+    <t>Least Density Dynamic (LD Dynamic)</t>
+  </si>
+  <si>
+    <t>Least Density Exponential Dynamic (LDE Dynamic)</t>
+  </si>
+  <si>
+    <t>Least Density w/ Road Length Dynamic (LDRL Dynamic)</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -942,14 +942,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>average % difference between actual time and dijkstra time</a:t>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Average % difference between actual time and dijkstra time</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t>.</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -966,7 +966,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -984,7 +984,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12023150563696362"/>
+          <c:y val="0.14566512634445761"/>
+          <c:w val="0.85308861253757584"/>
+          <c:h val="0.75141871375519176"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -997,7 +1007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1106,15 +1116,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$35</c:f>
+              <c:f>'berlin network'!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density With Road Length</c:v>
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1123,7 +1133,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1134,11 +1144,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1146,7 +1156,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$35:$C$43</c:f>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1183,36 +1193,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$I$35:$I$43</c:f>
+              <c:f>'berlin network'!$I$57:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.351925885319799</c:v>
+                  <c:v>17.354138445437101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.868164046988801</c:v>
+                  <c:v>15.5771277789362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6031803182073796</c:v>
+                  <c:v>15.2517965202235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.834336596393401</c:v>
+                  <c:v>15.6532437182262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0011084160006</c:v>
+                  <c:v>17.2480587347703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.2606817148947</c:v>
+                  <c:v>21.8999507634562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.510383953213401</c:v>
+                  <c:v>21.159787937881301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.2433878466486</c:v>
+                  <c:v>17.449331429302699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.783850650198598</c:v>
+                  <c:v>18.1948105731325</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1221,7 +1231,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7187-430E-91DD-7CC3DE8CC4CB}"/>
+              <c16:uniqueId val="{00000002-7187-430E-91DD-7CC3DE8CC4CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1352,15 +1362,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$90</c:f>
+              <c:f>'berlin network'!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential</c:v>
+                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1369,7 +1379,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1382,13 +1392,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1398,7 +1408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$90:$C$98</c:f>
+              <c:f>'berlin network'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1435,36 +1445,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$I$90:$I$98</c:f>
+              <c:f>'berlin network'!$I$79:$I$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11.4223972841222</c:v>
+                  <c:v>11.8002729608952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.339816353859201</c:v>
+                  <c:v>10.8622959029629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.8583194180082</c:v>
+                  <c:v>9.9709616207268397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.5258647039013</c:v>
+                  <c:v>11.213047321682501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.1477325520019</c:v>
+                  <c:v>14.153373703720099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.6961488382402</c:v>
+                  <c:v>19.1548264987678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.059664954352002</c:v>
+                  <c:v>9.4703016144363303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.395635589274701</c:v>
+                  <c:v>12.479478546958401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.585617584030301</c:v>
+                  <c:v>13.444159514271499</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1473,130 +1483,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CE9-4BF4-85C5-54AD584FAFFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density Exponential w/ Dijkstra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$101:$C$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$I$101:$I$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9.9120452994676797E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34124896076482802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.2839789890549498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.680872457645</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.2327180998297802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.51461359387213201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.34983786458227</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.294595853801357</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6282361177321301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E45-405B-8E4C-8E74C25E0315}"/>
+              <c16:uniqueId val="{00000000-5CE9-4BF4-85C5-54AD584FAFFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1861,6 +1748,143 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$35:$I$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>12.351925885319799</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13.868164046988801</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.6031803182073796</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10.834336596393401</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11.0011084160006</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12.2606817148947</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11.510383953213401</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15.2433878466486</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17.783850650198598</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7187-430E-91DD-7CC3DE8CC4CB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -1875,7 +1899,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1998,21 +2022,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$57</c15:sqref>
+                          <c15:sqref>'berlin network'!$A$90</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                        <c:v>Least Density Exponential (LDE)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2020,144 +2044,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$I$57:$I$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>17.354138445437101</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>15.5771277789362</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>15.2517965202235</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>15.6532437182262</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>17.2480587347703</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>21.8999507634562</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>21.159787937881301</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>17.449331429302699</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>18.1948105731325</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-7187-430E-91DD-7CC3DE8CC4CB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -2170,13 +2057,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
+                        <a:schemeClr val="accent3">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -2189,7 +2076,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$90:$C$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2231,7 +2118,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$I$79:$I$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$I$90:$I$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2239,31 +2126,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>11.8002729608952</c:v>
+                        <c:v>11.4223972841222</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10.8622959029629</c:v>
+                        <c:v>11.339816353859201</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>9.9709616207268397</c:v>
+                        <c:v>11.8583194180082</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>11.213047321682501</c:v>
+                        <c:v>11.5258647039013</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>14.153373703720099</c:v>
+                        <c:v>14.1477325520019</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>19.1548264987678</c:v>
+                        <c:v>14.6961488382402</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9.4703016144363303</c:v>
+                        <c:v>18.059664954352002</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>12.479478546958401</c:v>
+                        <c:v>11.395635589274701</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13.444159514271499</c:v>
+                        <c:v>10.585617584030301</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2271,7 +2158,150 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5CE9-4BF4-85C5-54AD584FAFFA}"/>
+                    <c16:uniqueId val="{00000001-5CE9-4BF4-85C5-54AD584FAFFA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density Exponential w/ Dijkstra (LDED)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$101:$C$109</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$101:$I$109</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>9.9120452994676797E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.34124896076482802</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2.2839789890549498</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1.680872457645</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-2.2327180998297802</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-0.51461359387213201</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.34983786458227</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-0.294595853801357</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.6282361177321301</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-0E45-405B-8E4C-8E74C25E0315}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2309,7 +2339,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2322,8 +2352,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Vehicles</a:t>
+                  <a:rPr lang="en-GB" sz="1050"/>
+                  <a:t>Number of Tracked</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050"/>
+                  <a:t>Vehicles</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2341,7 +2379,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2379,7 +2417,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2426,7 +2464,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2439,14 +2477,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>average</a:t>
+                  <a:rPr lang="en-GB" sz="1050"/>
+                  <a:t>Average % Difference</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> % difference between actual time taken by the vehicle and the time taken if it had taken the shortest route (i,e, dijkstra) at that point</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2463,7 +2496,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2501,7 +2534,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2530,11 +2563,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61240533350022341"/>
+          <c:y val="0.14559178717618745"/>
+          <c:w val="0.36167681045748085"/>
+          <c:h val="0.15798750917908114"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2543,7 +2590,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2682,7 +2729,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1394342702930822"/>
+          <c:y val="0.21278340645302543"/>
+          <c:w val="0.83213131503837057"/>
+          <c:h val="0.61282960684211063"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2815,7 +2872,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2924,15 +2981,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$35</c:f>
+              <c:f>'berlin network'!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density With Road Length</c:v>
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2941,7 +2998,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2952,11 +3009,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2964,7 +3021,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$35:$C$43</c:f>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3001,36 +3058,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$J$35:$J$43</c:f>
+              <c:f>'berlin network'!$J$57:$J$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>55.270493773401597</c:v>
+                  <c:v>69.552993404321001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.081568004321298</c:v>
+                  <c:v>62.381502212906902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.638744717965899</c:v>
+                  <c:v>60.855148036375802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.681328235477693</c:v>
+                  <c:v>60.424006372722502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.72062948553099</c:v>
+                  <c:v>87.666937496914102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153.09332387072499</c:v>
+                  <c:v>192.47531210186901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.14798619170301</c:v>
+                  <c:v>248.34118193932801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>189.153889982338</c:v>
+                  <c:v>234.58761781838299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>215.773171915017</c:v>
+                  <c:v>328.54263035863301</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -3039,7 +3096,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB4C-45CB-80E6-A3D6C86D2789}"/>
+              <c16:uniqueId val="{00000002-BB4C-45CB-80E6-A3D6C86D2789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3170,23 +3227,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$90</c:f>
+              <c:f>'berlin network'!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential</c:v>
+                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -3199,13 +3257,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -3215,7 +3273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$90:$C$98</c:f>
+              <c:f>'berlin network'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3247,171 +3305,50 @@
                   <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$J$90:$J$98</c:f>
+              <c:f>'berlin network'!$J$79:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50.8725690472154</c:v>
+                  <c:v>54.165796042769401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.484804533326603</c:v>
+                  <c:v>47.018360182322702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.102610134308499</c:v>
+                  <c:v>45.378186238380202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.501087957393302</c:v>
+                  <c:v>53.020673116199703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.756684312582493</c:v>
+                  <c:v>91.089147645278103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139.95830049513299</c:v>
+                  <c:v>172.81294661224001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>228.162712788851</c:v>
+                  <c:v>176.22230013319901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>242.44571207833599</c:v>
+                  <c:v>227.849672034679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219.787110439342</c:v>
+                  <c:v>282.96922628084599</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B99C-4621-A6F6-3BE284BFF219}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density Exponential w/ Dijkstra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$101:$C$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$J$101:$J$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.0561834699257</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.73685001950125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6733525508388105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.700529037236802</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.919911526202601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.6568158714879</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.334526542751902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.4623126219401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.368526220597502</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A5B-4AD4-AEAE-676CC4CD2546}"/>
+              <c16:uniqueId val="{00000000-B99C-4621-A6F6-3BE284BFF219}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3539,6 +3476,143 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$35:$C$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$J$35:$J$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>55.270493773401597</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>62.081568004321298</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>59.638744717965899</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>97.681328235477693</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>129.72062948553099</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>153.09332387072499</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>152.14798619170301</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>189.153889982338</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>215.773171915017</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BB4C-45CB-80E6-A3D6C86D2789}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
@@ -3553,7 +3627,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3676,21 +3750,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$57</c15:sqref>
+                          <c15:sqref>'berlin network'!$A$90</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                        <c:v>Least Density Exponential (LDE)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3698,144 +3772,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$J$57:$J$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>69.552993404321001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>62.381502212906902</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>60.855148036375802</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>60.424006372722502</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>87.666937496914102</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>192.47531210186901</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>248.34118193932801</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>234.58761781838299</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>328.54263035863301</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-BB4C-45CB-80E6-A3D6C86D2789}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -3848,13 +3785,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
+                        <a:schemeClr val="accent3">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -3864,10 +3801,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$90:$C$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3906,10 +3843,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$J$79:$J$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$J$90:$J$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3917,39 +3854,182 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>54.165796042769401</c:v>
+                        <c:v>50.8725690472154</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>47.018360182322702</c:v>
+                        <c:v>53.484804533326603</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>45.378186238380202</c:v>
+                        <c:v>51.102610134308499</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>53.020673116199703</c:v>
+                        <c:v>51.501087957393302</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>91.089147645278103</c:v>
+                        <c:v>86.756684312582493</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>172.81294661224001</c:v>
+                        <c:v>139.95830049513299</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>176.22230013319901</c:v>
+                        <c:v>228.162712788851</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>227.849672034679</c:v>
+                        <c:v>242.44571207833599</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>282.96922628084599</c:v>
+                        <c:v>219.787110439342</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-B99C-4621-A6F6-3BE284BFF219}"/>
+                    <c16:uniqueId val="{00000001-B99C-4621-A6F6-3BE284BFF219}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density Exponential w/ Dijkstra (LDED)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$101:$C$109</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$J$101:$J$109</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1.0561834699257</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.73685001950125</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.6733525508388105</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>19.700529037236802</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>27.919911526202601</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44.6568158714879</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>60.334526542751902</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>41.4623126219401</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>59.368526220597502</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9A5B-4AD4-AEAE-676CC4CD2546}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4209,6 +4289,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13633145645228759"/>
+          <c:y val="0.21881079456319757"/>
+          <c:w val="0.29197131740760895"/>
+          <c:h val="0.24104295368302761"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5698,7 +5788,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -13511,7 +13601,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13524,11 +13614,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>Avg</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> trip time as number of vehicles increases</a:t>
             </a:r>
           </a:p>
@@ -13547,7 +13637,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -13828,7 +13918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14071,7 +14161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Dynamic</c:v>
+                  <c:v>Least Density Dynamic (LD Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14194,7 +14284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                  <c:v>Least Density w/ Road Length Dynamic (LDRL Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14446,7 +14536,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -14583,7 +14673,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -15000,7 +15090,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density Exponential Dynamic</c:v>
+                        <c:v>Least Density Exponential Dynamic (LDE Dynamic)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -15157,7 +15247,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -15170,8 +15260,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Vehicles</a:t>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>Number of Tracked Vehicles</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15189,7 +15279,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -15227,7 +15317,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15274,7 +15364,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -15287,7 +15377,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100"/>
                   <a:t>average trip time (s)</a:t>
                 </a:r>
               </a:p>
@@ -15306,7 +15396,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -15344,7 +15434,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15379,7 +15469,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.410918827046201E-2"/>
           <c:y val="0.14688842601631732"/>
-          <c:w val="0.29649400653200991"/>
+          <c:w val="0.4585588797241883"/>
           <c:h val="0.32066732751042698"/>
         </c:manualLayout>
       </c:layout>
@@ -15403,7 +15493,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -15672,7 +15762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15912,7 +16002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential Dynamic</c:v>
+                  <c:v>Least Density Exponential Dynamic (LDE Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16032,7 +16122,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Dynamic</c:v>
+                  <c:v>Least Density Dynamic (LD Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16155,7 +16245,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                  <c:v>Least Density w/ Road Length Dynamic (LDRL Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16407,7 +16497,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -16544,7 +16634,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -17348,8 +17438,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.13728708706119525"/>
           <c:y val="0.21488345300430006"/>
-          <c:w val="0.29649400653200991"/>
-          <c:h val="0.32149374568250705"/>
+          <c:w val="0.46717935170249575"/>
+          <c:h val="0.35007076750680111"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -17372,7 +17462,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -17764,7 +17854,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -17884,7 +17974,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential Dynamic</c:v>
+                  <c:v>Least Density Exponential Dynamic (LDE Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18004,7 +18094,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Dynamic</c:v>
+                  <c:v>Least Density Dynamic (LD Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18127,7 +18217,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                  <c:v>Least Density w/ Road Length Dynamic (LDRL Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18391,7 +18481,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -18528,7 +18618,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -20200,126 +20290,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dijkstra</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$I$2:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0600-4938-9C9B-901D5B556195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -20328,7 +20298,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20433,132 +20403,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0600-4938-9C9B-901D5B556195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$68:$C$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$I$68:$I$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>14.0346628173623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5197922261946</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.5711381410669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.876769485533</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.8387280736462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.565785751345199</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.973304455914599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.9235825787464</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.3492944391585</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0600-4938-9C9B-901D5B556195}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20694,7 +20538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential Dynamic</c:v>
+                  <c:v>Least Density Exponential Dynamic (LDE Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20814,7 +20658,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Dynamic</c:v>
+                  <c:v>Least Density Dynamic (LD Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20937,7 +20781,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                  <c:v>Least Density w/ Road Length Dynamic (LDRL Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21065,12 +20909,149 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Dijkstra</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$2:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$2:$I$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-0600-4938-9C9B-901D5B556195}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$A$24</c15:sqref>
                         </c15:formulaRef>
@@ -21110,8 +21091,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$C$24:$C$32</c15:sqref>
                         </c15:formulaRef>
@@ -21152,8 +21133,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'berlin network'!$I$24:$I$32</c15:sqref>
                         </c15:formulaRef>
@@ -21166,7 +21147,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-0600-4938-9C9B-901D5B556195}"/>
                   </c:ext>
@@ -21189,7 +21170,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -21326,7 +21307,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -21580,6 +21561,149 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-0600-4938-9C9B-901D5B556195}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$I$68:$I$76</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>14.0346628173623</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12.5197922261946</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12.5711381410669</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.876769485533</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.8387280736462</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17.565785751345199</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15.973304455914599</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10.9235825787464</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13.3492944391585</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-0600-4938-9C9B-901D5B556195}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -21734,7 +21858,7 @@
         <c:axId val="966847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2500"/>
+          <c:max val="2200"/>
           <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -21987,7 +22111,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.12136617712983894"/>
           <c:y val="0.12169485991133872"/>
-          <c:w val="0.29662101156154147"/>
+          <c:w val="0.46048013916006336"/>
           <c:h val="0.32149374568250705"/>
         </c:manualLayout>
       </c:layout>
@@ -22011,7 +22135,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -22290,7 +22414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22656,7 +22780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential Dynamic</c:v>
+                  <c:v>Least Density Exponential Dynamic (LDE Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22776,7 +22900,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Dynamic</c:v>
+                  <c:v>Least Density Dynamic (LD Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22899,7 +23023,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density w/ Road Length Dynamic</c:v>
+                  <c:v>Least Density w/ Road Length Dynamic (LDRL Dynamic)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -23151,7 +23275,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -23288,7 +23412,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -23944,7 +24068,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.13467123936509295"/>
           <c:y val="0.17244295033873644"/>
-          <c:w val="0.3106228571192885"/>
+          <c:w val="0.55446698404566763"/>
           <c:h val="0.32149374568250705"/>
         </c:manualLayout>
       </c:layout>
@@ -26915,7 +27039,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -26928,11 +27052,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>Avg</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> trip time as number of vehicles increases</a:t>
             </a:r>
           </a:p>
@@ -26951,7 +27075,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -26969,7 +27093,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3800932301300349E-2"/>
+          <c:y val="0.14529068284397051"/>
+          <c:w val="0.88007710999928312"/>
+          <c:h val="0.68077060572047576"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -27102,7 +27236,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -27207,6 +27341,126 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-649E-4C86-91A6-F0F3EF160DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$E$57:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>153.49600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.702857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.90666666666601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.528666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241.92941176470501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377.5915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>469.18818181818102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>657.24599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-802F-47AB-9825-D672D49078BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -27462,129 +27716,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'berlin network'!$A$101</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Least Density Exponential w/ Dijkstra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'berlin network'!$C$101:$C$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'berlin network'!$E$101:$E$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>129.80799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>131.51428571428499</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>175.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>202.5325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>298.404</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400.99294117647003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>663.54449999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>739.53863636363599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>981.02359999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C92-4047-AFB1-91D32202B457}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -27723,7 +27854,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -27860,7 +27991,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -27983,143 +28114,6 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$57</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Least Density 1.5 dijDiff threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$E$57:$E$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>153.49600000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>147.702857142857</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>150.828</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>150.90666666666601</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>164.528666666666</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>241.92941176470501</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>377.5915</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>469.18818181818102</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>657.24599999999998</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-802F-47AB-9825-D672D49078BB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
                 <c:tx>
@@ -28134,7 +28128,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density Exponential</c:v>
+                        <c:v>Least Density Exponential (LDE)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -28261,6 +28255,149 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Least Density Exponential w/ Dijkstra (LDED)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$C$101:$C$109</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'berlin network'!$E$101:$E$109</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>129.80799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>131.51428571428499</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>175.92</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>202.5325</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>298.404</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>400.99294117647003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>663.54449999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>739.53863636363599</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>981.02359999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2C92-4047-AFB1-91D32202B457}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
       </c:scatterChart>
@@ -28294,7 +28431,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -28307,8 +28444,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of Vehicles</a:t>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Number of Tracked Vehicles</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -28326,7 +28463,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -28364,7 +28501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -28411,7 +28548,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -28424,7 +28561,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100"/>
                   <a:t>average trip time (s)</a:t>
                 </a:r>
               </a:p>
@@ -28443,7 +28580,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -28481,7 +28618,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -28510,11 +28647,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1993754181497231E-2"/>
+          <c:y val="0.14688855442153562"/>
+          <c:w val="0.37936115476876431"/>
+          <c:h val="0.33052000988256586"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -28523,7 +28674,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -28785,7 +28936,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -28894,23 +29045,144 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$90</c:f>
+              <c:f>'berlin network'!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential</c:v>
+                  <c:v>Least Density 1.5 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'berlin network'!$C$57:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'berlin network'!$G$57:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19.369471770074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.701925426203399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.600660408336999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.101204900933499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.131074631407301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.521809806934996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190.027209733213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>274.42270607838901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>395.23546073006798</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1437-4D4D-8D67-9420380C9DCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'berlin network'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Density 1.2 dijDiff threshold</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -28923,13 +29195,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -28939,7 +29211,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$90:$C$98</c:f>
+              <c:f>'berlin network'!$C$68:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -28971,69 +29243,72 @@
                   <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$G$90:$G$98</c:f>
+              <c:f>'berlin network'!$G$68:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.312124549229001</c:v>
+                  <c:v>15.970671003552701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.4029239664654</c:v>
+                  <c:v>14.6111750539176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.1400199245635</c:v>
+                  <c:v>15.0906806556373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.6234694947003</c:v>
+                  <c:v>16.7741847392838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.3319933785233</c:v>
+                  <c:v>25.9775869485259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.045492450531199</c:v>
+                  <c:v>81.542563813287302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>206.15858575261299</c:v>
+                  <c:v>233.74708388726501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>281.10889136879501</c:v>
+                  <c:v>307.78347937374502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>427.46537427185302</c:v>
+                  <c:v>422.376675740076</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5913-48AC-AD4B-756873CC51FB}"/>
+              <c16:uniqueId val="{00000003-1437-4D4D-8D67-9420380C9DCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'berlin network'!$A$101</c:f>
+              <c:f>'berlin network'!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential w/ Dijkstra</c:v>
+                  <c:v>Least Density 1.1 dijDiff threshold</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -29046,13 +29321,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -29062,7 +29337,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'berlin network'!$C$101:$C$109</c:f>
+              <c:f>'berlin network'!$C$79:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -29094,48 +29369,50 @@
                   <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'berlin network'!$G$101:$G$109</c:f>
+              <c:f>'berlin network'!$G$79:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9719378615305201</c:v>
+                  <c:v>13.722736164353901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9523925592684499</c:v>
+                  <c:v>12.880711234032299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.9896784491592</c:v>
+                  <c:v>12.793833467122401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.071066871749998</c:v>
+                  <c:v>16.477053914808799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.11694120840301</c:v>
+                  <c:v>28.892024722697599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>238.89997982316501</c:v>
+                  <c:v>84.335548423240795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>466.23628832564498</c:v>
+                  <c:v>231.030789960562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>565.293638092582</c:v>
+                  <c:v>300.21144369263402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>782.51109625626498</c:v>
+                  <c:v>390.85570152846901</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8770-4554-804E-536F9D93E866}"/>
+              <c16:uniqueId val="{00000000-5913-48AC-AD4B-756873CC51FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -29277,7 +29554,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -29414,7 +29691,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -29537,21 +29814,21 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$57</c15:sqref>
+                          <c15:sqref>'berlin network'!$A$90</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density 1.5 dijDiff threshold</c:v>
+                        <c:v>Least Density Exponential (LDE)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -29559,144 +29836,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$57:$C$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1200</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1500</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1700</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$G$57:$G$65</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>19.369471770074</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>17.701925426203399</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>17.600660408336999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>19.101204900933499</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25.131074631407301</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>86.521809806934996</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>190.027209733213</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>274.42270607838901</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>395.23546073006798</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-1437-4D4D-8D67-9420380C9DCC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$68</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Least Density 1.2 dijDiff threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -29709,13 +29849,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
+                        <a:schemeClr val="accent3">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -29725,10 +29865,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$68:$C$76</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$90:$C$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -29767,10 +29907,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$G$68:$G$76</c15:sqref>
+                          <c15:sqref>'berlin network'!$G$90:$G$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -29778,60 +29918,60 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>15.970671003552701</c:v>
+                        <c:v>13.312124549229001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>14.6111750539176</c:v>
+                        <c:v>13.4029239664654</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>15.0906806556373</c:v>
+                        <c:v>14.1400199245635</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>16.7741847392838</c:v>
+                        <c:v>14.6234694947003</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>25.9775869485259</c:v>
+                        <c:v>24.3319933785233</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>81.542563813287302</c:v>
+                        <c:v>63.045492450531199</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>233.74708388726501</c:v>
+                        <c:v>206.15858575261299</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>307.78347937374502</c:v>
+                        <c:v>281.10889136879501</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>422.376675740076</c:v>
+                        <c:v>427.46537427185302</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-1437-4D4D-8D67-9420380C9DCC}"/>
+                    <c16:uniqueId val="{00000001-5913-48AC-AD4B-756873CC51FB}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
+                <c:idx val="9"/>
+                <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$A$79</c15:sqref>
+                          <c15:sqref>'berlin network'!$A$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density 1.1 dijDiff threshold</c:v>
+                        <c:v>Least Density Exponential w/ Dijkstra (LDED)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -29839,7 +29979,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent4">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -29852,13 +29992,13 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent4">
                         <a:lumMod val="60000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
+                        <a:schemeClr val="accent4">
                           <a:lumMod val="60000"/>
                         </a:schemeClr>
                       </a:solidFill>
@@ -29868,10 +30008,10 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$C$79:$C$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$C$101:$C$109</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -29910,10 +30050,10 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'berlin network'!$G$79:$G$87</c15:sqref>
+                          <c15:sqref>'berlin network'!$G$101:$G$109</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -29921,39 +30061,39 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>13.722736164353901</c:v>
+                        <c:v>1.9719378615305201</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>12.880711234032299</c:v>
+                        <c:v>5.9523925592684499</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>12.793833467122401</c:v>
+                        <c:v>34.9896784491592</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>16.477053914808799</c:v>
+                        <c:v>62.071066871749998</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>28.892024722697599</c:v>
+                        <c:v>150.11694120840301</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>84.335548423240795</c:v>
+                        <c:v>238.89997982316501</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>231.030789960562</c:v>
+                        <c:v>466.23628832564498</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>300.21144369263402</c:v>
+                        <c:v>565.293638092582</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>390.85570152846901</c:v>
+                        <c:v>782.51109625626498</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5913-48AC-AD4B-756873CC51FB}"/>
+                    <c16:uniqueId val="{00000000-8770-4554-804E-536F9D93E866}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -30487,7 +30627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density</c:v>
+                  <c:v>Least Density (LD)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30604,7 +30744,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential</c:v>
+                  <c:v>Least Density Exponential (LDE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30727,7 +30867,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Least Density Exponential w/ Dijkstra</c:v>
+                  <c:v>Least Density Exponential w/ Dijkstra (LDED)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30991,7 +31131,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Least Density With Road Length</c:v>
+                        <c:v>Least Density With Road Length (LDRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -31128,7 +31268,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Greatest Speed with Road Length</c:v>
+                        <c:v>Greatest Speed with Road Length (GSRL)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -43902,7 +44042,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>186928</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -44021,8 +44161,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1073170</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>176214</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44480,1905 +44620,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Long Term DIJDIFF equation 1"/>
-      <sheetName val="Long Term DIJDIFF equation 2"/>
-      <sheetName val="Long Term DIJDIFF Equation 3"/>
-      <sheetName val="Long Term PROB Equation 1"/>
-      <sheetName val="Long Term PROB Equation 2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dijkstra</v>
-          </cell>
-          <cell r="C2">
-            <v>500</v>
-          </cell>
-          <cell r="E2">
-            <v>131.17514285714199</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>700</v>
-          </cell>
-          <cell r="E3">
-            <v>171.325612244898</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1000</v>
-          </cell>
-          <cell r="E4">
-            <v>248.05285714285699</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="K4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1200</v>
-          </cell>
-          <cell r="E5">
-            <v>283.935059523809</v>
-          </cell>
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1500</v>
-          </cell>
-          <cell r="E6">
-            <v>396.61138095238101</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1700</v>
-          </cell>
-          <cell r="E7">
-            <v>504.92016806722597</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-          <cell r="K7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2000</v>
-          </cell>
-          <cell r="E8">
-            <v>732.63967857142802</v>
-          </cell>
-          <cell r="J8">
-            <v>1</v>
-          </cell>
-          <cell r="K8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>2200</v>
-          </cell>
-          <cell r="E9">
-            <v>848.42863636363597</v>
-          </cell>
-          <cell r="J9">
-            <v>1</v>
-          </cell>
-          <cell r="K9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>2500</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Least Density</v>
-          </cell>
-          <cell r="C13">
-            <v>500</v>
-          </cell>
-          <cell r="E13">
-            <v>157.050428571428</v>
-          </cell>
-          <cell r="J13">
-            <v>1.2090614410192</v>
-          </cell>
-          <cell r="K13">
-            <v>1.7051022374633644</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>700</v>
-          </cell>
-          <cell r="E14">
-            <v>150.44693877551001</v>
-          </cell>
-          <cell r="J14">
-            <v>1.1769091078431715</v>
-          </cell>
-          <cell r="K14">
-            <v>1.5975964539216072</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1000</v>
-          </cell>
-          <cell r="E15">
-            <v>155.448428571428</v>
-          </cell>
-          <cell r="J15">
-            <v>1.1665666842331142</v>
-          </cell>
-          <cell r="K15">
-            <v>1.5507242372768928</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>1200</v>
-          </cell>
-          <cell r="E16">
-            <v>159.04458333333301</v>
-          </cell>
-          <cell r="J16">
-            <v>1.1717332356871428</v>
-          </cell>
-          <cell r="K16">
-            <v>1.5586748841978142</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>1500</v>
-          </cell>
-          <cell r="E17">
-            <v>185.93152380952299</v>
-          </cell>
-          <cell r="J17">
-            <v>1.1731562483276572</v>
-          </cell>
-          <cell r="K17">
-            <v>1.5716109111555643</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>1700</v>
-          </cell>
-          <cell r="E18">
-            <v>222.15705882352901</v>
-          </cell>
-          <cell r="J18">
-            <v>1.1724757152287213</v>
-          </cell>
-          <cell r="K18">
-            <v>1.5753695279817428</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>2000</v>
-          </cell>
-          <cell r="E19">
-            <v>364.42824999999999</v>
-          </cell>
-          <cell r="J19">
-            <v>1.1601522923399143</v>
-          </cell>
-          <cell r="K19">
-            <v>1.5620652931024286</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>2200</v>
-          </cell>
-          <cell r="E20">
-            <v>501.567207792207</v>
-          </cell>
-          <cell r="J20">
-            <v>1.1415937041513</v>
-          </cell>
-          <cell r="K20">
-            <v>1.5185999297807642</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>2500</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Least Density w/ Road Length</v>
-          </cell>
-          <cell r="C24">
-            <v>500</v>
-          </cell>
-          <cell r="E24">
-            <v>147.21785714285701</v>
-          </cell>
-          <cell r="J24">
-            <v>1.1313605897368142</v>
-          </cell>
-          <cell r="K24">
-            <v>1.4868045424551073</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>700</v>
-          </cell>
-          <cell r="E25">
-            <v>145.75214285714199</v>
-          </cell>
-          <cell r="J25">
-            <v>1.1357078207519</v>
-          </cell>
-          <cell r="K25">
-            <v>1.5046671002278216</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>1000</v>
-          </cell>
-          <cell r="E26">
-            <v>164.88471428571401</v>
-          </cell>
-          <cell r="J26">
-            <v>1.1150178440634213</v>
-          </cell>
-          <cell r="K26">
-            <v>1.4303617527877286</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>1200</v>
-          </cell>
-          <cell r="E27">
-            <v>193.56607142857101</v>
-          </cell>
-          <cell r="J27">
-            <v>1.1087283870765285</v>
-          </cell>
-          <cell r="K27">
-            <v>1.4490514478995</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>1500</v>
-          </cell>
-          <cell r="E28">
-            <v>255.87680952380899</v>
-          </cell>
-          <cell r="J28">
-            <v>1.1071390003855857</v>
-          </cell>
-          <cell r="K28">
-            <v>1.4254885715625356</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>1700</v>
-          </cell>
-          <cell r="E29">
-            <v>353.84201680672197</v>
-          </cell>
-          <cell r="J29">
-            <v>1.1023804733481</v>
-          </cell>
-          <cell r="K29">
-            <v>1.4378242761189284</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>2000</v>
-          </cell>
-          <cell r="E30">
-            <v>527.87032142857095</v>
-          </cell>
-          <cell r="J30">
-            <v>1.0783475390855144</v>
-          </cell>
-          <cell r="K30">
-            <v>1.3916716400808071</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>2200</v>
-          </cell>
-          <cell r="E31">
-            <v>654.02435064935003</v>
-          </cell>
-          <cell r="J31">
-            <v>1.0755511490184213</v>
-          </cell>
-          <cell r="K31">
-            <v>1.38557447192065</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>2500</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Least Density Exponential</v>
-          </cell>
-          <cell r="C35">
-            <v>500</v>
-          </cell>
-          <cell r="E35">
-            <v>146.63371428571401</v>
-          </cell>
-          <cell r="J35">
-            <v>1.1295470338992786</v>
-          </cell>
-          <cell r="K35">
-            <v>1.5353384713728713</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>700</v>
-          </cell>
-          <cell r="E36">
-            <v>143.35591836734599</v>
-          </cell>
-          <cell r="J36">
-            <v>1.1294120753865287</v>
-          </cell>
-          <cell r="K36">
-            <v>1.53753452437115</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>1000</v>
-          </cell>
-          <cell r="E37">
-            <v>148.38757142857099</v>
-          </cell>
-          <cell r="J37">
-            <v>1.1292348321956929</v>
-          </cell>
-          <cell r="K37">
-            <v>1.4990959861417501</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>1200</v>
-          </cell>
-          <cell r="E38">
-            <v>150.07994047618999</v>
-          </cell>
-          <cell r="J38">
-            <v>1.1317586514852214</v>
-          </cell>
-          <cell r="K38">
-            <v>1.501873803292757</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>1500</v>
-          </cell>
-          <cell r="E39">
-            <v>176.05290476190399</v>
-          </cell>
-          <cell r="J39">
-            <v>1.1324711303888786</v>
-          </cell>
-          <cell r="K39">
-            <v>1.5056496134941999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>1700</v>
-          </cell>
-          <cell r="E40">
-            <v>218.246512605042</v>
-          </cell>
-          <cell r="J40">
-            <v>1.1353164403260643</v>
-          </cell>
-          <cell r="K40">
-            <v>1.5109481331526429</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>2000</v>
-          </cell>
-          <cell r="E41">
-            <v>401.050821428571</v>
-          </cell>
-          <cell r="J41">
-            <v>1.1281060818632784</v>
-          </cell>
-          <cell r="K41">
-            <v>1.5012261629110644</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>2200</v>
-          </cell>
-          <cell r="E42">
-            <v>526.05620129870101</v>
-          </cell>
-          <cell r="J42">
-            <v>1.1136850055105285</v>
-          </cell>
-          <cell r="K42">
-            <v>1.4945594402070927</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>2500</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Least Density Exponential w/ Dijkstra</v>
-          </cell>
-          <cell r="C46">
-            <v>500</v>
-          </cell>
-          <cell r="E46">
-            <v>129.816857142857</v>
-          </cell>
-          <cell r="J46">
-            <v>1.0020827111481858</v>
-          </cell>
-          <cell r="K46">
-            <v>1.0204346278099214</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>700</v>
-          </cell>
-          <cell r="E47">
-            <v>131.850408163265</v>
-          </cell>
-          <cell r="J47">
-            <v>1.0075693229322857</v>
-          </cell>
-          <cell r="K47">
-            <v>1.0710883056168001</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>1000</v>
-          </cell>
-          <cell r="E48">
-            <v>183.664428571428</v>
-          </cell>
-          <cell r="J48">
-            <v>1.0073453663128284</v>
-          </cell>
-          <cell r="K48">
-            <v>1.0676031078067143</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>1200</v>
-          </cell>
-          <cell r="E49">
-            <v>207.06714285714199</v>
-          </cell>
-          <cell r="J49">
-            <v>1.0076021580980856</v>
-          </cell>
-          <cell r="K49">
-            <v>1.0681674781636785</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>1500</v>
-          </cell>
-          <cell r="E50">
-            <v>302.08657142857101</v>
-          </cell>
-          <cell r="J50">
-            <v>1.0098596131537214</v>
-          </cell>
-          <cell r="K50">
-            <v>1.0861488476620214</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>1700</v>
-          </cell>
-          <cell r="E51">
-            <v>397.927731092437</v>
-          </cell>
-          <cell r="J51">
-            <v>1.0102769961358213</v>
-          </cell>
-          <cell r="K51">
-            <v>1.0903692580666999</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>2000</v>
-          </cell>
-          <cell r="E52">
-            <v>559.69521428571397</v>
-          </cell>
-          <cell r="J52">
-            <v>1.0125397993166143</v>
-          </cell>
-          <cell r="K52">
-            <v>1.1054955590244786</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>2200</v>
-          </cell>
-          <cell r="E53">
-            <v>774.63</v>
-          </cell>
-          <cell r="J53">
-            <v>1.0104348712110143</v>
-          </cell>
-          <cell r="K53">
-            <v>1.0904366031044144</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>2500</v>
-          </cell>
-          <cell r="E54">
-            <v>995.60605714285703</v>
-          </cell>
-          <cell r="J54">
-            <v>1.0122323743127644</v>
-          </cell>
-          <cell r="K54">
-            <v>1.1093005093924715</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dijkstra</v>
-          </cell>
-          <cell r="C2">
-            <v>500</v>
-          </cell>
-          <cell r="E2">
-            <v>131.17514285714199</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>700</v>
-          </cell>
-          <cell r="E3">
-            <v>171.325612244898</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1000</v>
-          </cell>
-          <cell r="E4">
-            <v>248.05285714285699</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="K4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1200</v>
-          </cell>
-          <cell r="E5">
-            <v>283.935059523809</v>
-          </cell>
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1500</v>
-          </cell>
-          <cell r="E6">
-            <v>396.61138095238101</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1700</v>
-          </cell>
-          <cell r="E7">
-            <v>504.92016806722597</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-          <cell r="K7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2000</v>
-          </cell>
-          <cell r="E8">
-            <v>732.63967857142802</v>
-          </cell>
-          <cell r="J8">
-            <v>1</v>
-          </cell>
-          <cell r="K8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>2200</v>
-          </cell>
-          <cell r="E9">
-            <v>848.42863636363597</v>
-          </cell>
-          <cell r="J9">
-            <v>1</v>
-          </cell>
-          <cell r="K9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>2500</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Least Density</v>
-          </cell>
-          <cell r="C13">
-            <v>500</v>
-          </cell>
-          <cell r="E13">
-            <v>150.40785714285701</v>
-          </cell>
-          <cell r="J13">
-            <v>1.158040360953557</v>
-          </cell>
-          <cell r="K13">
-            <v>1.5520958482098215</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>700</v>
-          </cell>
-          <cell r="E14">
-            <v>146.527142857142</v>
-          </cell>
-          <cell r="J14">
-            <v>1.1416954608265786</v>
-          </cell>
-          <cell r="K14">
-            <v>1.486206648354693</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1000</v>
-          </cell>
-          <cell r="E15">
-            <v>149.72985714285701</v>
-          </cell>
-          <cell r="J15">
-            <v>1.1336262837021642</v>
-          </cell>
-          <cell r="K15">
-            <v>1.4285752547513428</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>1200</v>
-          </cell>
-          <cell r="E16">
-            <v>151.01279761904701</v>
-          </cell>
-          <cell r="J16">
-            <v>1.1331839460571143</v>
-          </cell>
-          <cell r="K16">
-            <v>1.4452331128125073</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>1500</v>
-          </cell>
-          <cell r="E17">
-            <v>184.28066666666601</v>
-          </cell>
-          <cell r="J17">
-            <v>1.137162058455</v>
-          </cell>
-          <cell r="K17">
-            <v>1.447656861866393</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>1700</v>
-          </cell>
-          <cell r="E18">
-            <v>253.49445378151199</v>
-          </cell>
-          <cell r="J18">
-            <v>1.1353845824443358</v>
-          </cell>
-          <cell r="K18">
-            <v>1.4573624802983287</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>2000</v>
-          </cell>
-          <cell r="E19">
-            <v>394.58860714285697</v>
-          </cell>
-          <cell r="J19">
-            <v>1.1239441451804999</v>
-          </cell>
-          <cell r="K19">
-            <v>1.4389650097081643</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>2200</v>
-          </cell>
-          <cell r="E20">
-            <v>560.31840909090897</v>
-          </cell>
-          <cell r="J20">
-            <v>1.1100752813643857</v>
-          </cell>
-          <cell r="K20">
-            <v>1.4126230343449642</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>2500</v>
-          </cell>
-          <cell r="J21" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="K21" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Least Density w/ Road Length</v>
-          </cell>
-          <cell r="C24">
-            <v>500</v>
-          </cell>
-          <cell r="E24">
-            <v>145.581285714285</v>
-          </cell>
-          <cell r="J24">
-            <v>1.1152244331529857</v>
-          </cell>
-          <cell r="K24">
-            <v>1.3954343083235643</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>700</v>
-          </cell>
-          <cell r="E25">
-            <v>143.93489795918299</v>
-          </cell>
-          <cell r="J25">
-            <v>1.1112746739776571</v>
-          </cell>
-          <cell r="K25">
-            <v>1.4012496820263785</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>1000</v>
-          </cell>
-          <cell r="E26">
-            <v>161.51078571428499</v>
-          </cell>
-          <cell r="J26">
-            <v>1.0986407307426429</v>
-          </cell>
-          <cell r="K26">
-            <v>1.3718674387663214</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>1200</v>
-          </cell>
-          <cell r="E27">
-            <v>177.999345238095</v>
-          </cell>
-          <cell r="J27">
-            <v>1.0989414622490357</v>
-          </cell>
-          <cell r="K27">
-            <v>1.3864035726759287</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>1500</v>
-          </cell>
-          <cell r="E28">
-            <v>246.01876190476099</v>
-          </cell>
-          <cell r="J28">
-            <v>1.0969394612585928</v>
-          </cell>
-          <cell r="K28">
-            <v>1.370780874048507</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>1700</v>
-          </cell>
-          <cell r="E29">
-            <v>343.229369747899</v>
-          </cell>
-          <cell r="J29">
-            <v>1.0937492493972356</v>
-          </cell>
-          <cell r="K29">
-            <v>1.3733039075001785</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>2000</v>
-          </cell>
-          <cell r="E30">
-            <v>508.39007142857099</v>
-          </cell>
-          <cell r="J30">
-            <v>1.0726470038186287</v>
-          </cell>
-          <cell r="K30">
-            <v>1.3311629683686215</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>2200</v>
-          </cell>
-          <cell r="E31">
-            <v>630.42931818181796</v>
-          </cell>
-          <cell r="J31">
-            <v>1.0699839512425287</v>
-          </cell>
-          <cell r="K31">
-            <v>1.3245341443207501</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>2500</v>
-          </cell>
-          <cell r="J32" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="K32" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Least Density Exponential</v>
-          </cell>
-          <cell r="C35">
-            <v>500</v>
-          </cell>
-          <cell r="E35">
-            <v>142.96899999999999</v>
-          </cell>
-          <cell r="J35">
-            <v>1.1069004681818428</v>
-          </cell>
-          <cell r="K35">
-            <v>1.4299281492193356</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>700</v>
-          </cell>
-          <cell r="E36">
-            <v>140.66938775510201</v>
-          </cell>
-          <cell r="J36">
-            <v>1.1086774861128144</v>
-          </cell>
-          <cell r="K36">
-            <v>1.4483097507430571</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>1000</v>
-          </cell>
-          <cell r="E37">
-            <v>142.26242857142799</v>
-          </cell>
-          <cell r="J37">
-            <v>1.100760953808043</v>
-          </cell>
-          <cell r="K37">
-            <v>1.3920119369395785</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>1200</v>
-          </cell>
-          <cell r="E38">
-            <v>143.73083333333301</v>
-          </cell>
-          <cell r="J38">
-            <v>1.1006074553890857</v>
-          </cell>
-          <cell r="K38">
-            <v>1.3904171877591143</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>1500</v>
-          </cell>
-          <cell r="E39">
-            <v>172.19471428571401</v>
-          </cell>
-          <cell r="J39">
-            <v>1.1089188000319428</v>
-          </cell>
-          <cell r="K39">
-            <v>1.4167660546422787</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>1700</v>
-          </cell>
-          <cell r="E40">
-            <v>233.87424369747799</v>
-          </cell>
-          <cell r="J40">
-            <v>1.1126101737866929</v>
-          </cell>
-          <cell r="K40">
-            <v>1.4208471943096999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>2000</v>
-          </cell>
-          <cell r="E41">
-            <v>431.69014285714201</v>
-          </cell>
-          <cell r="J41">
-            <v>1.0987085667974643</v>
-          </cell>
-          <cell r="K41">
-            <v>1.3920433607327001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>2200</v>
-          </cell>
-          <cell r="E42">
-            <v>586.81347402597396</v>
-          </cell>
-          <cell r="J42">
-            <v>1.0838555563386214</v>
-          </cell>
-          <cell r="K42">
-            <v>1.3641003174049502</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>2500</v>
-          </cell>
-          <cell r="J43" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="K43" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Least Density Exponential w/ Dijkstra</v>
-          </cell>
-          <cell r="C46">
-            <v>500</v>
-          </cell>
-          <cell r="E46">
-            <v>129.816857142857</v>
-          </cell>
-          <cell r="J46">
-            <v>1.0020827111481858</v>
-          </cell>
-          <cell r="K46">
-            <v>1.0204346278099214</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>700</v>
-          </cell>
-          <cell r="E47">
-            <v>131.850408163265</v>
-          </cell>
-          <cell r="J47">
-            <v>1.0075693229322857</v>
-          </cell>
-          <cell r="K47">
-            <v>1.0710883056168001</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>1000</v>
-          </cell>
-          <cell r="E48">
-            <v>183.66799999999901</v>
-          </cell>
-          <cell r="J48">
-            <v>1.0073453663128284</v>
-          </cell>
-          <cell r="K48">
-            <v>1.0676031078067143</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>1200</v>
-          </cell>
-          <cell r="E49">
-            <v>206.85333333333301</v>
-          </cell>
-          <cell r="J49">
-            <v>1.0075547441138144</v>
-          </cell>
-          <cell r="K49">
-            <v>1.0679396584604357</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>1500</v>
-          </cell>
-          <cell r="E50">
-            <v>303.35947619047602</v>
-          </cell>
-          <cell r="J50">
-            <v>1.0095824378691929</v>
-          </cell>
-          <cell r="K50">
-            <v>1.0833800126505357</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>1700</v>
-          </cell>
-          <cell r="E51">
-            <v>393.43294117647002</v>
-          </cell>
-          <cell r="J51">
-            <v>1.0099981258910786</v>
-          </cell>
-          <cell r="K51">
-            <v>1.0877618098627571</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>2000</v>
-          </cell>
-          <cell r="E52">
-            <v>561.60825</v>
-          </cell>
-          <cell r="J52">
-            <v>1.0123293500457644</v>
-          </cell>
-          <cell r="K52">
-            <v>1.1026415212388643</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>2200</v>
-          </cell>
-          <cell r="E53">
-            <v>782.54097402597404</v>
-          </cell>
-          <cell r="J53">
-            <v>1.0102614056036929</v>
-          </cell>
-          <cell r="K53">
-            <v>1.08876849500535</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>2500</v>
-          </cell>
-          <cell r="J54" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dijkstra</v>
-          </cell>
-          <cell r="C2">
-            <v>500</v>
-          </cell>
-          <cell r="E2">
-            <v>131.17514285714199</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>700</v>
-          </cell>
-          <cell r="E3">
-            <v>171.325612244898</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1000</v>
-          </cell>
-          <cell r="E4">
-            <v>248.05285714285699</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="K4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1200</v>
-          </cell>
-          <cell r="E5">
-            <v>283.935059523809</v>
-          </cell>
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1500</v>
-          </cell>
-          <cell r="E6">
-            <v>396.61138095238101</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1700</v>
-          </cell>
-          <cell r="E7">
-            <v>504.92016806722597</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-          <cell r="K7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2000</v>
-          </cell>
-          <cell r="E8">
-            <v>732.63967857142802</v>
-          </cell>
-          <cell r="J8">
-            <v>1</v>
-          </cell>
-          <cell r="K8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>2200</v>
-          </cell>
-          <cell r="E9">
-            <v>848.42863636363597</v>
-          </cell>
-          <cell r="J9">
-            <v>1</v>
-          </cell>
-          <cell r="K9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>2500</v>
-          </cell>
-          <cell r="E10">
-            <v>1021.27537142857</v>
-          </cell>
-          <cell r="J10">
-            <v>1</v>
-          </cell>
-          <cell r="K10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Least Density</v>
-          </cell>
-          <cell r="C13">
-            <v>500</v>
-          </cell>
-          <cell r="E13">
-            <v>144.10499999999999</v>
-          </cell>
-          <cell r="J13">
-            <v>1.1239230877234072</v>
-          </cell>
-          <cell r="K13">
-            <v>1.4721070273150716</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>700</v>
-          </cell>
-          <cell r="E14">
-            <v>140.30887755102</v>
-          </cell>
-          <cell r="J14">
-            <v>1.1121680401703786</v>
-          </cell>
-          <cell r="K14">
-            <v>1.4350840637631141</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1000</v>
-          </cell>
-          <cell r="E15">
-            <v>143.17842857142799</v>
-          </cell>
-          <cell r="J15">
-            <v>1.1069231734084286</v>
-          </cell>
-          <cell r="K15">
-            <v>1.4071492005376498</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>1200</v>
-          </cell>
-          <cell r="E16">
-            <v>148.57517857142801</v>
-          </cell>
-          <cell r="J16">
-            <v>1.1044342572123571</v>
-          </cell>
-          <cell r="K16">
-            <v>1.4001799975536215</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>1500</v>
-          </cell>
-          <cell r="E17">
-            <v>178.37804761904701</v>
-          </cell>
-          <cell r="J17">
-            <v>1.1098213731443214</v>
-          </cell>
-          <cell r="K17">
-            <v>1.4032709280886144</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>1700</v>
-          </cell>
-          <cell r="E18">
-            <v>263.84823529411699</v>
-          </cell>
-          <cell r="J18">
-            <v>1.1061112678672858</v>
-          </cell>
-          <cell r="K18">
-            <v>1.4212191779023</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>2000</v>
-          </cell>
-          <cell r="E19">
-            <v>418.12407142857103</v>
-          </cell>
-          <cell r="J19">
-            <v>1.10165976423675</v>
-          </cell>
-          <cell r="K19">
-            <v>1.4121294653599856</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>2200</v>
-          </cell>
-          <cell r="E20">
-            <v>565.44581168831098</v>
-          </cell>
-          <cell r="J20">
-            <v>1.0865851355394858</v>
-          </cell>
-          <cell r="K20">
-            <v>1.3808257163376214</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>2500</v>
-          </cell>
-          <cell r="E21">
-            <v>635.21339999999896</v>
-          </cell>
-          <cell r="J21">
-            <v>1.1649218422088428</v>
-          </cell>
-          <cell r="K21">
-            <v>1.9809772493142002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Least Density w/ Road Length</v>
-          </cell>
-          <cell r="C24">
-            <v>500</v>
-          </cell>
-          <cell r="E24">
-            <v>142.62199999999899</v>
-          </cell>
-          <cell r="J24">
-            <v>1.1011876219588144</v>
-          </cell>
-          <cell r="K24">
-            <v>1.4180661263250143</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>700</v>
-          </cell>
-          <cell r="E25">
-            <v>140.64540816326499</v>
-          </cell>
-          <cell r="J25">
-            <v>1.0941165395757499</v>
-          </cell>
-          <cell r="K25">
-            <v>1.4034770634745644</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>1000</v>
-          </cell>
-          <cell r="E26">
-            <v>159.4315</v>
-          </cell>
-          <cell r="J26">
-            <v>1.0830587238612714</v>
-          </cell>
-          <cell r="K26">
-            <v>1.3334210362113286</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>1200</v>
-          </cell>
-          <cell r="E27">
-            <v>173.82434523809499</v>
-          </cell>
-          <cell r="J27">
-            <v>1.0825396164949714</v>
-          </cell>
-          <cell r="K27">
-            <v>1.3685694152993213</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>1500</v>
-          </cell>
-          <cell r="E28">
-            <v>248.44980952380899</v>
-          </cell>
-          <cell r="J28">
-            <v>1.0815777714158357</v>
-          </cell>
-          <cell r="K28">
-            <v>1.350317045697343</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>1700</v>
-          </cell>
-          <cell r="E29">
-            <v>356.018151260504</v>
-          </cell>
-          <cell r="J29">
-            <v>1.0791481061371</v>
-          </cell>
-          <cell r="K29">
-            <v>1.3383827966901285</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>2000</v>
-          </cell>
-          <cell r="E30">
-            <v>534.16321428571405</v>
-          </cell>
-          <cell r="J30">
-            <v>1.0631151577973357</v>
-          </cell>
-          <cell r="K30">
-            <v>1.303388133043643</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>2200</v>
-          </cell>
-          <cell r="E31">
-            <v>654.26698051947994</v>
-          </cell>
-          <cell r="J31">
-            <v>1.0626644149462714</v>
-          </cell>
-          <cell r="K31">
-            <v>1.3065139367194285</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>2500</v>
-          </cell>
-          <cell r="E32">
-            <v>837.52962857142802</v>
-          </cell>
-          <cell r="J32">
-            <v>1.0493003408774499</v>
-          </cell>
-          <cell r="K32">
-            <v>1.2609200961200571</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Least Density Exponential</v>
-          </cell>
-          <cell r="C35">
-            <v>500</v>
-          </cell>
-          <cell r="E35">
-            <v>133.97900000000001</v>
-          </cell>
-          <cell r="J35">
-            <v>1.0741837656873356</v>
-          </cell>
-          <cell r="K35">
-            <v>1.3701932789592284</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>700</v>
-          </cell>
-          <cell r="E36">
-            <v>133.98795918367301</v>
-          </cell>
-          <cell r="J36">
-            <v>1.0849653813583</v>
-          </cell>
-          <cell r="K36">
-            <v>1.3955099195829213</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>1000</v>
-          </cell>
-          <cell r="E37">
-            <v>136.01207142857101</v>
-          </cell>
-          <cell r="J37">
-            <v>1.0842585134949501</v>
-          </cell>
-          <cell r="K37">
-            <v>1.3798021200019857</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>1200</v>
-          </cell>
-          <cell r="E38">
-            <v>139.15410714285699</v>
-          </cell>
-          <cell r="J38">
-            <v>1.0851850132581713</v>
-          </cell>
-          <cell r="K38">
-            <v>1.3905514709151359</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>1500</v>
-          </cell>
-          <cell r="E39">
-            <v>167.61671428571401</v>
-          </cell>
-          <cell r="J39">
-            <v>1.0890086687673144</v>
-          </cell>
-          <cell r="K39">
-            <v>1.3963030594900356</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>1700</v>
-          </cell>
-          <cell r="E40">
-            <v>246.23407563025199</v>
-          </cell>
-          <cell r="J40">
-            <v>1.08830686234925</v>
-          </cell>
-          <cell r="K40">
-            <v>1.373300035935493</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>2000</v>
-          </cell>
-          <cell r="E41">
-            <v>437.798</v>
-          </cell>
-          <cell r="J41">
-            <v>1.0747771846158358</v>
-          </cell>
-          <cell r="K41">
-            <v>1.3489992559322859</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>2200</v>
-          </cell>
-          <cell r="E42">
-            <v>583.25029220779197</v>
-          </cell>
-          <cell r="J42">
-            <v>1.0645589059925142</v>
-          </cell>
-          <cell r="K42">
-            <v>1.3173493004173358</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>2500</v>
-          </cell>
-          <cell r="E43">
-            <v>755.84505714285694</v>
-          </cell>
-          <cell r="J43">
-            <v>1.0668693878989786</v>
-          </cell>
-          <cell r="K43">
-            <v>1.3207132246739357</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Least Density Exponential w/ Dijkstra</v>
-          </cell>
-          <cell r="C46">
-            <v>500</v>
-          </cell>
-          <cell r="E46">
-            <v>129.816857142857</v>
-          </cell>
-          <cell r="J46">
-            <v>1.0020827111481858</v>
-          </cell>
-          <cell r="K46">
-            <v>1.0204346278099214</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>700</v>
-          </cell>
-          <cell r="E47">
-            <v>131.89520408163199</v>
-          </cell>
-          <cell r="J47">
-            <v>1.0075660449883073</v>
-          </cell>
-          <cell r="K47">
-            <v>1.0707639809875071</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>1000</v>
-          </cell>
-          <cell r="E48">
-            <v>179.45771428571399</v>
-          </cell>
-          <cell r="J48">
-            <v>1.0071880154953357</v>
-          </cell>
-          <cell r="K48">
-            <v>1.0659676431079714</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>1200</v>
-          </cell>
-          <cell r="E49">
-            <v>204.75416666666601</v>
-          </cell>
-          <cell r="J49">
-            <v>1.0081162611338643</v>
-          </cell>
-          <cell r="K49">
-            <v>1.0725824849398287</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>1500</v>
-          </cell>
-          <cell r="E50">
-            <v>303.91423809523798</v>
-          </cell>
-          <cell r="J50">
-            <v>1.0094496048467143</v>
-          </cell>
-          <cell r="K50">
-            <v>1.0822700345989715</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>1700</v>
-          </cell>
-          <cell r="E51">
-            <v>392.60264705882298</v>
-          </cell>
-          <cell r="J51">
-            <v>1.0099278265867571</v>
-          </cell>
-          <cell r="K51">
-            <v>1.0868091806547642</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>2000</v>
-          </cell>
-          <cell r="E52">
-            <v>557.92089285714201</v>
-          </cell>
-          <cell r="J52">
-            <v>1.0104127133372713</v>
-          </cell>
-          <cell r="K52">
-            <v>1.0849690690085572</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>2200</v>
-          </cell>
-          <cell r="E53">
-            <v>811.67714285714203</v>
-          </cell>
-          <cell r="J53">
-            <v>1.0091303212184142</v>
-          </cell>
-          <cell r="K53">
-            <v>1.0800324667113714</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>2500</v>
-          </cell>
-          <cell r="E54">
-            <v>981.75019999999904</v>
-          </cell>
-          <cell r="J54">
-            <v>1.0105797688755214</v>
-          </cell>
-          <cell r="K54">
-            <v>1.0916352226140356</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -46678,7 +44919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AA1FA4-BD06-4B13-A159-BE84A754067C}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -47656,13 +45897,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4999D6-517F-4343-8429-347E88848D05}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="B134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O162" sqref="O162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
@@ -48093,7 +46334,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <f>B2</f>
@@ -48130,7 +46371,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:C21" si="2">B3</f>
@@ -48167,7 +46408,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="2"/>
@@ -48204,7 +46445,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="2"/>
@@ -48241,7 +46482,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="2"/>
@@ -48278,7 +46519,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="2"/>
@@ -48315,7 +46556,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="2"/>
@@ -48352,7 +46593,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="2"/>
@@ -48389,7 +46630,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="2"/>
@@ -48720,7 +46961,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>2500</v>
@@ -48756,7 +46997,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>3750</v>
@@ -48792,7 +47033,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>5000</v>
@@ -48828,7 +47069,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>6250</v>
@@ -48864,7 +47105,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>7500</v>
@@ -48900,7 +47141,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>8750</v>
@@ -48936,7 +47177,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>10000</v>
@@ -48972,7 +47213,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>11250</v>
@@ -49008,7 +47249,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>12500</v>
@@ -49090,7 +47331,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>2500</v>
@@ -49126,7 +47367,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>3750</v>
@@ -49162,7 +47403,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>5000</v>
@@ -49198,7 +47439,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>6250</v>
@@ -49234,7 +47475,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>7500</v>
@@ -49270,7 +47511,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>8750</v>
@@ -49306,7 +47547,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>10000</v>
@@ -49342,7 +47583,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>11250</v>
@@ -49378,7 +47619,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>12500</v>
@@ -49460,7 +47701,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>2500</v>
@@ -49496,7 +47737,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>3750</v>
@@ -49532,7 +47773,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59">
         <v>5000</v>
@@ -49568,7 +47809,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>6250</v>
@@ -49604,7 +47845,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>7500</v>
@@ -49640,7 +47881,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>8750</v>
@@ -49676,7 +47917,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>10000</v>
@@ -49712,7 +47953,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>11250</v>
@@ -49748,7 +47989,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>12500</v>
@@ -49830,7 +48071,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B68">
         <v>2500</v>
@@ -49866,7 +48107,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B69">
         <v>3750</v>
@@ -49902,7 +48143,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B70">
         <v>5000</v>
@@ -49938,7 +48179,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B71">
         <v>6250</v>
@@ -49974,7 +48215,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B72">
         <v>7500</v>
@@ -50010,7 +48251,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B73">
         <v>8750</v>
@@ -50046,7 +48287,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B74">
         <v>10000</v>
@@ -50082,7 +48323,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B75">
         <v>11250</v>
@@ -50118,7 +48359,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B76">
         <v>12500</v>
@@ -50200,7 +48441,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79">
         <v>2500</v>
@@ -50236,7 +48477,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80">
         <v>3750</v>
@@ -50272,7 +48513,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B81">
         <v>5000</v>
@@ -50308,7 +48549,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B82">
         <v>6250</v>
@@ -50344,7 +48585,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83">
         <v>7500</v>
@@ -50380,7 +48621,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B84">
         <v>8750</v>
@@ -50416,7 +48657,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B85">
         <v>10000</v>
@@ -50452,7 +48693,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B86">
         <v>11250</v>
@@ -50488,7 +48729,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B87">
         <v>12500</v>
@@ -50570,7 +48811,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B90">
         <v>2500</v>
@@ -50606,7 +48847,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B91">
         <v>3750</v>
@@ -50642,7 +48883,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B92">
         <v>5000</v>
@@ -50678,7 +48919,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B93">
         <v>6250</v>
@@ -50714,7 +48955,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B94">
         <v>7500</v>
@@ -50750,7 +48991,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B95">
         <v>8750</v>
@@ -50786,7 +49027,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B96">
         <v>10000</v>
@@ -50822,7 +49063,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B97">
         <v>11250</v>
@@ -50858,7 +49099,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B98">
         <v>12500</v>
@@ -50940,7 +49181,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B101">
         <v>2500</v>
@@ -50976,7 +49217,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B102">
         <v>3750</v>
@@ -51012,7 +49253,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B103">
         <v>5000</v>
@@ -51048,7 +49289,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B104">
         <v>6250</v>
@@ -51084,7 +49325,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B105">
         <v>7500</v>
@@ -51120,7 +49361,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B106">
         <v>8750</v>
@@ -51156,7 +49397,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B107">
         <v>10000</v>
@@ -51192,7 +49433,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B108">
         <v>11250</v>
@@ -51228,7 +49469,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B109">
         <v>12500</v>
@@ -51272,7 +49513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50B34B4-084F-4934-B405-A3E078D07E48}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
@@ -55478,8 +53719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E2C11F-CA57-4EBD-8C9F-D11423BEE4D9}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55526,7 +53767,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>2500</v>
@@ -55562,7 +53803,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>3750</v>
@@ -55598,7 +53839,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>5000</v>
@@ -55634,7 +53875,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>6250</v>
@@ -55670,7 +53911,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>7500</v>
@@ -55706,7 +53947,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>8750</v>
@@ -55742,7 +53983,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
@@ -55778,7 +54019,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>11250</v>
@@ -55814,7 +54055,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>12500</v>
@@ -55885,7 +54126,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2500</v>
@@ -55921,7 +54162,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>3750</v>
@@ -55957,7 +54198,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>5000</v>
@@ -55993,7 +54234,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>6250</v>
@@ -56029,7 +54270,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>7500</v>
@@ -56065,7 +54306,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>8750</v>
@@ -56101,7 +54342,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>10000</v>
@@ -56137,7 +54378,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>11250</v>
@@ -56173,7 +54414,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>12500</v>
@@ -56244,7 +54485,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2500</v>
@@ -56280,7 +54521,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>3750</v>
@@ -56316,7 +54557,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>5000</v>
@@ -56352,7 +54593,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>6250</v>
@@ -56388,7 +54629,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>7500</v>
@@ -56424,7 +54665,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>8750</v>
@@ -56460,7 +54701,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>10000</v>
@@ -56496,7 +54737,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>11250</v>
@@ -56532,7 +54773,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12500</v>
@@ -56579,7 +54820,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>2500</v>
@@ -56615,7 +54856,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>3750</v>
@@ -56651,7 +54892,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>5000</v>
@@ -56687,7 +54928,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>6250</v>
@@ -56723,7 +54964,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>7500</v>
@@ -56759,7 +55000,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>8750</v>
@@ -56795,7 +55036,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1">
         <v>10000</v>
@@ -56831,7 +55072,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1">
         <v>11250</v>
@@ -56867,7 +55108,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1">
         <v>12500</v>
